--- a/generated_files/gsa_results/Sobol_indices.xlsx
+++ b/generated_files/gsa_results/Sobol_indices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CGE FIRST" sheetId="1" r:id="rId1"/>
@@ -138,14 +138,14 @@
     <t>specific_electricity_stimulation</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,18 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,65 +517,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="B19:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1530,76 +1529,77 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <f>SUM(C2:C18)</f>
         <v>0.95258425477474828</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <f t="shared" ref="D19:R19" si="0">SUM(D2:D18)</f>
         <v>0.98156011508978103</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0.96801649965700531</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>0.98093070075134681</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>0.96262763206965796</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>0.96120464941547046</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0.98452801677593094</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>0.96614765207161624</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <f t="shared" si="0"/>
         <v>0.97555999164546559</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>0.98217263406232647</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="2">
         <f t="shared" si="0"/>
         <v>0.95720162975131973</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="2">
         <f t="shared" si="0"/>
         <v>0.95724811823681233</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <f t="shared" si="0"/>
         <v>1.0071781221162357</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <f t="shared" si="0"/>
         <v>0.98002385722324048</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="2">
         <f t="shared" si="0"/>
         <v>0.97433712629717306</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="2">
         <f t="shared" si="0"/>
         <v>0.98910934514720106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1607,78 +1607,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2635,77 +2619,76 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <f>SUM(C2:C18)</f>
         <v>0.97918423764288176</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <f t="shared" ref="D19:R19" si="0">SUM(D2:D18)</f>
         <v>1.4095586945816101</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.408668292789641</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>1.4112907498401275</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>1.4111436349278554</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>1.4133239118074976</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>1.3892492253004298</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>1.4090066223450683</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <f t="shared" si="0"/>
         <v>1.4230965493826366</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>1.4023818227305556</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="2">
         <f t="shared" si="0"/>
         <v>1.4158232030932467</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="2">
         <f t="shared" si="0"/>
         <v>1.416021433992702</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <f t="shared" si="0"/>
         <v>1.3738549338500183</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <f t="shared" si="0"/>
         <v>1.3866987522505516</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="2">
         <f t="shared" si="0"/>
         <v>1.3981782150422182</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="2">
         <f t="shared" si="0"/>
         <v>1.388981592142559</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2713,78 +2696,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3685,70 +3655,70 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
         <v>0.88597637196180345</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:R18" si="0">SUM(D2:D17)</f>
         <v>0.79447241093122034</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0.89405863907423644</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>0.80622280639446531</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>0.89428844787468809</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0.89443612115522353</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0.85589368341027428</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>0.89448058723738633</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <f t="shared" si="0"/>
         <v>0.80605315151443602</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>0.81061786771398148</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="2">
         <f t="shared" si="0"/>
         <v>0.89497344770275555</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="2">
         <f t="shared" si="0"/>
         <v>0.89503690341667796</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <f t="shared" si="0"/>
         <v>0.79290878603833093</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <f t="shared" si="0"/>
         <v>0.81481663162782092</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="2">
         <f t="shared" si="0"/>
         <v>0.887605335845295</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="2">
         <f t="shared" si="0"/>
         <v>0.8270679178460677</v>
       </c>
@@ -3762,77 +3732,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4699,7 +4654,7 @@
         <v>4.3706004849709712E-2</v>
       </c>
       <c r="H17">
-        <v>4.3570136020531891E-2</v>
+        <v>4.3570136020531898E-2</v>
       </c>
       <c r="I17">
         <v>5.6526489307279458E-2</v>
@@ -4733,70 +4688,70 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
         <v>0.98009653394227247</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:R18" si="0">SUM(D2:D17)</f>
         <v>1.0256930158615727</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0.99426405213419244</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>1.0161299820629699</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>0.99786161945315643</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0.99920391155574761</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0.98251686295480367</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>0.99650030817660518</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <f t="shared" si="0"/>
         <v>1.0213702896736792</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>1.0118898015215971</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="2">
         <f t="shared" si="0"/>
         <v>1.0013912099478697</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="2">
         <f t="shared" si="0"/>
         <v>1.0015340149561005</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <f t="shared" si="0"/>
         <v>0.94629298770489223</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <f t="shared" si="0"/>
         <v>1.0081405252960551</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="2">
         <f t="shared" si="0"/>
         <v>0.98462400012855755</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="2">
         <f t="shared" si="0"/>
         <v>0.98443785474146006</v>
       </c>

--- a/generated_files/gsa_results/Sobol_indices.xlsx
+++ b/generated_files/gsa_results/Sobol_indices.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Andrea\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F28F00AE4AADB63F09221827D4C2216A785B62F7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6981038F-6EC7-4D69-B883-A5617633E396}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CGE FIRST" sheetId="1" r:id="rId1"/>
-    <sheet name="CGE TOTAL" sheetId="2" r:id="rId2"/>
-    <sheet name="EGE FIRST" sheetId="3" r:id="rId3"/>
-    <sheet name="EGE TOTAL" sheetId="4" r:id="rId4"/>
+    <sheet name="CGE FIRST (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="CGE TOTAL" sheetId="2" r:id="rId3"/>
+    <sheet name="CGE TOTAL (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="EGE FIRST" sheetId="3" r:id="rId5"/>
+    <sheet name="EGE FIRST (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="EGE TOTAL" sheetId="4" r:id="rId7"/>
+    <sheet name="EGE TOTAL (2)" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="39">
   <si>
     <t>parameters</t>
   </si>
@@ -144,8 +157,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +185,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -202,18 +237,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -304,6 +349,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -339,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,16 +593,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="B19:R19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -632,7 +718,7 @@
         <v>0.67564355026022072</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -688,7 +774,7 @@
         <v>0.1528160172629805</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -744,7 +830,7 @@
         <v>1.15853537877384E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -800,7 +886,7 @@
         <v>7.3054749475400232E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -856,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -912,7 +998,7 @@
         <v>1.5901700998087218E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -968,7 +1054,7 @@
         <v>-8.5694686732204549E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1024,7 +1110,7 @@
         <v>3.6456568434954921E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1080,7 +1166,7 @@
         <v>6.3315383983671304E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1136,7 +1222,7 @@
         <v>9.7061888207492959E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1192,7 +1278,7 @@
         <v>9.560064148986762E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1248,7 +1334,7 @@
         <v>1.7446173732893E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1304,7 +1390,7 @@
         <v>7.7811973932809406E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1360,7 +1446,7 @@
         <v>1.8474110235307891E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1416,7 +1502,7 @@
         <v>4.0396615439608277E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1472,7 +1558,7 @@
         <v>3.060947110177498E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1528,7 +1614,7 @@
         <v>1.198122960155633E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1596,6 +1682,43 @@
         <f t="shared" si="0"/>
         <v>0.98910934514720106</v>
       </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,16 +1727,1373 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <f>'CGE FIRST'!C2/'CGE FIRST'!C$19</f>
+        <v>1.0796652347656737E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'CGE FIRST'!D2/'CGE FIRST'!D$19</f>
+        <v>0.64453144992815536</v>
+      </c>
+      <c r="E2" s="3">
+        <f>'CGE FIRST'!E2/'CGE FIRST'!E$19</f>
+        <v>0.62728588855020073</v>
+      </c>
+      <c r="F2" s="3">
+        <f>'CGE FIRST'!F2/'CGE FIRST'!F$19</f>
+        <v>0.63838300305784268</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'CGE FIRST'!G2/'CGE FIRST'!G$19</f>
+        <v>0.6158131951218655</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'CGE FIRST'!H2/'CGE FIRST'!H$19</f>
+        <v>0.61284982801700971</v>
+      </c>
+      <c r="I2" s="3">
+        <f>'CGE FIRST'!I2/'CGE FIRST'!I$19</f>
+        <v>0.67782395059441691</v>
+      </c>
+      <c r="J2" s="3">
+        <f>'CGE FIRST'!J2/'CGE FIRST'!J$19</f>
+        <v>0.62587003838192823</v>
+      </c>
+      <c r="K2" s="3">
+        <f>'CGE FIRST'!K2/'CGE FIRST'!K$19</f>
+        <v>0.611278541022095</v>
+      </c>
+      <c r="L2" s="3">
+        <f>'CGE FIRST'!L2/'CGE FIRST'!L$19</f>
+        <v>0.65117210717721907</v>
+      </c>
+      <c r="M2" s="3">
+        <f>'CGE FIRST'!M2/'CGE FIRST'!M$19</f>
+        <v>0.60404490534217314</v>
+      </c>
+      <c r="N2" s="3">
+        <f>'CGE FIRST'!N2/'CGE FIRST'!N$19</f>
+        <v>0.60491055569306851</v>
+      </c>
+      <c r="O2" s="3">
+        <f>'CGE FIRST'!O2/'CGE FIRST'!O$19</f>
+        <v>0.69008503327504855</v>
+      </c>
+      <c r="P2" s="3">
+        <f>'CGE FIRST'!P2/'CGE FIRST'!P$19</f>
+        <v>0.66934533784884309</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>'CGE FIRST'!Q2/'CGE FIRST'!Q$19</f>
+        <v>0.64672081948829307</v>
+      </c>
+      <c r="R2" s="3">
+        <f>'CGE FIRST'!R2/'CGE FIRST'!R$19</f>
+        <v>0.68308276893255948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <f>'CGE FIRST'!C3/'CGE FIRST'!C$19</f>
+        <v>2.3545415747425538E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>'CGE FIRST'!D3/'CGE FIRST'!D$19</f>
+        <v>0.19928090046624405</v>
+      </c>
+      <c r="E3" s="3">
+        <f>'CGE FIRST'!E3/'CGE FIRST'!E$19</f>
+        <v>0.21469086879938629</v>
+      </c>
+      <c r="F3" s="3">
+        <f>'CGE FIRST'!F3/'CGE FIRST'!F$19</f>
+        <v>0.20612451822392611</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'CGE FIRST'!G3/'CGE FIRST'!G$19</f>
+        <v>0.22482405874798514</v>
+      </c>
+      <c r="H3" s="3">
+        <f>'CGE FIRST'!H3/'CGE FIRST'!H$19</f>
+        <v>0.22769075322488158</v>
+      </c>
+      <c r="I3" s="3">
+        <f>'CGE FIRST'!I3/'CGE FIRST'!I$19</f>
+        <v>0.16100202171004369</v>
+      </c>
+      <c r="J3" s="3">
+        <f>'CGE FIRST'!J3/'CGE FIRST'!J$19</f>
+        <v>0.21521859561549642</v>
+      </c>
+      <c r="K3" s="3">
+        <f>'CGE FIRST'!K3/'CGE FIRST'!K$19</f>
+        <v>0.2363446532707261</v>
+      </c>
+      <c r="L3" s="3">
+        <f>'CGE FIRST'!L3/'CGE FIRST'!L$19</f>
+        <v>0.19111853856892905</v>
+      </c>
+      <c r="M3" s="3">
+        <f>'CGE FIRST'!M3/'CGE FIRST'!M$19</f>
+        <v>0.23477978766031429</v>
+      </c>
+      <c r="N3" s="3">
+        <f>'CGE FIRST'!N3/'CGE FIRST'!N$19</f>
+        <v>0.23383398070006645</v>
+      </c>
+      <c r="O3" s="3">
+        <f>'CGE FIRST'!O3/'CGE FIRST'!O$19</f>
+        <v>0.14652137201325893</v>
+      </c>
+      <c r="P3" s="3">
+        <f>'CGE FIRST'!P3/'CGE FIRST'!P$19</f>
+        <v>0.16848755256831685</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>'CGE FIRST'!Q3/'CGE FIRST'!Q$19</f>
+        <v>0.19706388747626027</v>
+      </c>
+      <c r="R3" s="3">
+        <f>'CGE FIRST'!R3/'CGE FIRST'!R$19</f>
+        <v>0.15449860828100673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <f>'CGE FIRST'!C4/'CGE FIRST'!C$19</f>
+        <v>4.3525382352489704E-5</v>
+      </c>
+      <c r="D4" s="3">
+        <f>'CGE FIRST'!D4/'CGE FIRST'!D$19</f>
+        <v>5.1365694096905451E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <f>'CGE FIRST'!E4/'CGE FIRST'!E$19</f>
+        <v>3.345202920011823E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <f>'CGE FIRST'!F4/'CGE FIRST'!F$19</f>
+        <v>4.3752163188808414E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'CGE FIRST'!G4/'CGE FIRST'!G$19</f>
+        <v>2.3620148479742862E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <f>'CGE FIRST'!H4/'CGE FIRST'!H$19</f>
+        <v>2.1281352296307959E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <f>'CGE FIRST'!I4/'CGE FIRST'!I$19</f>
+        <v>1.0379646321979233E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <f>'CGE FIRST'!J4/'CGE FIRST'!J$19</f>
+        <v>3.3148888754002057E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <f>'CGE FIRST'!K4/'CGE FIRST'!K$19</f>
+        <v>1.6652887703324708E-3</v>
+      </c>
+      <c r="L4" s="3">
+        <f>'CGE FIRST'!L4/'CGE FIRST'!L$19</f>
+        <v>6.1500357359367125E-3</v>
+      </c>
+      <c r="M4" s="3">
+        <f>'CGE FIRST'!M4/'CGE FIRST'!M$19</f>
+        <v>1.5253179873298665E-3</v>
+      </c>
+      <c r="N4" s="3">
+        <f>'CGE FIRST'!N4/'CGE FIRST'!N$19</f>
+        <v>1.6062986966172491E-3</v>
+      </c>
+      <c r="O4" s="3">
+        <f>'CGE FIRST'!O4/'CGE FIRST'!O$19</f>
+        <v>6.4561494375846044E-3</v>
+      </c>
+      <c r="P4" s="3">
+        <f>'CGE FIRST'!P4/'CGE FIRST'!P$19</f>
+        <v>9.2381337762055295E-3</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>'CGE FIRST'!Q4/'CGE FIRST'!Q$19</f>
+        <v>5.3395424621941918E-3</v>
+      </c>
+      <c r="R4" s="3">
+        <f>'CGE FIRST'!R4/'CGE FIRST'!R$19</f>
+        <v>1.1712915103450213E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <f>'CGE FIRST'!C5/'CGE FIRST'!C$19</f>
+        <v>-1.2263592840577945E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <f>'CGE FIRST'!D5/'CGE FIRST'!D$19</f>
+        <v>7.6303718994021703E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <f>'CGE FIRST'!E5/'CGE FIRST'!E$19</f>
+        <v>7.0310548819937863E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <f>'CGE FIRST'!F5/'CGE FIRST'!F$19</f>
+        <v>7.5115732955027296E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <f>'CGE FIRST'!G5/'CGE FIRST'!G$19</f>
+        <v>6.8053494211526089E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <f>'CGE FIRST'!H5/'CGE FIRST'!H$19</f>
+        <v>6.837670082937463E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <f>'CGE FIRST'!I5/'CGE FIRST'!I$19</f>
+        <v>7.5715716980004665E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <f>'CGE FIRST'!J5/'CGE FIRST'!J$19</f>
+        <v>6.9308445771557071E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <f>'CGE FIRST'!K5/'CGE FIRST'!K$19</f>
+        <v>7.1551335304809579E-3</v>
+      </c>
+      <c r="L5" s="3">
+        <f>'CGE FIRST'!L5/'CGE FIRST'!L$19</f>
+        <v>7.4936511325368309E-3</v>
+      </c>
+      <c r="M5" s="3">
+        <f>'CGE FIRST'!M5/'CGE FIRST'!M$19</f>
+        <v>6.6749689027206637E-3</v>
+      </c>
+      <c r="N5" s="3">
+        <f>'CGE FIRST'!N5/'CGE FIRST'!N$19</f>
+        <v>6.6762589562462758E-3</v>
+      </c>
+      <c r="O5" s="3">
+        <f>'CGE FIRST'!O5/'CGE FIRST'!O$19</f>
+        <v>6.9444964653360098E-3</v>
+      </c>
+      <c r="P5" s="3">
+        <f>'CGE FIRST'!P5/'CGE FIRST'!P$19</f>
+        <v>7.57646869771611E-3</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>'CGE FIRST'!Q5/'CGE FIRST'!Q$19</f>
+        <v>7.2385034576524761E-3</v>
+      </c>
+      <c r="R5" s="3">
+        <f>'CGE FIRST'!R5/'CGE FIRST'!R$19</f>
+        <v>7.3859123699339928E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <f>'CGE FIRST'!C6/'CGE FIRST'!C$19</f>
+        <v>0.99533587080201569</v>
+      </c>
+      <c r="D6" s="3">
+        <f>'CGE FIRST'!D6/'CGE FIRST'!D$19</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f>'CGE FIRST'!E6/'CGE FIRST'!E$19</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f>'CGE FIRST'!F6/'CGE FIRST'!F$19</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'CGE FIRST'!G6/'CGE FIRST'!G$19</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>'CGE FIRST'!H6/'CGE FIRST'!H$19</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>'CGE FIRST'!I6/'CGE FIRST'!I$19</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>'CGE FIRST'!J6/'CGE FIRST'!J$19</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>'CGE FIRST'!K6/'CGE FIRST'!K$19</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f>'CGE FIRST'!L6/'CGE FIRST'!L$19</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <f>'CGE FIRST'!M6/'CGE FIRST'!M$19</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f>'CGE FIRST'!N6/'CGE FIRST'!N$19</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <f>'CGE FIRST'!O6/'CGE FIRST'!O$19</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f>'CGE FIRST'!P6/'CGE FIRST'!P$19</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>'CGE FIRST'!Q6/'CGE FIRST'!Q$19</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <f>'CGE FIRST'!R6/'CGE FIRST'!R$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <f>'CGE FIRST'!C7/'CGE FIRST'!C$19</f>
+        <v>2.9450064438346272E-4</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'CGE FIRST'!D7/'CGE FIRST'!D$19</f>
+        <v>1.2895171315135475E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <f>'CGE FIRST'!E7/'CGE FIRST'!E$19</f>
+        <v>1.3413109098078385E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>'CGE FIRST'!F7/'CGE FIRST'!F$19</f>
+        <v>1.3667775577177308E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <f>'CGE FIRST'!G7/'CGE FIRST'!G$19</f>
+        <v>1.3439858328678661E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f>'CGE FIRST'!H7/'CGE FIRST'!H$19</f>
+        <v>1.2577577773913729E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f>'CGE FIRST'!I7/'CGE FIRST'!I$19</f>
+        <v>1.4116037195451256E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <f>'CGE FIRST'!J7/'CGE FIRST'!J$19</f>
+        <v>1.3489090733319695E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <f>'CGE FIRST'!K7/'CGE FIRST'!K$19</f>
+        <v>1.3283921520538981E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f>'CGE FIRST'!L7/'CGE FIRST'!L$19</f>
+        <v>1.47865658161921E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <f>'CGE FIRST'!M7/'CGE FIRST'!M$19</f>
+        <v>1.2580392558673395E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <f>'CGE FIRST'!N7/'CGE FIRST'!N$19</f>
+        <v>1.246722674037423E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <f>'CGE FIRST'!O7/'CGE FIRST'!O$19</f>
+        <v>2.0854163161249883E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <f>'CGE FIRST'!P7/'CGE FIRST'!P$19</f>
+        <v>1.5231097656518195E-2</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>'CGE FIRST'!Q7/'CGE FIRST'!Q$19</f>
+        <v>1.3661193428266319E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <f>'CGE FIRST'!R7/'CGE FIRST'!R$19</f>
+        <v>1.6076787744554875E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <f>'CGE FIRST'!C8/'CGE FIRST'!C$19</f>
+        <v>-3.0372472555860992E-5</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'CGE FIRST'!D8/'CGE FIRST'!D$19</f>
+        <v>-7.2314094639437296E-4</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'CGE FIRST'!E8/'CGE FIRST'!E$19</f>
+        <v>-7.1049490348080069E-4</v>
+      </c>
+      <c r="F8" s="3">
+        <f>'CGE FIRST'!F8/'CGE FIRST'!F$19</f>
+        <v>-6.9546413104260908E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <f>'CGE FIRST'!G8/'CGE FIRST'!G$19</f>
+        <v>-6.5092401574938291E-4</v>
+      </c>
+      <c r="H8" s="3">
+        <f>'CGE FIRST'!H8/'CGE FIRST'!H$19</f>
+        <v>-6.1893539663995985E-4</v>
+      </c>
+      <c r="I8" s="3">
+        <f>'CGE FIRST'!I8/'CGE FIRST'!I$19</f>
+        <v>-9.0694985150170052E-4</v>
+      </c>
+      <c r="J8" s="3">
+        <f>'CGE FIRST'!J8/'CGE FIRST'!J$19</f>
+        <v>-7.039584645709199E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <f>'CGE FIRST'!K8/'CGE FIRST'!K$19</f>
+        <v>-5.1510971245731898E-4</v>
+      </c>
+      <c r="L8" s="3">
+        <f>'CGE FIRST'!L8/'CGE FIRST'!L$19</f>
+        <v>-7.8294937970871219E-4</v>
+      </c>
+      <c r="M8" s="3">
+        <f>'CGE FIRST'!M8/'CGE FIRST'!M$19</f>
+        <v>-5.6303621910399454E-4</v>
+      </c>
+      <c r="N8" s="3">
+        <f>'CGE FIRST'!N8/'CGE FIRST'!N$19</f>
+        <v>-5.6366499947854199E-4</v>
+      </c>
+      <c r="O8" s="3">
+        <f>'CGE FIRST'!O8/'CGE FIRST'!O$19</f>
+        <v>-8.3495736193776101E-4</v>
+      </c>
+      <c r="P8" s="3">
+        <f>'CGE FIRST'!P8/'CGE FIRST'!P$19</f>
+        <v>-9.4336671847529527E-4</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>'CGE FIRST'!Q8/'CGE FIRST'!Q$19</f>
+        <v>-8.3451544857435981E-4</v>
+      </c>
+      <c r="R8" s="3">
+        <f>'CGE FIRST'!R8/'CGE FIRST'!R$19</f>
+        <v>-8.6638233833946144E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <f>'CGE FIRST'!C9/'CGE FIRST'!C$19</f>
+        <v>-6.4704241793876841E-6</v>
+      </c>
+      <c r="D9" s="3">
+        <f>'CGE FIRST'!D9/'CGE FIRST'!D$19</f>
+        <v>2.4695608474320735E-4</v>
+      </c>
+      <c r="E9" s="3">
+        <f>'CGE FIRST'!E9/'CGE FIRST'!E$19</f>
+        <v>2.4802926826521129E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <f>'CGE FIRST'!F9/'CGE FIRST'!F$19</f>
+        <v>2.3543776666557799E-4</v>
+      </c>
+      <c r="G9" s="3">
+        <f>'CGE FIRST'!G9/'CGE FIRST'!G$19</f>
+        <v>2.2949674903451685E-4</v>
+      </c>
+      <c r="H9" s="3">
+        <f>'CGE FIRST'!H9/'CGE FIRST'!H$19</f>
+        <v>2.2072973973871648E-4</v>
+      </c>
+      <c r="I9" s="3">
+        <f>'CGE FIRST'!I9/'CGE FIRST'!I$19</f>
+        <v>3.5163775537506309E-4</v>
+      </c>
+      <c r="J9" s="3">
+        <f>'CGE FIRST'!J9/'CGE FIRST'!J$19</f>
+        <v>2.484448790940725E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <f>'CGE FIRST'!K9/'CGE FIRST'!K$19</f>
+        <v>1.6290689159274531E-4</v>
+      </c>
+      <c r="L9" s="3">
+        <f>'CGE FIRST'!L9/'CGE FIRST'!L$19</f>
+        <v>2.7541230767133508E-4</v>
+      </c>
+      <c r="M9" s="3">
+        <f>'CGE FIRST'!M9/'CGE FIRST'!M$19</f>
+        <v>2.0770862349049063E-4</v>
+      </c>
+      <c r="N9" s="3">
+        <f>'CGE FIRST'!N9/'CGE FIRST'!N$19</f>
+        <v>2.086013057492949E-4</v>
+      </c>
+      <c r="O9" s="3">
+        <f>'CGE FIRST'!O9/'CGE FIRST'!O$19</f>
+        <v>3.6589768467808616E-4</v>
+      </c>
+      <c r="P9" s="3">
+        <f>'CGE FIRST'!P9/'CGE FIRST'!P$19</f>
+        <v>3.3646555260493093E-4</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>'CGE FIRST'!Q9/'CGE FIRST'!Q$19</f>
+        <v>2.7827544326522056E-4</v>
+      </c>
+      <c r="R9" s="3">
+        <f>'CGE FIRST'!R9/'CGE FIRST'!R$19</f>
+        <v>3.6857975929374513E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'CGE FIRST'!C10/'CGE FIRST'!C$19</f>
+        <v>7.3870732471173568E-5</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'CGE FIRST'!D10/'CGE FIRST'!D$19</f>
+        <v>2.8332526429259972E-6</v>
+      </c>
+      <c r="E10" s="3">
+        <f>'CGE FIRST'!E10/'CGE FIRST'!E$19</f>
+        <v>8.190158969887373E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <f>'CGE FIRST'!F10/'CGE FIRST'!F$19</f>
+        <v>2.131808755713916E-5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>'CGE FIRST'!G10/'CGE FIRST'!G$19</f>
+        <v>1.1112239916683614E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <f>'CGE FIRST'!H10/'CGE FIRST'!H$19</f>
+        <v>1.2286724359113425E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <f>'CGE FIRST'!I10/'CGE FIRST'!I$19</f>
+        <v>2.5915547594478571E-4</v>
+      </c>
+      <c r="J10" s="3">
+        <f>'CGE FIRST'!J10/'CGE FIRST'!J$19</f>
+        <v>9.6046773653896619E-3</v>
+      </c>
+      <c r="K10" s="3">
+        <f>'CGE FIRST'!K10/'CGE FIRST'!K$19</f>
+        <v>2.3455502844431971E-5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>'CGE FIRST'!L10/'CGE FIRST'!L$19</f>
+        <v>1.2876911986941613E-5</v>
+      </c>
+      <c r="M10" s="3">
+        <f>'CGE FIRST'!M10/'CGE FIRST'!M$19</f>
+        <v>1.4903089365622742E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f>'CGE FIRST'!N10/'CGE FIRST'!N$19</f>
+        <v>1.5059793191328306E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <f>'CGE FIRST'!O10/'CGE FIRST'!O$19</f>
+        <v>-4.3003606240826821E-5</v>
+      </c>
+      <c r="P10" s="3">
+        <f>'CGE FIRST'!P10/'CGE FIRST'!P$19</f>
+        <v>1.4054184088657412E-5</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>'CGE FIRST'!Q10/'CGE FIRST'!Q$19</f>
+        <v>3.126899073018836E-3</v>
+      </c>
+      <c r="R10" s="3">
+        <f>'CGE FIRST'!R10/'CGE FIRST'!R$19</f>
+        <v>6.4012522269970663E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <f>'CGE FIRST'!C11/'CGE FIRST'!C$19</f>
+        <v>-1.6343844324544088E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'CGE FIRST'!D11/'CGE FIRST'!D$19</f>
+        <v>9.8624281279145638E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <f>'CGE FIRST'!E11/'CGE FIRST'!E$19</f>
+        <v>3.4373059643898834E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <f>'CGE FIRST'!F11/'CGE FIRST'!F$19</f>
+        <v>7.788974959815992E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <f>'CGE FIRST'!G11/'CGE FIRST'!G$19</f>
+        <v>2.0102972917192801E-3</v>
+      </c>
+      <c r="H11" s="3">
+        <f>'CGE FIRST'!H11/'CGE FIRST'!H$19</f>
+        <v>2.0719004586345446E-3</v>
+      </c>
+      <c r="I11" s="3">
+        <f>'CGE FIRST'!I11/'CGE FIRST'!I$19</f>
+        <v>1.2752681608353997E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <f>'CGE FIRST'!J11/'CGE FIRST'!J$19</f>
+        <v>2.7681495252150586E-3</v>
+      </c>
+      <c r="K11" s="3">
+        <f>'CGE FIRST'!K11/'CGE FIRST'!K$19</f>
+        <v>2.7128267155611774E-3</v>
+      </c>
+      <c r="L11" s="3">
+        <f>'CGE FIRST'!L11/'CGE FIRST'!L$19</f>
+        <v>9.0171838787624931E-3</v>
+      </c>
+      <c r="M11" s="3">
+        <f>'CGE FIRST'!M11/'CGE FIRST'!M$19</f>
+        <v>1.2684053014949122E-3</v>
+      </c>
+      <c r="N11" s="3">
+        <f>'CGE FIRST'!N11/'CGE FIRST'!N$19</f>
+        <v>1.2376906485318977E-3</v>
+      </c>
+      <c r="O11" s="3">
+        <f>'CGE FIRST'!O11/'CGE FIRST'!O$19</f>
+        <v>4.8743130052065365E-3</v>
+      </c>
+      <c r="P11" s="3">
+        <f>'CGE FIRST'!P11/'CGE FIRST'!P$19</f>
+        <v>1.4072871968702957E-2</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>'CGE FIRST'!Q11/'CGE FIRST'!Q$19</f>
+        <v>6.0093205516650126E-3</v>
+      </c>
+      <c r="R11" s="3">
+        <f>'CGE FIRST'!R11/'CGE FIRST'!R$19</f>
+        <v>9.8130594644263557E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <f>'CGE FIRST'!C12/'CGE FIRST'!C$19</f>
+        <v>5.0153704546484453E-6</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'CGE FIRST'!D12/'CGE FIRST'!D$19</f>
+        <v>1.5875743078603155E-5</v>
+      </c>
+      <c r="E12" s="3">
+        <f>'CGE FIRST'!E12/'CGE FIRST'!E$19</f>
+        <v>3.5484706858704618E-4</v>
+      </c>
+      <c r="F12" s="3">
+        <f>'CGE FIRST'!F12/'CGE FIRST'!F$19</f>
+        <v>8.1240857807100933E-5</v>
+      </c>
+      <c r="G12" s="3">
+        <f>'CGE FIRST'!G12/'CGE FIRST'!G$19</f>
+        <v>2.7053329344634279E-4</v>
+      </c>
+      <c r="H12" s="3">
+        <f>'CGE FIRST'!H12/'CGE FIRST'!H$19</f>
+        <v>2.1049924055994103E-4</v>
+      </c>
+      <c r="I12" s="3">
+        <f>'CGE FIRST'!I12/'CGE FIRST'!I$19</f>
+        <v>3.8136356026679684E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <f>'CGE FIRST'!J12/'CGE FIRST'!J$19</f>
+        <v>3.0330135594910923E-4</v>
+      </c>
+      <c r="K12" s="3">
+        <f>'CGE FIRST'!K12/'CGE FIRST'!K$19</f>
+        <v>2.6300382355893375E-5</v>
+      </c>
+      <c r="L12" s="3">
+        <f>'CGE FIRST'!L12/'CGE FIRST'!L$19</f>
+        <v>2.5806321498012821E-4</v>
+      </c>
+      <c r="M12" s="3">
+        <f>'CGE FIRST'!M12/'CGE FIRST'!M$19</f>
+        <v>2.2703912950900381E-4</v>
+      </c>
+      <c r="N12" s="3">
+        <f>'CGE FIRST'!N12/'CGE FIRST'!N$19</f>
+        <v>2.4201264609799927E-4</v>
+      </c>
+      <c r="O12" s="3">
+        <f>'CGE FIRST'!O12/'CGE FIRST'!O$19</f>
+        <v>8.041159085988207E-3</v>
+      </c>
+      <c r="P12" s="3">
+        <f>'CGE FIRST'!P12/'CGE FIRST'!P$19</f>
+        <v>2.3541320046992697E-4</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>'CGE FIRST'!Q12/'CGE FIRST'!Q$19</f>
+        <v>3.3997611811698763E-4</v>
+      </c>
+      <c r="R12" s="3">
+        <f>'CGE FIRST'!R12/'CGE FIRST'!R$19</f>
+        <v>9.6653258771546796E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <f>'CGE FIRST'!C13/'CGE FIRST'!C$19</f>
+        <v>7.7063824711503967E-6</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'CGE FIRST'!D13/'CGE FIRST'!D$19</f>
+        <v>8.2172806576712021E-6</v>
+      </c>
+      <c r="E13" s="3">
+        <f>'CGE FIRST'!E13/'CGE FIRST'!E$19</f>
+        <v>8.351589175068526E-5</v>
+      </c>
+      <c r="F13" s="3">
+        <f>'CGE FIRST'!F13/'CGE FIRST'!F$19</f>
+        <v>3.0715730007438572E-5</v>
+      </c>
+      <c r="G13" s="3">
+        <f>'CGE FIRST'!G13/'CGE FIRST'!G$19</f>
+        <v>1.2337643816632914E-4</v>
+      </c>
+      <c r="H13" s="3">
+        <f>'CGE FIRST'!H13/'CGE FIRST'!H$19</f>
+        <v>6.1578257702369019E-5</v>
+      </c>
+      <c r="I13" s="3">
+        <f>'CGE FIRST'!I13/'CGE FIRST'!I$19</f>
+        <v>1.9269892788605699E-4</v>
+      </c>
+      <c r="J13" s="3">
+        <f>'CGE FIRST'!J13/'CGE FIRST'!J$19</f>
+        <v>8.1400123671482994E-5</v>
+      </c>
+      <c r="K13" s="3">
+        <f>'CGE FIRST'!K13/'CGE FIRST'!K$19</f>
+        <v>9.489842493940714E-6</v>
+      </c>
+      <c r="L13" s="3">
+        <f>'CGE FIRST'!L13/'CGE FIRST'!L$19</f>
+        <v>2.2814103130319705E-4</v>
+      </c>
+      <c r="M13" s="3">
+        <f>'CGE FIRST'!M13/'CGE FIRST'!M$19</f>
+        <v>4.8806792404992283E-5</v>
+      </c>
+      <c r="N13" s="3">
+        <f>'CGE FIRST'!N13/'CGE FIRST'!N$19</f>
+        <v>3.3263684871458675E-5</v>
+      </c>
+      <c r="O13" s="3">
+        <f>'CGE FIRST'!O13/'CGE FIRST'!O$19</f>
+        <v>1.3371622244972889E-4</v>
+      </c>
+      <c r="P13" s="3">
+        <f>'CGE FIRST'!P13/'CGE FIRST'!P$19</f>
+        <v>8.8523479376574567E-4</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>'CGE FIRST'!Q13/'CGE FIRST'!Q$19</f>
+        <v>5.3573571984968449E-4</v>
+      </c>
+      <c r="R13" s="3">
+        <f>'CGE FIRST'!R13/'CGE FIRST'!R$19</f>
+        <v>1.763826600010197E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3">
+        <f>'CGE FIRST'!C14/'CGE FIRST'!C$19</f>
+        <v>1.152469804560281E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'CGE FIRST'!D14/'CGE FIRST'!D$19</f>
+        <v>7.2476017093484821E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <f>'CGE FIRST'!E14/'CGE FIRST'!E$19</f>
+        <v>7.1938002087481384E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f>'CGE FIRST'!F14/'CGE FIRST'!F$19</f>
+        <v>7.1972083281793608E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>'CGE FIRST'!G14/'CGE FIRST'!G$19</f>
+        <v>7.059108987493086E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <f>'CGE FIRST'!H14/'CGE FIRST'!H$19</f>
+        <v>7.015437131618682E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <f>'CGE FIRST'!I14/'CGE FIRST'!I$19</f>
+        <v>7.7121336603410681E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <f>'CGE FIRST'!J14/'CGE FIRST'!J$19</f>
+        <v>7.2087963082288695E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <f>'CGE FIRST'!K14/'CGE FIRST'!K$19</f>
+        <v>6.9084111197435447E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f>'CGE FIRST'!L14/'CGE FIRST'!L$19</f>
+        <v>7.3500393677022324E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f>'CGE FIRST'!M14/'CGE FIRST'!M$19</f>
+        <v>6.9120966553737617E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <f>'CGE FIRST'!N14/'CGE FIRST'!N$19</f>
+        <v>6.9343168089254142E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <f>'CGE FIRST'!O14/'CGE FIRST'!O$19</f>
+        <v>8.0132244180774373E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <f>'CGE FIRST'!P14/'CGE FIRST'!P$19</f>
+        <v>7.4808553107765866E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>'CGE FIRST'!Q14/'CGE FIRST'!Q$19</f>
+        <v>7.3590972648265016E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <f>'CGE FIRST'!R14/'CGE FIRST'!R$19</f>
+        <v>7.8668727896033866E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <f>'CGE FIRST'!C15/'CGE FIRST'!C$19</f>
+        <v>-3.2053183312887734E-4</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'CGE FIRST'!D15/'CGE FIRST'!D$19</f>
+        <v>2.2163761885415074E-3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>'CGE FIRST'!E15/'CGE FIRST'!E$19</f>
+        <v>1.0392639712001458E-3</v>
+      </c>
+      <c r="F15" s="3">
+        <f>'CGE FIRST'!F15/'CGE FIRST'!F$19</f>
+        <v>2.2704171403693553E-3</v>
+      </c>
+      <c r="G15" s="3">
+        <f>'CGE FIRST'!G15/'CGE FIRST'!G$19</f>
+        <v>9.2913791195936601E-4</v>
+      </c>
+      <c r="H15" s="3">
+        <f>'CGE FIRST'!H15/'CGE FIRST'!H$19</f>
+        <v>8.6705771997001933E-4</v>
+      </c>
+      <c r="I15" s="3">
+        <f>'CGE FIRST'!I15/'CGE FIRST'!I$19</f>
+        <v>1.6698938057318907E-3</v>
+      </c>
+      <c r="J15" s="3">
+        <f>'CGE FIRST'!J15/'CGE FIRST'!J$19</f>
+        <v>9.3807684407214511E-4</v>
+      </c>
+      <c r="K15" s="3">
+        <f>'CGE FIRST'!K15/'CGE FIRST'!K$19</f>
+        <v>2.6220067565086822E-3</v>
+      </c>
+      <c r="L15" s="3">
+        <f>'CGE FIRST'!L15/'CGE FIRST'!L$19</f>
+        <v>2.134705346004948E-3</v>
+      </c>
+      <c r="M15" s="3">
+        <f>'CGE FIRST'!M15/'CGE FIRST'!M$19</f>
+        <v>7.9563969499168476E-4</v>
+      </c>
+      <c r="N15" s="3">
+        <f>'CGE FIRST'!N15/'CGE FIRST'!N$19</f>
+        <v>7.7805616792031346E-4</v>
+      </c>
+      <c r="O15" s="3">
+        <f>'CGE FIRST'!O15/'CGE FIRST'!O$19</f>
+        <v>2.1207782758319951E-3</v>
+      </c>
+      <c r="P15" s="3">
+        <f>'CGE FIRST'!P15/'CGE FIRST'!P$19</f>
+        <v>1.8568739028612846E-3</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>'CGE FIRST'!Q15/'CGE FIRST'!Q$19</f>
+        <v>1.3244384378447195E-3</v>
+      </c>
+      <c r="R15" s="3">
+        <f>'CGE FIRST'!R15/'CGE FIRST'!R$19</f>
+        <v>1.867752066639158E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <f>'CGE FIRST'!C16/'CGE FIRST'!C$19</f>
+        <v>-8.7504395807662695E-5</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'CGE FIRST'!D16/'CGE FIRST'!D$19</f>
+        <v>4.5035416984318087E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>'CGE FIRST'!E16/'CGE FIRST'!E$19</f>
+        <v>4.7145580005870319E-3</v>
+      </c>
+      <c r="F16" s="3">
+        <f>'CGE FIRST'!F16/'CGE FIRST'!F$19</f>
+        <v>4.4994685911827767E-3</v>
+      </c>
+      <c r="G16" s="3">
+        <f>'CGE FIRST'!G16/'CGE FIRST'!G$19</f>
+        <v>4.7396722026259164E-3</v>
+      </c>
+      <c r="H16" s="3">
+        <f>'CGE FIRST'!H16/'CGE FIRST'!H$19</f>
+        <v>4.7984786197065189E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <f>'CGE FIRST'!I16/'CGE FIRST'!I$19</f>
+        <v>4.2654743980148329E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <f>'CGE FIRST'!J16/'CGE FIRST'!J$19</f>
+        <v>4.7242966687177429E-3</v>
+      </c>
+      <c r="K16" s="3">
+        <f>'CGE FIRST'!K16/'CGE FIRST'!K$19</f>
+        <v>4.5740257528399803E-3</v>
+      </c>
+      <c r="L16" s="3">
+        <f>'CGE FIRST'!L16/'CGE FIRST'!L$19</f>
+        <v>4.3530773316908591E-3</v>
+      </c>
+      <c r="M16" s="3">
+        <f>'CGE FIRST'!M16/'CGE FIRST'!M$19</f>
+        <v>4.8198676560053909E-3</v>
+      </c>
+      <c r="N16" s="3">
+        <f>'CGE FIRST'!N16/'CGE FIRST'!N$19</f>
+        <v>4.8270038175155724E-3</v>
+      </c>
+      <c r="O16" s="3">
+        <f>'CGE FIRST'!O16/'CGE FIRST'!O$19</f>
+        <v>3.4642792138702204E-3</v>
+      </c>
+      <c r="P16" s="3">
+        <f>'CGE FIRST'!P16/'CGE FIRST'!P$19</f>
+        <v>4.1760486609731737E-3</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>'CGE FIRST'!Q16/'CGE FIRST'!Q$19</f>
+        <v>4.4882978517905578E-3</v>
+      </c>
+      <c r="R16" s="3">
+        <f>'CGE FIRST'!R16/'CGE FIRST'!R$19</f>
+        <v>4.0841405086104385E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <f>'CGE FIRST'!C17/'CGE FIRST'!C$19</f>
+        <v>-1.5618200593638476E-5</v>
+      </c>
+      <c r="D17" s="3">
+        <f>'CGE FIRST'!D17/'CGE FIRST'!D$19</f>
+        <v>3.8177112656666658E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f>'CGE FIRST'!E17/'CGE FIRST'!E$19</f>
+        <v>4.1127556752376643E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>'CGE FIRST'!F17/'CGE FIRST'!F$19</f>
+        <v>3.9511508308569129E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f>'CGE FIRST'!G17/'CGE FIRST'!G$19</f>
+        <v>4.3038117877400028E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f>'CGE FIRST'!H17/'CGE FIRST'!H$19</f>
+        <v>4.3429645332790312E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f>'CGE FIRST'!I17/'CGE FIRST'!I$19</f>
+        <v>3.1701355649938069E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <f>'CGE FIRST'!J17/'CGE FIRST'!J$19</f>
+        <v>4.1316142229736084E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f>'CGE FIRST'!K17/'CGE FIRST'!K$19</f>
+        <v>4.5133543920745096E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f>'CGE FIRST'!L17/'CGE FIRST'!L$19</f>
+        <v>3.6983955116803816E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <f>'CGE FIRST'!M17/'CGE FIRST'!M$19</f>
+        <v>4.4769874361918302E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <f>'CGE FIRST'!N17/'CGE FIRST'!N$19</f>
+        <v>4.4613857114223512E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f>'CGE FIRST'!O17/'CGE FIRST'!O$19</f>
+        <v>2.9905342125731035E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f>'CGE FIRST'!P17/'CGE FIRST'!P$19</f>
+        <v>3.285686322246175E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>'CGE FIRST'!Q17/'CGE FIRST'!Q$19</f>
+        <v>3.8005704312067103E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f>'CGE FIRST'!R17/'CGE FIRST'!R$19</f>
+        <v>3.0946498738437887E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <f>'CGE FIRST'!C18/'CGE FIRST'!C$19</f>
+        <v>3.9940576969949438E-4</v>
+      </c>
+      <c r="D18" s="3">
+        <f>'CGE FIRST'!D18/'CGE FIRST'!D$19</f>
+        <v>3.7393198016050216E-3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>'CGE FIRST'!E18/'CGE FIRST'!E$19</f>
+        <v>3.8111326792843268E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <f>'CGE FIRST'!F18/'CGE FIRST'!F$19</f>
+        <v>4.2222129339449087E-3</v>
+      </c>
+      <c r="G18" s="3">
+        <f>'CGE FIRST'!G18/'CGE FIRST'!G$19</f>
+        <v>4.3624859921269988E-3</v>
+      </c>
+      <c r="H18" s="3">
+        <f>'CGE FIRST'!H18/'CGE FIRST'!H$19</f>
+        <v>4.433986023863995E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <f>'CGE FIRST'!I18/'CGE FIRST'!I$19</f>
+        <v>1.3181245466880208E-3</v>
+      </c>
+      <c r="J18" s="3">
+        <f>'CGE FIRST'!J18/'CGE FIRST'!J$19</f>
+        <v>3.8080482071367609E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <f>'CGE FIRST'!K18/'CGE FIRST'!K$19</f>
+        <v>6.438904635906159E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <f>'CGE FIRST'!L18/'CGE FIRST'!L$19</f>
+        <v>3.2982421326687951E-3</v>
+      </c>
+      <c r="M18" s="3">
+        <f>'CGE FIRST'!M18/'CGE FIRST'!M$19</f>
+        <v>4.7962662887174158E-3</v>
+      </c>
+      <c r="N18" s="3">
+        <f>'CGE FIRST'!N18/'CGE FIRST'!N$19</f>
+        <v>4.725897547613077E-3</v>
+      </c>
+      <c r="O18" s="3">
+        <f>'CGE FIRST'!O18/'CGE FIRST'!O$19</f>
+        <v>9.7901682117033668E-4</v>
+      </c>
+      <c r="P18" s="3">
+        <f>'CGE FIRST'!P18/'CGE FIRST'!P$19</f>
+        <v>1.8223975771810891E-3</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>'CGE FIRST'!Q18/'CGE FIRST'!Q$19</f>
+        <v>3.1109489800247832E-3</v>
+      </c>
+      <c r="R18" s="3">
+        <f>'CGE FIRST'!R18/'CGE FIRST'!R$19</f>
+        <v>1.2113149734494988E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D24" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +3146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1722,7 +3202,7 @@
         <v>0.84636129063254195</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1778,7 +3258,7 @@
         <v>0.2481553913974186</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1834,7 +3314,7 @@
         <v>1.240211559759472E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1890,7 +3370,7 @@
         <v>1.5246921941192679E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1946,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2002,7 +3482,7 @@
         <v>2.617362450309384E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2058,7 +3538,7 @@
         <v>2.7531508608971112E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2114,7 +3594,7 @@
         <v>9.040117098890388E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2170,7 +3650,7 @@
         <v>1.017100897189975E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2226,7 +3706,7 @@
         <v>1.196641473730708E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2282,7 +3762,7 @@
         <v>1.6397539210231569E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2338,7 +3818,7 @@
         <v>8.0807054291954695E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2394,7 +3874,7 @@
         <v>0.15145676651824211</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2450,7 +3930,7 @@
         <v>9.6199347698210317E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2506,7 +3986,7 @@
         <v>1.3538930596892239E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2562,7 +4042,7 @@
         <v>5.2994089609635607E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2618,7 +4098,7 @@
         <v>1.0061104808023349E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -2685,1042 +4165,6 @@
       <c r="R19" s="2">
         <f t="shared" si="0"/>
         <v>1.388981592142559</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:R18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>5.3777187263322826E-3</v>
-      </c>
-      <c r="D2">
-        <v>4.773081288190502E-3</v>
-      </c>
-      <c r="E2">
-        <v>5.0075652171237446E-3</v>
-      </c>
-      <c r="F2">
-        <v>5.0932163783010773E-3</v>
-      </c>
-      <c r="G2">
-        <v>4.675226570119019E-3</v>
-      </c>
-      <c r="H2">
-        <v>4.8739412376799171E-3</v>
-      </c>
-      <c r="I2">
-        <v>5.1372279141558537E-3</v>
-      </c>
-      <c r="J2">
-        <v>4.9371908366525226E-3</v>
-      </c>
-      <c r="K2">
-        <v>5.587339932752431E-3</v>
-      </c>
-      <c r="L2">
-        <v>5.1361595383548559E-3</v>
-      </c>
-      <c r="M2">
-        <v>4.851054098293844E-3</v>
-      </c>
-      <c r="N2">
-        <v>4.8525032538825948E-3</v>
-      </c>
-      <c r="O2">
-        <v>8.0794504728635783E-3</v>
-      </c>
-      <c r="P2">
-        <v>4.709444370779782E-3</v>
-      </c>
-      <c r="Q2">
-        <v>5.1403551981788528E-3</v>
-      </c>
-      <c r="R2">
-        <v>5.5973407798216518E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>2.5773569552402668E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.595440297310923E-2</v>
-      </c>
-      <c r="E3">
-        <v>2.4917979363745572E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.6292423280823249E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.4759394204198051E-2</v>
-      </c>
-      <c r="H3">
-        <v>2.4724010498536571E-2</v>
-      </c>
-      <c r="I3">
-        <v>2.5730422953812639E-2</v>
-      </c>
-      <c r="J3">
-        <v>2.4812061954790118E-2</v>
-      </c>
-      <c r="K3">
-        <v>2.705885820312073E-2</v>
-      </c>
-      <c r="L3">
-        <v>2.5634141406413301E-2</v>
-      </c>
-      <c r="M3">
-        <v>2.4604118463434611E-2</v>
-      </c>
-      <c r="N3">
-        <v>2.459371797207489E-2</v>
-      </c>
-      <c r="O3">
-        <v>2.579831034307396E-2</v>
-      </c>
-      <c r="P3">
-        <v>2.4799412267072909E-2</v>
-      </c>
-      <c r="Q3">
-        <v>2.5471892295360891E-2</v>
-      </c>
-      <c r="R3">
-        <v>2.6023783898219681E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>4.1988305969927798E-5</v>
-      </c>
-      <c r="D4">
-        <v>1.51078038388405E-4</v>
-      </c>
-      <c r="E4">
-        <v>1.849146140072627E-5</v>
-      </c>
-      <c r="F4">
-        <v>1.205637670636827E-4</v>
-      </c>
-      <c r="G4">
-        <v>1.242979903371319E-5</v>
-      </c>
-      <c r="H4">
-        <v>1.0669777516673739E-5</v>
-      </c>
-      <c r="I4">
-        <v>1.5587259943887041E-4</v>
-      </c>
-      <c r="J4">
-        <v>1.691396202598237E-5</v>
-      </c>
-      <c r="K4">
-        <v>5.0333268821027898E-5</v>
-      </c>
-      <c r="L4">
-        <v>1.5810676037681219E-4</v>
-      </c>
-      <c r="M4">
-        <v>7.3705541006874487E-6</v>
-      </c>
-      <c r="N4">
-        <v>7.6430992153201394E-6</v>
-      </c>
-      <c r="O4">
-        <v>9.9021292394243338E-5</v>
-      </c>
-      <c r="P4">
-        <v>2.19732749611349E-4</v>
-      </c>
-      <c r="Q4">
-        <v>4.1280544731694273E-5</v>
-      </c>
-      <c r="R4">
-        <v>2.2157983847764529E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0.74326889719171307</v>
-      </c>
-      <c r="D5">
-        <v>0.65729002426604344</v>
-      </c>
-      <c r="E5">
-        <v>0.74726827319482281</v>
-      </c>
-      <c r="F5">
-        <v>0.67131336462115931</v>
-      </c>
-      <c r="G5">
-        <v>0.74381990671918485</v>
-      </c>
-      <c r="H5">
-        <v>0.74562896549946178</v>
-      </c>
-      <c r="I5">
-        <v>0.71812907979036178</v>
-      </c>
-      <c r="J5">
-        <v>0.74676301717859428</v>
-      </c>
-      <c r="K5">
-        <v>0.67449581998036701</v>
-      </c>
-      <c r="L5">
-        <v>0.6756783134227089</v>
-      </c>
-      <c r="M5">
-        <v>0.74541363134995786</v>
-      </c>
-      <c r="N5">
-        <v>0.74540846943349437</v>
-      </c>
-      <c r="O5">
-        <v>0.66195527770380702</v>
-      </c>
-      <c r="P5">
-        <v>0.67618466788911258</v>
-      </c>
-      <c r="Q5">
-        <v>0.74511946991719424</v>
-      </c>
-      <c r="R5">
-        <v>0.69202885223161259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>1.480574251431716E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.368055380177984E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.497201077853998E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.425618645283153E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.7451451496253569E-2</v>
-      </c>
-      <c r="H6">
-        <v>1.493553035125896E-2</v>
-      </c>
-      <c r="I6">
-        <v>1.432101885615107E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.4986158933717599E-2</v>
-      </c>
-      <c r="K6">
-        <v>1.509594275271256E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.423243229765102E-2</v>
-      </c>
-      <c r="M6">
-        <v>1.4934436254695189E-2</v>
-      </c>
-      <c r="N6">
-        <v>1.492620032316358E-2</v>
-      </c>
-      <c r="O6">
-        <v>1.2977403153452111E-2</v>
-      </c>
-      <c r="P6">
-        <v>1.370916450371432E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1.497051138156308E-2</v>
-      </c>
-      <c r="R6">
-        <v>1.425743631979143E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1.831079132510449E-3</v>
-      </c>
-      <c r="D7">
-        <v>5.3604693878926473E-4</v>
-      </c>
-      <c r="E7">
-        <v>2.0308693578456639E-3</v>
-      </c>
-      <c r="F7">
-        <v>7.0827132910690591E-4</v>
-      </c>
-      <c r="G7">
-        <v>2.257095258952777E-3</v>
-      </c>
-      <c r="H7">
-        <v>2.11741110131648E-3</v>
-      </c>
-      <c r="I7">
-        <v>1.1019672325166209E-3</v>
-      </c>
-      <c r="J7">
-        <v>2.074841726491786E-3</v>
-      </c>
-      <c r="K7">
-        <v>9.1307372184454923E-4</v>
-      </c>
-      <c r="L7">
-        <v>6.8950602395403721E-4</v>
-      </c>
-      <c r="M7">
-        <v>2.161579641183227E-3</v>
-      </c>
-      <c r="N7">
-        <v>2.1645142401963491E-3</v>
-      </c>
-      <c r="O7">
-        <v>1.310016021347573E-3</v>
-      </c>
-      <c r="P7">
-        <v>5.832560407013881E-4</v>
-      </c>
-      <c r="Q7">
-        <v>1.7920840470188649E-3</v>
-      </c>
-      <c r="R7">
-        <v>9.4920454621271117E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>2.9323030912584949E-3</v>
-      </c>
-      <c r="D8">
-        <v>3.3237161638357019E-3</v>
-      </c>
-      <c r="E8">
-        <v>2.818529126153969E-3</v>
-      </c>
-      <c r="F8">
-        <v>3.329647171127539E-3</v>
-      </c>
-      <c r="G8">
-        <v>2.9278760626486868E-3</v>
-      </c>
-      <c r="H8">
-        <v>2.7628942390609912E-3</v>
-      </c>
-      <c r="I8">
-        <v>3.2362541234370041E-3</v>
-      </c>
-      <c r="J8">
-        <v>2.7960344881222E-3</v>
-      </c>
-      <c r="K8">
-        <v>3.3116547262678629E-3</v>
-      </c>
-      <c r="L8">
-        <v>3.355937270073479E-3</v>
-      </c>
-      <c r="M8">
-        <v>2.7363017022602782E-3</v>
-      </c>
-      <c r="N8">
-        <v>2.733443093557652E-3</v>
-      </c>
-      <c r="O8">
-        <v>3.0656226923860318E-3</v>
-      </c>
-      <c r="P8">
-        <v>3.365825179499648E-3</v>
-      </c>
-      <c r="Q8">
-        <v>2.9645669745398421E-3</v>
-      </c>
-      <c r="R8">
-        <v>3.3070712225931409E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>2.0800214642416711E-2</v>
-      </c>
-      <c r="D9">
-        <v>8.9327059556727379E-6</v>
-      </c>
-      <c r="E9">
-        <v>2.8239044368237352E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.575847946471058E-4</v>
-      </c>
-      <c r="G9">
-        <v>3.0466392495845419E-2</v>
-      </c>
-      <c r="H9">
-        <v>3.1423001194525541E-2</v>
-      </c>
-      <c r="I9">
-        <v>6.5103116021980956E-3</v>
-      </c>
-      <c r="J9">
-        <v>2.9737399630236239E-2</v>
-      </c>
-      <c r="K9">
-        <v>5.6496116400870323E-5</v>
-      </c>
-      <c r="L9">
-        <v>1.4891021216442319E-4</v>
-      </c>
-      <c r="M9">
-        <v>3.28032043957441E-2</v>
-      </c>
-      <c r="N9">
-        <v>3.2930077837971992E-2</v>
-      </c>
-      <c r="O9">
-        <v>1.5785526099237909E-4</v>
-      </c>
-      <c r="P9">
-        <v>4.7369248749088008E-4</v>
-      </c>
-      <c r="Q9">
-        <v>2.0477780818051489E-2</v>
-      </c>
-      <c r="R9">
-        <v>1.7289620240434321E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>3.0575724988049849E-3</v>
-      </c>
-      <c r="D10">
-        <v>1.4512843687505141E-2</v>
-      </c>
-      <c r="E10">
-        <v>1.4665506488317139E-3</v>
-      </c>
-      <c r="F10">
-        <v>1.109865524809042E-2</v>
-      </c>
-      <c r="G10">
-        <v>8.4497859801266134E-4</v>
-      </c>
-      <c r="H10">
-        <v>8.5975863766370229E-4</v>
-      </c>
-      <c r="I10">
-        <v>1.1504961009030571E-2</v>
-      </c>
-      <c r="J10">
-        <v>1.16624965701918E-3</v>
-      </c>
-      <c r="K10">
-        <v>4.4222968656473854E-3</v>
-      </c>
-      <c r="L10">
-        <v>1.263549399437776E-2</v>
-      </c>
-      <c r="M10">
-        <v>5.4276261211512022E-4</v>
-      </c>
-      <c r="N10">
-        <v>5.2902412071813786E-4</v>
-      </c>
-      <c r="O10">
-        <v>5.374275871154144E-3</v>
-      </c>
-      <c r="P10">
-        <v>1.8139656412129869E-2</v>
-      </c>
-      <c r="Q10">
-        <v>3.223694934036282E-3</v>
-      </c>
-      <c r="R10">
-        <v>1.197371173594106E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>-2.1399000462968119E-4</v>
-      </c>
-      <c r="D11">
-        <v>-6.0461822302320666E-6</v>
-      </c>
-      <c r="E11">
-        <v>-9.6050972808310676E-5</v>
-      </c>
-      <c r="F11">
-        <v>-2.9701770348641301E-5</v>
-      </c>
-      <c r="G11">
-        <v>-7.1941706805279799E-5</v>
-      </c>
-      <c r="H11">
-        <v>-5.5344083355352688E-5</v>
-      </c>
-      <c r="I11">
-        <v>-1.063264912646742E-4</v>
-      </c>
-      <c r="J11">
-        <v>-8.0881039029334737E-5</v>
-      </c>
-      <c r="K11">
-        <v>-1.2424054447173559E-5</v>
-      </c>
-      <c r="L11">
-        <v>-5.1692991986617712E-5</v>
-      </c>
-      <c r="M11">
-        <v>-5.6591016534318559E-5</v>
-      </c>
-      <c r="N11">
-        <v>-5.9777625830422953E-5</v>
-      </c>
-      <c r="O11">
-        <v>1.0713126369285191E-2</v>
-      </c>
-      <c r="P11">
-        <v>-3.9333261088770711E-5</v>
-      </c>
-      <c r="Q11">
-        <v>-1.059970557929514E-4</v>
-      </c>
-      <c r="R11">
-        <v>9.6026417729668298E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>1.3095826605463021E-4</v>
-      </c>
-      <c r="D12">
-        <v>2.2889636351327901E-5</v>
-      </c>
-      <c r="E12">
-        <v>5.0655527355688051E-5</v>
-      </c>
-      <c r="F12">
-        <v>8.4650040772564684E-5</v>
-      </c>
-      <c r="G12">
-        <v>6.6337225094498052E-5</v>
-      </c>
-      <c r="H12">
-        <v>3.5786160008842811E-5</v>
-      </c>
-      <c r="I12">
-        <v>2.2955607668822601E-4</v>
-      </c>
-      <c r="J12">
-        <v>4.7385581244005307E-5</v>
-      </c>
-      <c r="K12">
-        <v>4.3477148941489618E-5</v>
-      </c>
-      <c r="L12">
-        <v>4.5992305980758699E-4</v>
-      </c>
-      <c r="M12">
-        <v>2.8744283878961541E-5</v>
-      </c>
-      <c r="N12">
-        <v>2.0489553484084919E-5</v>
-      </c>
-      <c r="O12">
-        <v>2.0660661560114181E-4</v>
-      </c>
-      <c r="P12">
-        <v>1.1662545825493139E-3</v>
-      </c>
-      <c r="Q12">
-        <v>3.0098044256714711E-4</v>
-      </c>
-      <c r="R12">
-        <v>2.986201584002212E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>2.2736431559050669E-4</v>
-      </c>
-      <c r="D13">
-        <v>-4.462383093144056E-5</v>
-      </c>
-      <c r="E13">
-        <v>4.6971950691397998E-4</v>
-      </c>
-      <c r="F13">
-        <v>-1.0500843415970611E-4</v>
-      </c>
-      <c r="G13">
-        <v>5.8169376002617501E-4</v>
-      </c>
-      <c r="H13">
-        <v>5.1857354925871938E-4</v>
-      </c>
-      <c r="I13">
-        <v>-1.32126398062387E-5</v>
-      </c>
-      <c r="J13">
-        <v>4.9371881622211461E-4</v>
-      </c>
-      <c r="K13">
-        <v>-9.2386332567853972E-5</v>
-      </c>
-      <c r="L13">
-        <v>-1.3771439764638499E-4</v>
-      </c>
-      <c r="M13">
-        <v>5.529981591568244E-4</v>
-      </c>
-      <c r="N13">
-        <v>5.5839851021871275E-4</v>
-      </c>
-      <c r="O13">
-        <v>-3.7960031890530409E-4</v>
-      </c>
-      <c r="P13">
-        <v>-1.113470547853884E-4</v>
-      </c>
-      <c r="Q13">
-        <v>2.2818609189412901E-4</v>
-      </c>
-      <c r="R13">
-        <v>-1.5416472515938421E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>3.9307548322890396E-3</v>
-      </c>
-      <c r="D14">
-        <v>1.233678183070698E-4</v>
-      </c>
-      <c r="E14">
-        <v>5.130959683634766E-3</v>
-      </c>
-      <c r="F14">
-        <v>2.9833551028462981E-4</v>
-      </c>
-      <c r="G14">
-        <v>5.4047153709620857E-3</v>
-      </c>
-      <c r="H14">
-        <v>5.4306159262665337E-3</v>
-      </c>
-      <c r="I14">
-        <v>1.9712271626940911E-3</v>
-      </c>
-      <c r="J14">
-        <v>5.2746550281230972E-3</v>
-      </c>
-      <c r="K14">
-        <v>1.5337813318268501E-4</v>
-      </c>
-      <c r="L14">
-        <v>4.9460446106342696E-4</v>
-      </c>
-      <c r="M14">
-        <v>5.6066663722508826E-3</v>
-      </c>
-      <c r="N14">
-        <v>5.6244624482134154E-3</v>
-      </c>
-      <c r="O14">
-        <v>9.0954607905182786E-5</v>
-      </c>
-      <c r="P14">
-        <v>7.0805250993790888E-4</v>
-      </c>
-      <c r="Q14">
-        <v>4.0203879015754743E-3</v>
-      </c>
-      <c r="R14">
-        <v>8.8694978460540001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>2.6038004990509901E-3</v>
-      </c>
-      <c r="D15">
-        <v>3.8435503774890538E-5</v>
-      </c>
-      <c r="E15">
-        <v>3.3023612792805021E-3</v>
-      </c>
-      <c r="F15">
-        <v>1.170810702236492E-4</v>
-      </c>
-      <c r="G15">
-        <v>3.484234901049002E-3</v>
-      </c>
-      <c r="H15">
-        <v>3.5695296521456111E-3</v>
-      </c>
-      <c r="I15">
-        <v>1.1587126238855429E-3</v>
-      </c>
-      <c r="J15">
-        <v>3.4596490564725241E-3</v>
-      </c>
-      <c r="K15">
-        <v>6.1686706695926366E-5</v>
-      </c>
-      <c r="L15">
-        <v>1.847839156670273E-4</v>
-      </c>
-      <c r="M15">
-        <v>3.6987067340967009E-3</v>
-      </c>
-      <c r="N15">
-        <v>3.7113045349658879E-3</v>
-      </c>
-      <c r="O15">
-        <v>7.7272826075736056E-4</v>
-      </c>
-      <c r="P15">
-        <v>2.75819096378239E-4</v>
-      </c>
-      <c r="Q15">
-        <v>2.5823045738758411E-3</v>
-      </c>
-      <c r="R15">
-        <v>5.0066531158483125E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>2.6967241627859951E-2</v>
-      </c>
-      <c r="D16">
-        <v>3.9824751131607272E-2</v>
-      </c>
-      <c r="E16">
-        <v>2.464341626308859E-2</v>
-      </c>
-      <c r="F16">
-        <v>3.8558453567559388E-2</v>
-      </c>
-      <c r="G16">
-        <v>2.3756788854466401E-2</v>
-      </c>
-      <c r="H16">
-        <v>2.3801332703265489E-2</v>
-      </c>
-      <c r="I16">
-        <v>3.3407942127036877E-2</v>
-      </c>
-      <c r="J16">
-        <v>2.4215382143013209E-2</v>
-      </c>
-      <c r="K16">
-        <v>3.7618702849626269E-2</v>
-      </c>
-      <c r="L16">
-        <v>3.8180214203420819E-2</v>
-      </c>
-      <c r="M16">
-        <v>2.334708097390956E-2</v>
-      </c>
-      <c r="N16">
-        <v>2.3305354541336878E-2</v>
-      </c>
-      <c r="O16">
-        <v>2.9856691639230801E-2</v>
-      </c>
-      <c r="P16">
-        <v>3.8269504722136069E-2</v>
-      </c>
-      <c r="Q16">
-        <v>2.7240210897256738E-2</v>
-      </c>
-      <c r="R16">
-        <v>3.5511290966259018E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>3.4441156769862341E-2</v>
-      </c>
-      <c r="D17">
-        <v>3.428295699074424E-2</v>
-      </c>
-      <c r="E17">
-        <v>3.3818264270069648E-2</v>
-      </c>
-      <c r="F17">
-        <v>3.4929083366982763E-2</v>
-      </c>
-      <c r="G17">
-        <v>3.3851868265646491E-2</v>
-      </c>
-      <c r="H17">
-        <v>3.3799444710613087E-2</v>
-      </c>
-      <c r="I17">
-        <v>3.3418668469938059E-2</v>
-      </c>
-      <c r="J17">
-        <v>3.3780809283691017E-2</v>
-      </c>
-      <c r="K17">
-        <v>3.7288901495070012E-2</v>
-      </c>
-      <c r="L17">
-        <v>3.3818748537581191E-2</v>
-      </c>
-      <c r="M17">
-        <v>3.3741383124211953E-2</v>
-      </c>
-      <c r="N17">
-        <v>3.3731078080014493E-2</v>
-      </c>
-      <c r="O17">
-        <v>3.283104605298532E-2</v>
-      </c>
-      <c r="P17">
-        <v>3.2362829132580873E-2</v>
-      </c>
-      <c r="Q17">
-        <v>3.4137626883243288E-2</v>
-      </c>
-      <c r="R17">
-        <v>3.3840587335934633E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2">
-        <f>SUM(C2:C17)</f>
-        <v>0.88597637196180345</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:R18" si="0">SUM(D2:D17)</f>
-        <v>0.79447241093122034</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89405863907423644</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.80622280639446531</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89428844787468809</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89443612115522353</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.85589368341027428</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89448058723738633</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.80605315151443602</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.81061786771398148</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89497344770275555</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89503690341667796</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.79290878603833093</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.81481663162782092</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.887605335845295</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8270679178460677</v>
       </c>
     </row>
   </sheetData>
@@ -3729,16 +4173,1396 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'CGE TOTAL'!C2/'CGE TOTAL'!C$19</f>
+        <v>1.9596024534307105E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'CGE TOTAL'!D2/'CGE TOTAL'!D$19</f>
+        <v>0.57066257036841483</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'CGE TOTAL'!E2/'CGE TOTAL'!E$19</f>
+        <v>0.56346964383476539</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'CGE TOTAL'!F2/'CGE TOTAL'!F$19</f>
+        <v>0.56776783405597231</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'CGE TOTAL'!G2/'CGE TOTAL'!G$19</f>
+        <v>0.55506792447434428</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'CGE TOTAL'!H2/'CGE TOTAL'!H$19</f>
+        <v>0.55244104788305237</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'CGE TOTAL'!I2/'CGE TOTAL'!I$19</f>
+        <v>0.59860438364615998</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'CGE TOTAL'!J2/'CGE TOTAL'!J$19</f>
+        <v>0.5633638386506149</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'CGE TOTAL'!K2/'CGE TOTAL'!K$19</f>
+        <v>0.55120611466388836</v>
+      </c>
+      <c r="L2" s="8">
+        <f>'CGE TOTAL'!L2/'CGE TOTAL'!L$19</f>
+        <v>0.57730249823363111</v>
+      </c>
+      <c r="M2" s="8">
+        <f>'CGE TOTAL'!M2/'CGE TOTAL'!M$19</f>
+        <v>0.54629316607962608</v>
+      </c>
+      <c r="N2" s="8">
+        <f>'CGE TOTAL'!N2/'CGE TOTAL'!N$19</f>
+        <v>0.54734828339776798</v>
+      </c>
+      <c r="O2" s="8">
+        <f>'CGE TOTAL'!O2/'CGE TOTAL'!O$19</f>
+        <v>0.6249933585126406</v>
+      </c>
+      <c r="P2" s="8">
+        <f>'CGE TOTAL'!P2/'CGE TOTAL'!P$19</f>
+        <v>0.58577823291479658</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>'CGE TOTAL'!Q2/'CGE TOTAL'!Q$19</f>
+        <v>0.57524073838128442</v>
+      </c>
+      <c r="R2" s="8">
+        <f>'CGE TOTAL'!R2/'CGE TOTAL'!R$19</f>
+        <v>0.60933945807517598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8">
+        <f>'CGE TOTAL'!C3/'CGE TOTAL'!C$19</f>
+        <v>7.2828050251432137E-4</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'CGE TOTAL'!D3/'CGE TOTAL'!D$19</f>
+        <v>0.22413794990940064</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'CGE TOTAL'!E3/'CGE TOTAL'!E$19</f>
+        <v>0.2347610702023058</v>
+      </c>
+      <c r="F3" s="8">
+        <f>'CGE TOTAL'!F3/'CGE TOTAL'!F$19</f>
+        <v>0.22912128500115428</v>
+      </c>
+      <c r="G3" s="8">
+        <f>'CGE TOTAL'!G3/'CGE TOTAL'!G$19</f>
+        <v>0.24288229324379096</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'CGE TOTAL'!H3/'CGE TOTAL'!H$19</f>
+        <v>0.24559840805017896</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'CGE TOTAL'!I3/'CGE TOTAL'!I$19</f>
+        <v>0.18858618136693492</v>
+      </c>
+      <c r="J3" s="8">
+        <f>'CGE TOTAL'!J3/'CGE TOTAL'!J$19</f>
+        <v>0.23456479529763777</v>
+      </c>
+      <c r="K3" s="8">
+        <f>'CGE TOTAL'!K3/'CGE TOTAL'!K$19</f>
+        <v>0.25254637915846639</v>
+      </c>
+      <c r="L3" s="8">
+        <f>'CGE TOTAL'!L3/'CGE TOTAL'!L$19</f>
+        <v>0.21575828092966645</v>
+      </c>
+      <c r="M3" s="8">
+        <f>'CGE TOTAL'!M3/'CGE TOTAL'!M$19</f>
+        <v>0.25089348277146761</v>
+      </c>
+      <c r="N3" s="8">
+        <f>'CGE TOTAL'!N3/'CGE TOTAL'!N$19</f>
+        <v>0.24987640954042528</v>
+      </c>
+      <c r="O3" s="8">
+        <f>'CGE TOTAL'!O3/'CGE TOTAL'!O$19</f>
+        <v>0.16304209887262874</v>
+      </c>
+      <c r="P3" s="8">
+        <f>'CGE TOTAL'!P3/'CGE TOTAL'!P$19</f>
+        <v>0.19774217933191857</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>'CGE TOTAL'!Q3/'CGE TOTAL'!Q$19</f>
+        <v>0.22099418215317038</v>
+      </c>
+      <c r="R3" s="8">
+        <f>'CGE TOTAL'!R3/'CGE TOTAL'!R$19</f>
+        <v>0.17865995690744116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'CGE TOTAL'!C4/'CGE TOTAL'!C$19</f>
+        <v>1.1529289981847665E-5</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'CGE TOTAL'!D4/'CGE TOTAL'!D$19</f>
+        <v>2.7875054081760902E-3</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'CGE TOTAL'!E4/'CGE TOTAL'!E$19</f>
+        <v>1.520055615295492E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <f>'CGE TOTAL'!F4/'CGE TOTAL'!F$19</f>
+        <v>2.2574402244030164E-3</v>
+      </c>
+      <c r="G4" s="8">
+        <f>'CGE TOTAL'!G4/'CGE TOTAL'!G$19</f>
+        <v>9.055929797996393E-4</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'CGE TOTAL'!H4/'CGE TOTAL'!H$19</f>
+        <v>7.6109182815492765E-4</v>
+      </c>
+      <c r="I4" s="8">
+        <f>'CGE TOTAL'!I4/'CGE TOTAL'!I$19</f>
+        <v>7.338185176127502E-3</v>
+      </c>
+      <c r="J4" s="8">
+        <f>'CGE TOTAL'!J4/'CGE TOTAL'!J$19</f>
+        <v>1.5064100007375499E-3</v>
+      </c>
+      <c r="K4" s="8">
+        <f>'CGE TOTAL'!K4/'CGE TOTAL'!K$19</f>
+        <v>5.5991353312892294E-4</v>
+      </c>
+      <c r="L4" s="8">
+        <f>'CGE TOTAL'!L4/'CGE TOTAL'!L$19</f>
+        <v>3.6592895501157663E-3</v>
+      </c>
+      <c r="M4" s="8">
+        <f>'CGE TOTAL'!M4/'CGE TOTAL'!M$19</f>
+        <v>4.5139470149630834E-4</v>
+      </c>
+      <c r="N4" s="8">
+        <f>'CGE TOTAL'!N4/'CGE TOTAL'!N$19</f>
+        <v>4.9164884620533824E-4</v>
+      </c>
+      <c r="O4" s="8">
+        <f>'CGE TOTAL'!O4/'CGE TOTAL'!O$19</f>
+        <v>5.2147483020579298E-3</v>
+      </c>
+      <c r="P4" s="8">
+        <f>'CGE TOTAL'!P4/'CGE TOTAL'!P$19</f>
+        <v>6.1999554316209968E-3</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>'CGE TOTAL'!Q4/'CGE TOTAL'!Q$19</f>
+        <v>2.9952245689492752E-3</v>
+      </c>
+      <c r="R4" s="8">
+        <f>'CGE TOTAL'!R4/'CGE TOTAL'!R$19</f>
+        <v>8.9289272570300705E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'CGE TOTAL'!C5/'CGE TOTAL'!C$19</f>
+        <v>3.8185429290064008E-5</v>
+      </c>
+      <c r="D5" s="8">
+        <f>'CGE TOTAL'!D5/'CGE TOTAL'!D$19</f>
+        <v>1.1575638611696089E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'CGE TOTAL'!E5/'CGE TOTAL'!E$19</f>
+        <v>1.1403871499271566E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <f>'CGE TOTAL'!F5/'CGE TOTAL'!F$19</f>
+        <v>1.1618667186502302E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <f>'CGE TOTAL'!G5/'CGE TOTAL'!G$19</f>
+        <v>1.1396393455031082E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'CGE TOTAL'!H5/'CGE TOTAL'!H$19</f>
+        <v>1.1415272905779088E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'CGE TOTAL'!I5/'CGE TOTAL'!I$19</f>
+        <v>1.1097222339501606E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <f>'CGE TOTAL'!J5/'CGE TOTAL'!J$19</f>
+        <v>1.136132097537053E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <f>'CGE TOTAL'!K5/'CGE TOTAL'!K$19</f>
+        <v>1.1841927766720538E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <f>'CGE TOTAL'!L5/'CGE TOTAL'!L$19</f>
+        <v>1.1434632275299847E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <f>'CGE TOTAL'!M5/'CGE TOTAL'!M$19</f>
+        <v>1.1402864383046695E-2</v>
+      </c>
+      <c r="N5" s="8">
+        <f>'CGE TOTAL'!N5/'CGE TOTAL'!N$19</f>
+        <v>1.1394726168247783E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <f>'CGE TOTAL'!O5/'CGE TOTAL'!O$19</f>
+        <v>1.1217691818409831E-2</v>
+      </c>
+      <c r="P5" s="8">
+        <f>'CGE TOTAL'!P5/'CGE TOTAL'!P$19</f>
+        <v>1.1143541397781677E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>'CGE TOTAL'!Q5/'CGE TOTAL'!Q$19</f>
+        <v>1.1334696811424402E-2</v>
+      </c>
+      <c r="R5" s="8">
+        <f>'CGE TOTAL'!R5/'CGE TOTAL'!R$19</f>
+        <v>1.0977051119643493E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'CGE TOTAL'!C6/'CGE TOTAL'!C$19</f>
+        <v>0.99662627987303054</v>
+      </c>
+      <c r="D6" s="8">
+        <f>'CGE TOTAL'!D6/'CGE TOTAL'!D$19</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'CGE TOTAL'!E6/'CGE TOTAL'!E$19</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'CGE TOTAL'!F6/'CGE TOTAL'!F$19</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f>'CGE TOTAL'!G6/'CGE TOTAL'!G$19</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'CGE TOTAL'!H6/'CGE TOTAL'!H$19</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>'CGE TOTAL'!I6/'CGE TOTAL'!I$19</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f>'CGE TOTAL'!J6/'CGE TOTAL'!J$19</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <f>'CGE TOTAL'!K6/'CGE TOTAL'!K$19</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f>'CGE TOTAL'!L6/'CGE TOTAL'!L$19</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <f>'CGE TOTAL'!M6/'CGE TOTAL'!M$19</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f>'CGE TOTAL'!N6/'CGE TOTAL'!N$19</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <f>'CGE TOTAL'!O6/'CGE TOTAL'!O$19</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <f>'CGE TOTAL'!P6/'CGE TOTAL'!P$19</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>'CGE TOTAL'!Q6/'CGE TOTAL'!Q$19</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <f>'CGE TOTAL'!R6/'CGE TOTAL'!R$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'CGE TOTAL'!C7/'CGE TOTAL'!C$19</f>
+        <v>5.6292265612383009E-5</v>
+      </c>
+      <c r="D7" s="8">
+        <f>'CGE TOTAL'!D7/'CGE TOTAL'!D$19</f>
+        <v>1.5153787202960931E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'CGE TOTAL'!E7/'CGE TOTAL'!E$19</f>
+        <v>1.6201014810697419E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <f>'CGE TOTAL'!F7/'CGE TOTAL'!F$19</f>
+        <v>1.579339830131276E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <f>'CGE TOTAL'!G7/'CGE TOTAL'!G$19</f>
+        <v>1.6173029170959516E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <f>'CGE TOTAL'!H7/'CGE TOTAL'!H$19</f>
+        <v>1.5336854835482938E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <f>'CGE TOTAL'!I7/'CGE TOTAL'!I$19</f>
+        <v>1.7080690920223844E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <f>'CGE TOTAL'!J7/'CGE TOTAL'!J$19</f>
+        <v>1.6302810742133713E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <f>'CGE TOTAL'!K7/'CGE TOTAL'!K$19</f>
+        <v>1.4973431448064017E-2</v>
+      </c>
+      <c r="L7" s="8">
+        <f>'CGE TOTAL'!L7/'CGE TOTAL'!L$19</f>
+        <v>1.7125372699652721E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <f>'CGE TOTAL'!M7/'CGE TOTAL'!M$19</f>
+        <v>1.5276558776198939E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <f>'CGE TOTAL'!N7/'CGE TOTAL'!N$19</f>
+        <v>1.5183996240886049E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <f>'CGE TOTAL'!O7/'CGE TOTAL'!O$19</f>
+        <v>2.362995492031093E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <f>'CGE TOTAL'!P7/'CGE TOTAL'!P$19</f>
+        <v>1.8030796369619736E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <f>'CGE TOTAL'!Q7/'CGE TOTAL'!Q$19</f>
+        <v>1.6648495825519524E-2</v>
+      </c>
+      <c r="R7" s="8">
+        <f>'CGE TOTAL'!R7/'CGE TOTAL'!R$19</f>
+        <v>1.8843751890707198E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8">
+        <f>'CGE TOTAL'!C8/'CGE TOTAL'!C$19</f>
+        <v>5.8541402929668276E-6</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'CGE TOTAL'!D8/'CGE TOTAL'!D$19</f>
+        <v>1.6608785801964655E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'CGE TOTAL'!E8/'CGE TOTAL'!E$19</f>
+        <v>1.646261384844896E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <f>'CGE TOTAL'!F8/'CGE TOTAL'!F$19</f>
+        <v>1.6887100342397278E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <f>'CGE TOTAL'!G8/'CGE TOTAL'!G$19</f>
+        <v>1.6143951920022726E-3</v>
+      </c>
+      <c r="H8" s="8">
+        <f>'CGE TOTAL'!H8/'CGE TOTAL'!H$19</f>
+        <v>1.5503030242322129E-3</v>
+      </c>
+      <c r="I8" s="8">
+        <f>'CGE TOTAL'!I8/'CGE TOTAL'!I$19</f>
+        <v>1.8555244752573219E-3</v>
+      </c>
+      <c r="J8" s="8">
+        <f>'CGE TOTAL'!J8/'CGE TOTAL'!J$19</f>
+        <v>1.6460788816253678E-3</v>
+      </c>
+      <c r="K8" s="8">
+        <f>'CGE TOTAL'!K8/'CGE TOTAL'!K$19</f>
+        <v>1.5679289414995525E-3</v>
+      </c>
+      <c r="L8" s="8">
+        <f>'CGE TOTAL'!L8/'CGE TOTAL'!L$19</f>
+        <v>1.8070822955242591E-3</v>
+      </c>
+      <c r="M8" s="8">
+        <f>'CGE TOTAL'!M8/'CGE TOTAL'!M$19</f>
+        <v>1.5239441824589459E-3</v>
+      </c>
+      <c r="N8" s="8">
+        <f>'CGE TOTAL'!N8/'CGE TOTAL'!N$19</f>
+        <v>1.5183664180954516E-3</v>
+      </c>
+      <c r="O8" s="8">
+        <f>'CGE TOTAL'!O8/'CGE TOTAL'!O$19</f>
+        <v>2.2684262504926189E-3</v>
+      </c>
+      <c r="P8" s="8">
+        <f>'CGE TOTAL'!P8/'CGE TOTAL'!P$19</f>
+        <v>1.9158686326421048E-3</v>
+      </c>
+      <c r="Q8" s="8">
+        <f>'CGE TOTAL'!Q8/'CGE TOTAL'!Q$19</f>
+        <v>1.7337051008452576E-3</v>
+      </c>
+      <c r="R8" s="8">
+        <f>'CGE TOTAL'!R8/'CGE TOTAL'!R$19</f>
+        <v>1.982136319495975E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8">
+        <f>'CGE TOTAL'!C9/'CGE TOTAL'!C$19</f>
+        <v>1.8722692894190812E-7</v>
+      </c>
+      <c r="D9" s="8">
+        <f>'CGE TOTAL'!D9/'CGE TOTAL'!D$19</f>
+        <v>5.285229479154268E-5</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'CGE TOTAL'!E9/'CGE TOTAL'!E$19</f>
+        <v>5.1898516522685114E-5</v>
+      </c>
+      <c r="F9" s="8">
+        <f>'CGE TOTAL'!F9/'CGE TOTAL'!F$19</f>
+        <v>5.3557233456816367E-5</v>
+      </c>
+      <c r="G9" s="8">
+        <f>'CGE TOTAL'!G9/'CGE TOTAL'!G$19</f>
+        <v>5.0478339123824678E-5</v>
+      </c>
+      <c r="H9" s="8">
+        <f>'CGE TOTAL'!H9/'CGE TOTAL'!H$19</f>
+        <v>4.8271782134316757E-5</v>
+      </c>
+      <c r="I9" s="8">
+        <f>'CGE TOTAL'!I9/'CGE TOTAL'!I$19</f>
+        <v>6.0615986338293567E-5</v>
+      </c>
+      <c r="J9" s="8">
+        <f>'CGE TOTAL'!J9/'CGE TOTAL'!J$19</f>
+        <v>5.1838535390814711E-5</v>
+      </c>
+      <c r="K9" s="8">
+        <f>'CGE TOTAL'!K9/'CGE TOTAL'!K$19</f>
+        <v>4.8451499082082926E-5</v>
+      </c>
+      <c r="L9" s="8">
+        <f>'CGE TOTAL'!L9/'CGE TOTAL'!L$19</f>
+        <v>5.7950862563867716E-5</v>
+      </c>
+      <c r="M9" s="8">
+        <f>'CGE TOTAL'!M9/'CGE TOTAL'!M$19</f>
+        <v>4.7195743122964603E-5</v>
+      </c>
+      <c r="N9" s="8">
+        <f>'CGE TOTAL'!N9/'CGE TOTAL'!N$19</f>
+        <v>4.7032520519106089E-5</v>
+      </c>
+      <c r="O9" s="8">
+        <f>'CGE TOTAL'!O9/'CGE TOTAL'!O$19</f>
+        <v>7.5563008652200804E-5</v>
+      </c>
+      <c r="P9" s="8">
+        <f>'CGE TOTAL'!P9/'CGE TOTAL'!P$19</f>
+        <v>6.229797325553388E-5</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>'CGE TOTAL'!Q9/'CGE TOTAL'!Q$19</f>
+        <v>5.5146469422215892E-5</v>
+      </c>
+      <c r="R9" s="8">
+        <f>'CGE TOTAL'!R9/'CGE TOTAL'!R$19</f>
+        <v>6.5084498959742517E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <f>'CGE TOTAL'!C10/'CGE TOTAL'!C$19</f>
+        <v>1.3694930161514967E-5</v>
+      </c>
+      <c r="D10" s="8">
+        <f>'CGE TOTAL'!D10/'CGE TOTAL'!D$19</f>
+        <v>1.8871386335927756E-7</v>
+      </c>
+      <c r="E10" s="8">
+        <f>'CGE TOTAL'!E10/'CGE TOTAL'!E$19</f>
+        <v>9.74127204393147E-3</v>
+      </c>
+      <c r="F10" s="8">
+        <f>'CGE TOTAL'!F10/'CGE TOTAL'!F$19</f>
+        <v>5.5626404569592031E-6</v>
+      </c>
+      <c r="G10" s="8">
+        <f>'CGE TOTAL'!G10/'CGE TOTAL'!G$19</f>
+        <v>1.2993672775951546E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <f>'CGE TOTAL'!H10/'CGE TOTAL'!H$19</f>
+        <v>1.4311801534724699E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <f>'CGE TOTAL'!I10/'CGE TOTAL'!I$19</f>
+        <v>4.1587737950096428E-4</v>
+      </c>
+      <c r="J10" s="8">
+        <f>'CGE TOTAL'!J10/'CGE TOTAL'!J$19</f>
+        <v>1.1472948162011127E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <f>'CGE TOTAL'!K10/'CGE TOTAL'!K$19</f>
+        <v>2.7884616322221236E-6</v>
+      </c>
+      <c r="L10" s="8">
+        <f>'CGE TOTAL'!L10/'CGE TOTAL'!L$19</f>
+        <v>4.9525945506427266E-6</v>
+      </c>
+      <c r="M10" s="8">
+        <f>'CGE TOTAL'!M10/'CGE TOTAL'!M$19</f>
+        <v>1.7224788589238444E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <f>'CGE TOTAL'!N10/'CGE TOTAL'!N$19</f>
+        <v>1.7463966860205172E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <f>'CGE TOTAL'!O10/'CGE TOTAL'!O$19</f>
+        <v>1.052238173985192E-5</v>
+      </c>
+      <c r="P10" s="8">
+        <f>'CGE TOTAL'!P10/'CGE TOTAL'!P$19</f>
+        <v>1.60766140333786E-5</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>'CGE TOTAL'!Q10/'CGE TOTAL'!Q$19</f>
+        <v>3.7556649807128197E-3</v>
+      </c>
+      <c r="R10" s="8">
+        <f>'CGE TOTAL'!R10/'CGE TOTAL'!R$19</f>
+        <v>7.3226377004828174E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8">
+        <f>'CGE TOTAL'!C11/'CGE TOTAL'!C$19</f>
+        <v>1.5443261555979072E-5</v>
+      </c>
+      <c r="D11" s="8">
+        <f>'CGE TOTAL'!D11/'CGE TOTAL'!D$19</f>
+        <v>8.9181505303861739E-3</v>
+      </c>
+      <c r="E11" s="8">
+        <f>'CGE TOTAL'!E11/'CGE TOTAL'!E$19</f>
+        <v>2.2716742663241815E-3</v>
+      </c>
+      <c r="F11" s="8">
+        <f>'CGE TOTAL'!F11/'CGE TOTAL'!F$19</f>
+        <v>6.6139761234393106E-3</v>
+      </c>
+      <c r="G11" s="8">
+        <f>'CGE TOTAL'!G11/'CGE TOTAL'!G$19</f>
+        <v>1.0689829917676604E-3</v>
+      </c>
+      <c r="H11" s="8">
+        <f>'CGE TOTAL'!H11/'CGE TOTAL'!H$19</f>
+        <v>1.1303263543174832E-3</v>
+      </c>
+      <c r="I11" s="8">
+        <f>'CGE TOTAL'!I11/'CGE TOTAL'!I$19</f>
+        <v>1.2123760366088719E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <f>'CGE TOTAL'!J11/'CGE TOTAL'!J$19</f>
+        <v>1.6778454513926555E-3</v>
+      </c>
+      <c r="K11" s="8">
+        <f>'CGE TOTAL'!K11/'CGE TOTAL'!K$19</f>
+        <v>1.6130750087552305E-3</v>
+      </c>
+      <c r="L11" s="8">
+        <f>'CGE TOTAL'!L11/'CGE TOTAL'!L$19</f>
+        <v>7.8828620037330044E-3</v>
+      </c>
+      <c r="M11" s="8">
+        <f>'CGE TOTAL'!M11/'CGE TOTAL'!M$19</f>
+        <v>5.4789094340915406E-4</v>
+      </c>
+      <c r="N11" s="8">
+        <f>'CGE TOTAL'!N11/'CGE TOTAL'!N$19</f>
+        <v>5.2699133642677694E-4</v>
+      </c>
+      <c r="O11" s="8">
+        <f>'CGE TOTAL'!O11/'CGE TOTAL'!O$19</f>
+        <v>3.330696699026167E-3</v>
+      </c>
+      <c r="P11" s="8">
+        <f>'CGE TOTAL'!P11/'CGE TOTAL'!P$19</f>
+        <v>1.3622906337513426E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>'CGE TOTAL'!Q11/'CGE TOTAL'!Q$19</f>
+        <v>4.7077494929833319E-3</v>
+      </c>
+      <c r="R11" s="8">
+        <f>'CGE TOTAL'!R11/'CGE TOTAL'!R$19</f>
+        <v>8.615243574861502E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8">
+        <f>'CGE TOTAL'!C12/'CGE TOTAL'!C$19</f>
+        <v>4.4690861286451197E-7</v>
+      </c>
+      <c r="D12" s="8">
+        <f>'CGE TOTAL'!D12/'CGE TOTAL'!D$19</f>
+        <v>4.2277722171107088E-8</v>
+      </c>
+      <c r="E12" s="8">
+        <f>'CGE TOTAL'!E12/'CGE TOTAL'!E$19</f>
+        <v>1.9534061888416432E-5</v>
+      </c>
+      <c r="F12" s="8">
+        <f>'CGE TOTAL'!F12/'CGE TOTAL'!F$19</f>
+        <v>1.0817221977267709E-6</v>
+      </c>
+      <c r="G12" s="8">
+        <f>'CGE TOTAL'!G12/'CGE TOTAL'!G$19</f>
+        <v>1.165039914053052E-5</v>
+      </c>
+      <c r="H12" s="8">
+        <f>'CGE TOTAL'!H12/'CGE TOTAL'!H$19</f>
+        <v>7.2511740894494311E-6</v>
+      </c>
+      <c r="I12" s="8">
+        <f>'CGE TOTAL'!I12/'CGE TOTAL'!I$19</f>
+        <v>2.1375541395546881E-5</v>
+      </c>
+      <c r="J12" s="8">
+        <f>'CGE TOTAL'!J12/'CGE TOTAL'!J$19</f>
+        <v>1.4358640332102412E-5</v>
+      </c>
+      <c r="K12" s="8">
+        <f>'CGE TOTAL'!K12/'CGE TOTAL'!K$19</f>
+        <v>1.1494433975932942E-7</v>
+      </c>
+      <c r="L12" s="8">
+        <f>'CGE TOTAL'!L12/'CGE TOTAL'!L$19</f>
+        <v>1.021999623492968E-5</v>
+      </c>
+      <c r="M12" s="8">
+        <f>'CGE TOTAL'!M12/'CGE TOTAL'!M$19</f>
+        <v>8.4658158454228415E-6</v>
+      </c>
+      <c r="N12" s="8">
+        <f>'CGE TOTAL'!N12/'CGE TOTAL'!N$19</f>
+        <v>9.5621217835688735E-6</v>
+      </c>
+      <c r="O12" s="8">
+        <f>'CGE TOTAL'!O12/'CGE TOTAL'!O$19</f>
+        <v>3.9685929865303331E-3</v>
+      </c>
+      <c r="P12" s="8">
+        <f>'CGE TOTAL'!P12/'CGE TOTAL'!P$19</f>
+        <v>8.4804404467225205E-6</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>'CGE TOTAL'!Q12/'CGE TOTAL'!Q$19</f>
+        <v>1.7463611944120884E-5</v>
+      </c>
+      <c r="R12" s="8">
+        <f>'CGE TOTAL'!R12/'CGE TOTAL'!R$19</f>
+        <v>1.1805440261405996E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8">
+        <f>'CGE TOTAL'!C13/'CGE TOTAL'!C$19</f>
+        <v>2.7065778166232933E-7</v>
+      </c>
+      <c r="D13" s="8">
+        <f>'CGE TOTAL'!D13/'CGE TOTAL'!D$19</f>
+        <v>2.6188354702708596E-7</v>
+      </c>
+      <c r="E13" s="8">
+        <f>'CGE TOTAL'!E13/'CGE TOTAL'!E$19</f>
+        <v>2.5345777981970118E-5</v>
+      </c>
+      <c r="F13" s="8">
+        <f>'CGE TOTAL'!F13/'CGE TOTAL'!F$19</f>
+        <v>3.9152236315331963E-6</v>
+      </c>
+      <c r="G13" s="8">
+        <f>'CGE TOTAL'!G13/'CGE TOTAL'!G$19</f>
+        <v>5.4923740795451487E-5</v>
+      </c>
+      <c r="H13" s="8">
+        <f>'CGE TOTAL'!H13/'CGE TOTAL'!H$19</f>
+        <v>1.7867946035790311E-5</v>
+      </c>
+      <c r="I13" s="8">
+        <f>'CGE TOTAL'!I13/'CGE TOTAL'!I$19</f>
+        <v>6.0454181742673863E-5</v>
+      </c>
+      <c r="J13" s="8">
+        <f>'CGE TOTAL'!J13/'CGE TOTAL'!J$19</f>
+        <v>2.5542024267343886E-5</v>
+      </c>
+      <c r="K13" s="8">
+        <f>'CGE TOTAL'!K13/'CGE TOTAL'!K$19</f>
+        <v>1.0102596943785869E-6</v>
+      </c>
+      <c r="L13" s="8">
+        <f>'CGE TOTAL'!L13/'CGE TOTAL'!L$19</f>
+        <v>1.0379216374287862E-4</v>
+      </c>
+      <c r="M13" s="8">
+        <f>'CGE TOTAL'!M13/'CGE TOTAL'!M$19</f>
+        <v>1.3697400088967771E-5</v>
+      </c>
+      <c r="N13" s="8">
+        <f>'CGE TOTAL'!N13/'CGE TOTAL'!N$19</f>
+        <v>7.0803168961806705E-6</v>
+      </c>
+      <c r="O13" s="8">
+        <f>'CGE TOTAL'!O13/'CGE TOTAL'!O$19</f>
+        <v>3.3570795782393207E-5</v>
+      </c>
+      <c r="P13" s="8">
+        <f>'CGE TOTAL'!P13/'CGE TOTAL'!P$19</f>
+        <v>6.1547048013573555E-4</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>'CGE TOTAL'!Q13/'CGE TOTAL'!Q$19</f>
+        <v>3.70076448514075E-4</v>
+      </c>
+      <c r="R13" s="8">
+        <f>'CGE TOTAL'!R13/'CGE TOTAL'!R$19</f>
+        <v>5.8177195975150843E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8">
+        <f>'CGE TOTAL'!C14/'CGE TOTAL'!C$19</f>
+        <v>3.3420503048383531E-4</v>
+      </c>
+      <c r="D14" s="8">
+        <f>'CGE TOTAL'!D14/'CGE TOTAL'!D$19</f>
+        <v>0.10052165341597609</v>
+      </c>
+      <c r="E14" s="8">
+        <f>'CGE TOTAL'!E14/'CGE TOTAL'!E$19</f>
+        <v>9.2759503221191336E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <f>'CGE TOTAL'!F14/'CGE TOTAL'!F$19</f>
+        <v>9.8981369071392128E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <f>'CGE TOTAL'!G14/'CGE TOTAL'!G$19</f>
+        <v>8.9686114467108974E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <f>'CGE TOTAL'!H14/'CGE TOTAL'!H$19</f>
+        <v>8.8854588081746622E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <f>'CGE TOTAL'!I14/'CGE TOTAL'!I$19</f>
+        <v>0.10769353630160172</v>
+      </c>
+      <c r="J14" s="8">
+        <f>'CGE TOTAL'!J14/'CGE TOTAL'!J$19</f>
+        <v>9.2043792722453638E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <f>'CGE TOTAL'!K14/'CGE TOTAL'!K$19</f>
+        <v>9.2666313111468432E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <f>'CGE TOTAL'!L14/'CGE TOTAL'!L$19</f>
+        <v>0.10208511929137816</v>
+      </c>
+      <c r="M14" s="8">
+        <f>'CGE TOTAL'!M14/'CGE TOTAL'!M$19</f>
+        <v>8.6561253116432188E-2</v>
+      </c>
+      <c r="N14" s="8">
+        <f>'CGE TOTAL'!N14/'CGE TOTAL'!N$19</f>
+        <v>8.6663984959240936E-2</v>
+      </c>
+      <c r="O14" s="8">
+        <f>'CGE TOTAL'!O14/'CGE TOTAL'!O$19</f>
+        <v>0.11022931307956506</v>
+      </c>
+      <c r="P14" s="8">
+        <f>'CGE TOTAL'!P14/'CGE TOTAL'!P$19</f>
+        <v>0.10703261084551983</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>'CGE TOTAL'!Q14/'CGE TOTAL'!Q$19</f>
+        <v>9.8738529449894433E-2</v>
+      </c>
+      <c r="R14" s="8">
+        <f>'CGE TOTAL'!R14/'CGE TOTAL'!R$19</f>
+        <v>0.10904159376555456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8">
+        <f>'CGE TOTAL'!C15/'CGE TOTAL'!C$19</f>
+        <v>2.2478442882008628E-5</v>
+      </c>
+      <c r="D15" s="8">
+        <f>'CGE TOTAL'!D15/'CGE TOTAL'!D$19</f>
+        <v>6.6430890536700983E-3</v>
+      </c>
+      <c r="E15" s="8">
+        <f>'CGE TOTAL'!E15/'CGE TOTAL'!E$19</f>
+        <v>6.4706365307938656E-3</v>
+      </c>
+      <c r="F15" s="8">
+        <f>'CGE TOTAL'!F15/'CGE TOTAL'!F$19</f>
+        <v>6.5776175216484345E-3</v>
+      </c>
+      <c r="G15" s="8">
+        <f>'CGE TOTAL'!G15/'CGE TOTAL'!G$19</f>
+        <v>6.3607358275936977E-3</v>
+      </c>
+      <c r="H15" s="8">
+        <f>'CGE TOTAL'!H15/'CGE TOTAL'!H$19</f>
+        <v>6.3428806911207409E-3</v>
+      </c>
+      <c r="I15" s="8">
+        <f>'CGE TOTAL'!I15/'CGE TOTAL'!I$19</f>
+        <v>6.9251672068152137E-3</v>
+      </c>
+      <c r="J15" s="8">
+        <f>'CGE TOTAL'!J15/'CGE TOTAL'!J$19</f>
+        <v>6.4470147021770128E-3</v>
+      </c>
+      <c r="K15" s="8">
+        <f>'CGE TOTAL'!K15/'CGE TOTAL'!K$19</f>
+        <v>6.3104719233535375E-3</v>
+      </c>
+      <c r="L15" s="8">
+        <f>'CGE TOTAL'!L15/'CGE TOTAL'!L$19</f>
+        <v>6.6833673711211425E-3</v>
+      </c>
+      <c r="M15" s="8">
+        <f>'CGE TOTAL'!M15/'CGE TOTAL'!M$19</f>
+        <v>6.2611951894580411E-3</v>
+      </c>
+      <c r="N15" s="8">
+        <f>'CGE TOTAL'!N15/'CGE TOTAL'!N$19</f>
+        <v>6.2661860224925009E-3</v>
+      </c>
+      <c r="O15" s="8">
+        <f>'CGE TOTAL'!O15/'CGE TOTAL'!O$19</f>
+        <v>6.9041282881164515E-3</v>
+      </c>
+      <c r="P15" s="8">
+        <f>'CGE TOTAL'!P15/'CGE TOTAL'!P$19</f>
+        <v>6.8676799511810617E-3</v>
+      </c>
+      <c r="Q15" s="8">
+        <f>'CGE TOTAL'!Q15/'CGE TOTAL'!Q$19</f>
+        <v>6.6422816722311638E-3</v>
+      </c>
+      <c r="R15" s="8">
+        <f>'CGE TOTAL'!R15/'CGE TOTAL'!R$19</f>
+        <v>6.9258907563936123E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8">
+        <f>'CGE TOTAL'!C16/'CGE TOTAL'!C$19</f>
+        <v>3.9182200320242284E-6</v>
+      </c>
+      <c r="D16" s="8">
+        <f>'CGE TOTAL'!D16/'CGE TOTAL'!D$19</f>
+        <v>1.2159580173963797E-3</v>
+      </c>
+      <c r="E16" s="8">
+        <f>'CGE TOTAL'!E16/'CGE TOTAL'!E$19</f>
+        <v>1.2557692427916545E-3</v>
+      </c>
+      <c r="F16" s="8">
+        <f>'CGE TOTAL'!F16/'CGE TOTAL'!F$19</f>
+        <v>1.2218907194104984E-3</v>
+      </c>
+      <c r="G16" s="8">
+        <f>'CGE TOTAL'!G16/'CGE TOTAL'!G$19</f>
+        <v>1.2804085135212778E-3</v>
+      </c>
+      <c r="H16" s="8">
+        <f>'CGE TOTAL'!H16/'CGE TOTAL'!H$19</f>
+        <v>1.3029832731766865E-3</v>
+      </c>
+      <c r="I16" s="8">
+        <f>'CGE TOTAL'!I16/'CGE TOTAL'!I$19</f>
+        <v>1.0579044010373107E-3</v>
+      </c>
+      <c r="J16" s="8">
+        <f>'CGE TOTAL'!J16/'CGE TOTAL'!J$19</f>
+        <v>1.2496898571403559E-3</v>
+      </c>
+      <c r="K16" s="8">
+        <f>'CGE TOTAL'!K16/'CGE TOTAL'!K$19</f>
+        <v>1.2798072615087214E-3</v>
+      </c>
+      <c r="L16" s="8">
+        <f>'CGE TOTAL'!L16/'CGE TOTAL'!L$19</f>
+        <v>1.1549882443632929E-3</v>
+      </c>
+      <c r="M16" s="8">
+        <f>'CGE TOTAL'!M16/'CGE TOTAL'!M$19</f>
+        <v>1.3207732037877227E-3</v>
+      </c>
+      <c r="N16" s="8">
+        <f>'CGE TOTAL'!N16/'CGE TOTAL'!N$19</f>
+        <v>1.3165675447191941E-3</v>
+      </c>
+      <c r="O16" s="8">
+        <f>'CGE TOTAL'!O16/'CGE TOTAL'!O$19</f>
+        <v>8.3309863916726198E-4</v>
+      </c>
+      <c r="P16" s="8">
+        <f>'CGE TOTAL'!P16/'CGE TOTAL'!P$19</f>
+        <v>1.0869864334679187E-3</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>'CGE TOTAL'!Q16/'CGE TOTAL'!Q$19</f>
+        <v>1.179184862926878E-3</v>
+      </c>
+      <c r="R16" s="8">
+        <f>'CGE TOTAL'!R16/'CGE TOTAL'!R$19</f>
+        <v>9.7473794278352555E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8">
+        <f>'CGE TOTAL'!C17/'CGE TOTAL'!C$19</f>
+        <v>1.5399660652830655E-4</v>
+      </c>
+      <c r="D17" s="8">
+        <f>'CGE TOTAL'!D17/'CGE TOTAL'!D$19</f>
+        <v>4.747297704764427E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <f>'CGE TOTAL'!E17/'CGE TOTAL'!E$19</f>
+        <v>4.8963240888824956E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <f>'CGE TOTAL'!F17/'CGE TOTAL'!F$19</f>
+        <v>4.8806677769006095E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <f>'CGE TOTAL'!G17/'CGE TOTAL'!G$19</f>
+        <v>5.0649926628222021E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <f>'CGE TOTAL'!H17/'CGE TOTAL'!H$19</f>
+        <v>5.1005737798744101E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <f>'CGE TOTAL'!I17/'CGE TOTAL'!I$19</f>
+        <v>3.9564096184788379E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <f>'CGE TOTAL'!J17/'CGE TOTAL'!J$19</f>
+        <v>4.8840782972431655E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <f>'CGE TOTAL'!K17/'CGE TOTAL'!K$19</f>
+        <v>5.4599984839519798E-2</v>
+      </c>
+      <c r="L17" s="8">
+        <f>'CGE TOTAL'!L17/'CGE TOTAL'!L$19</f>
+        <v>4.604527798476675E-2</v>
+      </c>
+      <c r="M17" s="8">
+        <f>'CGE TOTAL'!M17/'CGE TOTAL'!M$19</f>
+        <v>5.2073226033179841E-2</v>
+      </c>
+      <c r="N17" s="8">
+        <f>'CGE TOTAL'!N17/'CGE TOTAL'!N$19</f>
+        <v>5.1832561834100378E-2</v>
+      </c>
+      <c r="O17" s="8">
+        <f>'CGE TOTAL'!O17/'CGE TOTAL'!O$19</f>
+        <v>3.7524952673228092E-2</v>
+      </c>
+      <c r="P17" s="8">
+        <f>'CGE TOTAL'!P17/'CGE TOTAL'!P$19</f>
+        <v>4.1905399444710313E-2</v>
+      </c>
+      <c r="Q17" s="8">
+        <f>'CGE TOTAL'!Q17/'CGE TOTAL'!Q$19</f>
+        <v>4.663489243904477E-2</v>
+      </c>
+      <c r="R17" s="8">
+        <f>'CGE TOTAL'!R17/'CGE TOTAL'!R$19</f>
+        <v>3.815319793251553E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8">
+        <f>'CGE TOTAL'!C18/'CGE TOTAL'!C$19</f>
+        <v>2.9334760880155892E-5</v>
+      </c>
+      <c r="D18" s="8">
+        <f>'CGE TOTAL'!D18/'CGE TOTAL'!D$19</f>
+        <v>9.1964966841577116E-3</v>
+      </c>
+      <c r="E18" s="8">
+        <f>'CGE TOTAL'!E18/'CGE TOTAL'!E$19</f>
+        <v>9.4392081025688225E-3</v>
+      </c>
+      <c r="F18" s="8">
+        <f>'CGE TOTAL'!F18/'CGE TOTAL'!F$19</f>
+        <v>9.4870171717764355E-3</v>
+      </c>
+      <c r="G18" s="8">
+        <f>'CGE TOTAL'!G18/'CGE TOTAL'!G$19</f>
+        <v>9.8034778008475633E-3</v>
+      </c>
+      <c r="H18" s="8">
+        <f>'CGE TOTAL'!H18/'CGE TOTAL'!H$19</f>
+        <v>9.8753128370297257E-3</v>
+      </c>
+      <c r="I18" s="8">
+        <f>'CGE TOTAL'!I18/'CGE TOTAL'!I$19</f>
+        <v>7.5150245264859316E-3</v>
+      </c>
+      <c r="J18" s="8">
+        <f>'CGE TOTAL'!J18/'CGE TOTAL'!J$19</f>
+        <v>9.4309323842831621E-3</v>
+      </c>
+      <c r="K18" s="8">
+        <f>'CGE TOTAL'!K18/'CGE TOTAL'!K$19</f>
+        <v>1.0782287178877629E-2</v>
+      </c>
+      <c r="L18" s="8">
+        <f>'CGE TOTAL'!L18/'CGE TOTAL'!L$19</f>
+        <v>8.8843135036555717E-3</v>
+      </c>
+      <c r="M18" s="8">
+        <f>'CGE TOTAL'!M18/'CGE TOTAL'!M$19</f>
+        <v>1.0100103071142823E-2</v>
+      </c>
+      <c r="N18" s="8">
+        <f>'CGE TOTAL'!N18/'CGE TOTAL'!N$19</f>
+        <v>1.0052635871988612E-2</v>
+      </c>
+      <c r="O18" s="8">
+        <f>'CGE TOTAL'!O18/'CGE TOTAL'!O$19</f>
+        <v>6.7232827716512834E-3</v>
+      </c>
+      <c r="P18" s="8">
+        <f>'CGE TOTAL'!P18/'CGE TOTAL'!P$19</f>
+        <v>7.971517401356501E-3</v>
+      </c>
+      <c r="Q18" s="8">
+        <f>'CGE TOTAL'!Q18/'CGE TOTAL'!Q$19</f>
+        <v>8.9519677311329475E-3</v>
+      </c>
+      <c r="R18" s="8">
+        <f>'CGE TOTAL'!R18/'CGE TOTAL'!R$19</f>
+        <v>7.243511983844003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D20" s="5">
+        <f>SUM(D2:D3)</f>
+        <v>0.79480052027781545</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:R20" si="0">SUM(E2:E3)</f>
+        <v>0.79823071403707124</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79688911905712656</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79795021771813524</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79803945593323133</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.78719056501309492</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79792863394825264</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.80375249382235481</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79306077916329754</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79718664885109369</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7972246929381932</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.78803545738526937</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7835204122467152</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79623492053445477</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.78799941498261716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +5615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3799,6 +5623,2286 @@
         <v>34</v>
       </c>
       <c r="C2">
+        <v>5.3777187263322826E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.773081288190502E-3</v>
+      </c>
+      <c r="E2">
+        <v>5.0075652171237446E-3</v>
+      </c>
+      <c r="F2">
+        <v>5.0932163783010773E-3</v>
+      </c>
+      <c r="G2">
+        <v>4.675226570119019E-3</v>
+      </c>
+      <c r="H2">
+        <v>4.8739412376799171E-3</v>
+      </c>
+      <c r="I2">
+        <v>5.1372279141558537E-3</v>
+      </c>
+      <c r="J2">
+        <v>4.9371908366525226E-3</v>
+      </c>
+      <c r="K2">
+        <v>5.587339932752431E-3</v>
+      </c>
+      <c r="L2">
+        <v>5.1361595383548559E-3</v>
+      </c>
+      <c r="M2">
+        <v>4.851054098293844E-3</v>
+      </c>
+      <c r="N2">
+        <v>4.8525032538825948E-3</v>
+      </c>
+      <c r="O2">
+        <v>8.0794504728635783E-3</v>
+      </c>
+      <c r="P2">
+        <v>4.709444370779782E-3</v>
+      </c>
+      <c r="Q2">
+        <v>5.1403551981788528E-3</v>
+      </c>
+      <c r="R2">
+        <v>5.5973407798216518E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2.5773569552402668E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.595440297310923E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.4917979363745572E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.6292423280823249E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.4759394204198051E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.4724010498536571E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.5730422953812639E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.4812061954790118E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.705885820312073E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.5634141406413301E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.4604118463434611E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.459371797207489E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.579831034307396E-2</v>
+      </c>
+      <c r="P3">
+        <v>2.4799412267072909E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2.5471892295360891E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.6023783898219681E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>4.1988305969927798E-5</v>
+      </c>
+      <c r="D4">
+        <v>1.51078038388405E-4</v>
+      </c>
+      <c r="E4">
+        <v>1.849146140072627E-5</v>
+      </c>
+      <c r="F4">
+        <v>1.205637670636827E-4</v>
+      </c>
+      <c r="G4">
+        <v>1.242979903371319E-5</v>
+      </c>
+      <c r="H4">
+        <v>1.0669777516673739E-5</v>
+      </c>
+      <c r="I4">
+        <v>1.5587259943887041E-4</v>
+      </c>
+      <c r="J4">
+        <v>1.691396202598237E-5</v>
+      </c>
+      <c r="K4">
+        <v>5.0333268821027898E-5</v>
+      </c>
+      <c r="L4">
+        <v>1.5810676037681219E-4</v>
+      </c>
+      <c r="M4">
+        <v>7.3705541006874487E-6</v>
+      </c>
+      <c r="N4">
+        <v>7.6430992153201394E-6</v>
+      </c>
+      <c r="O4">
+        <v>9.9021292394243338E-5</v>
+      </c>
+      <c r="P4">
+        <v>2.19732749611349E-4</v>
+      </c>
+      <c r="Q4">
+        <v>4.1280544731694273E-5</v>
+      </c>
+      <c r="R4">
+        <v>2.2157983847764529E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0.74326889719171307</v>
+      </c>
+      <c r="D5">
+        <v>0.65729002426604344</v>
+      </c>
+      <c r="E5">
+        <v>0.74726827319482281</v>
+      </c>
+      <c r="F5">
+        <v>0.67131336462115931</v>
+      </c>
+      <c r="G5">
+        <v>0.74381990671918485</v>
+      </c>
+      <c r="H5">
+        <v>0.74562896549946178</v>
+      </c>
+      <c r="I5">
+        <v>0.71812907979036178</v>
+      </c>
+      <c r="J5">
+        <v>0.74676301717859428</v>
+      </c>
+      <c r="K5">
+        <v>0.67449581998036701</v>
+      </c>
+      <c r="L5">
+        <v>0.6756783134227089</v>
+      </c>
+      <c r="M5">
+        <v>0.74541363134995786</v>
+      </c>
+      <c r="N5">
+        <v>0.74540846943349437</v>
+      </c>
+      <c r="O5">
+        <v>0.66195527770380702</v>
+      </c>
+      <c r="P5">
+        <v>0.67618466788911258</v>
+      </c>
+      <c r="Q5">
+        <v>0.74511946991719424</v>
+      </c>
+      <c r="R5">
+        <v>0.69202885223161259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1.480574251431716E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.368055380177984E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.497201077853998E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.425618645283153E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.7451451496253569E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.493553035125896E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.432101885615107E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.4986158933717599E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.509594275271256E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.423243229765102E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.4934436254695189E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.492620032316358E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.2977403153452111E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.370916450371432E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.497051138156308E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.425743631979143E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1.831079132510449E-3</v>
+      </c>
+      <c r="D7">
+        <v>5.3604693878926473E-4</v>
+      </c>
+      <c r="E7">
+        <v>2.0308693578456639E-3</v>
+      </c>
+      <c r="F7">
+        <v>7.0827132910690591E-4</v>
+      </c>
+      <c r="G7">
+        <v>2.257095258952777E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.11741110131648E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.1019672325166209E-3</v>
+      </c>
+      <c r="J7">
+        <v>2.074841726491786E-3</v>
+      </c>
+      <c r="K7">
+        <v>9.1307372184454923E-4</v>
+      </c>
+      <c r="L7">
+        <v>6.8950602395403721E-4</v>
+      </c>
+      <c r="M7">
+        <v>2.161579641183227E-3</v>
+      </c>
+      <c r="N7">
+        <v>2.1645142401963491E-3</v>
+      </c>
+      <c r="O7">
+        <v>1.310016021347573E-3</v>
+      </c>
+      <c r="P7">
+        <v>5.832560407013881E-4</v>
+      </c>
+      <c r="Q7">
+        <v>1.7920840470188649E-3</v>
+      </c>
+      <c r="R7">
+        <v>9.4920454621271117E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>2.9323030912584949E-3</v>
+      </c>
+      <c r="D8">
+        <v>3.3237161638357019E-3</v>
+      </c>
+      <c r="E8">
+        <v>2.818529126153969E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.329647171127539E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.9278760626486868E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.7628942390609912E-3</v>
+      </c>
+      <c r="I8">
+        <v>3.2362541234370041E-3</v>
+      </c>
+      <c r="J8">
+        <v>2.7960344881222E-3</v>
+      </c>
+      <c r="K8">
+        <v>3.3116547262678629E-3</v>
+      </c>
+      <c r="L8">
+        <v>3.355937270073479E-3</v>
+      </c>
+      <c r="M8">
+        <v>2.7363017022602782E-3</v>
+      </c>
+      <c r="N8">
+        <v>2.733443093557652E-3</v>
+      </c>
+      <c r="O8">
+        <v>3.0656226923860318E-3</v>
+      </c>
+      <c r="P8">
+        <v>3.365825179499648E-3</v>
+      </c>
+      <c r="Q8">
+        <v>2.9645669745398421E-3</v>
+      </c>
+      <c r="R8">
+        <v>3.3070712225931409E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>2.0800214642416711E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.9327059556727379E-6</v>
+      </c>
+      <c r="E9">
+        <v>2.8239044368237352E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.575847946471058E-4</v>
+      </c>
+      <c r="G9">
+        <v>3.0466392495845419E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.1423001194525541E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.5103116021980956E-3</v>
+      </c>
+      <c r="J9">
+        <v>2.9737399630236239E-2</v>
+      </c>
+      <c r="K9">
+        <v>5.6496116400870323E-5</v>
+      </c>
+      <c r="L9">
+        <v>1.4891021216442319E-4</v>
+      </c>
+      <c r="M9">
+        <v>3.28032043957441E-2</v>
+      </c>
+      <c r="N9">
+        <v>3.2930077837971992E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.5785526099237909E-4</v>
+      </c>
+      <c r="P9">
+        <v>4.7369248749088008E-4</v>
+      </c>
+      <c r="Q9">
+        <v>2.0477780818051489E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.7289620240434321E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>3.0575724988049849E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.4512843687505141E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.4665506488317139E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.109865524809042E-2</v>
+      </c>
+      <c r="G10">
+        <v>8.4497859801266134E-4</v>
+      </c>
+      <c r="H10">
+        <v>8.5975863766370229E-4</v>
+      </c>
+      <c r="I10">
+        <v>1.1504961009030571E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.16624965701918E-3</v>
+      </c>
+      <c r="K10">
+        <v>4.4222968656473854E-3</v>
+      </c>
+      <c r="L10">
+        <v>1.263549399437776E-2</v>
+      </c>
+      <c r="M10">
+        <v>5.4276261211512022E-4</v>
+      </c>
+      <c r="N10">
+        <v>5.2902412071813786E-4</v>
+      </c>
+      <c r="O10">
+        <v>5.374275871154144E-3</v>
+      </c>
+      <c r="P10">
+        <v>1.8139656412129869E-2</v>
+      </c>
+      <c r="Q10">
+        <v>3.223694934036282E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.197371173594106E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>-2.1399000462968119E-4</v>
+      </c>
+      <c r="D11">
+        <v>-6.0461822302320666E-6</v>
+      </c>
+      <c r="E11">
+        <v>-9.6050972808310676E-5</v>
+      </c>
+      <c r="F11">
+        <v>-2.9701770348641301E-5</v>
+      </c>
+      <c r="G11">
+        <v>-7.1941706805279799E-5</v>
+      </c>
+      <c r="H11">
+        <v>-5.5344083355352688E-5</v>
+      </c>
+      <c r="I11">
+        <v>-1.063264912646742E-4</v>
+      </c>
+      <c r="J11">
+        <v>-8.0881039029334737E-5</v>
+      </c>
+      <c r="K11">
+        <v>-1.2424054447173559E-5</v>
+      </c>
+      <c r="L11">
+        <v>-5.1692991986617712E-5</v>
+      </c>
+      <c r="M11">
+        <v>-5.6591016534318559E-5</v>
+      </c>
+      <c r="N11">
+        <v>-5.9777625830422953E-5</v>
+      </c>
+      <c r="O11">
+        <v>1.0713126369285191E-2</v>
+      </c>
+      <c r="P11">
+        <v>-3.9333261088770711E-5</v>
+      </c>
+      <c r="Q11">
+        <v>-1.059970557929514E-4</v>
+      </c>
+      <c r="R11">
+        <v>9.6026417729668298E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1.3095826605463021E-4</v>
+      </c>
+      <c r="D12">
+        <v>2.2889636351327901E-5</v>
+      </c>
+      <c r="E12">
+        <v>5.0655527355688051E-5</v>
+      </c>
+      <c r="F12">
+        <v>8.4650040772564684E-5</v>
+      </c>
+      <c r="G12">
+        <v>6.6337225094498052E-5</v>
+      </c>
+      <c r="H12">
+        <v>3.5786160008842811E-5</v>
+      </c>
+      <c r="I12">
+        <v>2.2955607668822601E-4</v>
+      </c>
+      <c r="J12">
+        <v>4.7385581244005307E-5</v>
+      </c>
+      <c r="K12">
+        <v>4.3477148941489618E-5</v>
+      </c>
+      <c r="L12">
+        <v>4.5992305980758699E-4</v>
+      </c>
+      <c r="M12">
+        <v>2.8744283878961541E-5</v>
+      </c>
+      <c r="N12">
+        <v>2.0489553484084919E-5</v>
+      </c>
+      <c r="O12">
+        <v>2.0660661560114181E-4</v>
+      </c>
+      <c r="P12">
+        <v>1.1662545825493139E-3</v>
+      </c>
+      <c r="Q12">
+        <v>3.0098044256714711E-4</v>
+      </c>
+      <c r="R12">
+        <v>2.986201584002212E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2.2736431559050669E-4</v>
+      </c>
+      <c r="D13">
+        <v>-4.462383093144056E-5</v>
+      </c>
+      <c r="E13">
+        <v>4.6971950691397998E-4</v>
+      </c>
+      <c r="F13">
+        <v>-1.0500843415970611E-4</v>
+      </c>
+      <c r="G13">
+        <v>5.8169376002617501E-4</v>
+      </c>
+      <c r="H13">
+        <v>5.1857354925871938E-4</v>
+      </c>
+      <c r="I13">
+        <v>-1.32126398062387E-5</v>
+      </c>
+      <c r="J13">
+        <v>4.9371881622211461E-4</v>
+      </c>
+      <c r="K13">
+        <v>-9.2386332567853972E-5</v>
+      </c>
+      <c r="L13">
+        <v>-1.3771439764638499E-4</v>
+      </c>
+      <c r="M13">
+        <v>5.529981591568244E-4</v>
+      </c>
+      <c r="N13">
+        <v>5.5839851021871275E-4</v>
+      </c>
+      <c r="O13">
+        <v>-3.7960031890530409E-4</v>
+      </c>
+      <c r="P13">
+        <v>-1.113470547853884E-4</v>
+      </c>
+      <c r="Q13">
+        <v>2.2818609189412901E-4</v>
+      </c>
+      <c r="R13">
+        <v>-1.5416472515938421E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>3.9307548322890396E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.233678183070698E-4</v>
+      </c>
+      <c r="E14">
+        <v>5.130959683634766E-3</v>
+      </c>
+      <c r="F14">
+        <v>2.9833551028462981E-4</v>
+      </c>
+      <c r="G14">
+        <v>5.4047153709620857E-3</v>
+      </c>
+      <c r="H14">
+        <v>5.4306159262665337E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.9712271626940911E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.2746550281230972E-3</v>
+      </c>
+      <c r="K14">
+        <v>1.5337813318268501E-4</v>
+      </c>
+      <c r="L14">
+        <v>4.9460446106342696E-4</v>
+      </c>
+      <c r="M14">
+        <v>5.6066663722508826E-3</v>
+      </c>
+      <c r="N14">
+        <v>5.6244624482134154E-3</v>
+      </c>
+      <c r="O14">
+        <v>9.0954607905182786E-5</v>
+      </c>
+      <c r="P14">
+        <v>7.0805250993790888E-4</v>
+      </c>
+      <c r="Q14">
+        <v>4.0203879015754743E-3</v>
+      </c>
+      <c r="R14">
+        <v>8.8694978460540001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>2.6038004990509901E-3</v>
+      </c>
+      <c r="D15">
+        <v>3.8435503774890538E-5</v>
+      </c>
+      <c r="E15">
+        <v>3.3023612792805021E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.170810702236492E-4</v>
+      </c>
+      <c r="G15">
+        <v>3.484234901049002E-3</v>
+      </c>
+      <c r="H15">
+        <v>3.5695296521456111E-3</v>
+      </c>
+      <c r="I15">
+        <v>1.1587126238855429E-3</v>
+      </c>
+      <c r="J15">
+        <v>3.4596490564725241E-3</v>
+      </c>
+      <c r="K15">
+        <v>6.1686706695926366E-5</v>
+      </c>
+      <c r="L15">
+        <v>1.847839156670273E-4</v>
+      </c>
+      <c r="M15">
+        <v>3.6987067340967009E-3</v>
+      </c>
+      <c r="N15">
+        <v>3.7113045349658879E-3</v>
+      </c>
+      <c r="O15">
+        <v>7.7272826075736056E-4</v>
+      </c>
+      <c r="P15">
+        <v>2.75819096378239E-4</v>
+      </c>
+      <c r="Q15">
+        <v>2.5823045738758411E-3</v>
+      </c>
+      <c r="R15">
+        <v>5.0066531158483125E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>2.6967241627859951E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.9824751131607272E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.464341626308859E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.8558453567559388E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.3756788854466401E-2</v>
+      </c>
+      <c r="H16">
+        <v>2.3801332703265489E-2</v>
+      </c>
+      <c r="I16">
+        <v>3.3407942127036877E-2</v>
+      </c>
+      <c r="J16">
+        <v>2.4215382143013209E-2</v>
+      </c>
+      <c r="K16">
+        <v>3.7618702849626269E-2</v>
+      </c>
+      <c r="L16">
+        <v>3.8180214203420819E-2</v>
+      </c>
+      <c r="M16">
+        <v>2.334708097390956E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.3305354541336878E-2</v>
+      </c>
+      <c r="O16">
+        <v>2.9856691639230801E-2</v>
+      </c>
+      <c r="P16">
+        <v>3.8269504722136069E-2</v>
+      </c>
+      <c r="Q16">
+        <v>2.7240210897256738E-2</v>
+      </c>
+      <c r="R16">
+        <v>3.5511290966259018E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>3.4441156769862341E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.428295699074424E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.3818264270069648E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.4929083366982763E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.3851868265646491E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.3799444710613087E-2</v>
+      </c>
+      <c r="I17">
+        <v>3.3418668469938059E-2</v>
+      </c>
+      <c r="J17">
+        <v>3.3780809283691017E-2</v>
+      </c>
+      <c r="K17">
+        <v>3.7288901495070012E-2</v>
+      </c>
+      <c r="L17">
+        <v>3.3818748537581191E-2</v>
+      </c>
+      <c r="M17">
+        <v>3.3741383124211953E-2</v>
+      </c>
+      <c r="N17">
+        <v>3.3731078080014493E-2</v>
+      </c>
+      <c r="O17">
+        <v>3.283104605298532E-2</v>
+      </c>
+      <c r="P17">
+        <v>3.2362829132580873E-2</v>
+      </c>
+      <c r="Q17">
+        <v>3.4137626883243288E-2</v>
+      </c>
+      <c r="R17">
+        <v>3.3840587335934633E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(C2:C17)</f>
+        <v>0.88597637196180345</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:R18" si="0">SUM(D2:D17)</f>
+        <v>0.79447241093122034</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89405863907423644</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80622280639446531</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89428844787468809</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89443612115522353</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85589368341027428</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89448058723738633</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80605315151443602</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81061786771398148</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89497344770275555</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89503690341667796</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79290878603833093</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81481663162782092</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.887605335845295</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8270679178460677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <f>'EGE FIRST'!C2/'EGE FIRST'!$C$18</f>
+        <v>6.0698218333119711E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'EGE FIRST'!D2/'EGE FIRST'!$C$18</f>
+        <v>5.3873686017399582E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <f>'EGE FIRST'!E2/'EGE FIRST'!$C$18</f>
+        <v>5.652030207121181E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <f>'EGE FIRST'!F2/'EGE FIRST'!$C$18</f>
+        <v>5.7487045247304382E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'EGE FIRST'!G2/'EGE FIRST'!$C$18</f>
+        <v>5.2769201505529304E-3</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'EGE FIRST'!H2/'EGE FIRST'!$C$18</f>
+        <v>5.5012090524351413E-3</v>
+      </c>
+      <c r="I2" s="3">
+        <f>'EGE FIRST'!I2/'EGE FIRST'!$C$18</f>
+        <v>5.7983802691945058E-3</v>
+      </c>
+      <c r="J2" s="3">
+        <f>'EGE FIRST'!J2/'EGE FIRST'!$C$18</f>
+        <v>5.572598765495494E-3</v>
+      </c>
+      <c r="K2" s="3">
+        <f>'EGE FIRST'!K2/'EGE FIRST'!$C$18</f>
+        <v>6.3064209267573047E-3</v>
+      </c>
+      <c r="L2" s="3">
+        <f>'EGE FIRST'!L2/'EGE FIRST'!$C$18</f>
+        <v>5.7971743952741532E-3</v>
+      </c>
+      <c r="M2" s="3">
+        <f>'EGE FIRST'!M2/'EGE FIRST'!$C$18</f>
+        <v>5.4753763777607651E-3</v>
+      </c>
+      <c r="N2" s="3">
+        <f>'EGE FIRST'!N2/'EGE FIRST'!$C$18</f>
+        <v>5.4770120371695399E-3</v>
+      </c>
+      <c r="O2" s="3">
+        <f>'EGE FIRST'!O2/'EGE FIRST'!$C$18</f>
+        <v>9.1192617868277679E-3</v>
+      </c>
+      <c r="P2" s="3">
+        <f>'EGE FIRST'!P2/'EGE FIRST'!$C$18</f>
+        <v>5.3155417230278208E-3</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>'EGE FIRST'!Q2/'EGE FIRST'!$C$18</f>
+        <v>5.8019100292670848E-3</v>
+      </c>
+      <c r="R2" s="3">
+        <f>'EGE FIRST'!R2/'EGE FIRST'!$C$18</f>
+        <v>6.3177088655621237E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <f>'EGE FIRST'!C3/'EGE FIRST'!$C$18</f>
+        <v>2.9090583415145328E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f>'EGE FIRST'!D3/'EGE FIRST'!$C$18</f>
+        <v>2.929468978460318E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <f>'EGE FIRST'!E3/'EGE FIRST'!$C$18</f>
+        <v>2.812488024773176E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>'EGE FIRST'!F3/'EGE FIRST'!$C$18</f>
+        <v>2.9676212721795676E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'EGE FIRST'!G3/'EGE FIRST'!$C$18</f>
+        <v>2.7945885452197464E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <f>'EGE FIRST'!H3/'EGE FIRST'!$C$18</f>
+        <v>2.7905947924763034E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <f>'EGE FIRST'!I3/'EGE FIRST'!$C$18</f>
+        <v>2.9041883923877305E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <f>'EGE FIRST'!J3/'EGE FIRST'!$C$18</f>
+        <v>2.8005331451276927E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>'EGE FIRST'!K3/'EGE FIRST'!$C$18</f>
+        <v>3.0541286494136101E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <f>'EGE FIRST'!L3/'EGE FIRST'!$C$18</f>
+        <v>2.8933211107709373E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f>'EGE FIRST'!M3/'EGE FIRST'!$C$18</f>
+        <v>2.7770625991925837E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <f>'EGE FIRST'!N3/'EGE FIRST'!$C$18</f>
+        <v>2.7758886975300944E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <f>'EGE FIRST'!O3/'EGE FIRST'!$C$18</f>
+        <v>2.9118508302822081E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <f>'EGE FIRST'!P3/'EGE FIRST'!$C$18</f>
+        <v>2.7991053770610116E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>'EGE FIRST'!Q3/'EGE FIRST'!$C$18</f>
+        <v>2.8750080816443088E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <f>'EGE FIRST'!R3/'EGE FIRST'!$C$18</f>
+        <v>2.9372999914879929E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <f>'EGE FIRST'!C4/'EGE FIRST'!$C$18</f>
+        <v>4.7392128389331376E-5</v>
+      </c>
+      <c r="D4" s="3">
+        <f>'EGE FIRST'!D4/'EGE FIRST'!$C$18</f>
+        <v>1.7052152085486805E-4</v>
+      </c>
+      <c r="E4" s="3">
+        <f>'EGE FIRST'!E4/'EGE FIRST'!$C$18</f>
+        <v>2.0871280528374497E-5</v>
+      </c>
+      <c r="F4" s="3">
+        <f>'EGE FIRST'!F4/'EGE FIRST'!$C$18</f>
+        <v>1.3608011554159201E-4</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'EGE FIRST'!G4/'EGE FIRST'!$C$18</f>
+        <v>1.4029492689731761E-5</v>
+      </c>
+      <c r="H4" s="3">
+        <f>'EGE FIRST'!H4/'EGE FIRST'!$C$18</f>
+        <v>1.204295944489786E-5</v>
+      </c>
+      <c r="I4" s="3">
+        <f>'EGE FIRST'!I4/'EGE FIRST'!$C$18</f>
+        <v>1.7593313362716906E-4</v>
+      </c>
+      <c r="J4" s="3">
+        <f>'EGE FIRST'!J4/'EGE FIRST'!$C$18</f>
+        <v>1.90907597101377E-5</v>
+      </c>
+      <c r="K4" s="3">
+        <f>'EGE FIRST'!K4/'EGE FIRST'!$C$18</f>
+        <v>5.6811073538649496E-5</v>
+      </c>
+      <c r="L4" s="3">
+        <f>'EGE FIRST'!L4/'EGE FIRST'!$C$18</f>
+        <v>1.7845482721702712E-4</v>
+      </c>
+      <c r="M4" s="3">
+        <f>'EGE FIRST'!M4/'EGE FIRST'!$C$18</f>
+        <v>8.319131676578403E-6</v>
+      </c>
+      <c r="N4" s="3">
+        <f>'EGE FIRST'!N4/'EGE FIRST'!$C$18</f>
+        <v>8.6267528764860231E-6</v>
+      </c>
+      <c r="O4" s="3">
+        <f>'EGE FIRST'!O4/'EGE FIRST'!$C$18</f>
+        <v>1.1176516160919964E-4</v>
+      </c>
+      <c r="P4" s="3">
+        <f>'EGE FIRST'!P4/'EGE FIRST'!$C$18</f>
+        <v>2.4801197477174051E-4</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>'EGE FIRST'!Q4/'EGE FIRST'!$C$18</f>
+        <v>4.659327950280143E-5</v>
+      </c>
+      <c r="R4" s="3">
+        <f>'EGE FIRST'!R4/'EGE FIRST'!$C$18</f>
+        <v>2.5009678078322177E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <f>'EGE FIRST'!C5/'EGE FIRST'!$C$18</f>
+        <v>0.83892631983616506</v>
+      </c>
+      <c r="D5" s="3">
+        <f>'EGE FIRST'!D5/'EGE FIRST'!$C$18</f>
+        <v>0.74188211454287045</v>
+      </c>
+      <c r="E5" s="3">
+        <f>'EGE FIRST'!E5/'EGE FIRST'!$C$18</f>
+        <v>0.84344040861965486</v>
+      </c>
+      <c r="F5" s="3">
+        <f>'EGE FIRST'!F5/'EGE FIRST'!$C$18</f>
+        <v>0.7577102345683111</v>
+      </c>
+      <c r="G5" s="3">
+        <f>'EGE FIRST'!G5/'EGE FIRST'!$C$18</f>
+        <v>0.83954824333763689</v>
+      </c>
+      <c r="H5" s="3">
+        <f>'EGE FIRST'!H5/'EGE FIRST'!$C$18</f>
+        <v>0.84159012485674689</v>
+      </c>
+      <c r="I5" s="3">
+        <f>'EGE FIRST'!I5/'EGE FIRST'!$C$18</f>
+        <v>0.81055105137874039</v>
+      </c>
+      <c r="J5" s="3">
+        <f>'EGE FIRST'!J5/'EGE FIRST'!$C$18</f>
+        <v>0.84287012702725783</v>
+      </c>
+      <c r="K5" s="3">
+        <f>'EGE FIRST'!K5/'EGE FIRST'!$C$18</f>
+        <v>0.76130226643272847</v>
+      </c>
+      <c r="L5" s="3">
+        <f>'EGE FIRST'!L5/'EGE FIRST'!$C$18</f>
+        <v>0.76263694473766286</v>
+      </c>
+      <c r="M5" s="3">
+        <f>'EGE FIRST'!M5/'EGE FIRST'!$C$18</f>
+        <v>0.84134707757431526</v>
+      </c>
+      <c r="N5" s="3">
+        <f>'EGE FIRST'!N5/'EGE FIRST'!$C$18</f>
+        <v>0.8413412513281231</v>
+      </c>
+      <c r="O5" s="3">
+        <f>'EGE FIRST'!O5/'EGE FIRST'!$C$18</f>
+        <v>0.74714777803616805</v>
+      </c>
+      <c r="P5" s="3">
+        <f>'EGE FIRST'!P5/'EGE FIRST'!$C$18</f>
+        <v>0.76320846614887439</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>'EGE FIRST'!Q5/'EGE FIRST'!$C$18</f>
+        <v>0.84101505807348786</v>
+      </c>
+      <c r="R5" s="3">
+        <f>'EGE FIRST'!R5/'EGE FIRST'!$C$18</f>
+        <v>0.78109176963632121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <f>'EGE FIRST'!C6/'EGE FIRST'!$C$18</f>
+        <v>1.6711215990481823E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <f>'EGE FIRST'!D6/'EGE FIRST'!$C$18</f>
+        <v>1.5441217435051013E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <f>'EGE FIRST'!E6/'EGE FIRST'!$C$18</f>
+        <v>1.6898882692986148E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <f>'EGE FIRST'!F6/'EGE FIRST'!$C$18</f>
+        <v>1.6090933013556876E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'EGE FIRST'!G6/'EGE FIRST'!$C$18</f>
+        <v>1.9697423146410889E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f>'EGE FIRST'!H6/'EGE FIRST'!$C$18</f>
+        <v>1.6857707297754963E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <f>'EGE FIRST'!I6/'EGE FIRST'!$C$18</f>
+        <v>1.6164109235148411E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <f>'EGE FIRST'!J6/'EGE FIRST'!$C$18</f>
+        <v>1.6914851691286061E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <f>'EGE FIRST'!K6/'EGE FIRST'!$C$18</f>
+        <v>1.7038764498071041E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <f>'EGE FIRST'!L6/'EGE FIRST'!$C$18</f>
+        <v>1.6064121739653589E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>'EGE FIRST'!M6/'EGE FIRST'!$C$18</f>
+        <v>1.6856472392854115E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <f>'EGE FIRST'!N6/'EGE FIRST'!$C$18</f>
+        <v>1.6847176511166694E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <f>'EGE FIRST'!O6/'EGE FIRST'!$C$18</f>
+        <v>1.4647572513380298E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f>'EGE FIRST'!P6/'EGE FIRST'!$C$18</f>
+        <v>1.5473510284883031E-2</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>'EGE FIRST'!Q6/'EGE FIRST'!$C$18</f>
+        <v>1.6897190326209392E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <f>'EGE FIRST'!R6/'EGE FIRST'!$C$18</f>
+        <v>1.6092343736234652E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <f>'EGE FIRST'!C7/'EGE FIRST'!$C$18</f>
+        <v>2.0667358526231566E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'EGE FIRST'!D7/'EGE FIRST'!$C$18</f>
+        <v>6.0503525348232993E-4</v>
+      </c>
+      <c r="E7" s="3">
+        <f>'EGE FIRST'!E7/'EGE FIRST'!$C$18</f>
+        <v>2.2922387347065949E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <f>'EGE FIRST'!F7/'EGE FIRST'!$C$18</f>
+        <v>7.9942462521725261E-4</v>
+      </c>
+      <c r="G7" s="3">
+        <f>'EGE FIRST'!G7/'EGE FIRST'!$C$18</f>
+        <v>2.5475795183509541E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <f>'EGE FIRST'!H7/'EGE FIRST'!$C$18</f>
+        <v>2.3899182510115141E-3</v>
+      </c>
+      <c r="I7" s="3">
+        <f>'EGE FIRST'!I7/'EGE FIRST'!$C$18</f>
+        <v>1.2437885110598969E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>'EGE FIRST'!J7/'EGE FIRST'!$C$18</f>
+        <v>2.3418702712099384E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <f>'EGE FIRST'!K7/'EGE FIRST'!$C$18</f>
+        <v>1.0305847319864124E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <f>'EGE FIRST'!L7/'EGE FIRST'!$C$18</f>
+        <v>7.7824425771905734E-4</v>
+      </c>
+      <c r="M7" s="3">
+        <f>'EGE FIRST'!M7/'EGE FIRST'!$C$18</f>
+        <v>2.4397712056325785E-3</v>
+      </c>
+      <c r="N7" s="3">
+        <f>'EGE FIRST'!N7/'EGE FIRST'!$C$18</f>
+        <v>2.4430834824674835E-3</v>
+      </c>
+      <c r="O7" s="3">
+        <f>'EGE FIRST'!O7/'EGE FIRST'!$C$18</f>
+        <v>1.4786128194895596E-3</v>
+      </c>
+      <c r="P7" s="3">
+        <f>'EGE FIRST'!P7/'EGE FIRST'!$C$18</f>
+        <v>6.5832008522969244E-4</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>'EGE FIRST'!Q7/'EGE FIRST'!$C$18</f>
+        <v>2.0227221670152235E-3</v>
+      </c>
+      <c r="R7" s="3">
+        <f>'EGE FIRST'!R7/'EGE FIRST'!$C$18</f>
+        <v>1.0713655310139959E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
+        <f>'EGE FIRST'!C8/'EGE FIRST'!$C$18</f>
+        <v>3.3096854318648956E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'EGE FIRST'!D8/'EGE FIRST'!$C$18</f>
+        <v>3.7514726904917901E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'EGE FIRST'!E8/'EGE FIRST'!$C$18</f>
+        <v>3.1812689540613192E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>'EGE FIRST'!F8/'EGE FIRST'!$C$18</f>
+        <v>3.7581670081728636E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f>'EGE FIRST'!G8/'EGE FIRST'!$C$18</f>
+        <v>3.3046886523232411E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <f>'EGE FIRST'!H8/'EGE FIRST'!$C$18</f>
+        <v>3.1184739531407123E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <f>'EGE FIRST'!I8/'EGE FIRST'!$C$18</f>
+        <v>3.652754436634713E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>'EGE FIRST'!J8/'EGE FIRST'!$C$18</f>
+        <v>3.1558792949872749E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <f>'EGE FIRST'!K8/'EGE FIRST'!$C$18</f>
+        <v>3.7378589667520345E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <f>'EGE FIRST'!L8/'EGE FIRST'!$C$18</f>
+        <v>3.787840597421893E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <f>'EGE FIRST'!M8/'EGE FIRST'!$C$18</f>
+        <v>3.0884590028076352E-3</v>
+      </c>
+      <c r="N8" s="3">
+        <f>'EGE FIRST'!N8/'EGE FIRST'!$C$18</f>
+        <v>3.0852324961048705E-3</v>
+      </c>
+      <c r="O8" s="3">
+        <f>'EGE FIRST'!O8/'EGE FIRST'!$C$18</f>
+        <v>3.4601630352713267E-3</v>
+      </c>
+      <c r="P8" s="3">
+        <f>'EGE FIRST'!P8/'EGE FIRST'!$C$18</f>
+        <v>3.7990010637041645E-3</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>'EGE FIRST'!Q8/'EGE FIRST'!$C$18</f>
+        <v>3.3461016211701541E-3</v>
+      </c>
+      <c r="R8" s="3">
+        <f>'EGE FIRST'!R8/'EGE FIRST'!$C$18</f>
+        <v>3.7326855740750123E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <f>'EGE FIRST'!C9/'EGE FIRST'!$C$18</f>
+        <v>2.3477166322572605E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <f>'EGE FIRST'!D9/'EGE FIRST'!$C$18</f>
+        <v>1.0082329775785316E-5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>'EGE FIRST'!E9/'EGE FIRST'!$C$18</f>
+        <v>3.1873360579253468E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>'EGE FIRST'!F9/'EGE FIRST'!$C$18</f>
+        <v>1.7786568539990326E-4</v>
+      </c>
+      <c r="G9" s="3">
+        <f>'EGE FIRST'!G9/'EGE FIRST'!$C$18</f>
+        <v>3.4387364561860909E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <f>'EGE FIRST'!H9/'EGE FIRST'!$C$18</f>
+        <v>3.5467087146969944E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <f>'EGE FIRST'!I9/'EGE FIRST'!$C$18</f>
+        <v>7.3481774550967043E-3</v>
+      </c>
+      <c r="J9" s="3">
+        <f>'EGE FIRST'!J9/'EGE FIRST'!$C$18</f>
+        <v>3.3564551574201899E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <f>'EGE FIRST'!K9/'EGE FIRST'!$C$18</f>
+        <v>6.3767068952157123E-5</v>
+      </c>
+      <c r="L9" s="3">
+        <f>'EGE FIRST'!L9/'EGE FIRST'!$C$18</f>
+        <v>1.6807469914202527E-4</v>
+      </c>
+      <c r="M9" s="3">
+        <f>'EGE FIRST'!M9/'EGE FIRST'!$C$18</f>
+        <v>3.7024920115091203E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <f>'EGE FIRST'!N9/'EGE FIRST'!$C$18</f>
+        <v>3.7168121950087049E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <f>'EGE FIRST'!O9/'EGE FIRST'!$C$18</f>
+        <v>1.7817096029642719E-4</v>
+      </c>
+      <c r="P9" s="3">
+        <f>'EGE FIRST'!P9/'EGE FIRST'!$C$18</f>
+        <v>5.3465589205498824E-4</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>'EGE FIRST'!Q9/'EGE FIRST'!$C$18</f>
+        <v>2.3113235822201289E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <f>'EGE FIRST'!R9/'EGE FIRST'!$C$18</f>
+        <v>1.9514764487624189E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'EGE FIRST'!C10/'EGE FIRST'!$C$18</f>
+        <v>3.4510767956877344E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'EGE FIRST'!D10/'EGE FIRST'!$C$18</f>
+        <v>1.6380621590810125E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <f>'EGE FIRST'!E10/'EGE FIRST'!$C$18</f>
+        <v>1.6552931830273916E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <f>'EGE FIRST'!F10/'EGE FIRST'!$C$18</f>
+        <v>1.2527032999215142E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>'EGE FIRST'!G10/'EGE FIRST'!$C$18</f>
+        <v>9.5372588339081622E-4</v>
+      </c>
+      <c r="H10" s="3">
+        <f>'EGE FIRST'!H10/'EGE FIRST'!$C$18</f>
+        <v>9.704080886039346E-4</v>
+      </c>
+      <c r="I10" s="3">
+        <f>'EGE FIRST'!I10/'EGE FIRST'!$C$18</f>
+        <v>1.2985629609461613E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <f>'EGE FIRST'!J10/'EGE FIRST'!$C$18</f>
+        <v>1.3163439725111087E-3</v>
+      </c>
+      <c r="K10" s="3">
+        <f>'EGE FIRST'!K10/'EGE FIRST'!$C$18</f>
+        <v>4.9914388301972017E-3</v>
+      </c>
+      <c r="L10" s="3">
+        <f>'EGE FIRST'!L10/'EGE FIRST'!$C$18</f>
+        <v>1.426166023637762E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f>'EGE FIRST'!M10/'EGE FIRST'!$C$18</f>
+        <v>6.1261522236003832E-4</v>
+      </c>
+      <c r="N10" s="3">
+        <f>'EGE FIRST'!N10/'EGE FIRST'!$C$18</f>
+        <v>5.9710861086140264E-4</v>
+      </c>
+      <c r="O10" s="3">
+        <f>'EGE FIRST'!O10/'EGE FIRST'!$C$18</f>
+        <v>6.0659358886219171E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <f>'EGE FIRST'!P10/'EGE FIRST'!$C$18</f>
+        <v>2.0474198845691013E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>'EGE FIRST'!Q10/'EGE FIRST'!$C$18</f>
+        <v>3.6385789012613342E-3</v>
+      </c>
+      <c r="R10" s="3">
+        <f>'EGE FIRST'!R10/'EGE FIRST'!$C$18</f>
+        <v>1.3514707744889245E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <f>'EGE FIRST'!C11/'EGE FIRST'!$C$18</f>
+        <v>-2.4153014843482395E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'EGE FIRST'!D11/'EGE FIRST'!$C$18</f>
+        <v>-6.8243154350088382E-6</v>
+      </c>
+      <c r="E11" s="3">
+        <f>'EGE FIRST'!E11/'EGE FIRST'!$C$18</f>
+        <v>-1.0841256702549136E-4</v>
+      </c>
+      <c r="F11" s="3">
+        <f>'EGE FIRST'!F11/'EGE FIRST'!$C$18</f>
+        <v>-3.3524336865635755E-5</v>
+      </c>
+      <c r="G11" s="3">
+        <f>'EGE FIRST'!G11/'EGE FIRST'!$C$18</f>
+        <v>-8.1200480150481232E-5</v>
+      </c>
+      <c r="H11" s="3">
+        <f>'EGE FIRST'!H11/'EGE FIRST'!$C$18</f>
+        <v>-6.2466771244480438E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <f>'EGE FIRST'!I11/'EGE FIRST'!$C$18</f>
+        <v>-1.2001052695032616E-4</v>
+      </c>
+      <c r="J11" s="3">
+        <f>'EGE FIRST'!J11/'EGE FIRST'!$C$18</f>
+        <v>-9.1290288983938858E-5</v>
+      </c>
+      <c r="K11" s="3">
+        <f>'EGE FIRST'!K11/'EGE FIRST'!$C$18</f>
+        <v>-1.4023008784831555E-5</v>
+      </c>
+      <c r="L11" s="3">
+        <f>'EGE FIRST'!L11/'EGE FIRST'!$C$18</f>
+        <v>-5.8345790725947621E-5</v>
+      </c>
+      <c r="M11" s="3">
+        <f>'EGE FIRST'!M11/'EGE FIRST'!$C$18</f>
+        <v>-6.3874182568785629E-5</v>
+      </c>
+      <c r="N11" s="3">
+        <f>'EGE FIRST'!N11/'EGE FIRST'!$C$18</f>
+        <v>-6.7470902974599989E-5</v>
+      </c>
+      <c r="O11" s="3">
+        <f>'EGE FIRST'!O11/'EGE FIRST'!$C$18</f>
+        <v>1.2091887219930353E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <f>'EGE FIRST'!P11/'EGE FIRST'!$C$18</f>
+        <v>-4.439538382008506E-5</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>'EGE FIRST'!Q11/'EGE FIRST'!$C$18</f>
+        <v>-1.1963869370268171E-4</v>
+      </c>
+      <c r="R11" s="3">
+        <f>'EGE FIRST'!R11/'EGE FIRST'!$C$18</f>
+        <v>1.0838485175066071E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <f>'EGE FIRST'!C12/'EGE FIRST'!$C$18</f>
+        <v>1.4781236859020449E-4</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'EGE FIRST'!D12/'EGE FIRST'!$C$18</f>
+        <v>2.5835492994744026E-5</v>
+      </c>
+      <c r="E12" s="3">
+        <f>'EGE FIRST'!E12/'EGE FIRST'!$C$18</f>
+        <v>5.7174806189833619E-5</v>
+      </c>
+      <c r="F12" s="3">
+        <f>'EGE FIRST'!F12/'EGE FIRST'!$C$18</f>
+        <v>9.5544354738406217E-5</v>
+      </c>
+      <c r="G12" s="3">
+        <f>'EGE FIRST'!G12/'EGE FIRST'!$C$18</f>
+        <v>7.4874711328484507E-5</v>
+      </c>
+      <c r="H12" s="3">
+        <f>'EGE FIRST'!H12/'EGE FIRST'!$C$18</f>
+        <v>4.0391776960825809E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <f>'EGE FIRST'!I12/'EGE FIRST'!$C$18</f>
+        <v>2.5909954706796937E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <f>'EGE FIRST'!J12/'EGE FIRST'!$C$18</f>
+        <v>5.3484023664288206E-5</v>
+      </c>
+      <c r="K12" s="3">
+        <f>'EGE FIRST'!K12/'EGE FIRST'!$C$18</f>
+        <v>4.907258287850144E-5</v>
+      </c>
+      <c r="L12" s="3">
+        <f>'EGE FIRST'!L12/'EGE FIRST'!$C$18</f>
+        <v>5.1911436282345389E-4</v>
+      </c>
+      <c r="M12" s="3">
+        <f>'EGE FIRST'!M12/'EGE FIRST'!$C$18</f>
+        <v>3.2443623541916282E-5</v>
+      </c>
+      <c r="N12" s="3">
+        <f>'EGE FIRST'!N12/'EGE FIRST'!$C$18</f>
+        <v>2.3126523610009177E-5</v>
+      </c>
+      <c r="O12" s="3">
+        <f>'EGE FIRST'!O12/'EGE FIRST'!$C$18</f>
+        <v>2.3319652999735879E-4</v>
+      </c>
+      <c r="P12" s="3">
+        <f>'EGE FIRST'!P12/'EGE FIRST'!$C$18</f>
+        <v>1.3163495319484591E-3</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>'EGE FIRST'!Q12/'EGE FIRST'!$C$18</f>
+        <v>3.3971610540887325E-4</v>
+      </c>
+      <c r="R12" s="3">
+        <f>'EGE FIRST'!R12/'EGE FIRST'!$C$18</f>
+        <v>3.3705205674841116E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <f>'EGE FIRST'!C13/'EGE FIRST'!$C$18</f>
+        <v>2.5662571010450028E-4</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'EGE FIRST'!D13/'EGE FIRST'!$C$18</f>
+        <v>-5.0366840859007015E-5</v>
+      </c>
+      <c r="E13" s="3">
+        <f>'EGE FIRST'!E13/'EGE FIRST'!$C$18</f>
+        <v>5.3017159574344803E-4</v>
+      </c>
+      <c r="F13" s="3">
+        <f>'EGE FIRST'!F13/'EGE FIRST'!$C$18</f>
+        <v>-1.185228381736497E-4</v>
+      </c>
+      <c r="G13" s="3">
+        <f>'EGE FIRST'!G13/'EGE FIRST'!$C$18</f>
+        <v>6.5655674173131697E-4</v>
+      </c>
+      <c r="H13" s="3">
+        <f>'EGE FIRST'!H13/'EGE FIRST'!$C$18</f>
+        <v>5.8531306891452444E-4</v>
+      </c>
+      <c r="I13" s="3">
+        <f>'EGE FIRST'!I13/'EGE FIRST'!$C$18</f>
+        <v>-1.4913083716874031E-5</v>
+      </c>
+      <c r="J13" s="3">
+        <f>'EGE FIRST'!J13/'EGE FIRST'!$C$18</f>
+        <v>5.5725957468694208E-4</v>
+      </c>
+      <c r="K13" s="3">
+        <f>'EGE FIRST'!K13/'EGE FIRST'!$C$18</f>
+        <v>-1.0427629391885968E-4</v>
+      </c>
+      <c r="L13" s="3">
+        <f>'EGE FIRST'!L13/'EGE FIRST'!$C$18</f>
+        <v>-1.5543800264271855E-4</v>
+      </c>
+      <c r="M13" s="3">
+        <f>'EGE FIRST'!M13/'EGE FIRST'!$C$18</f>
+        <v>6.2416806661822063E-4</v>
+      </c>
+      <c r="N13" s="3">
+        <f>'EGE FIRST'!N13/'EGE FIRST'!$C$18</f>
+        <v>6.302634335295644E-4</v>
+      </c>
+      <c r="O13" s="3">
+        <f>'EGE FIRST'!O13/'EGE FIRST'!$C$18</f>
+        <v>-4.2845422397073761E-4</v>
+      </c>
+      <c r="P13" s="3">
+        <f>'EGE FIRST'!P13/'EGE FIRST'!$C$18</f>
+        <v>-1.2567722832024784E-4</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>'EGE FIRST'!Q13/'EGE FIRST'!$C$18</f>
+        <v>2.5755324759830801E-4</v>
+      </c>
+      <c r="R13" s="3">
+        <f>'EGE FIRST'!R13/'EGE FIRST'!$C$18</f>
+        <v>-1.7400545887924721E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3">
+        <f>'EGE FIRST'!C14/'EGE FIRST'!$C$18</f>
+        <v>4.4366361865669527E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'EGE FIRST'!D14/'EGE FIRST'!$C$18</f>
+        <v>1.392450433343932E-4</v>
+      </c>
+      <c r="E14" s="3">
+        <f>'EGE FIRST'!E14/'EGE FIRST'!$C$18</f>
+        <v>5.7913053282373245E-3</v>
+      </c>
+      <c r="F14" s="3">
+        <f>'EGE FIRST'!F14/'EGE FIRST'!$C$18</f>
+        <v>3.3673077491223636E-4</v>
+      </c>
+      <c r="G14" s="3">
+        <f>'EGE FIRST'!G14/'EGE FIRST'!$C$18</f>
+        <v>6.100292899453413E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <f>'EGE FIRST'!H14/'EGE FIRST'!$C$18</f>
+        <v>6.1295268114674511E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <f>'EGE FIRST'!I14/'EGE FIRST'!$C$18</f>
+        <v>2.2249206921051787E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <f>'EGE FIRST'!J14/'EGE FIRST'!$C$18</f>
+        <v>5.953494015245025E-3</v>
+      </c>
+      <c r="K14" s="3">
+        <f>'EGE FIRST'!K14/'EGE FIRST'!$C$18</f>
+        <v>1.7311763387443645E-4</v>
+      </c>
+      <c r="L14" s="3">
+        <f>'EGE FIRST'!L14/'EGE FIRST'!$C$18</f>
+        <v>5.5825920048887102E-4</v>
+      </c>
+      <c r="M14" s="3">
+        <f>'EGE FIRST'!M14/'EGE FIRST'!$C$18</f>
+        <v>6.3282346456216771E-3</v>
+      </c>
+      <c r="N14" s="3">
+        <f>'EGE FIRST'!N14/'EGE FIRST'!$C$18</f>
+        <v>6.3483210458076403E-3</v>
+      </c>
+      <c r="O14" s="3">
+        <f>'EGE FIRST'!O14/'EGE FIRST'!$C$18</f>
+        <v>1.0266030876622978E-4</v>
+      </c>
+      <c r="P14" s="3">
+        <f>'EGE FIRST'!P14/'EGE FIRST'!$C$18</f>
+        <v>7.9917764439934149E-4</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>'EGE FIRST'!Q14/'EGE FIRST'!$C$18</f>
+        <v>4.5378048769779186E-3</v>
+      </c>
+      <c r="R14" s="3">
+        <f>'EGE FIRST'!R14/'EGE FIRST'!$C$18</f>
+        <v>1.0010986891686978E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3">
+        <f>'EGE FIRST'!C15/'EGE FIRST'!$C$18</f>
+        <v>2.9389051237172789E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'EGE FIRST'!D15/'EGE FIRST'!$C$18</f>
+        <v>4.338208669130014E-5</v>
+      </c>
+      <c r="E15" s="3">
+        <f>'EGE FIRST'!E15/'EGE FIRST'!$C$18</f>
+        <v>3.7273694691971702E-3</v>
+      </c>
+      <c r="F15" s="3">
+        <f>'EGE FIRST'!F15/'EGE FIRST'!$C$18</f>
+        <v>1.3214920163660623E-4</v>
+      </c>
+      <c r="G15" s="3">
+        <f>'EGE FIRST'!G15/'EGE FIRST'!$C$18</f>
+        <v>3.9326499117960855E-3</v>
+      </c>
+      <c r="H15" s="3">
+        <f>'EGE FIRST'!H15/'EGE FIRST'!$C$18</f>
+        <v>4.0289219499631329E-3</v>
+      </c>
+      <c r="I15" s="3">
+        <f>'EGE FIRST'!I15/'EGE FIRST'!$C$18</f>
+        <v>1.3078369362377283E-3</v>
+      </c>
+      <c r="J15" s="3">
+        <f>'EGE FIRST'!J15/'EGE FIRST'!$C$18</f>
+        <v>3.9048999115087889E-3</v>
+      </c>
+      <c r="K15" s="3">
+        <f>'EGE FIRST'!K15/'EGE FIRST'!$C$18</f>
+        <v>6.9625679248459492E-5</v>
+      </c>
+      <c r="L15" s="3">
+        <f>'EGE FIRST'!L15/'EGE FIRST'!$C$18</f>
+        <v>2.0856528629297776E-4</v>
+      </c>
+      <c r="M15" s="3">
+        <f>'EGE FIRST'!M15/'EGE FIRST'!$C$18</f>
+        <v>4.1747238991336902E-3</v>
+      </c>
+      <c r="N15" s="3">
+        <f>'EGE FIRST'!N15/'EGE FIRST'!$C$18</f>
+        <v>4.1889430152048015E-3</v>
+      </c>
+      <c r="O15" s="3">
+        <f>'EGE FIRST'!O15/'EGE FIRST'!$C$18</f>
+        <v>8.7217705258473271E-4</v>
+      </c>
+      <c r="P15" s="3">
+        <f>'EGE FIRST'!P15/'EGE FIRST'!$C$18</f>
+        <v>3.1131653744613654E-4</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>'EGE FIRST'!Q15/'EGE FIRST'!$C$18</f>
+        <v>2.9146427101186512E-3</v>
+      </c>
+      <c r="R15" s="3">
+        <f>'EGE FIRST'!R15/'EGE FIRST'!$C$18</f>
+        <v>5.6510007199877805E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <f>'EGE FIRST'!C16/'EGE FIRST'!$C$18</f>
+        <v>3.0437879023959537E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'EGE FIRST'!D16/'EGE FIRST'!$C$18</f>
+        <v>4.4950127782103215E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f>'EGE FIRST'!E16/'EGE FIRST'!$C$18</f>
+        <v>2.7814981350485751E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f>'EGE FIRST'!F16/'EGE FIRST'!$C$18</f>
+        <v>4.3520859909819055E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <f>'EGE FIRST'!G16/'EGE FIRST'!$C$18</f>
+        <v>2.6814246526532214E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f>'EGE FIRST'!H16/'EGE FIRST'!$C$18</f>
+        <v>2.6864523091696648E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <f>'EGE FIRST'!I16/'EGE FIRST'!$C$18</f>
+        <v>3.7707486547369426E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <f>'EGE FIRST'!J16/'EGE FIRST'!$C$18</f>
+        <v>2.7331859978831571E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f>'EGE FIRST'!K16/'EGE FIRST'!$C$18</f>
+        <v>4.2460164898447318E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f>'EGE FIRST'!L16/'EGE FIRST'!$C$18</f>
+        <v>4.3093941793141702E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <f>'EGE FIRST'!M16/'EGE FIRST'!$C$18</f>
+        <v>2.6351809949753498E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <f>'EGE FIRST'!N16/'EGE FIRST'!$C$18</f>
+        <v>2.6304713397415105E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <f>'EGE FIRST'!O16/'EGE FIRST'!$C$18</f>
+        <v>3.3699196258608573E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <f>'EGE FIRST'!P16/'EGE FIRST'!$C$18</f>
+        <v>4.3194723847314924E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>'EGE FIRST'!Q16/'EGE FIRST'!$C$18</f>
+        <v>3.0745978966616423E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <f>'EGE FIRST'!R16/'EGE FIRST'!$C$18</f>
+        <v>4.0081532747455698E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <f>'EGE FIRST'!C17/'EGE FIRST'!$C$18</f>
+        <v>3.8873674129254521E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f>'EGE FIRST'!D17/'EGE FIRST'!$C$18</f>
+        <v>3.8695114311944945E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f>'EGE FIRST'!E17/'EGE FIRST'!$C$18</f>
+        <v>3.8170616441143231E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>'EGE FIRST'!F17/'EGE FIRST'!$C$18</f>
+        <v>3.9424396036250774E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f>'EGE FIRST'!G17/'EGE FIRST'!$C$18</f>
+        <v>3.8208545212880606E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f>'EGE FIRST'!H17/'EGE FIRST'!$C$18</f>
+        <v>3.8149374836906218E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f>'EGE FIRST'!I17/'EGE FIRST'!$C$18</f>
+        <v>3.7719593352066073E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <f>'EGE FIRST'!J17/'EGE FIRST'!$C$18</f>
+        <v>3.8128341062742682E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f>'EGE FIRST'!K17/'EGE FIRST'!$C$18</f>
+        <v>4.2087918679481022E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f>'EGE FIRST'!L17/'EGE FIRST'!$C$18</f>
+        <v>3.8171163033046664E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <f>'EGE FIRST'!M17/'EGE FIRST'!$C$18</f>
+        <v>3.8083840824670014E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <f>'EGE FIRST'!N17/'EGE FIRST'!$C$18</f>
+        <v>3.8072209539092225E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f>'EGE FIRST'!O17/'EGE FIRST'!$C$18</f>
+        <v>3.7056344945506907E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f>'EGE FIRST'!P17/'EGE FIRST'!$C$18</f>
+        <v>3.6527869316560185E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>'EGE FIRST'!Q17/'EGE FIRST'!$C$18</f>
+        <v>3.8531080470749893E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f>'EGE FIRST'!R17/'EGE FIRST'!$C$18</f>
+        <v>3.819581244700912E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>2.9184075405536209E-2</v>
       </c>
       <c r="D2">
@@ -3847,7 +7951,7 @@
         <v>3.2757666589216028E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3903,7 +8007,7 @@
         <v>6.7593318131425592E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3959,7 +8063,7 @@
         <v>6.0132616600263367E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4015,7 +8119,7 @@
         <v>0.73607605099592377</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4071,7 +8175,7 @@
         <v>2.915286588918994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4127,7 +8231,7 @@
         <v>1.776027660008776E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4183,7 +8287,7 @@
         <v>3.6185763067035489E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4239,7 +8343,7 @@
         <v>6.333714322054095E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4295,7 +8399,7 @@
         <v>1.2353455342048431E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4351,7 +8455,7 @@
         <v>1.4030431519302081E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4407,7 +8511,7 @@
         <v>2.4098281665386278E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4463,7 +8567,7 @@
         <v>1.2068175986115759E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4519,7 +8623,7 @@
         <v>7.5488990782346486E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4575,7 +8679,7 @@
         <v>5.0544910041708789E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4631,7 +8735,7 @@
         <v>2.916489106662682E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4687,7 +8791,7 @@
         <v>6.1656857781215081E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
@@ -4755,6 +8859,1384 @@
         <f t="shared" si="0"/>
         <v>0.98443785474146006</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <f>'EGE TOTAL'!C2/'EGE TOTAL'!$C$18</f>
+        <v>2.9776735652913906E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'EGE TOTAL'!D2/'EGE TOTAL'!$C$18</f>
+        <v>3.4610695549186471E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <f>'EGE TOTAL'!E2/'EGE TOTAL'!$C$18</f>
+        <v>2.9064088347148864E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>'EGE TOTAL'!F2/'EGE TOTAL'!$C$18</f>
+        <v>3.4044464550852797E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'EGE TOTAL'!G2/'EGE TOTAL'!$C$18</f>
+        <v>2.8716028967686845E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'EGE TOTAL'!H2/'EGE TOTAL'!$C$18</f>
+        <v>2.8758490518951817E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <f>'EGE TOTAL'!I2/'EGE TOTAL'!$C$18</f>
+        <v>3.2361128726692653E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <f>'EGE TOTAL'!J2/'EGE TOTAL'!$C$18</f>
+        <v>2.8923675346952008E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <f>'EGE TOTAL'!K2/'EGE TOTAL'!$C$18</f>
+        <v>3.3422970137497739E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <f>'EGE TOTAL'!L2/'EGE TOTAL'!$C$18</f>
+        <v>3.4111140864451411E-2</v>
+      </c>
+      <c r="M2" s="3">
+        <f>'EGE TOTAL'!M2/'EGE TOTAL'!$C$18</f>
+        <v>2.8615926375619653E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <f>'EGE TOTAL'!N2/'EGE TOTAL'!$C$18</f>
+        <v>2.8605572323721469E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <f>'EGE TOTAL'!O2/'EGE TOTAL'!$C$18</f>
+        <v>3.2457677062532712E-2</v>
+      </c>
+      <c r="P2" s="3">
+        <f>'EGE TOTAL'!P2/'EGE TOTAL'!$C$18</f>
+        <v>3.4216350494024543E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>'EGE TOTAL'!Q2/'EGE TOTAL'!$C$18</f>
+        <v>2.9908317511304874E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <f>'EGE TOTAL'!R2/'EGE TOTAL'!$C$18</f>
+        <v>3.3422898107244456E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <f>'EGE TOTAL'!C3/'EGE TOTAL'!$C$18</f>
+        <v>5.3565890498996668E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f>'EGE TOTAL'!D3/'EGE TOTAL'!$C$18</f>
+        <v>7.92515717235594E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <f>'EGE TOTAL'!E3/'EGE TOTAL'!$C$18</f>
+        <v>5.0046000196569476E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>'EGE TOTAL'!F3/'EGE TOTAL'!$C$18</f>
+        <v>7.7029417093957789E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'EGE TOTAL'!G3/'EGE TOTAL'!$C$18</f>
+        <v>4.9031172126039954E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <f>'EGE TOTAL'!H3/'EGE TOTAL'!$C$18</f>
+        <v>4.8973389972088284E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <f>'EGE TOTAL'!I3/'EGE TOTAL'!$C$18</f>
+        <v>6.3805428642586648E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <f>'EGE TOTAL'!J3/'EGE TOTAL'!$C$18</f>
+        <v>4.9457784456576372E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>'EGE TOTAL'!K3/'EGE TOTAL'!$C$18</f>
+        <v>7.8023185366350598E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <f>'EGE TOTAL'!L3/'EGE TOTAL'!$C$18</f>
+        <v>7.5133266706084695E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f>'EGE TOTAL'!M3/'EGE TOTAL'!$C$18</f>
+        <v>4.8357532731300272E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <f>'EGE TOTAL'!N3/'EGE TOTAL'!$C$18</f>
+        <v>4.8293430735380824E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <f>'EGE TOTAL'!O3/'EGE TOTAL'!$C$18</f>
+        <v>6.1209778490989228E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <f>'EGE TOTAL'!P3/'EGE TOTAL'!$C$18</f>
+        <v>7.3090783024438943E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>'EGE TOTAL'!Q3/'EGE TOTAL'!$C$18</f>
+        <v>5.3875618151314621E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <f>'EGE TOTAL'!R3/'EGE TOTAL'!$C$18</f>
+        <v>6.8965980177016759E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <f>'EGE TOTAL'!C4/'EGE TOTAL'!$C$18</f>
+        <v>5.2326150056259953E-6</v>
+      </c>
+      <c r="D4" s="3">
+        <f>'EGE TOTAL'!D4/'EGE TOTAL'!$C$18</f>
+        <v>2.4623606171479932E-5</v>
+      </c>
+      <c r="E4" s="3">
+        <f>'EGE TOTAL'!E4/'EGE TOTAL'!$C$18</f>
+        <v>1.3163822006748983E-6</v>
+      </c>
+      <c r="F4" s="3">
+        <f>'EGE TOTAL'!F4/'EGE TOTAL'!$C$18</f>
+        <v>1.8364010856383825E-5</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'EGE TOTAL'!G4/'EGE TOTAL'!$C$18</f>
+        <v>6.3718074066350931E-7</v>
+      </c>
+      <c r="H4" s="3">
+        <f>'EGE TOTAL'!H4/'EGE TOTAL'!$C$18</f>
+        <v>4.9988401751882876E-7</v>
+      </c>
+      <c r="I4" s="3">
+        <f>'EGE TOTAL'!I4/'EGE TOTAL'!$C$18</f>
+        <v>3.3368525516473839E-5</v>
+      </c>
+      <c r="J4" s="3">
+        <f>'EGE TOTAL'!J4/'EGE TOTAL'!$C$18</f>
+        <v>1.1672160451027801E-6</v>
+      </c>
+      <c r="K4" s="3">
+        <f>'EGE TOTAL'!K4/'EGE TOTAL'!$C$18</f>
+        <v>4.6771125167301193E-6</v>
+      </c>
+      <c r="L4" s="3">
+        <f>'EGE TOTAL'!L4/'EGE TOTAL'!$C$18</f>
+        <v>2.9897527685156806E-5</v>
+      </c>
+      <c r="M4" s="3">
+        <f>'EGE TOTAL'!M4/'EGE TOTAL'!$C$18</f>
+        <v>2.5731355691689956E-7</v>
+      </c>
+      <c r="N4" s="3">
+        <f>'EGE TOTAL'!N4/'EGE TOTAL'!$C$18</f>
+        <v>2.774787240165407E-7</v>
+      </c>
+      <c r="O4" s="3">
+        <f>'EGE TOTAL'!O4/'EGE TOTAL'!$C$18</f>
+        <v>2.8358169832113123E-5</v>
+      </c>
+      <c r="P4" s="3">
+        <f>'EGE TOTAL'!P4/'EGE TOTAL'!$C$18</f>
+        <v>4.8110342244376135E-5</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>'EGE TOTAL'!Q4/'EGE TOTAL'!$C$18</f>
+        <v>4.8731113152446871E-6</v>
+      </c>
+      <c r="R4" s="3">
+        <f>'EGE TOTAL'!R4/'EGE TOTAL'!$C$18</f>
+        <v>6.1353769264329598E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <f>'EGE TOTAL'!C5/'EGE TOTAL'!$C$18</f>
+        <v>0.70618892185752491</v>
+      </c>
+      <c r="D5" s="3">
+        <f>'EGE TOTAL'!D5/'EGE TOTAL'!$C$18</f>
+        <v>0.77480109949715081</v>
+      </c>
+      <c r="E5" s="3">
+        <f>'EGE TOTAL'!E5/'EGE TOTAL'!$C$18</f>
+        <v>0.69637703909749205</v>
+      </c>
+      <c r="F5" s="3">
+        <f>'EGE TOTAL'!F5/'EGE TOTAL'!$C$18</f>
+        <v>0.7728469158342266</v>
+      </c>
+      <c r="G5" s="3">
+        <f>'EGE TOTAL'!G5/'EGE TOTAL'!$C$18</f>
+        <v>0.68945338321235206</v>
+      </c>
+      <c r="H5" s="3">
+        <f>'EGE TOTAL'!H5/'EGE TOTAL'!$C$18</f>
+        <v>0.69041495224872107</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'EGE TOTAL'!I5/'EGE TOTAL'!$C$18</f>
+        <v>0.741570559615917</v>
+      </c>
+      <c r="J5" s="3">
+        <f>'EGE TOTAL'!J5/'EGE TOTAL'!$C$18</f>
+        <v>0.69354805759543536</v>
+      </c>
+      <c r="K5" s="3">
+        <f>'EGE TOTAL'!K5/'EGE TOTAL'!$C$18</f>
+        <v>0.78004485139636981</v>
+      </c>
+      <c r="L5" s="3">
+        <f>'EGE TOTAL'!L5/'EGE TOTAL'!$C$18</f>
+        <v>0.77091123895438884</v>
+      </c>
+      <c r="M5" s="3">
+        <f>'EGE TOTAL'!M5/'EGE TOTAL'!$C$18</f>
+        <v>0.68787335161691332</v>
+      </c>
+      <c r="N5" s="3">
+        <f>'EGE TOTAL'!N5/'EGE TOTAL'!$C$18</f>
+        <v>0.68763175644692875</v>
+      </c>
+      <c r="O5" s="3">
+        <f>'EGE TOTAL'!O5/'EGE TOTAL'!$C$18</f>
+        <v>0.71069015712659456</v>
+      </c>
+      <c r="P5" s="3">
+        <f>'EGE TOTAL'!P5/'EGE TOTAL'!$C$18</f>
+        <v>0.76344557942264246</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>'EGE TOTAL'!Q5/'EGE TOTAL'!$C$18</f>
+        <v>0.71095017131872817</v>
+      </c>
+      <c r="R5" s="3">
+        <f>'EGE TOTAL'!R5/'EGE TOTAL'!$C$18</f>
+        <v>0.75102403233198101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <f>'EGE TOTAL'!C6/'EGE TOTAL'!$C$18</f>
+        <v>2.9445515843977352E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <f>'EGE TOTAL'!D6/'EGE TOTAL'!$C$18</f>
+        <v>2.9290074181364787E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <f>'EGE TOTAL'!E6/'EGE TOTAL'!$C$18</f>
+        <v>2.9424431109901221E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <f>'EGE TOTAL'!F6/'EGE TOTAL'!$C$18</f>
+        <v>2.9889265234332472E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'EGE TOTAL'!G6/'EGE TOTAL'!$C$18</f>
+        <v>3.2055488899846114E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f>'EGE TOTAL'!H6/'EGE TOTAL'!$C$18</f>
+        <v>2.929314031589712E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <f>'EGE TOTAL'!I6/'EGE TOTAL'!$C$18</f>
+        <v>2.9401587216315143E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <f>'EGE TOTAL'!J6/'EGE TOTAL'!$C$18</f>
+        <v>2.9402022220956153E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <f>'EGE TOTAL'!K6/'EGE TOTAL'!$C$18</f>
+        <v>3.0944039905933664E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <f>'EGE TOTAL'!L6/'EGE TOTAL'!$C$18</f>
+        <v>2.992282629271065E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>'EGE TOTAL'!M6/'EGE TOTAL'!$C$18</f>
+        <v>2.9272783826662083E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <f>'EGE TOTAL'!N6/'EGE TOTAL'!$C$18</f>
+        <v>2.9258663943342585E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <f>'EGE TOTAL'!O6/'EGE TOTAL'!$C$18</f>
+        <v>2.8833869792255187E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f>'EGE TOTAL'!P6/'EGE TOTAL'!$C$18</f>
+        <v>2.9333875112335255E-2</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>'EGE TOTAL'!Q6/'EGE TOTAL'!$C$18</f>
+        <v>2.9668010533526946E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <f>'EGE TOTAL'!R6/'EGE TOTAL'!$C$18</f>
+        <v>2.9744892344356601E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <f>'EGE TOTAL'!C7/'EGE TOTAL'!$C$18</f>
+        <v>1.3477287124720779E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'EGE TOTAL'!D7/'EGE TOTAL'!$C$18</f>
+        <v>1.9172342458963264E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <f>'EGE TOTAL'!E7/'EGE TOTAL'!$C$18</f>
+        <v>1.2512729559884578E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <f>'EGE TOTAL'!F7/'EGE TOTAL'!$C$18</f>
+        <v>1.8594107167059393E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <f>'EGE TOTAL'!G7/'EGE TOTAL'!$C$18</f>
+        <v>1.3404608595847453E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <f>'EGE TOTAL'!H7/'EGE TOTAL'!$C$18</f>
+        <v>1.2130088059068699E-3</v>
+      </c>
+      <c r="I7" s="3">
+        <f>'EGE TOTAL'!I7/'EGE TOTAL'!$C$18</f>
+        <v>1.6475587797990584E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>'EGE TOTAL'!J7/'EGE TOTAL'!$C$18</f>
+        <v>1.234391172421556E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <f>'EGE TOTAL'!K7/'EGE TOTAL'!$C$18</f>
+        <v>1.7846492750229533E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <f>'EGE TOTAL'!L7/'EGE TOTAL'!$C$18</f>
+        <v>1.8852291138307267E-3</v>
+      </c>
+      <c r="M7" s="3">
+        <f>'EGE TOTAL'!M7/'EGE TOTAL'!$C$18</f>
+        <v>1.1975159743610037E-3</v>
+      </c>
+      <c r="N7" s="3">
+        <f>'EGE TOTAL'!N7/'EGE TOTAL'!$C$18</f>
+        <v>1.1962855873201114E-3</v>
+      </c>
+      <c r="O7" s="3">
+        <f>'EGE TOTAL'!O7/'EGE TOTAL'!$C$18</f>
+        <v>1.8800938113041682E-3</v>
+      </c>
+      <c r="P7" s="3">
+        <f>'EGE TOTAL'!P7/'EGE TOTAL'!$C$18</f>
+        <v>1.8985732680253911E-3</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>'EGE TOTAL'!Q7/'EGE TOTAL'!$C$18</f>
+        <v>1.3478011637454482E-3</v>
+      </c>
+      <c r="R7" s="3">
+        <f>'EGE TOTAL'!R7/'EGE TOTAL'!$C$18</f>
+        <v>1.8120946238479238E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
+        <f>'EGE TOTAL'!C8/'EGE TOTAL'!$C$18</f>
+        <v>3.6496967363537692E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'EGE TOTAL'!D8/'EGE TOTAL'!$C$18</f>
+        <v>3.6003864965881301E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'EGE TOTAL'!E8/'EGE TOTAL'!$C$18</f>
+        <v>3.6392866206924122E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>'EGE TOTAL'!F8/'EGE TOTAL'!$C$18</f>
+        <v>3.654372321939527E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f>'EGE TOTAL'!G8/'EGE TOTAL'!$C$18</f>
+        <v>4.0066216240914956E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <f>'EGE TOTAL'!H8/'EGE TOTAL'!$C$18</f>
+        <v>3.6208126460239441E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <f>'EGE TOTAL'!I8/'EGE TOTAL'!$C$18</f>
+        <v>3.6767989454371242E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>'EGE TOTAL'!J8/'EGE TOTAL'!$C$18</f>
+        <v>3.6357115862882144E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <f>'EGE TOTAL'!K8/'EGE TOTAL'!$C$18</f>
+        <v>3.6965151796423848E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <f>'EGE TOTAL'!L8/'EGE TOTAL'!$C$18</f>
+        <v>3.6754962136557093E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <f>'EGE TOTAL'!M8/'EGE TOTAL'!$C$18</f>
+        <v>3.6153634066839442E-3</v>
+      </c>
+      <c r="N8" s="3">
+        <f>'EGE TOTAL'!N8/'EGE TOTAL'!$C$18</f>
+        <v>3.6135736285589312E-3</v>
+      </c>
+      <c r="O8" s="3">
+        <f>'EGE TOTAL'!O8/'EGE TOTAL'!$C$18</f>
+        <v>3.5330475030452523E-3</v>
+      </c>
+      <c r="P8" s="3">
+        <f>'EGE TOTAL'!P8/'EGE TOTAL'!$C$18</f>
+        <v>3.6680096333336532E-3</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>'EGE TOTAL'!Q8/'EGE TOTAL'!$C$18</f>
+        <v>3.6752302662562595E-3</v>
+      </c>
+      <c r="R8" s="3">
+        <f>'EGE TOTAL'!R8/'EGE TOTAL'!$C$18</f>
+        <v>3.6920611198862606E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <f>'EGE TOTAL'!C9/'EGE TOTAL'!$C$18</f>
+        <v>7.9828165315458055E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <f>'EGE TOTAL'!D9/'EGE TOTAL'!$C$18</f>
+        <v>2.1410156896143186E-5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>'EGE TOTAL'!E9/'EGE TOTAL'!$C$18</f>
+        <v>0.10834735203476981</v>
+      </c>
+      <c r="F9" s="3">
+        <f>'EGE TOTAL'!F9/'EGE TOTAL'!$C$18</f>
+        <v>5.8118229832772512E-4</v>
+      </c>
+      <c r="G9" s="3">
+        <f>'EGE TOTAL'!G9/'EGE TOTAL'!$C$18</f>
+        <v>0.11741987811651312</v>
+      </c>
+      <c r="H9" s="3">
+        <f>'EGE TOTAL'!H9/'EGE TOTAL'!$C$18</f>
+        <v>0.12072761028433675</v>
+      </c>
+      <c r="I9" s="3">
+        <f>'EGE TOTAL'!I9/'EGE TOTAL'!$C$18</f>
+        <v>2.4288111890797458E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <f>'EGE TOTAL'!J9/'EGE TOTAL'!$C$18</f>
+        <v>0.11417294316527563</v>
+      </c>
+      <c r="K9" s="3">
+        <f>'EGE TOTAL'!K9/'EGE TOTAL'!$C$18</f>
+        <v>2.9915869696290866E-4</v>
+      </c>
+      <c r="L9" s="3">
+        <f>'EGE TOTAL'!L9/'EGE TOTAL'!$C$18</f>
+        <v>5.1969840408562756E-4</v>
+      </c>
+      <c r="M9" s="3">
+        <f>'EGE TOTAL'!M9/'EGE TOTAL'!$C$18</f>
+        <v>0.12610729724205816</v>
+      </c>
+      <c r="N9" s="3">
+        <f>'EGE TOTAL'!N9/'EGE TOTAL'!$C$18</f>
+        <v>0.12658949561183838</v>
+      </c>
+      <c r="O9" s="3">
+        <f>'EGE TOTAL'!O9/'EGE TOTAL'!$C$18</f>
+        <v>7.349182083684953E-4</v>
+      </c>
+      <c r="P9" s="3">
+        <f>'EGE TOTAL'!P9/'EGE TOTAL'!$C$18</f>
+        <v>1.602228935375537E-3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>'EGE TOTAL'!Q9/'EGE TOTAL'!$C$18</f>
+        <v>7.847727123175835E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <f>'EGE TOTAL'!R9/'EGE TOTAL'!$C$18</f>
+        <v>6.4623372318008314E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'EGE TOTAL'!C10/'EGE TOTAL'!$C$18</f>
+        <v>1.4923315423807728E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'EGE TOTAL'!D10/'EGE TOTAL'!$C$18</f>
+        <v>1.6773388580181913E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <f>'EGE TOTAL'!E10/'EGE TOTAL'!$C$18</f>
+        <v>4.1886941812849081E-4</v>
+      </c>
+      <c r="F10" s="3">
+        <f>'EGE TOTAL'!F10/'EGE TOTAL'!$C$18</f>
+        <v>1.1455761835217971E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>'EGE TOTAL'!G10/'EGE TOTAL'!$C$18</f>
+        <v>1.6014392198776095E-4</v>
+      </c>
+      <c r="H10" s="3">
+        <f>'EGE TOTAL'!H10/'EGE TOTAL'!$C$18</f>
+        <v>1.5806878604713269E-4</v>
+      </c>
+      <c r="I10" s="3">
+        <f>'EGE TOTAL'!I10/'EGE TOTAL'!$C$18</f>
+        <v>1.1738044866302229E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <f>'EGE TOTAL'!J10/'EGE TOTAL'!$C$18</f>
+        <v>2.7680254918797541E-4</v>
+      </c>
+      <c r="K10" s="3">
+        <f>'EGE TOTAL'!K10/'EGE TOTAL'!$C$18</f>
+        <v>2.8689401463048558E-3</v>
+      </c>
+      <c r="L10" s="3">
+        <f>'EGE TOTAL'!L10/'EGE TOTAL'!$C$18</f>
+        <v>1.3713000662196197E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f>'EGE TOTAL'!M10/'EGE TOTAL'!$C$18</f>
+        <v>6.6498278830781366E-5</v>
+      </c>
+      <c r="N10" s="3">
+        <f>'EGE TOTAL'!N10/'EGE TOTAL'!$C$18</f>
+        <v>6.3326897520730625E-5</v>
+      </c>
+      <c r="O10" s="3">
+        <f>'EGE TOTAL'!O10/'EGE TOTAL'!$C$18</f>
+        <v>3.8564704338407063E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <f>'EGE TOTAL'!P10/'EGE TOTAL'!$C$18</f>
+        <v>2.2507627617658128E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>'EGE TOTAL'!Q10/'EGE TOTAL'!$C$18</f>
+        <v>1.6307987111825915E-3</v>
+      </c>
+      <c r="R10" s="3">
+        <f>'EGE TOTAL'!R10/'EGE TOTAL'!$C$18</f>
+        <v>1.2604325098833628E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <f>'EGE TOTAL'!C11/'EGE TOTAL'!$C$18</f>
+        <v>3.5794225305609559E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'EGE TOTAL'!D11/'EGE TOTAL'!$C$18</f>
+        <v>6.5906089507100232E-7</v>
+      </c>
+      <c r="E11" s="3">
+        <f>'EGE TOTAL'!E11/'EGE TOTAL'!$C$18</f>
+        <v>2.9853352318231132E-5</v>
+      </c>
+      <c r="F11" s="3">
+        <f>'EGE TOTAL'!F11/'EGE TOTAL'!$C$18</f>
+        <v>1.5529055683044896E-5</v>
+      </c>
+      <c r="G11" s="3">
+        <f>'EGE TOTAL'!G11/'EGE TOTAL'!$C$18</f>
+        <v>1.4465998675287262E-5</v>
+      </c>
+      <c r="H11" s="3">
+        <f>'EGE TOTAL'!H11/'EGE TOTAL'!$C$18</f>
+        <v>8.4046290079545577E-6</v>
+      </c>
+      <c r="I11" s="3">
+        <f>'EGE TOTAL'!I11/'EGE TOTAL'!$C$18</f>
+        <v>1.7153134633609874E-4</v>
+      </c>
+      <c r="J11" s="3">
+        <f>'EGE TOTAL'!J11/'EGE TOTAL'!$C$18</f>
+        <v>1.9633575602869818E-5</v>
+      </c>
+      <c r="K11" s="3">
+        <f>'EGE TOTAL'!K11/'EGE TOTAL'!$C$18</f>
+        <v>1.694425455404301E-6</v>
+      </c>
+      <c r="L11" s="3">
+        <f>'EGE TOTAL'!L11/'EGE TOTAL'!$C$18</f>
+        <v>1.4735580890035775E-4</v>
+      </c>
+      <c r="M11" s="3">
+        <f>'EGE TOTAL'!M11/'EGE TOTAL'!$C$18</f>
+        <v>8.5163411770771747E-6</v>
+      </c>
+      <c r="N11" s="3">
+        <f>'EGE TOTAL'!N11/'EGE TOTAL'!$C$18</f>
+        <v>9.5237274489624145E-6</v>
+      </c>
+      <c r="O11" s="3">
+        <f>'EGE TOTAL'!O11/'EGE TOTAL'!$C$18</f>
+        <v>3.8085479815345789E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <f>'EGE TOTAL'!P11/'EGE TOTAL'!$C$18</f>
+        <v>1.1613050419529392E-4</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>'EGE TOTAL'!Q11/'EGE TOTAL'!$C$18</f>
+        <v>5.0140543642020267E-5</v>
+      </c>
+      <c r="R11" s="3">
+        <f>'EGE TOTAL'!R11/'EGE TOTAL'!$C$18</f>
+        <v>1.4315356736205407E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <f>'EGE TOTAL'!C12/'EGE TOTAL'!$C$18</f>
+        <v>7.5554304366618355E-6</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'EGE TOTAL'!D12/'EGE TOTAL'!$C$18</f>
+        <v>1.4228745973845971E-7</v>
+      </c>
+      <c r="E12" s="3">
+        <f>'EGE TOTAL'!E12/'EGE TOTAL'!$C$18</f>
+        <v>1.350052394053161E-6</v>
+      </c>
+      <c r="F12" s="3">
+        <f>'EGE TOTAL'!F12/'EGE TOTAL'!$C$18</f>
+        <v>1.9589814723293932E-6</v>
+      </c>
+      <c r="G12" s="3">
+        <f>'EGE TOTAL'!G12/'EGE TOTAL'!$C$18</f>
+        <v>2.3769069240441459E-6</v>
+      </c>
+      <c r="H12" s="3">
+        <f>'EGE TOTAL'!H12/'EGE TOTAL'!$C$18</f>
+        <v>7.2182064356956077E-7</v>
+      </c>
+      <c r="I12" s="3">
+        <f>'EGE TOTAL'!I12/'EGE TOTAL'!$C$18</f>
+        <v>1.6908191996156717E-5</v>
+      </c>
+      <c r="J12" s="3">
+        <f>'EGE TOTAL'!J12/'EGE TOTAL'!$C$18</f>
+        <v>1.2172669918358764E-6</v>
+      </c>
+      <c r="K12" s="3">
+        <f>'EGE TOTAL'!K12/'EGE TOTAL'!$C$18</f>
+        <v>5.1905377449297599E-7</v>
+      </c>
+      <c r="L12" s="3">
+        <f>'EGE TOTAL'!L12/'EGE TOTAL'!$C$18</f>
+        <v>5.2158553734383112E-5</v>
+      </c>
+      <c r="M12" s="3">
+        <f>'EGE TOTAL'!M12/'EGE TOTAL'!$C$18</f>
+        <v>4.8024939473505202E-7</v>
+      </c>
+      <c r="N12" s="3">
+        <f>'EGE TOTAL'!N12/'EGE TOTAL'!$C$18</f>
+        <v>2.4578186428861452E-7</v>
+      </c>
+      <c r="O12" s="3">
+        <f>'EGE TOTAL'!O12/'EGE TOTAL'!$C$18</f>
+        <v>1.1228686521810825E-5</v>
+      </c>
+      <c r="P12" s="3">
+        <f>'EGE TOTAL'!P12/'EGE TOTAL'!$C$18</f>
+        <v>2.9375115312332297E-4</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>'EGE TOTAL'!Q12/'EGE TOTAL'!$C$18</f>
+        <v>3.7033167874035503E-5</v>
+      </c>
+      <c r="R12" s="3">
+        <f>'EGE TOTAL'!R12/'EGE TOTAL'!$C$18</f>
+        <v>2.458766134847454E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <f>'EGE TOTAL'!C13/'EGE TOTAL'!$C$18</f>
+        <v>7.8278093289704583E-3</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'EGE TOTAL'!D13/'EGE TOTAL'!$C$18</f>
+        <v>2.7551765764114297E-5</v>
+      </c>
+      <c r="E13" s="3">
+        <f>'EGE TOTAL'!E13/'EGE TOTAL'!$C$18</f>
+        <v>1.02603740200292E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f>'EGE TOTAL'!F13/'EGE TOTAL'!$C$18</f>
+        <v>1.5838985330640608E-4</v>
+      </c>
+      <c r="G13" s="3">
+        <f>'EGE TOTAL'!G13/'EGE TOTAL'!$C$18</f>
+        <v>1.0691575392173245E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <f>'EGE TOTAL'!H13/'EGE TOTAL'!$C$18</f>
+        <v>1.0901584351795689E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f>'EGE TOTAL'!I13/'EGE TOTAL'!$C$18</f>
+        <v>3.0401122810361221E-3</v>
+      </c>
+      <c r="J13" s="3">
+        <f>'EGE TOTAL'!J13/'EGE TOTAL'!$C$18</f>
+        <v>1.0583481157079551E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <f>'EGE TOTAL'!K13/'EGE TOTAL'!$C$18</f>
+        <v>5.7170162960182664E-5</v>
+      </c>
+      <c r="L13" s="3">
+        <f>'EGE TOTAL'!L13/'EGE TOTAL'!$C$18</f>
+        <v>3.9170415023885672E-4</v>
+      </c>
+      <c r="M13" s="3">
+        <f>'EGE TOTAL'!M13/'EGE TOTAL'!$C$18</f>
+        <v>1.1354496453699965E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <f>'EGE TOTAL'!N13/'EGE TOTAL'!$C$18</f>
+        <v>1.1399929204210612E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <f>'EGE TOTAL'!O13/'EGE TOTAL'!$C$18</f>
+        <v>2.792219726464431E-3</v>
+      </c>
+      <c r="P13" s="3">
+        <f>'EGE TOTAL'!P13/'EGE TOTAL'!$C$18</f>
+        <v>6.7299273965131727E-4</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>'EGE TOTAL'!Q13/'EGE TOTAL'!$C$18</f>
+        <v>7.7219126548231775E-3</v>
+      </c>
+      <c r="R13" s="3">
+        <f>'EGE TOTAL'!R13/'EGE TOTAL'!$C$18</f>
+        <v>1.2313252387061878E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3">
+        <f>'EGE TOTAL'!C14/'EGE TOTAL'!$C$18</f>
+        <v>4.9707308745336135E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'EGE TOTAL'!D14/'EGE TOTAL'!$C$18</f>
+        <v>1.6913923358111558E-5</v>
+      </c>
+      <c r="E14" s="3">
+        <f>'EGE TOTAL'!E14/'EGE TOTAL'!$C$18</f>
+        <v>6.5119575911634434E-3</v>
+      </c>
+      <c r="F14" s="3">
+        <f>'EGE TOTAL'!F14/'EGE TOTAL'!$C$18</f>
+        <v>9.8532698254962488E-5</v>
+      </c>
+      <c r="G14" s="3">
+        <f>'EGE TOTAL'!G14/'EGE TOTAL'!$C$18</f>
+        <v>6.8029277098726297E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <f>'EGE TOTAL'!H14/'EGE TOTAL'!$C$18</f>
+        <v>6.9393210934526692E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <f>'EGE TOTAL'!I14/'EGE TOTAL'!$C$18</f>
+        <v>1.9220580063045623E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <f>'EGE TOTAL'!J14/'EGE TOTAL'!$C$18</f>
+        <v>6.7329154867709932E-3</v>
+      </c>
+      <c r="K14" s="3">
+        <f>'EGE TOTAL'!K14/'EGE TOTAL'!$C$18</f>
+        <v>3.5880643491320141E-5</v>
+      </c>
+      <c r="L14" s="3">
+        <f>'EGE TOTAL'!L14/'EGE TOTAL'!$C$18</f>
+        <v>2.3995567710325056E-4</v>
+      </c>
+      <c r="M14" s="3">
+        <f>'EGE TOTAL'!M14/'EGE TOTAL'!$C$18</f>
+        <v>7.2282342001833508E-3</v>
+      </c>
+      <c r="N14" s="3">
+        <f>'EGE TOTAL'!N14/'EGE TOTAL'!$C$18</f>
+        <v>7.2571084914221122E-3</v>
+      </c>
+      <c r="O14" s="3">
+        <f>'EGE TOTAL'!O14/'EGE TOTAL'!$C$18</f>
+        <v>1.7522122882693805E-3</v>
+      </c>
+      <c r="P14" s="3">
+        <f>'EGE TOTAL'!P14/'EGE TOTAL'!$C$18</f>
+        <v>4.115268943996366E-4</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>'EGE TOTAL'!Q14/'EGE TOTAL'!$C$18</f>
+        <v>4.9009826324793717E-3</v>
+      </c>
+      <c r="R14" s="3">
+        <f>'EGE TOTAL'!R14/'EGE TOTAL'!$C$18</f>
+        <v>7.7021995454575065E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3">
+        <f>'EGE TOTAL'!C15/'EGE TOTAL'!$C$18</f>
+        <v>3.8740526332784265E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'EGE TOTAL'!D15/'EGE TOTAL'!$C$18</f>
+        <v>9.0291631504491962E-6</v>
+      </c>
+      <c r="E15" s="3">
+        <f>'EGE TOTAL'!E15/'EGE TOTAL'!$C$18</f>
+        <v>5.0498531555401207E-3</v>
+      </c>
+      <c r="F15" s="3">
+        <f>'EGE TOTAL'!F15/'EGE TOTAL'!$C$18</f>
+        <v>6.2036928765624332E-5</v>
+      </c>
+      <c r="G15" s="3">
+        <f>'EGE TOTAL'!G15/'EGE TOTAL'!$C$18</f>
+        <v>5.4021408069053287E-3</v>
+      </c>
+      <c r="H15" s="3">
+        <f>'EGE TOTAL'!H15/'EGE TOTAL'!$C$18</f>
+        <v>5.5306920840814296E-3</v>
+      </c>
+      <c r="I15" s="3">
+        <f>'EGE TOTAL'!I15/'EGE TOTAL'!$C$18</f>
+        <v>1.4364599251317088E-3</v>
+      </c>
+      <c r="J15" s="3">
+        <f>'EGE TOTAL'!J15/'EGE TOTAL'!$C$18</f>
+        <v>5.3375272356336757E-3</v>
+      </c>
+      <c r="K15" s="3">
+        <f>'EGE TOTAL'!K15/'EGE TOTAL'!$C$18</f>
+        <v>2.4895754069972081E-5</v>
+      </c>
+      <c r="L15" s="3">
+        <f>'EGE TOTAL'!L15/'EGE TOTAL'!$C$18</f>
+        <v>1.244364698218284E-4</v>
+      </c>
+      <c r="M15" s="3">
+        <f>'EGE TOTAL'!M15/'EGE TOTAL'!$C$18</f>
+        <v>5.7654590443487336E-3</v>
+      </c>
+      <c r="N15" s="3">
+        <f>'EGE TOTAL'!N15/'EGE TOTAL'!$C$18</f>
+        <v>5.7881386341422083E-3</v>
+      </c>
+      <c r="O15" s="3">
+        <f>'EGE TOTAL'!O15/'EGE TOTAL'!$C$18</f>
+        <v>1.2141940382513837E-3</v>
+      </c>
+      <c r="P15" s="3">
+        <f>'EGE TOTAL'!P15/'EGE TOTAL'!$C$18</f>
+        <v>2.0807676378505462E-4</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>'EGE TOTAL'!Q15/'EGE TOTAL'!$C$18</f>
+        <v>3.8014013595150144E-3</v>
+      </c>
+      <c r="R15" s="3">
+        <f>'EGE TOTAL'!R15/'EGE TOTAL'!$C$18</f>
+        <v>5.1571358831767767E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <f>'EGE TOTAL'!C16/'EGE TOTAL'!$C$18</f>
+        <v>2.8818728117661046E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'EGE TOTAL'!D16/'EGE TOTAL'!$C$18</f>
+        <v>3.3680357264132973E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f>'EGE TOTAL'!E16/'EGE TOTAL'!$C$18</f>
+        <v>2.8550270237924377E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f>'EGE TOTAL'!F16/'EGE TOTAL'!$C$18</f>
+        <v>3.3807871337914325E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <f>'EGE TOTAL'!G16/'EGE TOTAL'!$C$18</f>
+        <v>2.8434979597424342E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f>'EGE TOTAL'!H16/'EGE TOTAL'!$C$18</f>
+        <v>2.8499762799551874E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <f>'EGE TOTAL'!I16/'EGE TOTAL'!$C$18</f>
+        <v>2.9685413299783015E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <f>'EGE TOTAL'!J16/'EGE TOTAL'!$C$18</f>
+        <v>2.8483492373518351E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f>'EGE TOTAL'!K16/'EGE TOTAL'!$C$18</f>
+        <v>3.6395147896573742E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f>'EGE TOTAL'!L16/'EGE TOTAL'!$C$18</f>
+        <v>3.2160487398144866E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <f>'EGE TOTAL'!M16/'EGE TOTAL'!$C$18</f>
+        <v>2.838291761367312E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <f>'EGE TOTAL'!N16/'EGE TOTAL'!$C$18</f>
+        <v>2.8360699876237325E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <f>'EGE TOTAL'!O16/'EGE TOTAL'!$C$18</f>
+        <v>2.2114356370877494E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <f>'EGE TOTAL'!P16/'EGE TOTAL'!$C$18</f>
+        <v>3.0286807463198694E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>'EGE TOTAL'!Q16/'EGE TOTAL'!$C$18</f>
+        <v>2.9170247757957714E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <f>'EGE TOTAL'!R16/'EGE TOTAL'!$C$18</f>
+        <v>2.9757161724994558E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <f>'EGE TOTAL'!C17/'EGE TOTAL'!$C$18</f>
+        <v>4.8842962586980752E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f>'EGE TOTAL'!D17/'EGE TOTAL'!$C$18</f>
+        <v>7.2497302217417472E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f>'EGE TOTAL'!E17/'EGE TOTAL'!$C$18</f>
+        <v>4.548191274594348E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>'EGE TOTAL'!F17/'EGE TOTAL'!$C$18</f>
+        <v>7.1241730340741827E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f>'EGE TOTAL'!G17/'EGE TOTAL'!$C$18</f>
+        <v>4.4593571486177694E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f>'EGE TOTAL'!H17/'EGE TOTAL'!$C$18</f>
+        <v>4.4454943479167709E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f>'EGE TOTAL'!I17/'EGE TOTAL'!$C$18</f>
+        <v>5.7674409968486696E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <f>'EGE TOTAL'!J17/'EGE TOTAL'!$C$18</f>
+        <v>4.4926074080706771E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f>'EGE TOTAL'!K17/'EGE TOTAL'!$C$18</f>
+        <v>7.4507633929599512E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f>'EGE TOTAL'!L17/'EGE TOTAL'!$C$18</f>
+        <v>6.9421021614226155E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <f>'EGE TOTAL'!M17/'EGE TOTAL'!$C$18</f>
+        <v>4.388049035291499E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <f>'EGE TOTAL'!N17/'EGE TOTAL'!$C$18</f>
+        <v>4.3804797696338063E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f>'EGE TOTAL'!O17/'EGE TOTAL'!$C$18</f>
+        <v>5.631592135299867E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f>'EGE TOTAL'!P17/'EGE TOTAL'!$C$18</f>
+        <v>6.6813075794738067E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>'EGE TOTAL'!Q17/'EGE TOTAL'!$C$18</f>
+        <v>4.939959830965672E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f>'EGE TOTAL'!R17/'EGE TOTAL'!$C$18</f>
+        <v>6.2908964215199092E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C19" s="4">
+        <f>SUM(C5,C3)</f>
+        <v>0.75975481235652154</v>
+      </c>
+      <c r="D19" s="6">
+        <f>SUM(D5,D3)</f>
+        <v>0.85405267122071016</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:R19" si="0">SUM(E5,E3)</f>
+        <v>0.74642303929406151</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.84987633292818443</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73848455533839197</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7393883422208094</v>
+      </c>
+      <c r="I19" s="6">
+        <f>SUM(I5,I3)</f>
+        <v>0.80537598825850365</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7430058420520117</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85806803676272037</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.84604450566047351</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7362308843482136</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73592518718230959</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.77189993561758374</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83653636244708141</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.76482578947004276</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.81999001250899772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C20" s="6">
+        <f>SUM(C5,C9)</f>
+        <v>0.78601708717298302</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:R20" si="1">SUM(D5,D9)</f>
+        <v>0.77482250965404698</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80472439113226191</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77342809813255431</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80687326132886517</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.81114256253305783</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76585867150671449</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80772100076071096</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78034401009333276</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77143093735847446</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.81398064885897148</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.81422125205876716</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71142507533496302</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.765047808358018</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78942744255048658</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75748636956378179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="V22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/generated_files/gsa_results/Sobol_indices.xlsx
+++ b/generated_files/gsa_results/Sobol_indices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F28F00AE4AADB63F09221827D4C2216A785B62F7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2AF1CE3B-79C1-444E-AB74-9BC43BFAD84B}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_F28F00AE4AADB63F09221827D4C2216A785B62F7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{643232DB-884B-48ED-B6B5-E918AF9E1A84}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CGE FIRST" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="60">
   <si>
     <t>parameters</t>
   </si>
@@ -153,17 +153,101 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Producers capacity</t>
+  </si>
+  <si>
+    <t>Depth (of wells)</t>
+  </si>
+  <si>
+    <t>Installed capacity</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Capacity factor</t>
+  </si>
+  <si>
+    <t>Auxiliary power</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Drilling mud</t>
+  </si>
+  <si>
+    <t>Initial harmonic decline rate</t>
+  </si>
+  <si>
+    <t>Producers-injectors ratio</t>
+  </si>
+  <si>
+    <t>Success rate, exploratory wells</t>
+  </si>
+  <si>
+    <t>Success rate, primary wells</t>
+  </si>
+  <si>
+    <t>Success rate, make-up wells</t>
+  </si>
+  <si>
+    <r>
+      <t>Operational CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> emissions</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of wells</t>
+  </si>
+  <si>
+    <t>Collection pipelines length</t>
+  </si>
+  <si>
+    <t>Wells (for stimulation)</t>
+  </si>
+  <si>
+    <t>Water (for stimulation)</t>
+  </si>
+  <si>
+    <t>Diesel (for stimulation)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +281,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +349,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -262,22 +361,62 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -614,17 +753,17 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="18" width="8.1796875" customWidth="1"/>
+    <col min="3" max="18" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -684,55 +823,55 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10">
         <v>2.2418850428119648E-3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>0.60236359572503684</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>0.57821463335067236</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>0.59689541373829758</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>0.56536320813902552</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>0.56125722820631752</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>0.63329772479909419</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>0.57557774046288124</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="10">
         <v>0.56927899873982246</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="10">
         <v>0.60982081482343298</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>0.55137083234824347</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="10">
         <v>0.55184357119240757</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="10">
         <v>0.65859783917646175</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="10">
         <v>0.6269393549088067</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>0.60045489330251434</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="10">
         <v>0.63953672682492613</v>
       </c>
     </row>
@@ -740,55 +879,55 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11">
         <v>2.6095705592476962E-3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>0.20349389661528461</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>0.2148615601713757</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>0.210453826630466</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11">
         <v>0.223549785208777</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>0.22567421916722549</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="11">
         <v>0.1660924663107442</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>0.21490992365994771</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="11">
         <v>0.23938616061440571</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>0.19615670648917019</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="11">
         <v>0.23157349258663609</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="11">
         <v>0.2306037938649439</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="11">
         <v>0.1554847919485299</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="11">
         <v>0.17345566148577621</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="11">
         <v>0.19946078179103879</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="11">
         <v>0.1608609232337492</v>
       </c>
     </row>
@@ -796,55 +935,55 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11">
         <v>1.8275938917868171E-5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>3.7838726867427449E-3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>2.3302190319571211E-3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>3.1483377629438979E-3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>1.5867048083888021E-3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>1.437092622703078E-3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="11">
         <v>7.9824671611154596E-3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>2.299731263832332E-3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="11">
         <v>1.0945458390307289E-3</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>4.5021002164615468E-3</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>9.9883148667533257E-4</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>1.057690557770027E-3</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>4.368309320199785E-3</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="11">
         <v>6.9565890589845464E-3</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="11">
         <v>3.87159680610215E-3</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="11">
         <v>8.9899996714686691E-3</v>
       </c>
     </row>
@@ -852,8 +991,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="11">
         <v>2.2458179549834299E-4</v>
@@ -904,59 +1043,59 @@
         <v>4.0018249049537259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11">
         <v>0.94887670087112375</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="11">
         <v>0</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>0</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="11">
         <v>0</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="11">
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="11">
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -964,55 +1103,55 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="11">
         <v>1.135176936145739E-4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>4.1178653273037814E-3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>4.1293489391450167E-3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>4.633933953223892E-3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>4.1738148192634076E-3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <v>3.661687513869959E-3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="11">
         <v>4.5951859935523922E-3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="11">
         <v>4.1432181155316907E-3</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="11">
         <v>4.54765420103971E-3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="11">
         <v>5.248611629061658E-3</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="11">
         <v>3.70244275402664E-3</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="11">
         <v>3.6161598623562739E-3</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="11">
         <v>9.1832302913030274E-3</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="11">
         <v>5.4491581790849447E-3</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="11">
         <v>4.2042887477512338E-3</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="11">
         <v>5.8668408010842362E-3</v>
       </c>
     </row>
@@ -1020,55 +1159,55 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11">
         <v>8.2059573034460427E-5</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>2.0483070063980662E-3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>1.871157130141314E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>2.0258073536576051E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>1.764231931222048E-3</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>1.697808199911541E-3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="11">
         <v>2.2889988508282859E-3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="11">
         <v>1.8475954119592469E-3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="11">
         <v>1.755285927337041E-3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <v>2.1663294412419499E-3</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="11">
         <v>1.606686750056825E-3</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="11">
         <v>1.6033905882876179E-3</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="11">
         <v>2.3227683716825539E-3</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="11">
         <v>2.368588656778864E-3</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="11">
         <v>2.086099867353032E-3</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="11">
         <v>2.3007469143390869E-3</v>
       </c>
     </row>
@@ -1076,55 +1215,55 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="11">
         <v>5.2338916083310087E-6</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>2.6990040777613258E-4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <v>2.5839784037221518E-4</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="11">
         <v>2.593382871186004E-4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>2.3855992948508621E-4</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <v>2.289373700799484E-4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="11">
         <v>3.6841835783520089E-4</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="11">
         <v>2.5790146807527748E-4</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="11">
         <v>1.8847257874710771E-4</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="11">
         <v>2.9862279801774001E-4</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="11">
         <v>2.1465450714923241E-4</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="11">
         <v>2.1529370643740559E-4</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="11">
         <v>3.65365951380727E-4</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="11">
         <v>3.5613485469915219E-4</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="11">
         <v>2.9264796262629328E-4</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="11">
         <v>3.8757038474724351E-4</v>
       </c>
     </row>
@@ -1132,55 +1271,55 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11">
         <v>1.7667385205740431E-4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>1.931028859369318E-5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>1.157177549654104E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>1.120433381169566E-4</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>1.482920712210456E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>1.5989823990204301E-2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="11">
         <v>1.091678493772331E-3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="11">
         <v>1.3229488375696661E-2</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="11">
         <v>8.3978479926169892E-5</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <v>1.0302479613325469E-4</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="11">
         <v>1.8776582998719569E-2</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="11">
         <v>1.894392821316437E-2</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="11">
         <v>1.114063222016228E-4</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="11">
         <v>1.8213738674084261E-4</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="11">
         <v>5.4133727691295071E-3</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="11">
         <v>3.7793035009289869E-4</v>
       </c>
     </row>
@@ -1188,55 +1327,55 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11">
         <v>1.659140608165451E-4</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>9.1851637252430892E-3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>3.1251628903170821E-3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>7.2289441868299284E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>1.805212631302493E-3</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>1.862984792065716E-3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="11">
         <v>1.189876961310387E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="11">
         <v>2.5042739274536261E-3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="11">
         <v>2.4801244124213529E-3</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="11">
         <v>8.3699316782900029E-3</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="11">
         <v>1.1283677531876289E-3</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="11">
         <v>1.100965330701647E-3</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="11">
         <v>4.5671109887938741E-3</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="11">
         <v>1.306290498341723E-2</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="11">
         <v>5.5246633413695316E-3</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="11">
         <v>9.1492212510447014E-3</v>
       </c>
     </row>
@@ -1244,55 +1383,55 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11">
         <v>1.7835215813046359E-5</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>6.2878173471385658E-6</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>1.4503232126307879E-4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>3.2016785255358208E-5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>1.096842896862469E-4</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <v>8.7356599529969068E-5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="11">
         <v>1.4825914233997011E-4</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="11">
         <v>1.228007950179797E-4</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="11">
         <v>1.104893044494625E-5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <v>9.9215842737360424E-5</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="11">
         <v>9.4868646103060051E-5</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="11">
         <v>1.018848393403335E-4</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="11">
         <v>4.5490289602048107E-3</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="11">
         <v>8.4897569358225507E-5</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="11">
         <v>1.367767527252431E-4</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="11">
         <v>3.9341480581531798E-4</v>
       </c>
     </row>
@@ -1300,55 +1439,55 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11">
         <v>1.7057458280791048E-5</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>2.0687203265528389E-5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>2.062603850470335E-4</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>7.9758457211053188E-5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>3.0127214450429622E-4</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="11">
         <v>1.5995020701855709E-4</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="11">
         <v>3.962801899185911E-4</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="11">
         <v>2.048450166656274E-4</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="11">
         <v>3.3198996785196907E-5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>4.9150171414867833E-4</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="11">
         <v>1.3398189013783419E-4</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="11">
         <v>9.4408790915390562E-5</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="11">
         <v>3.1259579412909293E-4</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="11">
         <v>1.5341438411637131E-3</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="11">
         <v>1.012694750976424E-3</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="11">
         <v>3.8809647877379198E-4</v>
       </c>
     </row>
@@ -1356,55 +1495,55 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11">
         <v>1.1370028824155081E-3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>7.1570554805572853E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>6.9850956387406946E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>7.1222265736191795E-2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>6.8246865845788665E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
         <v>6.7670940153512035E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="11">
         <v>7.5921730610225419E-2</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="11">
         <v>6.9883888586175821E-2</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="11">
         <v>6.8526482317091436E-2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <v>7.2735564951105294E-2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="11">
         <v>6.6439636518654338E-2</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="11">
         <v>6.6652205578018875E-2</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="11">
         <v>8.1400521054314889E-2</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="11">
         <v>7.3466200179760147E-2</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="11">
         <v>7.1936284365880843E-2</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="11">
         <v>7.8139065774272459E-2</v>
       </c>
     </row>
@@ -1412,55 +1551,55 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11">
         <v>3.0248557660161548E-4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>1.589790388835814E-3</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>1.435971370044426E-3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <v>1.711780311470629E-3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>1.5394621432903151E-3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="11">
         <v>1.5047820434925801E-3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="11">
         <v>9.5537243034449259E-4</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="11">
         <v>1.4199794214740269E-3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="11">
         <v>2.275800347997244E-3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="11">
         <v>1.4893155209244799E-3</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <v>1.569305144242978E-3</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <v>1.5474079698005051E-3</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="11">
         <v>1.177802539497142E-3</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="11">
         <v>1.105995553499632E-3</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <v>1.3361818402092881E-3</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="11">
         <v>9.6200098753097948E-4</v>
       </c>
     </row>
@@ -1468,55 +1607,55 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11">
         <v>9.576508847505611E-6</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>6.0300100492673824E-3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>6.2483275392546658E-3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="11">
         <v>6.0182760880496218E-3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>6.2246821512988897E-3</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <v>6.2448585956367576E-3</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="11">
         <v>5.9380543628394997E-3</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="11">
         <v>6.2439963717809679E-3</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="11">
         <v>5.8937722351182194E-3</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="11">
         <v>5.9481458426175002E-3</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="11">
         <v>6.2287356766396922E-3</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="11">
         <v>6.2291265872481544E-3</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="11">
         <v>5.0918518118878648E-3</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="11">
         <v>5.8816123768142201E-3</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="11">
         <v>6.061232463659744E-3</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="11">
         <v>5.7311435420790572E-3</v>
       </c>
     </row>
@@ -1524,55 +1663,55 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11">
         <v>4.8130367341329157E-5</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>3.7503473849275153E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>3.9157885860188119E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>3.862145510414583E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>4.068416192250221E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <v>4.10681587313729E-2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="11">
         <v>3.1409221298638899E-2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="11">
         <v>3.9187968587976317E-2</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="11">
         <v>4.3555322317723938E-2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="11">
         <v>3.6266244747973138E-2</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="11">
         <v>4.2116410145519298E-2</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="11">
         <v>4.1954973456976838E-2</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="11">
         <v>2.818879177609818E-2</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="11">
         <v>3.2663142560533202E-2</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="11">
         <v>3.6676973884936792E-2</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="11">
         <v>3.044770482911351E-2</v>
       </c>
     </row>
@@ -1580,55 +1719,55 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="11">
         <v>2.9021109402804372E-4</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>1.541598092263622E-3</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <v>1.891371519613212E-3</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="11">
         <v>2.1244357548661158E-3</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="11">
         <v>2.5552797980205951E-3</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="11">
         <v>2.6759779398678111E-3</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="11">
         <v>1.267043780641262E-3</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="11">
         <v>1.947941044669232E-3</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="11">
         <v>4.8722856970676012E-3</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="11">
         <v>9.5936291769314387E-4</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="11">
         <v>3.129300911663138E-3</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="11">
         <v>3.0804417723250608E-3</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="11">
         <v>9.3124207424912658E-4</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="11">
         <v>1.084506704571789E-3</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="11">
         <v>8.591105207830025E-4</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="11">
         <v>1.1899764627124781E-3</v>
       </c>
     </row>
@@ -1636,67 +1775,67 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="12">
         <f>SUM(C2:C18)</f>
         <v>0.95633671238205875</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="12">
         <f t="shared" ref="D19:R19" si="0">SUM(D2:D18)</f>
         <v>0.94846435018111952</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>0.93987045742725717</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>0.94937411698728602</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>0.9374231889907666</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="12">
         <f t="shared" si="0"/>
         <v>0.93582048177122068</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="12">
         <f t="shared" si="0"/>
         <v>0.94802740036595812</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>0.93827615605626957</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>0.94877083293270914</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="12">
         <f t="shared" si="0"/>
         <v>0.94914126854956216</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="12">
         <f t="shared" si="0"/>
         <v>0.93361311821324233</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="12">
         <f t="shared" si="0"/>
         <v>0.93318636390356469</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="12">
         <f t="shared" si="0"/>
         <v>0.95990591976277706</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="12">
         <f t="shared" si="0"/>
         <v>0.94872998080367699</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="12">
         <f t="shared" si="0"/>
         <v>0.94371342893901022</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="12">
         <f t="shared" si="0"/>
         <v>0.94872318721670346</v>
       </c>
@@ -3106,7 +3245,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3172,55 +3311,55 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11">
         <v>1.8646999346609129E-3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>0.69560507777546876</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <v>0.68789954555475652</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>0.69389372047736275</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="11">
         <v>0.68138295898207712</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="11">
         <v>0.6797781199959303</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="11">
         <v>0.71099716437137961</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>0.68744460072002667</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="11">
         <v>0.6846635408335453</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="11">
         <v>0.69893213265450294</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="11">
         <v>0.67509053998806667</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="11">
         <v>0.67597134832485062</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="11">
         <v>0.73637680945107675</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="11">
         <v>0.70127050428854221</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="11">
         <v>0.69593192257502168</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="11">
         <v>0.71899775666453347</v>
       </c>
     </row>
@@ -3228,55 +3367,55 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11">
         <v>6.941933760932406E-4</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>0.30510637471325852</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>0.32630091817568491</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>0.31362666018762769</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11">
         <v>0.34050071205221583</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>0.34506135699097668</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="11">
         <v>0.25109706930537939</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>0.32684612615102898</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="11">
         <v>0.35379541996904812</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>0.29236842351312559</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="11">
         <v>0.35476826865113431</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="11">
         <v>0.35335109744413518</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="11">
         <v>0.2178419868273031</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="11">
         <v>0.2627636927845457</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="11">
         <v>0.30190417342752202</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="11">
         <v>0.23811954562832791</v>
       </c>
     </row>
@@ -3284,55 +3423,55 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11">
         <v>1.0983340783211361E-5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>3.8322854828143058E-3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>2.1321039033160398E-3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>3.117064050393914E-3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>1.280335169115419E-3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>1.07927382619653E-3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="11">
         <v>9.8876580584002921E-3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>2.118574812967915E-3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="11">
         <v>7.8876828766486818E-4</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>5.0020392431866928E-3</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>6.4402915651965863E-4</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>7.0162130078542926E-4</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>6.972389466003385E-3</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="11">
         <v>8.3217131077480081E-3</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="11">
         <v>4.1261122886575149E-3</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="11">
         <v>1.2025738372184231E-2</v>
       </c>
     </row>
@@ -3340,111 +3479,111 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11">
         <v>3.637249305726898E-5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>1.5892991680807631E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>1.595142727366905E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>1.6017962867102092E-2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="11">
         <v>1.6063216330336891E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <v>1.613809738700267E-2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="11">
         <v>1.4916324673609239E-2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="11">
         <v>1.5929458146023989E-2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="11">
         <v>1.6641519180627801E-2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>1.560501643257442E-2</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="11">
         <v>1.6214629300597218E-2</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="11">
         <v>1.6205463766457751E-2</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="11">
         <v>1.493781176973286E-2</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="11">
         <v>1.493831249368543E-2</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="11">
         <v>1.5581673001043491E-2</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="11">
         <v>1.473170276094979E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11">
         <v>0.97630647646808</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="11">
         <v>0</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>0</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="11">
         <v>0</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="11">
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="11">
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3452,55 +3591,55 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="11">
         <v>5.3624835497980161E-5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>2.1575111618247871E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>2.3641750568148889E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>2.2617158562171249E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>2.3825154698973131E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <v>2.2656707635125329E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="11">
         <v>2.3756606790903051E-2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="11">
         <v>2.3861936003547801E-2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="11">
         <v>2.1959550840816109E-2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="11">
         <v>2.4255496657644569E-2</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="11">
         <v>2.27301932161591E-2</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="11">
         <v>2.259550642095904E-2</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="11">
         <v>3.2815794619935723E-2</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="11">
         <v>2.5002954549750812E-2</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="11">
         <v>2.3801912055747641E-2</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="11">
         <v>2.621463384994414E-2</v>
       </c>
     </row>
@@ -3508,55 +3647,55 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11">
         <v>5.5769014594220471E-6</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>2.305513249787062E-3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>2.3298803606799272E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>2.3548630145507851E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>2.3033267903108312E-3</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>2.2185791160096841E-3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="11">
         <v>2.5183097678149581E-3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="11">
         <v>2.335509026661655E-3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="11">
         <v>2.232502216034733E-3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <v>2.4929522189424281E-3</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="11">
         <v>2.1943297326831291E-3</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="11">
         <v>2.1866627825829249E-3</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="11">
         <v>3.0516170315934609E-3</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="11">
         <v>2.5926892272473078E-3</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="11">
         <v>2.4092139527639119E-3</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="11">
         <v>2.6868905344191612E-3</v>
       </c>
     </row>
@@ -3564,55 +3703,55 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="11">
         <v>1.7835753225882739E-7</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>7.2521535035134014E-5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <v>7.2693142150806619E-5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="11">
         <v>7.3826770227173187E-5</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>7.1292691901762332E-5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <v>6.8387286291634409E-5</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="11">
         <v>8.1361241738171766E-5</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="11">
         <v>7.280296447731656E-5</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="11">
         <v>6.8202291306174355E-5</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="11">
         <v>7.9033631557966975E-5</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="11">
         <v>6.7287268013491589E-5</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="11">
         <v>6.7067656285547595E-5</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="11">
         <v>1.006067546281927E-4</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="11">
         <v>8.3345162377302382E-5</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="11">
         <v>7.5813787589853972E-5</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="11">
         <v>8.7265337210893525E-5</v>
       </c>
     </row>
@@ -3620,55 +3759,55 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11">
         <v>1.304961983032702E-5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>2.5897877890456122E-7</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>1.343135445089884E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>7.6665403337775592E-6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>1.802016479996281E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>1.9887754094088911E-2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="11">
         <v>5.5659627349157132E-4</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="11">
         <v>1.5841906355783749E-2</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="11">
         <v>3.9249743881481363E-6</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <v>6.7533268072673809E-6</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="11">
         <v>2.403927464862499E-2</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="11">
         <v>2.43748504324948E-2</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="11">
         <v>1.4003750158105199E-5</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="11">
         <v>2.1499058531360181E-5</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="11">
         <v>5.1154876710229726E-3</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="11">
         <v>9.8075332627928536E-5</v>
       </c>
     </row>
@@ -3676,55 +3815,55 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11">
         <v>1.471368055825684E-5</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>1.2162029011608091E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>3.1691692795618701E-3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>9.0655906576112676E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>1.5053169688450849E-3</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>1.596448949479478E-3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="11">
         <v>1.6183403993559779E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="11">
         <v>2.348201013427813E-3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="11">
         <v>2.2630212429710509E-3</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="11">
         <v>1.068898103342621E-2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="11">
         <v>7.79411791814373E-4</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="11">
         <v>7.4987067076843572E-4</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="11">
         <v>4.421887094769524E-3</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="11">
         <v>1.8106026393539549E-2</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="11">
         <v>6.4385890214091589E-3</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="11">
         <v>1.150021528122051E-2</v>
       </c>
     </row>
@@ -3732,55 +3871,55 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11">
         <v>4.2571343436728268E-7</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>5.8025920492827367E-8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>2.7386724299075681E-5</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>1.491758855505893E-6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>1.6466573079739389E-5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <v>1.02791764056306E-5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="11">
         <v>2.8722489215841269E-5</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="11">
         <v>2.0181924730032659E-5</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="11">
         <v>1.6184990257262201E-7</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <v>1.3950240564921291E-5</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="11">
         <v>1.2077470524919571E-5</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="11">
         <v>1.3644512291782339E-5</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="11">
         <v>5.3475447313347723E-3</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="11">
         <v>1.135451828123449E-5</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="11">
         <v>2.403145703857645E-5</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="11">
         <v>1.5865748215186461E-4</v>
       </c>
     </row>
@@ -3788,55 +3927,55 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11">
         <v>2.5783874973624628E-7</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>3.5940502473221299E-7</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>3.5503943975747798E-5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>5.3974735072628404E-6</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>7.7581385260684508E-5</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="11">
         <v>2.531753550822266E-5</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="11">
         <v>8.111174494867881E-5</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="11">
         <v>3.5875415658447743E-5</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="11">
         <v>1.422362838132656E-6</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>1.414867371962793E-4</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="11">
         <v>1.9532071434605371E-5</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="11">
         <v>1.009822308326635E-5</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="11">
         <v>4.4686795984975421E-5</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="11">
         <v>8.2194083244866995E-4</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="11">
         <v>5.084787131212395E-4</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="11">
         <v>7.7977687076913609E-5</v>
       </c>
     </row>
@@ -3844,55 +3983,55 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11">
         <v>3.1830949193916732E-4</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>0.13589896774747051</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>0.12861821666604889</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>0.1343163526104442</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>0.12543992399302889</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
         <v>0.12468184008186541</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="11">
         <v>0.1430135858686552</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="11">
         <v>0.12799013550831539</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="11">
         <v>0.1278859484289622</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <v>0.13731088298279381</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="11">
         <v>0.1222427213382182</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="11">
         <v>0.1223986218089028</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="11">
         <v>0.1439862129369518</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="11">
         <v>0.14196394969625881</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="11">
         <v>0.13445919056338759</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="11">
         <v>0.14421840861665611</v>
       </c>
     </row>
@@ -3900,55 +4039,55 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11">
         <v>2.1413615054206181E-5</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>9.0762388574736185E-3</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>8.9711976836886909E-3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <v>9.0231097687643053E-3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>8.8794830027947285E-3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="11">
         <v>8.8794044897170746E-3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="11">
         <v>9.2652803913285207E-3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="11">
         <v>8.9588451462293429E-3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="11">
         <v>8.8265434419696892E-3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="11">
         <v>9.0747530336294097E-3</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <v>8.8122978025452839E-3</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <v>8.8216815917041471E-3</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="11">
         <v>9.1722416231522809E-3</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="11">
         <v>9.1517529170249811E-3</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <v>9.0585791140096929E-3</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="11">
         <v>9.2669187305241402E-3</v>
       </c>
     </row>
@@ -3956,55 +4095,55 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11">
         <v>3.73298306122681E-6</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>1.6609204008535829E-3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>1.7527244333073091E-3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="11">
         <v>1.676969132051967E-3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>1.802350500238976E-3</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <v>1.839750244515391E-3</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="11">
         <v>1.4139956536042559E-3</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="11">
         <v>1.7491421442351069E-3</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="11">
         <v>1.7943275171142211E-3</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="11">
         <v>1.56835514697059E-3</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="11">
         <v>1.877000754638883E-3</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="11">
         <v>1.871433710896246E-3</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="11">
         <v>1.105921436277554E-3</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="11">
         <v>1.4476185845794631E-3</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="11">
         <v>1.6147913787764171E-3</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="11">
         <v>1.3019060096887019E-3</v>
       </c>
     </row>
@@ -4012,55 +4151,55 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11">
         <v>1.4672658223132849E-4</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>6.5977473424128158E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>7.0179831455706262E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>6.8288651254111501E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>7.3435457855158606E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <v>7.4206144854006506E-2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="11">
         <v>5.3566264474992249E-2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="11">
         <v>7.0260233641739944E-2</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="11">
         <v>7.8600132727107336E-2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="11">
         <v>6.3601894636418826E-2</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="11">
         <v>7.6425993838207265E-2</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="11">
         <v>7.6087829017637762E-2</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="11">
         <v>5.0819223029706373E-2</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="11">
         <v>5.6501250120681953E-2</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="11">
         <v>6.5234536914320893E-2</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="11">
         <v>5.165906170269749E-2</v>
       </c>
     </row>
@@ -4068,55 +4207,55 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="11">
         <v>2.7943489769623149E-5</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>1.2831699185729571E-2</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <v>1.343976610730426E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="11">
         <v>1.3297525268619371E-2</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="11">
         <v>1.4074912484791081E-2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="11">
         <v>1.422206224100785E-2</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="11">
         <v>1.024979144846247E-2</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="11">
         <v>1.346309667741924E-2</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="11">
         <v>1.5429590776673149E-2</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="11">
         <v>1.231980977098714E-2</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="11">
         <v>1.463677343829288E-2</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="11">
         <v>1.457017877015254E-2</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="11">
         <v>9.0677498350153971E-3</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="11">
         <v>1.084576170388322E-2</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="11">
         <v>1.2514215397900321E-2</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="11">
         <v>9.8627589654190963E-3</v>
       </c>
     </row>
@@ -4124,72 +4263,77 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="12">
         <f>SUM(C2:C18)</f>
         <v>0.97951867872179255</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="12">
         <f t="shared" ref="D19:R19" si="0">SUM(D2:D18)</f>
         <v>1.2819978810924069</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>1.2979534697231969</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>1.2873840103937346</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>1.3086786542780913</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="12">
         <f t="shared" si="0"/>
         <v>1.3123495239041274</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="12">
         <f t="shared" si="0"/>
         <v>1.2476132465474834</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>1.2992766256522736</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>1.3149545769409694</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="12">
         <f t="shared" si="0"/>
         <v>1.2734619612603291</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="12">
         <f t="shared" si="0"/>
         <v>1.3205543604674752</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="12">
         <f t="shared" si="0"/>
         <v>1.3199769764339879</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="12">
         <f t="shared" si="0"/>
         <v>1.2360764871536243</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="12">
         <f t="shared" si="0"/>
         <v>1.253844365439126</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="12">
         <f t="shared" si="0"/>
         <v>1.2787987213193326</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="12">
         <f t="shared" si="0"/>
         <v>1.2410075129556319</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:R18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5572,10 +5716,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R17"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5641,55 +5785,55 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11">
         <v>4.1958509943146929E-4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>4.3842774308447288E-4</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <v>8.0232422143132628E-4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>6.0567369352243917E-4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="11">
         <v>1.880959432041593E-3</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="11">
         <v>9.3682395777968091E-4</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="11">
         <v>2.9735676003730461E-4</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>8.9438898760901646E-4</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="11">
         <v>1.326692511947374E-3</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="11">
         <v>4.6154341756326188E-4</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="11">
         <v>9.6511600044254338E-4</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="11">
         <v>9.6319113673615773E-4</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="11">
         <v>2.2057135419601519E-3</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="11">
         <v>1.9846393693789379E-4</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="11">
         <v>6.1604153072355365E-4</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="11">
         <v>3.8358913417466779E-4</v>
       </c>
     </row>
@@ -5697,55 +5841,55 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11">
         <v>2.9907707713518309E-2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>3.0089506756128231E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>2.8875499770248829E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>3.0400439518351089E-2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11">
         <v>2.8836681769373991E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>2.8611245195666799E-2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="11">
         <v>3.015666264552376E-2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>2.87358112058528E-2</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="11">
         <v>3.0858345354871929E-2</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>2.976615654757957E-2</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="11">
         <v>2.8445481458230511E-2</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="11">
         <v>2.8431966680803989E-2</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="11">
         <v>2.918765348306631E-2</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="11">
         <v>2.9133194488143929E-2</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="11">
         <v>2.959677672241065E-2</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="11">
         <v>3.0307539049906389E-2</v>
       </c>
     </row>
@@ -5753,64 +5897,64 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11">
         <v>5.9037148085751958E-5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>1.8506375031920259E-4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>2.6827547356520859E-5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>1.5041201065930639E-4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>1.8693724426935809E-5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>1.5727657809721381E-5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="11">
         <v>2.004136126966379E-4</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>2.4720553249651479E-5</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="11">
         <v>6.4873630604775064E-5</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>1.9681940666612931E-4</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>1.097040732285809E-5</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>1.1379732672153041E-5</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>1.3599529722015249E-4</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="11">
         <v>2.7047604466297998E-4</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="11">
         <v>5.7751795716948593E-5</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="11">
         <v>2.8045330017475182E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="11">
         <v>0.80871952273767789</v>
@@ -5865,55 +6009,55 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="11">
         <v>1.8092135093271001E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>1.6992009990124249E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>1.8194872697809349E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>1.7579843220633561E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>2.1101707820892299E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <v>1.8139824564724769E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="11">
         <v>1.7671913495177039E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="11">
         <v>1.820338712074162E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="11">
         <v>1.841086059209622E-2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>1.745896451705041E-2</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="11">
         <v>1.8118521964692061E-2</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="11">
         <v>1.8108438527957418E-2</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="11">
         <v>1.551843903646672E-2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="11">
         <v>1.691709403868814E-2</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="11">
         <v>1.8251303415483061E-2</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <v>1.7577000887289761E-2</v>
       </c>
     </row>
@@ -5921,55 +6065,55 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11">
         <v>1.994827207998521E-3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>6.4822176299763994E-4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>2.2018023072000879E-3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>8.3598485417696127E-4</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>2.4567125200441642E-3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <v>2.294041071258161E-3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="11">
         <v>1.19644607518535E-3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="11">
         <v>2.247737783405476E-3</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="11">
         <v>1.085425518103988E-3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="11">
         <v>8.1146366439415233E-4</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="11">
         <v>2.3431124424957719E-3</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="11">
         <v>2.346396484905062E-3</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="11">
         <v>1.5785699558276401E-3</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="11">
         <v>6.679403732199582E-4</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="11">
         <v>1.941190494192476E-3</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="11">
         <v>1.075979713300328E-3</v>
       </c>
     </row>
@@ -5977,55 +6121,55 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11">
         <v>3.1967252177915349E-3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>3.137116971156954E-3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>3.1540057442108172E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>3.160257526633071E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>3.2965815814660492E-3</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>3.1190499679272692E-3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="11">
         <v>3.3270540590762589E-3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="11">
         <v>3.140705166365E-3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="11">
         <v>3.086969307485872E-3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <v>3.1933181435920398E-3</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="11">
         <v>3.100758424120395E-3</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="11">
         <v>3.0987858496340981E-3</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="11">
         <v>2.8056649305099029E-3</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="11">
         <v>3.27005014359279E-3</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="11">
         <v>3.2315251291774659E-3</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="11">
         <v>3.2497975952992461E-3</v>
       </c>
     </row>
@@ -6033,55 +6177,55 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11">
         <v>2.4097777170494491E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>5.052552845789565E-5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <v>3.2236583033942869E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="11">
         <v>3.8109405522327952E-4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>3.5007635844564178E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <v>3.5709759504443377E-2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="11">
         <v>8.1496251167372351E-3</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="11">
         <v>3.3877063336786181E-2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="11">
         <v>2.1423342673117471E-4</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="11">
         <v>3.6289081805899071E-4</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="11">
         <v>3.7222627176255581E-2</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="11">
         <v>3.7359836988680013E-2</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="11">
         <v>4.1430912351842701E-4</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="11">
         <v>8.5835317329440114E-4</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="11">
         <v>2.37412678859261E-2</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="11">
         <v>2.5374661965690578E-3</v>
       </c>
     </row>
@@ -6089,55 +6233,55 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11">
         <v>2.368022296906636E-3</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>1.211224579500212E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>1.097946271624636E-3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>9.0489691381957001E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>5.7735639351089369E-4</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>6.3340295499623837E-4</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="11">
         <v>9.6258873084073566E-3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="11">
         <v>8.6597568657643292E-4</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="11">
         <v>3.3152232733592909E-3</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <v>1.04008786309973E-2</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="11">
         <v>3.9540732201436782E-4</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="11">
         <v>3.8530343167274028E-4</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="11">
         <v>4.1791254807887609E-3</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="11">
         <v>1.545193968258504E-2</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="11">
         <v>2.4976231160026281E-3</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="11">
         <v>9.9031658596369001E-3</v>
       </c>
     </row>
@@ -6145,55 +6289,55 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11">
         <v>1.4465214024924719E-4</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>2.5747169864259641E-6</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>8.0029944801691583E-5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>1.2747491180830811E-5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>5.9480670268915951E-5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>4.751783472908115E-5</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="11">
         <v>5.1256617375728128E-5</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="11">
         <v>6.8320642124363294E-5</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="11">
         <v>6.9776159716768644E-6</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="11">
         <v>3.0682904128623692E-6</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="11">
         <v>4.8893003920258372E-5</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="11">
         <v>5.1642604782578297E-5</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="11">
         <v>1.228747913334124E-2</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="11">
         <v>9.8637221493129438E-6</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="11">
         <v>8.2240658879934145E-5</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="11">
         <v>2.8345260685587611E-4</v>
       </c>
     </row>
@@ -6201,55 +6345,55 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11">
         <v>7.5923139055532413E-5</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>1.4865521152646639E-5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>2.7509460616220479E-5</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>5.4794030819997119E-5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>3.1593802605916902E-5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <v>1.8983086028570451E-5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="11">
         <v>1.4386633510285311E-4</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="11">
         <v>2.544454943522065E-5</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="11">
         <v>2.8197563063576892E-5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <v>3.0511315292731733E-4</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="11">
         <v>1.506488321386154E-5</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="11">
         <v>1.070332310431231E-5</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="11">
         <v>1.3796555075484059E-4</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="11">
         <v>8.0253280515042236E-4</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="11">
         <v>1.793874937906444E-4</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="11">
         <v>1.9278689735772791E-4</v>
       </c>
     </row>
@@ -6257,55 +6401,55 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11">
         <v>2.317792526741426E-3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>7.8509480982219117E-5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>2.8620834439108218E-3</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>1.889856145247116E-4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>3.286215805117025E-3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="11">
         <v>2.9618517002963922E-3</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="11">
         <v>1.2987412861687299E-3</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="11">
         <v>2.9140384706143108E-3</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="11">
         <v>8.0144256562882766E-5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>3.4051487878855992E-4</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="11">
         <v>3.043267957927196E-3</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="11">
         <v>3.0530900858770798E-3</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="11">
         <v>8.527266020471728E-4</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="11">
         <v>5.2394227714188117E-4</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="11">
         <v>2.309262443136667E-3</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="11">
         <v>6.8973659419635785E-4</v>
       </c>
     </row>
@@ -6313,55 +6457,55 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11">
         <v>4.0975731878669626E-3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>1.1697892585288069E-4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>5.4144286828720486E-3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>2.8382002228711411E-4</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>5.6938103262411961E-3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
         <v>5.7523035918448789E-3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="11">
         <v>1.9811111126726579E-3</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="11">
         <v>5.5756220026695032E-3</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="11">
         <v>1.4348083281396241E-4</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <v>4.7316587367855068E-4</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="11">
         <v>5.9485253056806029E-3</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="11">
         <v>5.9684638623281232E-3</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="11">
         <v>2.5224311966957859E-5</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="11">
         <v>6.8377529605339921E-4</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="11">
         <v>4.1896030266620754E-3</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="11">
         <v>8.5732634381734574E-4</v>
       </c>
     </row>
@@ -6369,55 +6513,55 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11">
         <v>3.86753662060059E-3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>8.8661434334793334E-5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>4.7739440229864682E-3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <v>2.5174887320672361E-4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>5.1465315790140929E-3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="11">
         <v>5.1166552947436057E-3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="11">
         <v>1.875593158766873E-3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="11">
         <v>4.9789167752729447E-3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="11">
         <v>1.4610384459029529E-4</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="11">
         <v>3.786366395133629E-4</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <v>5.2828781708763187E-3</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <v>5.29885521919044E-3</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="11">
         <v>1.401580387076468E-3</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="11">
         <v>5.3039704902468031E-4</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <v>3.831605209830777E-3</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="11">
         <v>9.1437713362560469E-4</v>
       </c>
     </row>
@@ -6425,55 +6569,55 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11">
         <v>3.318576875750516E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>4.3544276557312273E-2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>3.109463663468397E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="11">
         <v>4.2462750627366402E-2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>3.0721956506079489E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <v>3.0321976451635039E-2</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="11">
         <v>3.8783497921297427E-2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="11">
         <v>3.0703922829611811E-2</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="11">
         <v>4.1276858902542762E-2</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="11">
         <v>4.2026271375986309E-2</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="11">
         <v>2.988148006274835E-2</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="11">
         <v>2.9841657183198811E-2</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="11">
         <v>3.2784102737433672E-2</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="11">
         <v>4.2353086817118357E-2</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="11">
         <v>3.3442985872250829E-2</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="11">
         <v>4.0013254469641643E-2</v>
       </c>
     </row>
@@ -6481,126 +6625,177 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11">
         <v>3.7469734418224543E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>3.6924254764642277E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>3.6559904707862773E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>3.7656484706238967E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>3.652255820300021E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <v>3.647074157784401E-2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="11">
         <v>3.6446545183160782E-2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="11">
         <v>3.6487834436539968E-2</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="11">
         <v>3.9900036363611682E-2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="11">
         <v>3.6686268792357278E-2</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="11">
         <v>3.6383117908301878E-2</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="11">
         <v>3.637225392219335E-2</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="11">
         <v>3.7629619593498621E-2</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="11">
         <v>3.5310244970691268E-2</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="11">
         <v>3.7015587792781079E-2</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="11">
         <v>3.709210927223882E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="12">
         <f>SUM(C2:C17)</f>
         <v>0.97001432047541913</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="12">
         <f t="shared" ref="D18:R18" si="0">SUM(D2:D17)</f>
         <v>0.85409210464491192</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
         <v>0.979626057703885</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>0.86705994251033269</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>0.98242164915238717</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="12">
         <f t="shared" si="0"/>
         <v>0.9809867131763651</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="12">
         <f t="shared" si="0"/>
         <v>0.93113633170578691</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>0.98054857722442379</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>0.86242144510903262</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="12">
         <f t="shared" si="0"/>
         <v>0.87270497836293548</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="12">
         <f t="shared" si="0"/>
         <v>0.98192813096331799</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="12">
         <f t="shared" si="0"/>
         <v>0.98204686782412653</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="12">
         <f t="shared" si="0"/>
         <v>0.87195170726829929</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="12">
         <f t="shared" si="0"/>
         <v>0.88019815723192218</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="12">
         <f t="shared" si="0"/>
         <v>0.9701665352738813</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="12">
         <f t="shared" si="0"/>
         <v>0.89785028225168084</v>
       </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7855,7 +8050,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R17"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7921,55 +8116,55 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11">
         <v>3.9909449820387299E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>3.9323435446767058E-2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <v>3.9542374981259967E-2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>3.9220210808002719E-2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="11">
         <v>3.9248222779049907E-2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="11">
         <v>3.941432531198355E-2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="11">
         <v>4.0284412400734E-2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>3.9493894767291947E-2</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="11">
         <v>3.8435471044446903E-2</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="11">
         <v>3.939300738857316E-2</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="11">
         <v>3.9347373570570221E-2</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="11">
         <v>3.9348443755787353E-2</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="11">
         <v>4.0679540450210681E-2</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="11">
         <v>3.9828905360930138E-2</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="11">
         <v>3.9771708260297398E-2</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="11">
         <v>4.0280733960094101E-2</v>
       </c>
     </row>
@@ -7977,8 +8172,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="11">
         <v>6.9386884224317893E-2</v>
@@ -8033,64 +8228,64 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11">
         <v>6.9086594840507784E-6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>2.7454283099128109E-5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>1.768839065983273E-6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>2.0784445351653829E-5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>8.6044962102396294E-7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>6.770083290982108E-7</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="11">
         <v>4.0804713706881779E-5</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>1.5744215356339131E-6</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="11">
         <v>5.300789932157812E-6</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>3.3873009859285262E-5</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>3.4967216020306999E-7</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>3.7721575768890068E-7</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>3.4044997680572862E-5</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="11">
         <v>5.4866615305301332E-5</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="11">
         <v>6.393635738090779E-6</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="11">
         <v>7.2330706664627402E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="11">
         <v>0.9435359619548036</v>
@@ -8145,55 +8340,55 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="11">
         <v>3.7432253257330739E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>3.088490075701154E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>3.8222365134464621E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>3.203881320453137E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>4.1887659870484283E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <v>3.8396662524787309E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="11">
         <v>3.4293827875286259E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="11">
         <v>3.8362977350886583E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="11">
         <v>3.3228477154677832E-2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>3.2156184483539012E-2</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="11">
         <v>3.8529361334127987E-2</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="11">
         <v>3.8527155844518421E-2</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="11">
         <v>3.3056364830356968E-2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="11">
         <v>3.1760487072419158E-2</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="11">
         <v>3.7485187791721643E-2</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <v>3.3326854636549059E-2</v>
       </c>
     </row>
@@ -8201,55 +8396,55 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11">
         <v>1.7797983478949279E-3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>2.1244541220047791E-3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>1.683999392666656E-3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>2.0923262550105841E-3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>1.813620080370898E-3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <v>1.646144242557818E-3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="11">
         <v>2.009201512200708E-3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="11">
         <v>1.6680574603965569E-3</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="11">
         <v>2.0106922972124041E-3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="11">
         <v>2.12379028665538E-3</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="11">
         <v>1.6309452148246511E-3</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="11">
         <v>1.629902696048842E-3</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="11">
         <v>2.239556185535826E-3</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="11">
         <v>2.15410613273974E-3</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="11">
         <v>1.7690312117045639E-3</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="11">
         <v>2.1259107740845681E-3</v>
       </c>
     </row>
@@ -8257,55 +8452,55 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11">
         <v>4.8542407635215118E-3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>4.0734899981027493E-3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>4.9187649057888198E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>4.1957960200921969E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>5.4404132765166211E-3</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>4.9304233929472266E-3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="11">
         <v>4.543323951160653E-3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="11">
         <v>4.9318750639757254E-3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="11">
         <v>4.2527000840123629E-3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <v>4.2244719558098068E-3</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="11">
         <v>4.938905464883357E-3</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="11">
         <v>4.9382004091189369E-3</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="11">
         <v>4.3153630230716696E-3</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="11">
         <v>4.2405041997269936E-3</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="11">
         <v>4.8570271640128648E-3</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="11">
         <v>4.410726009131994E-3</v>
       </c>
     </row>
@@ -8313,8 +8508,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="B9" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="11">
         <v>9.6193502330131228E-2</v>
@@ -8369,55 +8564,55 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11">
         <v>1.9798149829736299E-3</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>1.9202276882413331E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>5.6399966058408833E-4</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>1.3247793789392811E-2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>2.1652143375128951E-4</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>2.1432685655249569E-4</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="11">
         <v>1.461036635198262E-2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="11">
         <v>3.7397581725772788E-4</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="11">
         <v>3.2878101595310888E-3</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <v>1.590137918748738E-2</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="11">
         <v>9.0432789782059932E-5</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="11">
         <v>8.6150553389528978E-5</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="11">
         <v>4.6989650798666838E-3</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="11">
         <v>2.639928439944824E-2</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="11">
         <v>2.150027946768929E-3</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="11">
         <v>1.518483394941612E-2</v>
       </c>
     </row>
@@ -8425,55 +8620,55 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11">
         <v>4.7184468948781381E-4</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>7.3482184950973076E-7</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>4.0093391109414397E-5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>1.7575925908995739E-5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>1.9527461708865759E-5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>1.137938723827546E-5</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="11">
         <v>2.096722032179934E-4</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="11">
         <v>2.6471833088745492E-5</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="11">
         <v>1.920384401457501E-6</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="11">
         <v>1.6694173458202841E-4</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="11">
         <v>1.156955237290416E-5</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="11">
         <v>1.2942670466677439E-5</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="11">
         <v>4.5435933368759278E-2</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="11">
         <v>1.3243226647327821E-4</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="11">
         <v>6.5750971034293134E-5</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="11">
         <v>1.6865105025409351E-3</v>
       </c>
     </row>
@@ -8481,55 +8676,55 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11">
         <v>9.9815326138857785E-6</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>1.586506250602819E-7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>1.8145874153222331E-6</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>2.2176344230492179E-6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>3.210832003686391E-6</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <v>9.7777871421387524E-7</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="11">
         <v>2.069197074968963E-5</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="11">
         <v>1.6423712113916879E-6</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="11">
         <v>5.8833727133451378E-7</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <v>5.9153081400865318E-5</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="11">
         <v>6.5273145383228364E-7</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="11">
         <v>3.3416765329225839E-7</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="11">
         <v>1.349122961943285E-5</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="11">
         <v>3.3577305445255438E-4</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="11">
         <v>4.8644899948751517E-5</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="11">
         <v>2.9011471340270739E-5</v>
       </c>
     </row>
@@ -8537,55 +8732,55 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11">
         <v>1.0266522177345579E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>3.0690529586194938E-5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>1.3706605354129171E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>1.7889883949362959E-4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>1.436516187840131E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="11">
         <v>1.46889987031697E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="11">
         <v>3.6919532775905048E-3</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="11">
         <v>1.4197930976631549E-2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="11">
         <v>6.4718257811458447E-5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>4.423197982691333E-4</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="11">
         <v>1.5355825771013651E-2</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="11">
         <v>1.542336317177352E-2</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="11">
         <v>3.3294901615123821E-3</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="11">
         <v>7.6417196571073795E-4</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="11">
         <v>1.006264717722628E-2</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="11">
         <v>1.4443455377794029E-3</v>
       </c>
     </row>
@@ -8593,55 +8788,55 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11">
         <v>6.5742178605985449E-3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>1.8857126023309809E-5</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>8.7756158936671703E-3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>1.115182788013385E-4</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>9.2172734549188732E-3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
         <v>9.4292877483904344E-3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="11">
         <v>2.350272731761771E-3</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="11">
         <v>9.1102048639091077E-3</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="11">
         <v>4.0670672536568159E-5</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <v>2.7183038361129711E-4</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="11">
         <v>9.857497690732242E-3</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="11">
         <v>9.9007238316530296E-3</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="11">
         <v>2.1020092421754578E-3</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="11">
         <v>4.6910084834249322E-4</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="11">
         <v>6.4421038627973382E-3</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="11">
         <v>9.0782539234159575E-4</v>
       </c>
     </row>
@@ -8649,55 +8844,55 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11">
         <v>5.0741926336675203E-3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>1.0065060552882589E-5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>6.7171947889652049E-3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <v>7.0174944226316922E-5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>7.2176951807988547E-3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="11">
         <v>7.4090024821894052E-3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="11">
         <v>1.7503762162742701E-3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="11">
         <v>7.124050315279639E-3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="11">
         <v>2.8205175026295759E-5</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="11">
         <v>1.4087482913538649E-4</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <v>7.7466669236297839E-3</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <v>7.779774582752353E-3</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="11">
         <v>1.454518865655607E-3</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="11">
         <v>2.3706815193768279E-4</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <v>4.9480954347325568E-3</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="11">
         <v>6.0697011816192379E-4</v>
       </c>
     </row>
@@ -8705,55 +8900,55 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11">
         <v>3.7346666985215382E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>3.755386685359649E-2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>3.7530981772347621E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="11">
         <v>3.8185025477350552E-2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>3.7543092605624467E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <v>3.7720301559617302E-2</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="11">
         <v>3.594795180821813E-2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="11">
         <v>3.7568860135231058E-2</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="11">
         <v>4.107847760301056E-2</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="11">
         <v>3.6394598816321129E-2</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="11">
         <v>3.7680251353078148E-2</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="11">
         <v>3.7663974786253822E-2</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="11">
         <v>2.6611356529576639E-2</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="11">
         <v>3.4509993978689583E-2</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="11">
         <v>3.7550697864503053E-2</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="11">
         <v>3.495100688829305E-2</v>
       </c>
     </row>
@@ -8761,128 +8956,134 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11">
         <v>6.1750621027116682E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>7.5103351131476273E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>5.8986215571292078E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>7.5101156400731756E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>5.8232871128667978E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <v>5.8250501985196372E-2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="11">
         <v>6.6560792928709561E-2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="11">
         <v>5.8557547902184141E-2</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="11">
         <v>7.8721029717660207E-2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="11">
         <v>7.326613985298229E-2</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="11">
         <v>5.7748824405597018E-2</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="11">
         <v>5.7673925424594659E-2</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="11">
         <v>6.2603409084923164E-2</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="11">
         <v>7.1084455875693842E-2</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="11">
         <v>6.2171006851862907E-2</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="11">
         <v>6.9292440284150839E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="12">
         <f>SUM(C2:C17)</f>
         <v>1.3165728612468901</v>
       </c>
-      <c r="D18" s="10">
-        <f t="shared" ref="D18:R18" si="0">SUM(D2:D17)</f>
+      <c r="D18" s="12">
+        <f>SUM(D2:D17)</f>
         <v>1.2469703659306202</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
+      <c r="E18" s="12">
+        <f>SUM(E2:E17)</f>
         <v>1.3413861742910291</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="0"/>
+      <c r="F18" s="12">
+        <f>SUM(F2:F17)</f>
         <v>1.2438801878986649</v>
       </c>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
         <v>1.3485831952734235</v>
       </c>
-      <c r="H18" s="10">
-        <f t="shared" si="0"/>
+      <c r="H18" s="12">
+        <f>SUM(H2:H17)</f>
         <v>1.3528097081446242</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="0"/>
+      <c r="I18" s="12">
+        <f>SUM(I2:I17)</f>
         <v>1.2703109617580444</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" si="0"/>
+      <c r="J18" s="12">
+        <f>SUM(J2:J17)</f>
         <v>1.3466527246804609</v>
       </c>
-      <c r="K18" s="10">
-        <f t="shared" si="0"/>
+      <c r="K18" s="12">
+        <f>SUM(K2:K17)</f>
         <v>1.2362290635893667</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" si="0"/>
+      <c r="L18" s="12">
+        <f>SUM(L2:L17)</f>
         <v>1.2437847865157283</v>
       </c>
-      <c r="M18" s="10">
-        <f t="shared" si="0"/>
+      <c r="M18" s="12">
+        <f>SUM(M2:M17)</f>
         <v>1.3577889854832224</v>
       </c>
-      <c r="N18" s="10">
-        <f t="shared" si="0"/>
+      <c r="N18" s="12">
+        <f>SUM(N2:N17)</f>
         <v>1.3582665707322328</v>
       </c>
-      <c r="O18" s="10">
-        <f t="shared" si="0"/>
+      <c r="O18" s="12">
+        <f>SUM(O2:O17)</f>
         <v>1.2516790838795264</v>
       </c>
-      <c r="P18" s="10">
-        <f t="shared" si="0"/>
+      <c r="P18" s="12">
+        <f>SUM(P2:P17)</f>
         <v>1.2525716724875238</v>
       </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="0"/>
+      <c r="Q18" s="12">
+        <f>SUM(Q2:Q17)</f>
         <v>1.31392103725783</v>
       </c>
-      <c r="R18" s="10">
-        <f t="shared" si="0"/>
+      <c r="R18" s="12">
+        <f>SUM(R2:R17)</f>
         <v>1.2522024998142758</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:R17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8892,7 +9093,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generated_files/gsa_results/Sobol_indices.xlsx
+++ b/generated_files/gsa_results/Sobol_indices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_F28F00AE4AADB63F09221827D4C2216A785B62F7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{643232DB-884B-48ED-B6B5-E918AF9E1A84}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_F28F00AE4AADB63F09221827D4C2216A785B62F7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3CE4286F-D9C4-4AFA-A4CE-A167752A3AD5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,8 +244,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -349,7 +350,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -379,23 +380,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -752,11 +746,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,7 +820,7 @@
       <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>2.2418850428119648E-3</v>
       </c>
       <c r="D2" s="10">
@@ -885,49 +879,49 @@
       <c r="C3" s="11">
         <v>2.6095705592476962E-3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.20349389661528461</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0.2148615601713757</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.210453826630466</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>0.223549785208777</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>0.22567421916722549</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0.1660924663107442</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>0.21490992365994771</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.23938616061440571</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>0.19615670648917019</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>0.23157349258663609</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>0.2306037938649439</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>0.1554847919485299</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>0.17345566148577621</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>0.19946078179103879</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>0.1608609232337492</v>
       </c>
     </row>
@@ -3245,7 +3239,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="C2" sqref="C2:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5719,7 +5713,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="C5" sqref="C5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5954,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11">
         <v>0.80871952273767789</v>
@@ -8050,7 +8044,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="C2" sqref="C2:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8114,898 +8108,898 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="11">
-        <v>3.9909449820387299E-2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>3.9323435446767058E-2</v>
-      </c>
-      <c r="E2" s="11">
-        <v>3.9542374981259967E-2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3.9220210808002719E-2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>3.9248222779049907E-2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>3.941432531198355E-2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>4.0284412400734E-2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>3.9493894767291947E-2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>3.8435471044446903E-2</v>
-      </c>
-      <c r="L2" s="11">
-        <v>3.939300738857316E-2</v>
-      </c>
-      <c r="M2" s="11">
-        <v>3.9347373570570221E-2</v>
-      </c>
-      <c r="N2" s="11">
-        <v>3.9348443755787353E-2</v>
-      </c>
-      <c r="O2" s="11">
-        <v>4.0679540450210681E-2</v>
-      </c>
-      <c r="P2" s="11">
-        <v>3.9828905360930138E-2</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>3.9771708260297398E-2</v>
-      </c>
-      <c r="R2" s="11">
-        <v>4.0280733960094101E-2</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.9435359619548036</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.95112497955744513</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.93308659856408227</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.95244995340253635</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.92531853976369005</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.92825441476597048</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.95896413424359106</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0.93075137553285237</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0.94720918359537409</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.95428573002281525</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0.92606360316060454</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0.92593301148095797</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0.94928268097514701</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0.95634571982532202</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0.94310797391900647</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0.95972708244329497</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11">
-        <v>6.9386884224317893E-2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>8.7467819355262849E-2</v>
-      </c>
-      <c r="E3" s="11">
-        <v>6.5717922157821046E-2</v>
-      </c>
-      <c r="F3" s="11">
-        <v>8.6295712259831958E-2</v>
-      </c>
-      <c r="G3" s="11">
-        <v>6.4648675640111994E-2</v>
-      </c>
-      <c r="H3" s="11">
-        <v>6.473494678637251E-2</v>
-      </c>
-      <c r="I3" s="11">
-        <v>7.6953412800511808E-2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>6.51564624889788E-2</v>
-      </c>
-      <c r="K3" s="11">
-        <v>8.7526657930304813E-2</v>
-      </c>
-      <c r="L3" s="11">
-        <v>8.4340463647043049E-2</v>
-      </c>
-      <c r="M3" s="11">
-        <v>6.4113944721071583E-2</v>
-      </c>
-      <c r="N3" s="11">
-        <v>6.4051802561343796E-2</v>
-      </c>
-      <c r="O3" s="11">
-        <v>7.4949779679613748E-2</v>
-      </c>
-      <c r="P3" s="11">
-        <v>8.2454583374420118E-2</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>6.9254568137103747E-2</v>
-      </c>
-      <c r="R3" s="11">
-        <v>8.0761834372323996E-2</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="17">
+        <v>9.6193502330131228E-2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2.3831354803903969E-5</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.1318898592963694</v>
+      </c>
+      <c r="F3" s="17">
+        <v>6.5223021297964429E-4</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.14340984943770341</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.1477073376106082</v>
+      </c>
+      <c r="I3" s="17">
+        <v>2.8079766772348469E-2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.13932582337974991</v>
+      </c>
+      <c r="K3" s="17">
+        <v>3.3716038615675168E-4</v>
+      </c>
+      <c r="L3" s="17">
+        <v>5.840280376439278E-4</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.15467278112732041</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0.15529648758016271</v>
+      </c>
+      <c r="O3" s="17">
+        <v>8.7258017582100107E-4</v>
+      </c>
+      <c r="P3" s="17">
+        <v>1.80021936591181E-3</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>9.423017212937114E-2</v>
+      </c>
+      <c r="R3" s="17">
+        <v>7.3940827681082417E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="11">
-        <v>6.9086594840507784E-6</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2.7454283099128109E-5</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1.768839065983273E-6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2.0784445351653829E-5</v>
-      </c>
-      <c r="G4" s="11">
-        <v>8.6044962102396294E-7</v>
-      </c>
-      <c r="H4" s="11">
-        <v>6.770083290982108E-7</v>
-      </c>
-      <c r="I4" s="11">
-        <v>4.0804713706881779E-5</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1.5744215356339131E-6</v>
-      </c>
-      <c r="K4" s="11">
-        <v>5.300789932157812E-6</v>
-      </c>
-      <c r="L4" s="11">
-        <v>3.3873009859285262E-5</v>
-      </c>
-      <c r="M4" s="11">
-        <v>3.4967216020306999E-7</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3.7721575768890068E-7</v>
-      </c>
-      <c r="O4" s="11">
-        <v>3.4044997680572862E-5</v>
-      </c>
-      <c r="P4" s="11">
-        <v>5.4866615305301332E-5</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>6.393635738090779E-6</v>
-      </c>
-      <c r="R4" s="11">
-        <v>7.2330706664627402E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17">
+        <v>6.9386884224317893E-2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>8.7467819355262849E-2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>6.5717922157821046E-2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>8.6295712259831958E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>6.4648675640111994E-2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>6.473494678637251E-2</v>
+      </c>
+      <c r="I4" s="17">
+        <v>7.6953412800511808E-2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>6.51564624889788E-2</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8.7526657930304813E-2</v>
+      </c>
+      <c r="L4" s="17">
+        <v>8.4340463647043049E-2</v>
+      </c>
+      <c r="M4" s="17">
+        <v>6.4113944721071583E-2</v>
+      </c>
+      <c r="N4" s="17">
+        <v>6.4051802561343796E-2</v>
+      </c>
+      <c r="O4" s="17">
+        <v>7.4949779679613748E-2</v>
+      </c>
+      <c r="P4" s="17">
+        <v>8.2454583374420118E-2</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>6.9254568137103747E-2</v>
+      </c>
+      <c r="R4" s="17">
+        <v>8.0761834372323996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.9435359619548036</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.95112497955744513</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.93308659856408227</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.95244995340253635</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.92531853976369005</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.92825441476597048</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.95896413424359106</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.93075137553285237</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.94720918359537409</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.95428573002281525</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0.92606360316060454</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.92593301148095797</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.94928268097514701</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0.95634571982532202</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0.94310797391900647</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.95972708244329497</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="17">
+        <v>6.1750621027116682E-2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>7.5103351131476273E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>5.8986215571292078E-2</v>
+      </c>
+      <c r="F5" s="17">
+        <v>7.5101156400731756E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>5.8232871128667978E-2</v>
+      </c>
+      <c r="H5" s="17">
+        <v>5.8250501985196372E-2</v>
+      </c>
+      <c r="I5" s="17">
+        <v>6.6560792928709561E-2</v>
+      </c>
+      <c r="J5" s="17">
+        <v>5.8557547902184141E-2</v>
+      </c>
+      <c r="K5" s="17">
+        <v>7.8721029717660207E-2</v>
+      </c>
+      <c r="L5" s="17">
+        <v>7.326613985298229E-2</v>
+      </c>
+      <c r="M5" s="17">
+        <v>5.7748824405597018E-2</v>
+      </c>
+      <c r="N5" s="17">
+        <v>5.7673925424594659E-2</v>
+      </c>
+      <c r="O5" s="17">
+        <v>6.2603409084923164E-2</v>
+      </c>
+      <c r="P5" s="17">
+        <v>7.1084455875693842E-2</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>6.2171006851862907E-2</v>
+      </c>
+      <c r="R5" s="17">
+        <v>6.9292440284150839E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3.7432253257330739E-2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3.088490075701154E-2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3.8222365134464621E-2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3.203881320453137E-2</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4.1887659870484283E-2</v>
-      </c>
-      <c r="H6" s="11">
-        <v>3.8396662524787309E-2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3.4293827875286259E-2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>3.8362977350886583E-2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>3.3228477154677832E-2</v>
-      </c>
-      <c r="L6" s="11">
-        <v>3.2156184483539012E-2</v>
-      </c>
-      <c r="M6" s="11">
-        <v>3.8529361334127987E-2</v>
-      </c>
-      <c r="N6" s="11">
-        <v>3.8527155844518421E-2</v>
-      </c>
-      <c r="O6" s="11">
-        <v>3.3056364830356968E-2</v>
-      </c>
-      <c r="P6" s="11">
-        <v>3.1760487072419158E-2</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>3.7485187791721643E-2</v>
-      </c>
-      <c r="R6" s="11">
-        <v>3.3326854636549059E-2</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3.9909449820387299E-2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3.9323435446767058E-2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3.9542374981259967E-2</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3.9220210808002719E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3.9248222779049907E-2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3.941432531198355E-2</v>
+      </c>
+      <c r="I6" s="17">
+        <v>4.0284412400734E-2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3.9493894767291947E-2</v>
+      </c>
+      <c r="K6" s="17">
+        <v>3.8435471044446903E-2</v>
+      </c>
+      <c r="L6" s="17">
+        <v>3.939300738857316E-2</v>
+      </c>
+      <c r="M6" s="17">
+        <v>3.9347373570570221E-2</v>
+      </c>
+      <c r="N6" s="17">
+        <v>3.9348443755787353E-2</v>
+      </c>
+      <c r="O6" s="17">
+        <v>4.0679540450210681E-2</v>
+      </c>
+      <c r="P6" s="17">
+        <v>3.9828905360930138E-2</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>3.9771708260297398E-2</v>
+      </c>
+      <c r="R6" s="17">
+        <v>4.0280733960094101E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1.7797983478949279E-3</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2.1244541220047791E-3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1.683999392666656E-3</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2.0923262550105841E-3</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1.813620080370898E-3</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1.646144242557818E-3</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2.009201512200708E-3</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1.6680574603965569E-3</v>
-      </c>
-      <c r="K7" s="11">
-        <v>2.0106922972124041E-3</v>
-      </c>
-      <c r="L7" s="11">
-        <v>2.12379028665538E-3</v>
-      </c>
-      <c r="M7" s="11">
-        <v>1.6309452148246511E-3</v>
-      </c>
-      <c r="N7" s="11">
-        <v>1.629902696048842E-3</v>
-      </c>
-      <c r="O7" s="11">
-        <v>2.239556185535826E-3</v>
-      </c>
-      <c r="P7" s="11">
-        <v>2.15410613273974E-3</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>1.7690312117045639E-3</v>
-      </c>
-      <c r="R7" s="11">
-        <v>2.1259107740845681E-3</v>
+        <v>42</v>
+      </c>
+      <c r="C7" s="17">
+        <v>3.7432253257330739E-2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3.088490075701154E-2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3.8222365134464621E-2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3.203881320453137E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>4.1887659870484283E-2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>3.8396662524787309E-2</v>
+      </c>
+      <c r="I7" s="17">
+        <v>3.4293827875286259E-2</v>
+      </c>
+      <c r="J7" s="17">
+        <v>3.8362977350886583E-2</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3.3228477154677832E-2</v>
+      </c>
+      <c r="L7" s="17">
+        <v>3.2156184483539012E-2</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3.8529361334127987E-2</v>
+      </c>
+      <c r="N7" s="17">
+        <v>3.8527155844518421E-2</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3.3056364830356968E-2</v>
+      </c>
+      <c r="P7" s="17">
+        <v>3.1760487072419158E-2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>3.7485187791721643E-2</v>
+      </c>
+      <c r="R7" s="17">
+        <v>3.3326854636549059E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="11">
-        <v>4.8542407635215118E-3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>4.0734899981027493E-3</v>
-      </c>
-      <c r="E8" s="11">
-        <v>4.9187649057888198E-3</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4.1957960200921969E-3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5.4404132765166211E-3</v>
-      </c>
-      <c r="H8" s="11">
-        <v>4.9304233929472266E-3</v>
-      </c>
-      <c r="I8" s="11">
-        <v>4.543323951160653E-3</v>
-      </c>
-      <c r="J8" s="11">
-        <v>4.9318750639757254E-3</v>
-      </c>
-      <c r="K8" s="11">
-        <v>4.2527000840123629E-3</v>
-      </c>
-      <c r="L8" s="11">
-        <v>4.2244719558098068E-3</v>
-      </c>
-      <c r="M8" s="11">
-        <v>4.938905464883357E-3</v>
-      </c>
-      <c r="N8" s="11">
-        <v>4.9382004091189369E-3</v>
-      </c>
-      <c r="O8" s="11">
-        <v>4.3153630230716696E-3</v>
-      </c>
-      <c r="P8" s="11">
-        <v>4.2405041997269936E-3</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>4.8570271640128648E-3</v>
-      </c>
-      <c r="R8" s="11">
-        <v>4.410726009131994E-3</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3.7346666985215382E-2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3.755386685359649E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3.7530981772347621E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>3.8185025477350552E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3.7543092605624467E-2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>3.7720301559617302E-2</v>
+      </c>
+      <c r="I8" s="17">
+        <v>3.594795180821813E-2</v>
+      </c>
+      <c r="J8" s="17">
+        <v>3.7568860135231058E-2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>4.107847760301056E-2</v>
+      </c>
+      <c r="L8" s="17">
+        <v>3.6394598816321129E-2</v>
+      </c>
+      <c r="M8" s="17">
+        <v>3.7680251353078148E-2</v>
+      </c>
+      <c r="N8" s="17">
+        <v>3.7663974786253822E-2</v>
+      </c>
+      <c r="O8" s="17">
+        <v>2.6611356529576639E-2</v>
+      </c>
+      <c r="P8" s="17">
+        <v>3.4509993978689583E-2</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>3.7550697864503053E-2</v>
+      </c>
+      <c r="R8" s="17">
+        <v>3.495100688829305E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="11">
-        <v>9.6193502330131228E-2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>2.3831354803903969E-5</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.1318898592963694</v>
-      </c>
-      <c r="F9" s="11">
-        <v>6.5223021297964429E-4</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.14340984943770341</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.1477073376106082</v>
-      </c>
-      <c r="I9" s="11">
-        <v>2.8079766772348469E-2</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.13932582337974991</v>
-      </c>
-      <c r="K9" s="11">
-        <v>3.3716038615675168E-4</v>
-      </c>
-      <c r="L9" s="11">
-        <v>5.840280376439278E-4</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0.15467278112732041</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0.15529648758016271</v>
-      </c>
-      <c r="O9" s="11">
-        <v>8.7258017582100107E-4</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1.80021936591181E-3</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>9.423017212937114E-2</v>
-      </c>
-      <c r="R9" s="11">
-        <v>7.3940827681082417E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1.0266522177345579E-2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>3.0690529586194938E-5</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.3706605354129171E-2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1.7889883949362959E-4</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.436516187840131E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1.46889987031697E-2</v>
+      </c>
+      <c r="I9" s="17">
+        <v>3.6919532775905048E-3</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1.4197930976631549E-2</v>
+      </c>
+      <c r="K9" s="17">
+        <v>6.4718257811458447E-5</v>
+      </c>
+      <c r="L9" s="17">
+        <v>4.423197982691333E-4</v>
+      </c>
+      <c r="M9" s="17">
+        <v>1.5355825771013651E-2</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1.542336317177352E-2</v>
+      </c>
+      <c r="O9" s="17">
+        <v>3.3294901615123821E-3</v>
+      </c>
+      <c r="P9" s="17">
+        <v>7.6417196571073795E-4</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1.006264717722628E-2</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1.4443455377794029E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1.9798149829736299E-3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1.9202276882413331E-2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5.6399966058408833E-4</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1.3247793789392811E-2</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2.1652143375128951E-4</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2.1432685655249569E-4</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1.461036635198262E-2</v>
-      </c>
-      <c r="J10" s="11">
-        <v>3.7397581725772788E-4</v>
-      </c>
-      <c r="K10" s="11">
-        <v>3.2878101595310888E-3</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1.590137918748738E-2</v>
-      </c>
-      <c r="M10" s="11">
-        <v>9.0432789782059932E-5</v>
-      </c>
-      <c r="N10" s="11">
-        <v>8.6150553389528978E-5</v>
-      </c>
-      <c r="O10" s="11">
-        <v>4.6989650798666838E-3</v>
-      </c>
-      <c r="P10" s="11">
-        <v>2.639928439944824E-2</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>2.150027946768929E-3</v>
-      </c>
-      <c r="R10" s="11">
-        <v>1.518483394941612E-2</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6.5742178605985449E-3</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.8857126023309809E-5</v>
+      </c>
+      <c r="E10" s="17">
+        <v>8.7756158936671703E-3</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.115182788013385E-4</v>
+      </c>
+      <c r="G10" s="17">
+        <v>9.2172734549188732E-3</v>
+      </c>
+      <c r="H10" s="17">
+        <v>9.4292877483904344E-3</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2.350272731761771E-3</v>
+      </c>
+      <c r="J10" s="17">
+        <v>9.1102048639091077E-3</v>
+      </c>
+      <c r="K10" s="17">
+        <v>4.0670672536568159E-5</v>
+      </c>
+      <c r="L10" s="17">
+        <v>2.7183038361129711E-4</v>
+      </c>
+      <c r="M10" s="17">
+        <v>9.857497690732242E-3</v>
+      </c>
+      <c r="N10" s="17">
+        <v>9.9007238316530296E-3</v>
+      </c>
+      <c r="O10" s="17">
+        <v>2.1020092421754578E-3</v>
+      </c>
+      <c r="P10" s="17">
+        <v>4.6910084834249322E-4</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>6.4421038627973382E-3</v>
+      </c>
+      <c r="R10" s="17">
+        <v>9.0782539234159575E-4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="11">
-        <v>4.7184468948781381E-4</v>
-      </c>
-      <c r="D11" s="11">
-        <v>7.3482184950973076E-7</v>
-      </c>
-      <c r="E11" s="11">
-        <v>4.0093391109414397E-5</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1.7575925908995739E-5</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1.9527461708865759E-5</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1.137938723827546E-5</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2.096722032179934E-4</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2.6471833088745492E-5</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1.920384401457501E-6</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1.6694173458202841E-4</v>
-      </c>
-      <c r="M11" s="11">
-        <v>1.156955237290416E-5</v>
-      </c>
-      <c r="N11" s="11">
-        <v>1.2942670466677439E-5</v>
-      </c>
-      <c r="O11" s="11">
-        <v>4.5435933368759278E-2</v>
-      </c>
-      <c r="P11" s="11">
-        <v>1.3243226647327821E-4</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>6.5750971034293134E-5</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1.6865105025409351E-3</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5.0741926336675203E-3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.0065060552882589E-5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>6.7171947889652049E-3</v>
+      </c>
+      <c r="F11" s="17">
+        <v>7.0174944226316922E-5</v>
+      </c>
+      <c r="G11" s="17">
+        <v>7.2176951807988547E-3</v>
+      </c>
+      <c r="H11" s="17">
+        <v>7.4090024821894052E-3</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.7503762162742701E-3</v>
+      </c>
+      <c r="J11" s="17">
+        <v>7.124050315279639E-3</v>
+      </c>
+      <c r="K11" s="17">
+        <v>2.8205175026295759E-5</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1.4087482913538649E-4</v>
+      </c>
+      <c r="M11" s="17">
+        <v>7.7466669236297839E-3</v>
+      </c>
+      <c r="N11" s="17">
+        <v>7.779774582752353E-3</v>
+      </c>
+      <c r="O11" s="17">
+        <v>1.454518865655607E-3</v>
+      </c>
+      <c r="P11" s="17">
+        <v>2.3706815193768279E-4</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>4.9480954347325568E-3</v>
+      </c>
+      <c r="R11" s="17">
+        <v>6.0697011816192379E-4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11">
-        <v>9.9815326138857785E-6</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1.586506250602819E-7</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1.8145874153222331E-6</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2.2176344230492179E-6</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3.210832003686391E-6</v>
-      </c>
-      <c r="H12" s="11">
-        <v>9.7777871421387524E-7</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2.069197074968963E-5</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1.6423712113916879E-6</v>
-      </c>
-      <c r="K12" s="11">
-        <v>5.8833727133451378E-7</v>
-      </c>
-      <c r="L12" s="11">
-        <v>5.9153081400865318E-5</v>
-      </c>
-      <c r="M12" s="11">
-        <v>6.5273145383228364E-7</v>
-      </c>
-      <c r="N12" s="11">
-        <v>3.3416765329225839E-7</v>
-      </c>
-      <c r="O12" s="11">
-        <v>1.349122961943285E-5</v>
-      </c>
-      <c r="P12" s="11">
-        <v>3.3577305445255438E-4</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>4.8644899948751517E-5</v>
-      </c>
-      <c r="R12" s="11">
-        <v>2.9011471340270739E-5</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4.8542407635215118E-3</v>
+      </c>
+      <c r="D12" s="17">
+        <v>4.0734899981027493E-3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4.9187649057888198E-3</v>
+      </c>
+      <c r="F12" s="17">
+        <v>4.1957960200921969E-3</v>
+      </c>
+      <c r="G12" s="17">
+        <v>5.4404132765166211E-3</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4.9304233929472266E-3</v>
+      </c>
+      <c r="I12" s="17">
+        <v>4.543323951160653E-3</v>
+      </c>
+      <c r="J12" s="17">
+        <v>4.9318750639757254E-3</v>
+      </c>
+      <c r="K12" s="17">
+        <v>4.2527000840123629E-3</v>
+      </c>
+      <c r="L12" s="17">
+        <v>4.2244719558098068E-3</v>
+      </c>
+      <c r="M12" s="17">
+        <v>4.938905464883357E-3</v>
+      </c>
+      <c r="N12" s="17">
+        <v>4.9382004091189369E-3</v>
+      </c>
+      <c r="O12" s="17">
+        <v>4.3153630230716696E-3</v>
+      </c>
+      <c r="P12" s="17">
+        <v>4.2405041997269936E-3</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>4.8570271640128648E-3</v>
+      </c>
+      <c r="R12" s="17">
+        <v>4.410726009131994E-3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1.0266522177345579E-2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>3.0690529586194938E-5</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1.3706605354129171E-2</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1.7889883949362959E-4</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1.436516187840131E-2</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1.46889987031697E-2</v>
-      </c>
-      <c r="I13" s="11">
-        <v>3.6919532775905048E-3</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1.4197930976631549E-2</v>
-      </c>
-      <c r="K13" s="11">
-        <v>6.4718257811458447E-5</v>
-      </c>
-      <c r="L13" s="11">
-        <v>4.423197982691333E-4</v>
-      </c>
-      <c r="M13" s="11">
-        <v>1.5355825771013651E-2</v>
-      </c>
-      <c r="N13" s="11">
-        <v>1.542336317177352E-2</v>
-      </c>
-      <c r="O13" s="11">
-        <v>3.3294901615123821E-3</v>
-      </c>
-      <c r="P13" s="11">
-        <v>7.6417196571073795E-4</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>1.006264717722628E-2</v>
-      </c>
-      <c r="R13" s="11">
-        <v>1.4443455377794029E-3</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1.7797983478949279E-3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2.1244541220047791E-3</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1.683999392666656E-3</v>
+      </c>
+      <c r="F13" s="17">
+        <v>2.0923262550105841E-3</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1.813620080370898E-3</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1.646144242557818E-3</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2.009201512200708E-3</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1.6680574603965569E-3</v>
+      </c>
+      <c r="K13" s="17">
+        <v>2.0106922972124041E-3</v>
+      </c>
+      <c r="L13" s="17">
+        <v>2.12379028665538E-3</v>
+      </c>
+      <c r="M13" s="17">
+        <v>1.6309452148246511E-3</v>
+      </c>
+      <c r="N13" s="17">
+        <v>1.629902696048842E-3</v>
+      </c>
+      <c r="O13" s="17">
+        <v>2.239556185535826E-3</v>
+      </c>
+      <c r="P13" s="17">
+        <v>2.15410613273974E-3</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>1.7690312117045639E-3</v>
+      </c>
+      <c r="R13" s="17">
+        <v>2.1259107740845681E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="11">
-        <v>6.5742178605985449E-3</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1.8857126023309809E-5</v>
-      </c>
-      <c r="E14" s="11">
-        <v>8.7756158936671703E-3</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1.115182788013385E-4</v>
-      </c>
-      <c r="G14" s="11">
-        <v>9.2172734549188732E-3</v>
-      </c>
-      <c r="H14" s="11">
-        <v>9.4292877483904344E-3</v>
-      </c>
-      <c r="I14" s="11">
-        <v>2.350272731761771E-3</v>
-      </c>
-      <c r="J14" s="11">
-        <v>9.1102048639091077E-3</v>
-      </c>
-      <c r="K14" s="11">
-        <v>4.0670672536568159E-5</v>
-      </c>
-      <c r="L14" s="11">
-        <v>2.7183038361129711E-4</v>
-      </c>
-      <c r="M14" s="11">
-        <v>9.857497690732242E-3</v>
-      </c>
-      <c r="N14" s="11">
-        <v>9.9007238316530296E-3</v>
-      </c>
-      <c r="O14" s="11">
-        <v>2.1020092421754578E-3</v>
-      </c>
-      <c r="P14" s="11">
-        <v>4.6910084834249322E-4</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>6.4421038627973382E-3</v>
-      </c>
-      <c r="R14" s="11">
-        <v>9.0782539234159575E-4</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1.9798149829736299E-3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1.9202276882413331E-2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>5.6399966058408833E-4</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1.3247793789392811E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2.1652143375128951E-4</v>
+      </c>
+      <c r="H14" s="17">
+        <v>2.1432685655249569E-4</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1.461036635198262E-2</v>
+      </c>
+      <c r="J14" s="17">
+        <v>3.7397581725772788E-4</v>
+      </c>
+      <c r="K14" s="17">
+        <v>3.2878101595310888E-3</v>
+      </c>
+      <c r="L14" s="17">
+        <v>1.590137918748738E-2</v>
+      </c>
+      <c r="M14" s="17">
+        <v>9.0432789782059932E-5</v>
+      </c>
+      <c r="N14" s="17">
+        <v>8.6150553389528978E-5</v>
+      </c>
+      <c r="O14" s="17">
+        <v>4.6989650798666838E-3</v>
+      </c>
+      <c r="P14" s="17">
+        <v>2.639928439944824E-2</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>2.150027946768929E-3</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1.518483394941612E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="11">
-        <v>5.0741926336675203E-3</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1.0065060552882589E-5</v>
-      </c>
-      <c r="E15" s="11">
-        <v>6.7171947889652049E-3</v>
-      </c>
-      <c r="F15" s="11">
-        <v>7.0174944226316922E-5</v>
-      </c>
-      <c r="G15" s="11">
-        <v>7.2176951807988547E-3</v>
-      </c>
-      <c r="H15" s="11">
-        <v>7.4090024821894052E-3</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1.7503762162742701E-3</v>
-      </c>
-      <c r="J15" s="11">
-        <v>7.124050315279639E-3</v>
-      </c>
-      <c r="K15" s="11">
-        <v>2.8205175026295759E-5</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1.4087482913538649E-4</v>
-      </c>
-      <c r="M15" s="11">
-        <v>7.7466669236297839E-3</v>
-      </c>
-      <c r="N15" s="11">
-        <v>7.779774582752353E-3</v>
-      </c>
-      <c r="O15" s="11">
-        <v>1.454518865655607E-3</v>
-      </c>
-      <c r="P15" s="11">
-        <v>2.3706815193768279E-4</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>4.9480954347325568E-3</v>
-      </c>
-      <c r="R15" s="11">
-        <v>6.0697011816192379E-4</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4.7184468948781381E-4</v>
+      </c>
+      <c r="D15" s="17">
+        <v>7.3482184950973076E-7</v>
+      </c>
+      <c r="E15" s="17">
+        <v>4.0093391109414397E-5</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1.7575925908995739E-5</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1.9527461708865759E-5</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1.137938723827546E-5</v>
+      </c>
+      <c r="I15" s="17">
+        <v>2.096722032179934E-4</v>
+      </c>
+      <c r="J15" s="17">
+        <v>2.6471833088745492E-5</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1.920384401457501E-6</v>
+      </c>
+      <c r="L15" s="17">
+        <v>1.6694173458202841E-4</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1.156955237290416E-5</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1.2942670466677439E-5</v>
+      </c>
+      <c r="O15" s="17">
+        <v>4.5435933368759278E-2</v>
+      </c>
+      <c r="P15" s="17">
+        <v>1.3243226647327821E-4</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>6.5750971034293134E-5</v>
+      </c>
+      <c r="R15" s="17">
+        <v>1.6865105025409351E-3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3.7346666985215382E-2</v>
-      </c>
-      <c r="D16" s="11">
-        <v>3.755386685359649E-2</v>
-      </c>
-      <c r="E16" s="11">
-        <v>3.7530981772347621E-2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>3.8185025477350552E-2</v>
-      </c>
-      <c r="G16" s="11">
-        <v>3.7543092605624467E-2</v>
-      </c>
-      <c r="H16" s="11">
-        <v>3.7720301559617302E-2</v>
-      </c>
-      <c r="I16" s="11">
-        <v>3.594795180821813E-2</v>
-      </c>
-      <c r="J16" s="11">
-        <v>3.7568860135231058E-2</v>
-      </c>
-      <c r="K16" s="11">
-        <v>4.107847760301056E-2</v>
-      </c>
-      <c r="L16" s="11">
-        <v>3.6394598816321129E-2</v>
-      </c>
-      <c r="M16" s="11">
-        <v>3.7680251353078148E-2</v>
-      </c>
-      <c r="N16" s="11">
-        <v>3.7663974786253822E-2</v>
-      </c>
-      <c r="O16" s="11">
-        <v>2.6611356529576639E-2</v>
-      </c>
-      <c r="P16" s="11">
-        <v>3.4509993978689583E-2</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>3.7550697864503053E-2</v>
-      </c>
-      <c r="R16" s="11">
-        <v>3.495100688829305E-2</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="17">
+        <v>9.9815326138857785E-6</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1.586506250602819E-7</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1.8145874153222331E-6</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2.2176344230492179E-6</v>
+      </c>
+      <c r="G16" s="17">
+        <v>3.210832003686391E-6</v>
+      </c>
+      <c r="H16" s="17">
+        <v>9.7777871421387524E-7</v>
+      </c>
+      <c r="I16" s="17">
+        <v>2.069197074968963E-5</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1.6423712113916879E-6</v>
+      </c>
+      <c r="K16" s="17">
+        <v>5.8833727133451378E-7</v>
+      </c>
+      <c r="L16" s="17">
+        <v>5.9153081400865318E-5</v>
+      </c>
+      <c r="M16" s="17">
+        <v>6.5273145383228364E-7</v>
+      </c>
+      <c r="N16" s="17">
+        <v>3.3416765329225839E-7</v>
+      </c>
+      <c r="O16" s="17">
+        <v>1.349122961943285E-5</v>
+      </c>
+      <c r="P16" s="17">
+        <v>3.3577305445255438E-4</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>4.8644899948751517E-5</v>
+      </c>
+      <c r="R16" s="17">
+        <v>2.9011471340270739E-5</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="11">
-        <v>6.1750621027116682E-2</v>
-      </c>
-      <c r="D17" s="11">
-        <v>7.5103351131476273E-2</v>
-      </c>
-      <c r="E17" s="11">
-        <v>5.8986215571292078E-2</v>
-      </c>
-      <c r="F17" s="11">
-        <v>7.5101156400731756E-2</v>
-      </c>
-      <c r="G17" s="11">
-        <v>5.8232871128667978E-2</v>
-      </c>
-      <c r="H17" s="11">
-        <v>5.8250501985196372E-2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>6.6560792928709561E-2</v>
-      </c>
-      <c r="J17" s="11">
-        <v>5.8557547902184141E-2</v>
-      </c>
-      <c r="K17" s="11">
-        <v>7.8721029717660207E-2</v>
-      </c>
-      <c r="L17" s="11">
-        <v>7.326613985298229E-2</v>
-      </c>
-      <c r="M17" s="11">
-        <v>5.7748824405597018E-2</v>
-      </c>
-      <c r="N17" s="11">
-        <v>5.7673925424594659E-2</v>
-      </c>
-      <c r="O17" s="11">
-        <v>6.2603409084923164E-2</v>
-      </c>
-      <c r="P17" s="11">
-        <v>7.1084455875693842E-2</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>6.2171006851862907E-2</v>
-      </c>
-      <c r="R17" s="11">
-        <v>6.9292440284150839E-2</v>
+        <v>56</v>
+      </c>
+      <c r="C17" s="17">
+        <v>6.9086594840507784E-6</v>
+      </c>
+      <c r="D17" s="17">
+        <v>2.7454283099128109E-5</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1.768839065983273E-6</v>
+      </c>
+      <c r="F17" s="17">
+        <v>2.0784445351653829E-5</v>
+      </c>
+      <c r="G17" s="17">
+        <v>8.6044962102396294E-7</v>
+      </c>
+      <c r="H17" s="17">
+        <v>6.770083290982108E-7</v>
+      </c>
+      <c r="I17" s="17">
+        <v>4.0804713706881779E-5</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1.5744215356339131E-6</v>
+      </c>
+      <c r="K17" s="17">
+        <v>5.300789932157812E-6</v>
+      </c>
+      <c r="L17" s="17">
+        <v>3.3873009859285262E-5</v>
+      </c>
+      <c r="M17" s="17">
+        <v>3.4967216020306999E-7</v>
+      </c>
+      <c r="N17" s="17">
+        <v>3.7721575768890068E-7</v>
+      </c>
+      <c r="O17" s="17">
+        <v>3.4044997680572862E-5</v>
+      </c>
+      <c r="P17" s="17">
+        <v>5.4866615305301332E-5</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>6.393635738090779E-6</v>
+      </c>
+      <c r="R17" s="17">
+        <v>7.2330706664627402E-5</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -9014,73 +9008,76 @@
         <v>38</v>
       </c>
       <c r="C18" s="12">
-        <f>SUM(C2:C17)</f>
+        <f t="shared" ref="C18:R18" si="0">SUM(C2:C17)</f>
         <v>1.3165728612468901</v>
       </c>
       <c r="D18" s="12">
-        <f>SUM(D2:D17)</f>
+        <f t="shared" si="0"/>
         <v>1.2469703659306202</v>
       </c>
       <c r="E18" s="12">
-        <f>SUM(E2:E17)</f>
+        <f t="shared" si="0"/>
         <v>1.3413861742910291</v>
       </c>
       <c r="F18" s="12">
-        <f>SUM(F2:F17)</f>
+        <f t="shared" si="0"/>
         <v>1.2438801878986649</v>
       </c>
       <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
+        <f t="shared" si="0"/>
         <v>1.3485831952734235</v>
       </c>
       <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>1.3528097081446242</v>
+        <f t="shared" si="0"/>
+        <v>1.3528097081446244</v>
       </c>
       <c r="I18" s="12">
-        <f>SUM(I2:I17)</f>
+        <f t="shared" si="0"/>
         <v>1.2703109617580444</v>
       </c>
       <c r="J18" s="12">
-        <f>SUM(J2:J17)</f>
-        <v>1.3466527246804609</v>
+        <f t="shared" si="0"/>
+        <v>1.3466527246804612</v>
       </c>
       <c r="K18" s="12">
-        <f>SUM(K2:K17)</f>
+        <f t="shared" si="0"/>
         <v>1.2362290635893667</v>
       </c>
       <c r="L18" s="12">
-        <f>SUM(L2:L17)</f>
-        <v>1.2437847865157283</v>
+        <f t="shared" si="0"/>
+        <v>1.2437847865157281</v>
       </c>
       <c r="M18" s="12">
-        <f>SUM(M2:M17)</f>
+        <f t="shared" si="0"/>
         <v>1.3577889854832224</v>
       </c>
       <c r="N18" s="12">
-        <f>SUM(N2:N17)</f>
+        <f t="shared" si="0"/>
         <v>1.3582665707322328</v>
       </c>
       <c r="O18" s="12">
-        <f>SUM(O2:O17)</f>
+        <f t="shared" si="0"/>
         <v>1.2516790838795264</v>
       </c>
       <c r="P18" s="12">
-        <f>SUM(P2:P17)</f>
-        <v>1.2525716724875238</v>
+        <f t="shared" si="0"/>
+        <v>1.2525716724875235</v>
       </c>
       <c r="Q18" s="12">
-        <f>SUM(Q2:Q17)</f>
+        <f t="shared" si="0"/>
         <v>1.31392103725783</v>
       </c>
       <c r="R18" s="12">
-        <f>SUM(R2:R17)</f>
+        <f t="shared" si="0"/>
         <v>1.2522024998142758</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R17">
+    <sortCondition descending="1" ref="E2:E17"/>
+  </sortState>
   <conditionalFormatting sqref="C2:R17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9164,67 +9161,67 @@
       </c>
       <c r="C2" s="3">
         <f>'EGE TOTAL'!C2/'EGE TOTAL'!$C$18</f>
-        <v>3.0313134194935594E-2</v>
+        <v>0.71666064957560083</v>
       </c>
       <c r="D2" s="3">
         <f>'EGE TOTAL'!D2/'EGE TOTAL'!$C$18</f>
-        <v>2.9868028275719515E-2</v>
+        <v>0.72242487108283604</v>
       </c>
       <c r="E2" s="3">
         <f>'EGE TOTAL'!E2/'EGE TOTAL'!$C$18</f>
-        <v>3.0034323314100875E-2</v>
+        <v>0.70872385876189303</v>
       </c>
       <c r="F2" s="3">
         <f>'EGE TOTAL'!F2/'EGE TOTAL'!$C$18</f>
-        <v>2.9789624230031852E-2</v>
+        <v>0.72343125203150327</v>
       </c>
       <c r="G2" s="3">
         <f>'EGE TOTAL'!G2/'EGE TOTAL'!$C$18</f>
-        <v>2.98109006605825E-2</v>
+        <v>0.70282364690955745</v>
       </c>
       <c r="H2" s="3">
         <f>'EGE TOTAL'!H2/'EGE TOTAL'!$C$18</f>
-        <v>2.9937063471485597E-2</v>
+        <v>0.7050535842633473</v>
       </c>
       <c r="I2" s="3">
         <f>'EGE TOTAL'!I2/'EGE TOTAL'!$C$18</f>
-        <v>3.0597936192138835E-2</v>
+        <v>0.72837908365768866</v>
       </c>
       <c r="J2" s="3">
         <f>'EGE TOTAL'!J2/'EGE TOTAL'!$C$18</f>
-        <v>2.9997500274985434E-2</v>
+        <v>0.70695014528201894</v>
       </c>
       <c r="K2" s="3">
         <f>'EGE TOTAL'!K2/'EGE TOTAL'!$C$18</f>
-        <v>2.9193576881150141E-2</v>
+        <v>0.71945063693497235</v>
       </c>
       <c r="L2" s="3">
         <f>'EGE TOTAL'!L2/'EGE TOTAL'!$C$18</f>
-        <v>2.9920871489987361E-2</v>
+        <v>0.72482561209642238</v>
       </c>
       <c r="M2" s="3">
         <f>'EGE TOTAL'!M2/'EGE TOTAL'!$C$18</f>
-        <v>2.9886210424621241E-2</v>
+        <v>0.70338955816205651</v>
       </c>
       <c r="N2" s="3">
         <f>'EGE TOTAL'!N2/'EGE TOTAL'!$C$18</f>
-        <v>2.9887023281432005E-2</v>
+        <v>0.7032903675410962</v>
       </c>
       <c r="O2" s="3">
         <f>'EGE TOTAL'!O2/'EGE TOTAL'!$C$18</f>
-        <v>3.0898054826744799E-2</v>
+        <v>0.72102555727611417</v>
       </c>
       <c r="P2" s="3">
         <f>'EGE TOTAL'!P2/'EGE TOTAL'!$C$18</f>
-        <v>3.0251956829194605E-2</v>
+        <v>0.72639027278717649</v>
       </c>
       <c r="Q2" s="3">
         <f>'EGE TOTAL'!Q2/'EGE TOTAL'!$C$18</f>
-        <v>3.0208512898124529E-2</v>
+        <v>0.71633557221118371</v>
       </c>
       <c r="R2" s="3">
         <f>'EGE TOTAL'!R2/'EGE TOTAL'!$C$18</f>
-        <v>3.0595142240700087E-2</v>
+        <v>0.72895857927252405</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -9236,67 +9233,67 @@
       </c>
       <c r="C3" s="3">
         <f>'EGE TOTAL'!C3/'EGE TOTAL'!$C$18</f>
-        <v>5.2702654191583043E-2</v>
+        <v>7.306356158597177E-2</v>
       </c>
       <c r="D3" s="3">
         <f>'EGE TOTAL'!D3/'EGE TOTAL'!$C$18</f>
-        <v>6.643598841345133E-2</v>
+        <v>1.8101052744877291E-5</v>
       </c>
       <c r="E3" s="3">
         <f>'EGE TOTAL'!E3/'EGE TOTAL'!$C$18</f>
-        <v>4.9915902182262363E-2</v>
+        <v>0.10017665043730289</v>
       </c>
       <c r="F3" s="3">
         <f>'EGE TOTAL'!F3/'EGE TOTAL'!$C$18</f>
-        <v>6.554571706582471E-2</v>
+        <v>4.9540001330570865E-4</v>
       </c>
       <c r="G3" s="3">
         <f>'EGE TOTAL'!G3/'EGE TOTAL'!$C$18</f>
-        <v>4.9103758358565133E-2</v>
+        <v>0.1089266334275521</v>
       </c>
       <c r="H3" s="3">
         <f>'EGE TOTAL'!H3/'EGE TOTAL'!$C$18</f>
-        <v>4.9169285416580603E-2</v>
+        <v>0.11219078104854646</v>
       </c>
       <c r="I3" s="3">
         <f>'EGE TOTAL'!I3/'EGE TOTAL'!$C$18</f>
-        <v>5.8449794208602579E-2</v>
+        <v>2.132792464349819E-2</v>
       </c>
       <c r="J3" s="3">
         <f>'EGE TOTAL'!J3/'EGE TOTAL'!$C$18</f>
-        <v>4.9489446734661456E-2</v>
+        <v>0.10582462048306103</v>
       </c>
       <c r="K3" s="3">
         <f>'EGE TOTAL'!K3/'EGE TOTAL'!$C$18</f>
-        <v>6.6480679122772376E-2</v>
+        <v>2.5608942435395208E-4</v>
       </c>
       <c r="L3" s="3">
         <f>'EGE TOTAL'!L3/'EGE TOTAL'!$C$18</f>
-        <v>6.4060612313675144E-2</v>
+        <v>4.4359720212583663E-4</v>
       </c>
       <c r="M3" s="3">
         <f>'EGE TOTAL'!M3/'EGE TOTAL'!$C$18</f>
-        <v>4.8697604673660841E-2</v>
+        <v>0.11748136824029173</v>
       </c>
       <c r="N3" s="3">
         <f>'EGE TOTAL'!N3/'EGE TOTAL'!$C$18</f>
-        <v>4.8650404733910503E-2</v>
+        <v>0.11795510309477719</v>
       </c>
       <c r="O3" s="3">
         <f>'EGE TOTAL'!O3/'EGE TOTAL'!$C$18</f>
-        <v>5.6927939110510653E-2</v>
+        <v>6.6276633941444324E-4</v>
       </c>
       <c r="P3" s="3">
         <f>'EGE TOTAL'!P3/'EGE TOTAL'!$C$18</f>
-        <v>6.2628196130618735E-2</v>
+        <v>1.3673526311387518E-3</v>
       </c>
       <c r="Q3" s="3">
         <f>'EGE TOTAL'!Q3/'EGE TOTAL'!$C$18</f>
-        <v>5.2602153800675067E-2</v>
+        <v>7.1572318481582797E-2</v>
       </c>
       <c r="R3" s="3">
         <f>'EGE TOTAL'!R3/'EGE TOTAL'!$C$18</f>
-        <v>6.1342472376224338E-2</v>
+        <v>5.6161591855277259E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -9308,67 +9305,67 @@
       </c>
       <c r="C4" s="3">
         <f>'EGE TOTAL'!C4/'EGE TOTAL'!$C$18</f>
-        <v>5.2474570055376778E-6</v>
+        <v>5.2702654191583043E-2</v>
       </c>
       <c r="D4" s="3">
         <f>'EGE TOTAL'!D4/'EGE TOTAL'!$C$18</f>
-        <v>2.0852839905211861E-5</v>
+        <v>6.643598841345133E-2</v>
       </c>
       <c r="E4" s="3">
         <f>'EGE TOTAL'!E4/'EGE TOTAL'!$C$18</f>
-        <v>1.3435177938485332E-6</v>
+        <v>4.9915902182262363E-2</v>
       </c>
       <c r="F4" s="3">
         <f>'EGE TOTAL'!F4/'EGE TOTAL'!$C$18</f>
-        <v>1.5786779420600734E-5</v>
+        <v>6.554571706582471E-2</v>
       </c>
       <c r="G4" s="3">
         <f>'EGE TOTAL'!G4/'EGE TOTAL'!$C$18</f>
-        <v>6.5355260339261035E-7</v>
+        <v>4.9103758358565133E-2</v>
       </c>
       <c r="H4" s="3">
         <f>'EGE TOTAL'!H4/'EGE TOTAL'!$C$18</f>
-        <v>5.1422017650966524E-7</v>
+        <v>4.9169285416580603E-2</v>
       </c>
       <c r="I4" s="3">
         <f>'EGE TOTAL'!I4/'EGE TOTAL'!$C$18</f>
-        <v>3.099312989653816E-5</v>
+        <v>5.8449794208602579E-2</v>
       </c>
       <c r="J4" s="3">
         <f>'EGE TOTAL'!J4/'EGE TOTAL'!$C$18</f>
-        <v>1.1958483893879004E-6</v>
+        <v>4.9489446734661456E-2</v>
       </c>
       <c r="K4" s="3">
         <f>'EGE TOTAL'!K4/'EGE TOTAL'!$C$18</f>
-        <v>4.026203249501573E-6</v>
+        <v>6.6480679122772376E-2</v>
       </c>
       <c r="L4" s="3">
         <f>'EGE TOTAL'!L4/'EGE TOTAL'!$C$18</f>
-        <v>2.5728169595722233E-5</v>
+        <v>6.4060612313675144E-2</v>
       </c>
       <c r="M4" s="3">
         <f>'EGE TOTAL'!M4/'EGE TOTAL'!$C$18</f>
-        <v>2.6559271461201554E-7</v>
+        <v>4.8697604673660841E-2</v>
       </c>
       <c r="N4" s="3">
         <f>'EGE TOTAL'!N4/'EGE TOTAL'!$C$18</f>
-        <v>2.8651339306177858E-7</v>
+        <v>4.8650404733910503E-2</v>
       </c>
       <c r="O4" s="3">
         <f>'EGE TOTAL'!O4/'EGE TOTAL'!$C$18</f>
-        <v>2.5858802564356202E-5</v>
+        <v>5.6927939110510653E-2</v>
       </c>
       <c r="P4" s="3">
         <f>'EGE TOTAL'!P4/'EGE TOTAL'!$C$18</f>
-        <v>4.1673816102618629E-5</v>
+        <v>6.2628196130618735E-2</v>
       </c>
       <c r="Q4" s="3">
         <f>'EGE TOTAL'!Q4/'EGE TOTAL'!$C$18</f>
-        <v>4.8562718602869743E-6</v>
+        <v>5.2602153800675067E-2</v>
       </c>
       <c r="R4" s="3">
         <f>'EGE TOTAL'!R4/'EGE TOTAL'!$C$18</f>
-        <v>5.4938628004320986E-5</v>
+        <v>6.1342472376224338E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -9380,67 +9377,67 @@
       </c>
       <c r="C5" s="3">
         <f>'EGE TOTAL'!C5/'EGE TOTAL'!$C$18</f>
-        <v>0.71666064957560083</v>
+        <v>4.6902547397668796E-2</v>
       </c>
       <c r="D5" s="3">
         <f>'EGE TOTAL'!D5/'EGE TOTAL'!$C$18</f>
-        <v>0.72242487108283604</v>
+        <v>5.7044583966547775E-2</v>
       </c>
       <c r="E5" s="3">
         <f>'EGE TOTAL'!E5/'EGE TOTAL'!$C$18</f>
-        <v>0.70872385876189303</v>
+        <v>4.4802849358012625E-2</v>
       </c>
       <c r="F5" s="3">
         <f>'EGE TOTAL'!F5/'EGE TOTAL'!$C$18</f>
-        <v>0.72343125203150327</v>
+        <v>5.7042916963673022E-2</v>
       </c>
       <c r="G5" s="3">
         <f>'EGE TOTAL'!G5/'EGE TOTAL'!$C$18</f>
-        <v>0.70282364690955745</v>
+        <v>4.4230648255590824E-2</v>
       </c>
       <c r="H5" s="3">
         <f>'EGE TOTAL'!H5/'EGE TOTAL'!$C$18</f>
-        <v>0.7050535842633473</v>
+        <v>4.4244039733607236E-2</v>
       </c>
       <c r="I5" s="8">
         <f>'EGE TOTAL'!I5/'EGE TOTAL'!$C$18</f>
-        <v>0.72837908365768866</v>
+        <v>5.0556102808979105E-2</v>
       </c>
       <c r="J5" s="3">
         <f>'EGE TOTAL'!J5/'EGE TOTAL'!$C$18</f>
-        <v>0.70695014528201894</v>
+        <v>4.4477255779620042E-2</v>
       </c>
       <c r="K5" s="3">
         <f>'EGE TOTAL'!K5/'EGE TOTAL'!$C$18</f>
-        <v>0.71945063693497235</v>
+        <v>5.9792383722011157E-2</v>
       </c>
       <c r="L5" s="3">
         <f>'EGE TOTAL'!L5/'EGE TOTAL'!$C$18</f>
-        <v>0.72482561209642238</v>
+        <v>5.5649134210159802E-2</v>
       </c>
       <c r="M5" s="3">
         <f>'EGE TOTAL'!M5/'EGE TOTAL'!$C$18</f>
-        <v>0.70338955816205651</v>
+        <v>4.3862991639448415E-2</v>
       </c>
       <c r="N5" s="3">
         <f>'EGE TOTAL'!N5/'EGE TOTAL'!$C$18</f>
-        <v>0.7032903675410962</v>
+        <v>4.3806102284360673E-2</v>
       </c>
       <c r="O5" s="3">
         <f>'EGE TOTAL'!O5/'EGE TOTAL'!$C$18</f>
-        <v>0.72102555727611417</v>
+        <v>4.7550280677693138E-2</v>
       </c>
       <c r="P5" s="3">
         <f>'EGE TOTAL'!P5/'EGE TOTAL'!$C$18</f>
-        <v>0.72639027278717649</v>
+        <v>5.3992040978553743E-2</v>
       </c>
       <c r="Q5" s="3">
         <f>'EGE TOTAL'!Q5/'EGE TOTAL'!$C$18</f>
-        <v>0.71633557221118371</v>
+        <v>4.722185051952419E-2</v>
       </c>
       <c r="R5" s="3">
         <f>'EGE TOTAL'!R5/'EGE TOTAL'!$C$18</f>
-        <v>0.72895857927252405</v>
+        <v>5.2630919506062024E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -9452,67 +9449,67 @@
       </c>
       <c r="C6" s="3">
         <f>'EGE TOTAL'!C6/'EGE TOTAL'!$C$18</f>
-        <v>2.8431585033493457E-2</v>
+        <v>3.0313134194935594E-2</v>
       </c>
       <c r="D6" s="3">
         <f>'EGE TOTAL'!D6/'EGE TOTAL'!$C$18</f>
-        <v>2.345855794700287E-2</v>
+        <v>2.9868028275719515E-2</v>
       </c>
       <c r="E6" s="3">
         <f>'EGE TOTAL'!E6/'EGE TOTAL'!$C$18</f>
-        <v>2.9031712759341907E-2</v>
+        <v>3.0034323314100875E-2</v>
       </c>
       <c r="F6" s="3">
         <f>'EGE TOTAL'!F6/'EGE TOTAL'!$C$18</f>
-        <v>2.4335009590117397E-2</v>
+        <v>2.9789624230031852E-2</v>
       </c>
       <c r="G6" s="3">
         <f>'EGE TOTAL'!G6/'EGE TOTAL'!$C$18</f>
-        <v>3.181567925592331E-2</v>
+        <v>2.98109006605825E-2</v>
       </c>
       <c r="H6" s="3">
         <f>'EGE TOTAL'!H6/'EGE TOTAL'!$C$18</f>
-        <v>2.9164099956019814E-2</v>
+        <v>2.9937063471485597E-2</v>
       </c>
       <c r="I6" s="3">
         <f>'EGE TOTAL'!I6/'EGE TOTAL'!$C$18</f>
-        <v>2.6047800987487706E-2</v>
+        <v>3.0597936192138835E-2</v>
       </c>
       <c r="J6" s="3">
         <f>'EGE TOTAL'!J6/'EGE TOTAL'!$C$18</f>
-        <v>2.9138514456810281E-2</v>
+        <v>2.9997500274985434E-2</v>
       </c>
       <c r="K6" s="3">
         <f>'EGE TOTAL'!K6/'EGE TOTAL'!$C$18</f>
-        <v>2.5238616207847436E-2</v>
+        <v>2.9193576881150141E-2</v>
       </c>
       <c r="L6" s="3">
         <f>'EGE TOTAL'!L6/'EGE TOTAL'!$C$18</f>
-        <v>2.4424158685061131E-2</v>
+        <v>2.9920871489987361E-2</v>
       </c>
       <c r="M6" s="3">
         <f>'EGE TOTAL'!M6/'EGE TOTAL'!$C$18</f>
-        <v>2.9264891042671111E-2</v>
+        <v>2.9886210424621241E-2</v>
       </c>
       <c r="N6" s="3">
         <f>'EGE TOTAL'!N6/'EGE TOTAL'!$C$18</f>
-        <v>2.9263215867924245E-2</v>
+        <v>2.9887023281432005E-2</v>
       </c>
       <c r="O6" s="3">
         <f>'EGE TOTAL'!O6/'EGE TOTAL'!$C$18</f>
-        <v>2.5107888673210375E-2</v>
+        <v>3.0898054826744799E-2</v>
       </c>
       <c r="P6" s="3">
         <f>'EGE TOTAL'!P6/'EGE TOTAL'!$C$18</f>
-        <v>2.4123607593080468E-2</v>
+        <v>3.0251956829194605E-2</v>
       </c>
       <c r="Q6" s="3">
         <f>'EGE TOTAL'!Q6/'EGE TOTAL'!$C$18</f>
-        <v>2.8471791341817914E-2</v>
+        <v>3.0208512898124529E-2</v>
       </c>
       <c r="R6" s="3">
         <f>'EGE TOTAL'!R6/'EGE TOTAL'!$C$18</f>
-        <v>2.5313338606255419E-2</v>
+        <v>3.0595142240700087E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -9524,67 +9521,67 @@
       </c>
       <c r="C7" s="3">
         <f>'EGE TOTAL'!C7/'EGE TOTAL'!$C$18</f>
-        <v>1.3518418921451333E-3</v>
+        <v>2.8431585033493457E-2</v>
       </c>
       <c r="D7" s="3">
         <f>'EGE TOTAL'!D7/'EGE TOTAL'!$C$18</f>
-        <v>1.6136244218134398E-3</v>
+        <v>2.345855794700287E-2</v>
       </c>
       <c r="E7" s="3">
         <f>'EGE TOTAL'!E7/'EGE TOTAL'!$C$18</f>
-        <v>1.2790780079362917E-3</v>
+        <v>2.9031712759341907E-2</v>
       </c>
       <c r="F7" s="3">
         <f>'EGE TOTAL'!F7/'EGE TOTAL'!$C$18</f>
-        <v>1.5892217716146748E-3</v>
+        <v>2.4335009590117397E-2</v>
       </c>
       <c r="G7" s="3">
         <f>'EGE TOTAL'!G7/'EGE TOTAL'!$C$18</f>
-        <v>1.3775311141179594E-3</v>
+        <v>3.181567925592331E-2</v>
       </c>
       <c r="H7" s="3">
         <f>'EGE TOTAL'!H7/'EGE TOTAL'!$C$18</f>
-        <v>1.2503252125361296E-3</v>
+        <v>2.9164099956019814E-2</v>
       </c>
       <c r="I7" s="3">
         <f>'EGE TOTAL'!I7/'EGE TOTAL'!$C$18</f>
-        <v>1.5260845573695392E-3</v>
+        <v>2.6047800987487706E-2</v>
       </c>
       <c r="J7" s="3">
         <f>'EGE TOTAL'!J7/'EGE TOTAL'!$C$18</f>
-        <v>1.2669693485985922E-3</v>
+        <v>2.9138514456810281E-2</v>
       </c>
       <c r="K7" s="3">
         <f>'EGE TOTAL'!K7/'EGE TOTAL'!$C$18</f>
-        <v>1.52721687982246E-3</v>
+        <v>2.5238616207847436E-2</v>
       </c>
       <c r="L7" s="3">
         <f>'EGE TOTAL'!L7/'EGE TOTAL'!$C$18</f>
-        <v>1.6131202071444769E-3</v>
+        <v>2.4424158685061131E-2</v>
       </c>
       <c r="M7" s="3">
         <f>'EGE TOTAL'!M7/'EGE TOTAL'!$C$18</f>
-        <v>1.2387808246936121E-3</v>
+        <v>2.9264891042671111E-2</v>
       </c>
       <c r="N7" s="3">
         <f>'EGE TOTAL'!N7/'EGE TOTAL'!$C$18</f>
-        <v>1.2379889818670618E-3</v>
+        <v>2.9263215867924245E-2</v>
       </c>
       <c r="O7" s="3">
         <f>'EGE TOTAL'!O7/'EGE TOTAL'!$C$18</f>
-        <v>1.7010499391691878E-3</v>
+        <v>2.5107888673210375E-2</v>
       </c>
       <c r="P7" s="3">
         <f>'EGE TOTAL'!P7/'EGE TOTAL'!$C$18</f>
-        <v>1.6361465408755616E-3</v>
+        <v>2.4123607593080468E-2</v>
       </c>
       <c r="Q7" s="3">
         <f>'EGE TOTAL'!Q7/'EGE TOTAL'!$C$18</f>
-        <v>1.3436637377054568E-3</v>
+        <v>2.8471791341817914E-2</v>
       </c>
       <c r="R7" s="3">
         <f>'EGE TOTAL'!R7/'EGE TOTAL'!$C$18</f>
-        <v>1.6147308186735493E-3</v>
+        <v>2.5313338606255419E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -9596,67 +9593,67 @@
       </c>
       <c r="C8" s="3">
         <f>'EGE TOTAL'!C8/'EGE TOTAL'!$C$18</f>
-        <v>3.6870278177572285E-3</v>
+        <v>2.8366578170117663E-2</v>
       </c>
       <c r="D8" s="3">
         <f>'EGE TOTAL'!D8/'EGE TOTAL'!$C$18</f>
-        <v>3.0940103035732168E-3</v>
+        <v>2.8523956371112078E-2</v>
       </c>
       <c r="E8" s="3">
         <f>'EGE TOTAL'!E8/'EGE TOTAL'!$C$18</f>
-        <v>3.736036987068374E-3</v>
+        <v>2.8506574058349537E-2</v>
       </c>
       <c r="F8" s="3">
         <f>'EGE TOTAL'!F8/'EGE TOTAL'!$C$18</f>
-        <v>3.1869075716162592E-3</v>
+        <v>2.9003351505503889E-2</v>
       </c>
       <c r="G8" s="3">
         <f>'EGE TOTAL'!G8/'EGE TOTAL'!$C$18</f>
-        <v>4.1322538513851445E-3</v>
+        <v>2.8515772814934399E-2</v>
       </c>
       <c r="H8" s="3">
         <f>'EGE TOTAL'!H8/'EGE TOTAL'!$C$18</f>
-        <v>3.7448921651611119E-3</v>
+        <v>2.8650371483347634E-2</v>
       </c>
       <c r="I8" s="3">
         <f>'EGE TOTAL'!I8/'EGE TOTAL'!$C$18</f>
-        <v>3.450871641739444E-3</v>
+        <v>2.7304187156169092E-2</v>
       </c>
       <c r="J8" s="3">
         <f>'EGE TOTAL'!J8/'EGE TOTAL'!$C$18</f>
-        <v>3.7459947786747491E-3</v>
+        <v>2.8535344484961218E-2</v>
       </c>
       <c r="K8" s="3">
         <f>'EGE TOTAL'!K8/'EGE TOTAL'!$C$18</f>
-        <v>3.2301289273004969E-3</v>
+        <v>3.1201066657341136E-2</v>
       </c>
       <c r="L8" s="3">
         <f>'EGE TOTAL'!L8/'EGE TOTAL'!$C$18</f>
-        <v>3.2086883150613671E-3</v>
+        <v>2.7643436901663612E-2</v>
       </c>
       <c r="M8" s="3">
         <f>'EGE TOTAL'!M8/'EGE TOTAL'!$C$18</f>
-        <v>3.7513347041088596E-3</v>
+        <v>2.8619951437698795E-2</v>
       </c>
       <c r="N8" s="3">
         <f>'EGE TOTAL'!N8/'EGE TOTAL'!$C$18</f>
-        <v>3.7507991805649878E-3</v>
+        <v>2.8607588607426786E-2</v>
       </c>
       <c r="O8" s="3">
         <f>'EGE TOTAL'!O8/'EGE TOTAL'!$C$18</f>
-        <v>3.2777244238383491E-3</v>
+        <v>2.0212596896744289E-2</v>
       </c>
       <c r="P8" s="3">
         <f>'EGE TOTAL'!P8/'EGE TOTAL'!$C$18</f>
-        <v>3.2208655704105342E-3</v>
+        <v>2.6211989472429285E-2</v>
       </c>
       <c r="Q8" s="3">
         <f>'EGE TOTAL'!Q8/'EGE TOTAL'!$C$18</f>
-        <v>3.6891442220773922E-3</v>
+        <v>2.8521549372466797E-2</v>
       </c>
       <c r="R8" s="3">
         <f>'EGE TOTAL'!R8/'EGE TOTAL'!$C$18</f>
-        <v>3.3501571686315305E-3</v>
+        <v>2.654695985089037E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -9668,67 +9665,67 @@
       </c>
       <c r="C9" s="3">
         <f>'EGE TOTAL'!C9/'EGE TOTAL'!$C$18</f>
-        <v>7.306356158597177E-2</v>
+        <v>7.7979141751580976E-3</v>
       </c>
       <c r="D9" s="3">
         <f>'EGE TOTAL'!D9/'EGE TOTAL'!$C$18</f>
-        <v>1.8101052744877291E-5</v>
+        <v>2.3310923754822637E-5</v>
       </c>
       <c r="E9" s="3">
         <f>'EGE TOTAL'!E9/'EGE TOTAL'!$C$18</f>
-        <v>0.10017665043730289</v>
+        <v>1.0410821730859636E-2</v>
       </c>
       <c r="F9" s="3">
         <f>'EGE TOTAL'!F9/'EGE TOTAL'!$C$18</f>
-        <v>4.9540001330570865E-4</v>
+        <v>1.3588221720156027E-4</v>
       </c>
       <c r="G9" s="3">
         <f>'EGE TOTAL'!G9/'EGE TOTAL'!$C$18</f>
-        <v>0.1089266334275521</v>
+        <v>1.091102687989213E-2</v>
       </c>
       <c r="H9" s="3">
         <f>'EGE TOTAL'!H9/'EGE TOTAL'!$C$18</f>
-        <v>0.11219078104854646</v>
+        <v>1.1156996422710818E-2</v>
       </c>
       <c r="I9" s="3">
         <f>'EGE TOTAL'!I9/'EGE TOTAL'!$C$18</f>
-        <v>2.132792464349819E-2</v>
+        <v>2.8042149327717095E-3</v>
       </c>
       <c r="J9" s="3">
         <f>'EGE TOTAL'!J9/'EGE TOTAL'!$C$18</f>
-        <v>0.10582462048306103</v>
+        <v>1.0784007018939367E-2</v>
       </c>
       <c r="K9" s="3">
         <f>'EGE TOTAL'!K9/'EGE TOTAL'!$C$18</f>
-        <v>2.5608942435395208E-4</v>
+        <v>4.9156609342657693E-5</v>
       </c>
       <c r="L9" s="3">
         <f>'EGE TOTAL'!L9/'EGE TOTAL'!$C$18</f>
-        <v>4.4359720212583663E-4</v>
+        <v>3.3596302285178833E-4</v>
       </c>
       <c r="M9" s="3">
         <f>'EGE TOTAL'!M9/'EGE TOTAL'!$C$18</f>
-        <v>0.11748136824029173</v>
+        <v>1.1663483444790566E-2</v>
       </c>
       <c r="N9" s="3">
         <f>'EGE TOTAL'!N9/'EGE TOTAL'!$C$18</f>
-        <v>0.11795510309477719</v>
+        <v>1.1714781327914108E-2</v>
       </c>
       <c r="O9" s="3">
         <f>'EGE TOTAL'!O9/'EGE TOTAL'!$C$18</f>
-        <v>6.6276633941444324E-4</v>
+        <v>2.5289068759621197E-3</v>
       </c>
       <c r="P9" s="3">
         <f>'EGE TOTAL'!P9/'EGE TOTAL'!$C$18</f>
-        <v>1.3673526311387518E-3</v>
+        <v>5.8042512359476374E-4</v>
       </c>
       <c r="Q9" s="3">
         <f>'EGE TOTAL'!Q9/'EGE TOTAL'!$C$18</f>
-        <v>7.1572318481582797E-2</v>
+        <v>7.6430613704859618E-3</v>
       </c>
       <c r="R9" s="3">
         <f>'EGE TOTAL'!R9/'EGE TOTAL'!$C$18</f>
-        <v>5.6161591855277259E-3</v>
+        <v>1.0970494533902992E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -9740,67 +9737,67 @@
       </c>
       <c r="C10" s="3">
         <f>'EGE TOTAL'!C10/'EGE TOTAL'!$C$18</f>
-        <v>1.503764084198577E-3</v>
+        <v>4.9934326113727449E-3</v>
       </c>
       <c r="D10" s="3">
         <f>'EGE TOTAL'!D10/'EGE TOTAL'!$C$18</f>
-        <v>1.4585046864954652E-2</v>
+        <v>1.4322888294576223E-5</v>
       </c>
       <c r="E10" s="3">
         <f>'EGE TOTAL'!E10/'EGE TOTAL'!$C$18</f>
-        <v>4.283846927012757E-4</v>
+        <v>6.6654996103717532E-3</v>
       </c>
       <c r="F10" s="3">
         <f>'EGE TOTAL'!F10/'EGE TOTAL'!$C$18</f>
-        <v>1.0062332423323831E-2</v>
+        <v>8.4703461603881602E-5</v>
       </c>
       <c r="G10" s="3">
         <f>'EGE TOTAL'!G10/'EGE TOTAL'!$C$18</f>
-        <v>1.6445837532016875E-4</v>
+        <v>7.0009596325640846E-3</v>
       </c>
       <c r="H10" s="3">
         <f>'EGE TOTAL'!H10/'EGE TOTAL'!$C$18</f>
-        <v>1.6279148907073218E-4</v>
+        <v>7.161994619469988E-3</v>
       </c>
       <c r="I10" s="3">
         <f>'EGE TOTAL'!I10/'EGE TOTAL'!$C$18</f>
-        <v>1.109727139457025E-2</v>
+        <v>1.7851444465716026E-3</v>
       </c>
       <c r="J10" s="3">
         <f>'EGE TOTAL'!J10/'EGE TOTAL'!$C$18</f>
-        <v>2.8405250348510574E-4</v>
+        <v>6.9196359214643705E-3</v>
       </c>
       <c r="K10" s="3">
         <f>'EGE TOTAL'!K10/'EGE TOTAL'!$C$18</f>
-        <v>2.4972489227958823E-3</v>
+        <v>3.0891319222583764E-5</v>
       </c>
       <c r="L10" s="3">
         <f>'EGE TOTAL'!L10/'EGE TOTAL'!$C$18</f>
-        <v>1.2077857333643973E-2</v>
+        <v>2.064681656538583E-4</v>
       </c>
       <c r="M10" s="3">
         <f>'EGE TOTAL'!M10/'EGE TOTAL'!$C$18</f>
-        <v>6.8688025132474258E-5</v>
+        <v>7.4872405325114143E-3</v>
       </c>
       <c r="N10" s="3">
         <f>'EGE TOTAL'!N10/'EGE TOTAL'!$C$18</f>
-        <v>6.5435461967473755E-5</v>
+        <v>7.5200728520837994E-3</v>
       </c>
       <c r="O10" s="3">
         <f>'EGE TOTAL'!O10/'EGE TOTAL'!$C$18</f>
-        <v>3.56908851623785E-3</v>
+        <v>1.5965764630638843E-3</v>
       </c>
       <c r="P10" s="3">
         <f>'EGE TOTAL'!P10/'EGE TOTAL'!$C$18</f>
-        <v>2.0051517980133816E-2</v>
+        <v>3.5630451010377096E-4</v>
       </c>
       <c r="Q10" s="3">
         <f>'EGE TOTAL'!Q10/'EGE TOTAL'!$C$18</f>
-        <v>1.6330489637563213E-3</v>
+        <v>4.8930857170306537E-3</v>
       </c>
       <c r="R10" s="3">
         <f>'EGE TOTAL'!R10/'EGE TOTAL'!$C$18</f>
-        <v>1.1533606985514634E-2</v>
+        <v>6.8953676553975087E-4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -9812,67 +9809,67 @@
       </c>
       <c r="C11" s="3">
         <f>'EGE TOTAL'!C11/'EGE TOTAL'!$C$18</f>
-        <v>3.5838858856694237E-4</v>
+        <v>3.8540917734411536E-3</v>
       </c>
       <c r="D11" s="3">
         <f>'EGE TOTAL'!D11/'EGE TOTAL'!$C$18</f>
-        <v>5.5813230785708362E-7</v>
+        <v>7.6448944446190735E-6</v>
       </c>
       <c r="E11" s="3">
         <f>'EGE TOTAL'!E11/'EGE TOTAL'!$C$18</f>
-        <v>3.0452846393509163E-5</v>
+        <v>5.1020304205598877E-3</v>
       </c>
       <c r="F11" s="3">
         <f>'EGE TOTAL'!F11/'EGE TOTAL'!$C$18</f>
-        <v>1.3349755586143604E-5</v>
+        <v>5.3301223420218575E-5</v>
       </c>
       <c r="G11" s="3">
         <f>'EGE TOTAL'!G11/'EGE TOTAL'!$C$18</f>
-        <v>1.4832040279466064E-5</v>
+        <v>5.4821843843592321E-3</v>
       </c>
       <c r="H11" s="3">
         <f>'EGE TOTAL'!H11/'EGE TOTAL'!$C$18</f>
-        <v>8.6431883667253736E-6</v>
+        <v>5.6274914213046605E-3</v>
       </c>
       <c r="I11" s="3">
         <f>'EGE TOTAL'!I11/'EGE TOTAL'!$C$18</f>
-        <v>1.5925605744251679E-4</v>
+        <v>1.3294943772550018E-3</v>
       </c>
       <c r="J11" s="3">
         <f>'EGE TOTAL'!J11/'EGE TOTAL'!$C$18</f>
-        <v>2.0106622176363825E-5</v>
+        <v>5.4110566342166939E-3</v>
       </c>
       <c r="K11" s="3">
         <f>'EGE TOTAL'!K11/'EGE TOTAL'!$C$18</f>
-        <v>1.4586237176716203E-6</v>
+        <v>2.1423178204952068E-5</v>
       </c>
       <c r="L11" s="3">
         <f>'EGE TOTAL'!L11/'EGE TOTAL'!$C$18</f>
-        <v>1.2680022465594686E-4</v>
+        <v>1.0700116437305855E-4</v>
       </c>
       <c r="M11" s="3">
         <f>'EGE TOTAL'!M11/'EGE TOTAL'!$C$18</f>
-        <v>8.7876278734372165E-6</v>
+        <v>5.8839636997325981E-3</v>
       </c>
       <c r="N11" s="3">
         <f>'EGE TOTAL'!N11/'EGE TOTAL'!$C$18</f>
-        <v>9.8305766795312719E-6</v>
+        <v>5.9091105488718199E-3</v>
       </c>
       <c r="O11" s="3">
         <f>'EGE TOTAL'!O11/'EGE TOTAL'!$C$18</f>
-        <v>3.4510762530626786E-2</v>
+        <v>1.1047765820404896E-3</v>
       </c>
       <c r="P11" s="3">
         <f>'EGE TOTAL'!P11/'EGE TOTAL'!$C$18</f>
-        <v>1.00588634606865E-4</v>
+        <v>1.8006458959906102E-4</v>
       </c>
       <c r="Q11" s="3">
         <f>'EGE TOTAL'!Q11/'EGE TOTAL'!$C$18</f>
-        <v>4.9941004383169637E-5</v>
+        <v>3.7583149253481887E-3</v>
       </c>
       <c r="R11" s="3">
         <f>'EGE TOTAL'!R11/'EGE TOTAL'!$C$18</f>
-        <v>1.2809853158781408E-3</v>
+        <v>4.6102280855696737E-4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -9884,67 +9881,67 @@
       </c>
       <c r="C12" s="3">
         <f>'EGE TOTAL'!C12/'EGE TOTAL'!$C$18</f>
-        <v>7.5814509836034008E-6</v>
+        <v>3.6870278177572285E-3</v>
       </c>
       <c r="D12" s="3">
         <f>'EGE TOTAL'!D12/'EGE TOTAL'!$C$18</f>
-        <v>1.2050273078698297E-7</v>
+        <v>3.0940103035732168E-3</v>
       </c>
       <c r="E12" s="3">
         <f>'EGE TOTAL'!E12/'EGE TOTAL'!$C$18</f>
-        <v>1.3782658512371939E-6</v>
+        <v>3.736036987068374E-3</v>
       </c>
       <c r="F12" s="3">
         <f>'EGE TOTAL'!F12/'EGE TOTAL'!$C$18</f>
-        <v>1.6843993130383662E-6</v>
+        <v>3.1869075716162592E-3</v>
       </c>
       <c r="G12" s="3">
         <f>'EGE TOTAL'!G12/'EGE TOTAL'!$C$18</f>
-        <v>2.4387803350628843E-6</v>
+        <v>4.1322538513851445E-3</v>
       </c>
       <c r="H12" s="3">
         <f>'EGE TOTAL'!H12/'EGE TOTAL'!$C$18</f>
-        <v>7.426696561919466E-7</v>
+        <v>3.7448921651611119E-3</v>
       </c>
       <c r="I12" s="3">
         <f>'EGE TOTAL'!I12/'EGE TOTAL'!$C$18</f>
-        <v>1.5716540541548784E-5</v>
+        <v>3.450871641739444E-3</v>
       </c>
       <c r="J12" s="3">
         <f>'EGE TOTAL'!J12/'EGE TOTAL'!$C$18</f>
-        <v>1.2474594150727391E-6</v>
+        <v>3.7459947786747491E-3</v>
       </c>
       <c r="K12" s="3">
         <f>'EGE TOTAL'!K12/'EGE TOTAL'!$C$18</f>
-        <v>4.4687027102876456E-7</v>
+        <v>3.2301289273004969E-3</v>
       </c>
       <c r="L12" s="3">
         <f>'EGE TOTAL'!L12/'EGE TOTAL'!$C$18</f>
-        <v>4.4929591929187309E-5</v>
+        <v>3.2086883150613671E-3</v>
       </c>
       <c r="M12" s="3">
         <f>'EGE TOTAL'!M12/'EGE TOTAL'!$C$18</f>
-        <v>4.9578072968487257E-7</v>
+        <v>3.7513347041088596E-3</v>
       </c>
       <c r="N12" s="3">
         <f>'EGE TOTAL'!N12/'EGE TOTAL'!$C$18</f>
-        <v>2.538163007368824E-7</v>
+        <v>3.7507991805649878E-3</v>
       </c>
       <c r="O12" s="3">
         <f>'EGE TOTAL'!O12/'EGE TOTAL'!$C$18</f>
-        <v>1.0247233568718464E-5</v>
+        <v>3.2777244238383491E-3</v>
       </c>
       <c r="P12" s="3">
         <f>'EGE TOTAL'!P12/'EGE TOTAL'!$C$18</f>
-        <v>2.5503567963154952E-4</v>
+        <v>3.2208655704105342E-3</v>
       </c>
       <c r="Q12" s="3">
         <f>'EGE TOTAL'!Q12/'EGE TOTAL'!$C$18</f>
-        <v>3.6948125987255479E-5</v>
+        <v>3.6891442220773922E-3</v>
       </c>
       <c r="R12" s="3">
         <f>'EGE TOTAL'!R12/'EGE TOTAL'!$C$18</f>
-        <v>2.2035598783947869E-5</v>
+        <v>3.3501571686315305E-3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -9956,67 +9953,67 @@
       </c>
       <c r="C13" s="3">
         <f>'EGE TOTAL'!C13/'EGE TOTAL'!$C$18</f>
-        <v>7.7979141751580976E-3</v>
+        <v>1.3518418921451333E-3</v>
       </c>
       <c r="D13" s="3">
         <f>'EGE TOTAL'!D13/'EGE TOTAL'!$C$18</f>
-        <v>2.3310923754822637E-5</v>
+        <v>1.6136244218134398E-3</v>
       </c>
       <c r="E13" s="3">
         <f>'EGE TOTAL'!E13/'EGE TOTAL'!$C$18</f>
-        <v>1.0410821730859636E-2</v>
+        <v>1.2790780079362917E-3</v>
       </c>
       <c r="F13" s="3">
         <f>'EGE TOTAL'!F13/'EGE TOTAL'!$C$18</f>
-        <v>1.3588221720156027E-4</v>
+        <v>1.5892217716146748E-3</v>
       </c>
       <c r="G13" s="3">
         <f>'EGE TOTAL'!G13/'EGE TOTAL'!$C$18</f>
-        <v>1.091102687989213E-2</v>
+        <v>1.3775311141179594E-3</v>
       </c>
       <c r="H13" s="3">
         <f>'EGE TOTAL'!H13/'EGE TOTAL'!$C$18</f>
-        <v>1.1156996422710818E-2</v>
+        <v>1.2503252125361296E-3</v>
       </c>
       <c r="I13" s="3">
         <f>'EGE TOTAL'!I13/'EGE TOTAL'!$C$18</f>
-        <v>2.8042149327717095E-3</v>
+        <v>1.5260845573695392E-3</v>
       </c>
       <c r="J13" s="3">
         <f>'EGE TOTAL'!J13/'EGE TOTAL'!$C$18</f>
-        <v>1.0784007018939367E-2</v>
+        <v>1.2669693485985922E-3</v>
       </c>
       <c r="K13" s="3">
         <f>'EGE TOTAL'!K13/'EGE TOTAL'!$C$18</f>
-        <v>4.9156609342657693E-5</v>
+        <v>1.52721687982246E-3</v>
       </c>
       <c r="L13" s="3">
         <f>'EGE TOTAL'!L13/'EGE TOTAL'!$C$18</f>
-        <v>3.3596302285178833E-4</v>
+        <v>1.6131202071444769E-3</v>
       </c>
       <c r="M13" s="3">
         <f>'EGE TOTAL'!M13/'EGE TOTAL'!$C$18</f>
-        <v>1.1663483444790566E-2</v>
+        <v>1.2387808246936121E-3</v>
       </c>
       <c r="N13" s="3">
         <f>'EGE TOTAL'!N13/'EGE TOTAL'!$C$18</f>
-        <v>1.1714781327914108E-2</v>
+        <v>1.2379889818670618E-3</v>
       </c>
       <c r="O13" s="3">
         <f>'EGE TOTAL'!O13/'EGE TOTAL'!$C$18</f>
-        <v>2.5289068759621197E-3</v>
+        <v>1.7010499391691878E-3</v>
       </c>
       <c r="P13" s="3">
         <f>'EGE TOTAL'!P13/'EGE TOTAL'!$C$18</f>
-        <v>5.8042512359476374E-4</v>
+        <v>1.6361465408755616E-3</v>
       </c>
       <c r="Q13" s="3">
         <f>'EGE TOTAL'!Q13/'EGE TOTAL'!$C$18</f>
-        <v>7.6430613704859618E-3</v>
+        <v>1.3436637377054568E-3</v>
       </c>
       <c r="R13" s="3">
         <f>'EGE TOTAL'!R13/'EGE TOTAL'!$C$18</f>
-        <v>1.0970494533902992E-3</v>
+        <v>1.6147308186735493E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -10028,67 +10025,67 @@
       </c>
       <c r="C14" s="3">
         <f>'EGE TOTAL'!C14/'EGE TOTAL'!$C$18</f>
-        <v>4.9934326113727449E-3</v>
+        <v>1.503764084198577E-3</v>
       </c>
       <c r="D14" s="3">
         <f>'EGE TOTAL'!D14/'EGE TOTAL'!$C$18</f>
-        <v>1.4322888294576223E-5</v>
+        <v>1.4585046864954652E-2</v>
       </c>
       <c r="E14" s="3">
         <f>'EGE TOTAL'!E14/'EGE TOTAL'!$C$18</f>
-        <v>6.6654996103717532E-3</v>
+        <v>4.283846927012757E-4</v>
       </c>
       <c r="F14" s="3">
         <f>'EGE TOTAL'!F14/'EGE TOTAL'!$C$18</f>
-        <v>8.4703461603881602E-5</v>
+        <v>1.0062332423323831E-2</v>
       </c>
       <c r="G14" s="3">
         <f>'EGE TOTAL'!G14/'EGE TOTAL'!$C$18</f>
-        <v>7.0009596325640846E-3</v>
+        <v>1.6445837532016875E-4</v>
       </c>
       <c r="H14" s="3">
         <f>'EGE TOTAL'!H14/'EGE TOTAL'!$C$18</f>
-        <v>7.161994619469988E-3</v>
+        <v>1.6279148907073218E-4</v>
       </c>
       <c r="I14" s="3">
         <f>'EGE TOTAL'!I14/'EGE TOTAL'!$C$18</f>
-        <v>1.7851444465716026E-3</v>
+        <v>1.109727139457025E-2</v>
       </c>
       <c r="J14" s="3">
         <f>'EGE TOTAL'!J14/'EGE TOTAL'!$C$18</f>
-        <v>6.9196359214643705E-3</v>
+        <v>2.8405250348510574E-4</v>
       </c>
       <c r="K14" s="3">
         <f>'EGE TOTAL'!K14/'EGE TOTAL'!$C$18</f>
-        <v>3.0891319222583764E-5</v>
+        <v>2.4972489227958823E-3</v>
       </c>
       <c r="L14" s="3">
         <f>'EGE TOTAL'!L14/'EGE TOTAL'!$C$18</f>
-        <v>2.064681656538583E-4</v>
+        <v>1.2077857333643973E-2</v>
       </c>
       <c r="M14" s="3">
         <f>'EGE TOTAL'!M14/'EGE TOTAL'!$C$18</f>
-        <v>7.4872405325114143E-3</v>
+        <v>6.8688025132474258E-5</v>
       </c>
       <c r="N14" s="3">
         <f>'EGE TOTAL'!N14/'EGE TOTAL'!$C$18</f>
-        <v>7.5200728520837994E-3</v>
+        <v>6.5435461967473755E-5</v>
       </c>
       <c r="O14" s="3">
         <f>'EGE TOTAL'!O14/'EGE TOTAL'!$C$18</f>
-        <v>1.5965764630638843E-3</v>
+        <v>3.56908851623785E-3</v>
       </c>
       <c r="P14" s="3">
         <f>'EGE TOTAL'!P14/'EGE TOTAL'!$C$18</f>
-        <v>3.5630451010377096E-4</v>
+        <v>2.0051517980133816E-2</v>
       </c>
       <c r="Q14" s="3">
         <f>'EGE TOTAL'!Q14/'EGE TOTAL'!$C$18</f>
-        <v>4.8930857170306537E-3</v>
+        <v>1.6330489637563213E-3</v>
       </c>
       <c r="R14" s="3">
         <f>'EGE TOTAL'!R14/'EGE TOTAL'!$C$18</f>
-        <v>6.8953676553975087E-4</v>
+        <v>1.1533606985514634E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -10100,67 +10097,67 @@
       </c>
       <c r="C15" s="3">
         <f>'EGE TOTAL'!C15/'EGE TOTAL'!$C$18</f>
-        <v>3.8540917734411536E-3</v>
+        <v>3.5838858856694237E-4</v>
       </c>
       <c r="D15" s="3">
         <f>'EGE TOTAL'!D15/'EGE TOTAL'!$C$18</f>
-        <v>7.6448944446190735E-6</v>
+        <v>5.5813230785708362E-7</v>
       </c>
       <c r="E15" s="3">
         <f>'EGE TOTAL'!E15/'EGE TOTAL'!$C$18</f>
-        <v>5.1020304205598877E-3</v>
+        <v>3.0452846393509163E-5</v>
       </c>
       <c r="F15" s="3">
         <f>'EGE TOTAL'!F15/'EGE TOTAL'!$C$18</f>
-        <v>5.3301223420218575E-5</v>
+        <v>1.3349755586143604E-5</v>
       </c>
       <c r="G15" s="3">
         <f>'EGE TOTAL'!G15/'EGE TOTAL'!$C$18</f>
-        <v>5.4821843843592321E-3</v>
+        <v>1.4832040279466064E-5</v>
       </c>
       <c r="H15" s="3">
         <f>'EGE TOTAL'!H15/'EGE TOTAL'!$C$18</f>
-        <v>5.6274914213046605E-3</v>
+        <v>8.6431883667253736E-6</v>
       </c>
       <c r="I15" s="3">
         <f>'EGE TOTAL'!I15/'EGE TOTAL'!$C$18</f>
-        <v>1.3294943772550018E-3</v>
+        <v>1.5925605744251679E-4</v>
       </c>
       <c r="J15" s="3">
         <f>'EGE TOTAL'!J15/'EGE TOTAL'!$C$18</f>
-        <v>5.4110566342166939E-3</v>
+        <v>2.0106622176363825E-5</v>
       </c>
       <c r="K15" s="3">
         <f>'EGE TOTAL'!K15/'EGE TOTAL'!$C$18</f>
-        <v>2.1423178204952068E-5</v>
+        <v>1.4586237176716203E-6</v>
       </c>
       <c r="L15" s="3">
         <f>'EGE TOTAL'!L15/'EGE TOTAL'!$C$18</f>
-        <v>1.0700116437305855E-4</v>
+        <v>1.2680022465594686E-4</v>
       </c>
       <c r="M15" s="3">
         <f>'EGE TOTAL'!M15/'EGE TOTAL'!$C$18</f>
-        <v>5.8839636997325981E-3</v>
+        <v>8.7876278734372165E-6</v>
       </c>
       <c r="N15" s="3">
         <f>'EGE TOTAL'!N15/'EGE TOTAL'!$C$18</f>
-        <v>5.9091105488718199E-3</v>
+        <v>9.8305766795312719E-6</v>
       </c>
       <c r="O15" s="3">
         <f>'EGE TOTAL'!O15/'EGE TOTAL'!$C$18</f>
-        <v>1.1047765820404896E-3</v>
+        <v>3.4510762530626786E-2</v>
       </c>
       <c r="P15" s="3">
         <f>'EGE TOTAL'!P15/'EGE TOTAL'!$C$18</f>
-        <v>1.8006458959906102E-4</v>
+        <v>1.00588634606865E-4</v>
       </c>
       <c r="Q15" s="3">
         <f>'EGE TOTAL'!Q15/'EGE TOTAL'!$C$18</f>
-        <v>3.7583149253481887E-3</v>
+        <v>4.9941004383169637E-5</v>
       </c>
       <c r="R15" s="3">
         <f>'EGE TOTAL'!R15/'EGE TOTAL'!$C$18</f>
-        <v>4.6102280855696737E-4</v>
+        <v>1.2809853158781408E-3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -10172,67 +10169,67 @@
       </c>
       <c r="C16" s="3">
         <f>'EGE TOTAL'!C16/'EGE TOTAL'!$C$18</f>
-        <v>2.8366578170117663E-2</v>
+        <v>7.5814509836034008E-6</v>
       </c>
       <c r="D16" s="3">
         <f>'EGE TOTAL'!D16/'EGE TOTAL'!$C$18</f>
-        <v>2.8523956371112078E-2</v>
+        <v>1.2050273078698297E-7</v>
       </c>
       <c r="E16" s="3">
         <f>'EGE TOTAL'!E16/'EGE TOTAL'!$C$18</f>
-        <v>2.8506574058349537E-2</v>
+        <v>1.3782658512371939E-6</v>
       </c>
       <c r="F16" s="3">
         <f>'EGE TOTAL'!F16/'EGE TOTAL'!$C$18</f>
-        <v>2.9003351505503889E-2</v>
+        <v>1.6843993130383662E-6</v>
       </c>
       <c r="G16" s="3">
         <f>'EGE TOTAL'!G16/'EGE TOTAL'!$C$18</f>
-        <v>2.8515772814934399E-2</v>
+        <v>2.4387803350628843E-6</v>
       </c>
       <c r="H16" s="3">
         <f>'EGE TOTAL'!H16/'EGE TOTAL'!$C$18</f>
-        <v>2.8650371483347634E-2</v>
+        <v>7.426696561919466E-7</v>
       </c>
       <c r="I16" s="3">
         <f>'EGE TOTAL'!I16/'EGE TOTAL'!$C$18</f>
-        <v>2.7304187156169092E-2</v>
+        <v>1.5716540541548784E-5</v>
       </c>
       <c r="J16" s="3">
         <f>'EGE TOTAL'!J16/'EGE TOTAL'!$C$18</f>
-        <v>2.8535344484961218E-2</v>
+        <v>1.2474594150727391E-6</v>
       </c>
       <c r="K16" s="3">
         <f>'EGE TOTAL'!K16/'EGE TOTAL'!$C$18</f>
-        <v>3.1201066657341136E-2</v>
+        <v>4.4687027102876456E-7</v>
       </c>
       <c r="L16" s="3">
         <f>'EGE TOTAL'!L16/'EGE TOTAL'!$C$18</f>
-        <v>2.7643436901663612E-2</v>
+        <v>4.4929591929187309E-5</v>
       </c>
       <c r="M16" s="3">
         <f>'EGE TOTAL'!M16/'EGE TOTAL'!$C$18</f>
-        <v>2.8619951437698795E-2</v>
+        <v>4.9578072968487257E-7</v>
       </c>
       <c r="N16" s="3">
         <f>'EGE TOTAL'!N16/'EGE TOTAL'!$C$18</f>
-        <v>2.8607588607426786E-2</v>
+        <v>2.538163007368824E-7</v>
       </c>
       <c r="O16" s="3">
         <f>'EGE TOTAL'!O16/'EGE TOTAL'!$C$18</f>
-        <v>2.0212596896744289E-2</v>
+        <v>1.0247233568718464E-5</v>
       </c>
       <c r="P16" s="3">
         <f>'EGE TOTAL'!P16/'EGE TOTAL'!$C$18</f>
-        <v>2.6211989472429285E-2</v>
+        <v>2.5503567963154952E-4</v>
       </c>
       <c r="Q16" s="3">
         <f>'EGE TOTAL'!Q16/'EGE TOTAL'!$C$18</f>
-        <v>2.8521549372466797E-2</v>
+        <v>3.6948125987255479E-5</v>
       </c>
       <c r="R16" s="3">
         <f>'EGE TOTAL'!R16/'EGE TOTAL'!$C$18</f>
-        <v>2.654695985089037E-2</v>
+        <v>2.2035598783947869E-5</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
@@ -10244,67 +10241,67 @@
       </c>
       <c r="C17" s="3">
         <f>'EGE TOTAL'!C17/'EGE TOTAL'!$C$18</f>
-        <v>4.6902547397668796E-2</v>
+        <v>5.2474570055376778E-6</v>
       </c>
       <c r="D17" s="3">
         <f>'EGE TOTAL'!D17/'EGE TOTAL'!$C$18</f>
-        <v>5.7044583966547775E-2</v>
+        <v>2.0852839905211861E-5</v>
       </c>
       <c r="E17" s="3">
         <f>'EGE TOTAL'!E17/'EGE TOTAL'!$C$18</f>
-        <v>4.4802849358012625E-2</v>
+        <v>1.3435177938485332E-6</v>
       </c>
       <c r="F17" s="3">
         <f>'EGE TOTAL'!F17/'EGE TOTAL'!$C$18</f>
-        <v>5.7042916963673022E-2</v>
+        <v>1.5786779420600734E-5</v>
       </c>
       <c r="G17" s="3">
         <f>'EGE TOTAL'!G17/'EGE TOTAL'!$C$18</f>
-        <v>4.4230648255590824E-2</v>
+        <v>6.5355260339261035E-7</v>
       </c>
       <c r="H17" s="3">
         <f>'EGE TOTAL'!H17/'EGE TOTAL'!$C$18</f>
-        <v>4.4244039733607236E-2</v>
+        <v>5.1422017650966524E-7</v>
       </c>
       <c r="I17" s="3">
         <f>'EGE TOTAL'!I17/'EGE TOTAL'!$C$18</f>
-        <v>5.0556102808979105E-2</v>
+        <v>3.099312989653816E-5</v>
       </c>
       <c r="J17" s="3">
         <f>'EGE TOTAL'!J17/'EGE TOTAL'!$C$18</f>
-        <v>4.4477255779620042E-2</v>
+        <v>1.1958483893879004E-6</v>
       </c>
       <c r="K17" s="3">
         <f>'EGE TOTAL'!K17/'EGE TOTAL'!$C$18</f>
-        <v>5.9792383722011157E-2</v>
+        <v>4.026203249501573E-6</v>
       </c>
       <c r="L17" s="3">
         <f>'EGE TOTAL'!L17/'EGE TOTAL'!$C$18</f>
-        <v>5.5649134210159802E-2</v>
+        <v>2.5728169595722233E-5</v>
       </c>
       <c r="M17" s="3">
         <f>'EGE TOTAL'!M17/'EGE TOTAL'!$C$18</f>
-        <v>4.3862991639448415E-2</v>
+        <v>2.6559271461201554E-7</v>
       </c>
       <c r="N17" s="3">
         <f>'EGE TOTAL'!N17/'EGE TOTAL'!$C$18</f>
-        <v>4.3806102284360673E-2</v>
+        <v>2.8651339306177858E-7</v>
       </c>
       <c r="O17" s="3">
         <f>'EGE TOTAL'!O17/'EGE TOTAL'!$C$18</f>
-        <v>4.7550280677693138E-2</v>
+        <v>2.5858802564356202E-5</v>
       </c>
       <c r="P17" s="3">
         <f>'EGE TOTAL'!P17/'EGE TOTAL'!$C$18</f>
-        <v>5.3992040978553743E-2</v>
+        <v>4.1673816102618629E-5</v>
       </c>
       <c r="Q17" s="3">
         <f>'EGE TOTAL'!Q17/'EGE TOTAL'!$C$18</f>
-        <v>4.722185051952419E-2</v>
+        <v>4.8562718602869743E-6</v>
       </c>
       <c r="R17" s="3">
         <f>'EGE TOTAL'!R17/'EGE TOTAL'!$C$18</f>
-        <v>5.2630919506062024E-2</v>
+        <v>5.4938628004320986E-5</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
@@ -10329,133 +10326,133 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <f>SUM(C5,C3)</f>
-        <v>0.76936330376718387</v>
+        <v>0.11996610898364057</v>
       </c>
       <c r="D19" s="6">
         <f>SUM(D5,D3)</f>
-        <v>0.78886085949628737</v>
+        <v>5.7062685019292653E-2</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ref="E19:R19" si="0">SUM(E5,E3)</f>
-        <v>0.75863976094415542</v>
+        <v>0.14497949979531552</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78897696909732795</v>
+        <v>5.7538316976978733E-2</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75192740526812263</v>
+        <v>0.15315728168314291</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75422286967992791</v>
+        <v>0.15643482078215371</v>
       </c>
       <c r="I19" s="6">
         <f>SUM(I5,I3)</f>
-        <v>0.7868288778662913</v>
+        <v>7.1884027452477295E-2</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75643959201668043</v>
+        <v>0.15030187626268107</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78593131605774469</v>
+        <v>6.0048473146365106E-2</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78888622441009748</v>
+        <v>5.6092731412285636E-2</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>0.7520871628357173</v>
+        <v>0.16134435987974016</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75194077227500666</v>
+        <v>0.16176120537913785</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="0"/>
-        <v>0.77795349638662481</v>
+        <v>4.8213047017107581E-2</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78901846891779526</v>
+        <v>5.5359393609692498E-2</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="0"/>
-        <v>0.76893772601185884</v>
+        <v>0.11879416900110698</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="0"/>
-        <v>0.79030105164874842</v>
+        <v>5.8247078691589751E-2</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C20" s="6">
         <f>SUM(C5,C9)</f>
-        <v>0.78972421116157254</v>
+        <v>5.4700461572826896E-2</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:R20" si="1">SUM(D5,D9)</f>
-        <v>0.72244297213558095</v>
+        <v>5.7067894890302596E-2</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>0.80890050919919587</v>
+        <v>5.5213671088872263E-2</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72392665204480899</v>
+        <v>5.7178799180874582E-2</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
-        <v>0.8117502803371095</v>
+        <v>5.5141675135482952E-2</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>0.81724436531189371</v>
+        <v>5.5401036156318056E-2</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="1"/>
-        <v>0.74970700830118686</v>
+        <v>5.3360317741750811E-2</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>0.81277476576508001</v>
+        <v>5.5261262798559412E-2</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>0.71970672635932631</v>
+        <v>5.9841540331353811E-2</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72526920929854821</v>
+        <v>5.5985097233011594E-2</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="1"/>
-        <v>0.82087092640234827</v>
+        <v>5.5526475084238983E-2</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="1"/>
-        <v>0.82124547063587339</v>
+        <v>5.552088361227478E-2</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72168832361552859</v>
+        <v>5.0079187553655258E-2</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72775762541831523</v>
+        <v>5.4572466102148505E-2</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>0.78790789069276657</v>
+        <v>5.4864911890010151E-2</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="1"/>
-        <v>0.73457473845805177</v>
+        <v>5.3727968959452324E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">

--- a/generated_files/gsa_results/Sobol_indices.xlsx
+++ b/generated_files/gsa_results/Sobol_indices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_F28F00AE4AADB63F09221827D4C2216A785B62F7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3CE4286F-D9C4-4AFA-A4CE-A167752A3AD5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="113_{737F911A-3540-4595-AD0A-3E352AFCF132}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EBC4F22D-716F-40E6-83DE-0165FB32C058}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="910" windowWidth="14400" windowHeight="7360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CGE FIRST" sheetId="1" r:id="rId1"/>
@@ -244,9 +244,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -350,7 +349,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -380,9 +379,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -747,10 +743,10 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3238,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:R18"/>
     </sheetView>
   </sheetViews>
@@ -5713,7 +5709,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:R5"/>
+      <selection activeCell="C9" sqref="C9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8043,8 +8039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8108,898 +8104,898 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0.9435359619548036</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0.95112497955744513</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.93308659856408227</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.95244995340253635</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0.92531853976369005</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0.92825441476597048</v>
-      </c>
-      <c r="I2" s="17">
-        <v>0.95896413424359106</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0.93075137553285237</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0.94720918359537409</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0.95428573002281525</v>
-      </c>
-      <c r="M2" s="17">
-        <v>0.92606360316060454</v>
-      </c>
-      <c r="N2" s="17">
-        <v>0.92593301148095797</v>
-      </c>
-      <c r="O2" s="17">
-        <v>0.94928268097514701</v>
-      </c>
-      <c r="P2" s="17">
-        <v>0.95634571982532202</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>0.94310797391900647</v>
-      </c>
-      <c r="R2" s="17">
-        <v>0.95972708244329497</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3.9909449820387299E-2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3.9323435446767058E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3.9542374981259967E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3.9220210808002719E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3.9248222779049907E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>3.941432531198355E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>4.0284412400734E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>3.9493894767291947E-2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>3.8435471044446903E-2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>3.939300738857316E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>3.9347373570570221E-2</v>
+      </c>
+      <c r="N2" s="11">
+        <v>3.9348443755787353E-2</v>
+      </c>
+      <c r="O2" s="11">
+        <v>4.0679540450210681E-2</v>
+      </c>
+      <c r="P2" s="11">
+        <v>3.9828905360930138E-2</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>3.9771708260297398E-2</v>
+      </c>
+      <c r="R2" s="11">
+        <v>4.0280733960094101E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="17">
-        <v>9.6193502330131228E-2</v>
-      </c>
-      <c r="D3" s="17">
-        <v>2.3831354803903969E-5</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.1318898592963694</v>
-      </c>
-      <c r="F3" s="17">
-        <v>6.5223021297964429E-4</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0.14340984943770341</v>
-      </c>
-      <c r="H3" s="17">
-        <v>0.1477073376106082</v>
-      </c>
-      <c r="I3" s="17">
-        <v>2.8079766772348469E-2</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0.13932582337974991</v>
-      </c>
-      <c r="K3" s="17">
-        <v>3.3716038615675168E-4</v>
-      </c>
-      <c r="L3" s="17">
-        <v>5.840280376439278E-4</v>
-      </c>
-      <c r="M3" s="17">
-        <v>0.15467278112732041</v>
-      </c>
-      <c r="N3" s="17">
-        <v>0.15529648758016271</v>
-      </c>
-      <c r="O3" s="17">
-        <v>8.7258017582100107E-4</v>
-      </c>
-      <c r="P3" s="17">
-        <v>1.80021936591181E-3</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>9.423017212937114E-2</v>
-      </c>
-      <c r="R3" s="17">
-        <v>7.3940827681082417E-3</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11">
+        <v>6.9386884224317893E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>8.7467819355262849E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>6.5717922157821046E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>8.6295712259831958E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>6.4648675640111994E-2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>6.473494678637251E-2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>7.6953412800511808E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6.51564624889788E-2</v>
+      </c>
+      <c r="K3" s="11">
+        <v>8.7526657930304813E-2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>8.4340463647043049E-2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6.4113944721071583E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>6.4051802561343796E-2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>7.4949779679613748E-2</v>
+      </c>
+      <c r="P3" s="11">
+        <v>8.2454583374420118E-2</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>6.9254568137103747E-2</v>
+      </c>
+      <c r="R3" s="11">
+        <v>8.0761834372323996E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="17">
-        <v>6.9386884224317893E-2</v>
-      </c>
-      <c r="D4" s="17">
-        <v>8.7467819355262849E-2</v>
-      </c>
-      <c r="E4" s="17">
-        <v>6.5717922157821046E-2</v>
-      </c>
-      <c r="F4" s="17">
-        <v>8.6295712259831958E-2</v>
-      </c>
-      <c r="G4" s="17">
-        <v>6.4648675640111994E-2</v>
-      </c>
-      <c r="H4" s="17">
-        <v>6.473494678637251E-2</v>
-      </c>
-      <c r="I4" s="17">
-        <v>7.6953412800511808E-2</v>
-      </c>
-      <c r="J4" s="17">
-        <v>6.51564624889788E-2</v>
-      </c>
-      <c r="K4" s="17">
-        <v>8.7526657930304813E-2</v>
-      </c>
-      <c r="L4" s="17">
-        <v>8.4340463647043049E-2</v>
-      </c>
-      <c r="M4" s="17">
-        <v>6.4113944721071583E-2</v>
-      </c>
-      <c r="N4" s="17">
-        <v>6.4051802561343796E-2</v>
-      </c>
-      <c r="O4" s="17">
-        <v>7.4949779679613748E-2</v>
-      </c>
-      <c r="P4" s="17">
-        <v>8.2454583374420118E-2</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>6.9254568137103747E-2</v>
-      </c>
-      <c r="R4" s="17">
-        <v>8.0761834372323996E-2</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6.9086594840507784E-6</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.7454283099128109E-5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1.768839065983273E-6</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.0784445351653829E-5</v>
+      </c>
+      <c r="G4" s="11">
+        <v>8.6044962102396294E-7</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6.770083290982108E-7</v>
+      </c>
+      <c r="I4" s="11">
+        <v>4.0804713706881779E-5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1.5744215356339131E-6</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5.300789932157812E-6</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3.3873009859285262E-5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3.4967216020306999E-7</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3.7721575768890068E-7</v>
+      </c>
+      <c r="O4" s="11">
+        <v>3.4044997680572862E-5</v>
+      </c>
+      <c r="P4" s="11">
+        <v>5.4866615305301332E-5</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>6.393635738090779E-6</v>
+      </c>
+      <c r="R4" s="11">
+        <v>7.2330706664627402E-5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="17">
-        <v>6.1750621027116682E-2</v>
-      </c>
-      <c r="D5" s="17">
-        <v>7.5103351131476273E-2</v>
-      </c>
-      <c r="E5" s="17">
-        <v>5.8986215571292078E-2</v>
-      </c>
-      <c r="F5" s="17">
-        <v>7.5101156400731756E-2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>5.8232871128667978E-2</v>
-      </c>
-      <c r="H5" s="17">
-        <v>5.8250501985196372E-2</v>
-      </c>
-      <c r="I5" s="17">
-        <v>6.6560792928709561E-2</v>
-      </c>
-      <c r="J5" s="17">
-        <v>5.8557547902184141E-2</v>
-      </c>
-      <c r="K5" s="17">
-        <v>7.8721029717660207E-2</v>
-      </c>
-      <c r="L5" s="17">
-        <v>7.326613985298229E-2</v>
-      </c>
-      <c r="M5" s="17">
-        <v>5.7748824405597018E-2</v>
-      </c>
-      <c r="N5" s="17">
-        <v>5.7673925424594659E-2</v>
-      </c>
-      <c r="O5" s="17">
-        <v>6.2603409084923164E-2</v>
-      </c>
-      <c r="P5" s="17">
-        <v>7.1084455875693842E-2</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>6.2171006851862907E-2</v>
-      </c>
-      <c r="R5" s="17">
-        <v>6.9292440284150839E-2</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.9435359619548036</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.95112497955744513</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.93308659856408227</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.95244995340253635</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.92531853976369005</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.92825441476597048</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.95896413424359106</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.93075137553285237</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.94720918359537409</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.95428573002281525</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.92606360316060454</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.92593301148095797</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.94928268097514701</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.95634571982532202</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.94310797391900647</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.95972708244329497</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="17">
-        <v>3.9909449820387299E-2</v>
-      </c>
-      <c r="D6" s="17">
-        <v>3.9323435446767058E-2</v>
-      </c>
-      <c r="E6" s="17">
-        <v>3.9542374981259967E-2</v>
-      </c>
-      <c r="F6" s="17">
-        <v>3.9220210808002719E-2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>3.9248222779049907E-2</v>
-      </c>
-      <c r="H6" s="17">
-        <v>3.941432531198355E-2</v>
-      </c>
-      <c r="I6" s="17">
-        <v>4.0284412400734E-2</v>
-      </c>
-      <c r="J6" s="17">
-        <v>3.9493894767291947E-2</v>
-      </c>
-      <c r="K6" s="17">
-        <v>3.8435471044446903E-2</v>
-      </c>
-      <c r="L6" s="17">
-        <v>3.939300738857316E-2</v>
-      </c>
-      <c r="M6" s="17">
-        <v>3.9347373570570221E-2</v>
-      </c>
-      <c r="N6" s="17">
-        <v>3.9348443755787353E-2</v>
-      </c>
-      <c r="O6" s="17">
-        <v>4.0679540450210681E-2</v>
-      </c>
-      <c r="P6" s="17">
-        <v>3.9828905360930138E-2</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>3.9771708260297398E-2</v>
-      </c>
-      <c r="R6" s="17">
-        <v>4.0280733960094101E-2</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3.7432253257330739E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.088490075701154E-2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3.8222365134464621E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3.203881320453137E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4.1887659870484283E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3.8396662524787309E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3.4293827875286259E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3.8362977350886583E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3.3228477154677832E-2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3.2156184483539012E-2</v>
+      </c>
+      <c r="M6" s="11">
+        <v>3.8529361334127987E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>3.8527155844518421E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <v>3.3056364830356968E-2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>3.1760487072419158E-2</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>3.7485187791721643E-2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>3.3326854636549059E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="17">
-        <v>3.7432253257330739E-2</v>
-      </c>
-      <c r="D7" s="17">
-        <v>3.088490075701154E-2</v>
-      </c>
-      <c r="E7" s="17">
-        <v>3.8222365134464621E-2</v>
-      </c>
-      <c r="F7" s="17">
-        <v>3.203881320453137E-2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>4.1887659870484283E-2</v>
-      </c>
-      <c r="H7" s="17">
-        <v>3.8396662524787309E-2</v>
-      </c>
-      <c r="I7" s="17">
-        <v>3.4293827875286259E-2</v>
-      </c>
-      <c r="J7" s="17">
-        <v>3.8362977350886583E-2</v>
-      </c>
-      <c r="K7" s="17">
-        <v>3.3228477154677832E-2</v>
-      </c>
-      <c r="L7" s="17">
-        <v>3.2156184483539012E-2</v>
-      </c>
-      <c r="M7" s="17">
-        <v>3.8529361334127987E-2</v>
-      </c>
-      <c r="N7" s="17">
-        <v>3.8527155844518421E-2</v>
-      </c>
-      <c r="O7" s="17">
-        <v>3.3056364830356968E-2</v>
-      </c>
-      <c r="P7" s="17">
-        <v>3.1760487072419158E-2</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>3.7485187791721643E-2</v>
-      </c>
-      <c r="R7" s="17">
-        <v>3.3326854636549059E-2</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.7797983478949279E-3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2.1244541220047791E-3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1.683999392666656E-3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2.0923262550105841E-3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.813620080370898E-3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.646144242557818E-3</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2.009201512200708E-3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1.6680574603965569E-3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2.0106922972124041E-3</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.12379028665538E-3</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1.6309452148246511E-3</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1.629902696048842E-3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2.239556185535826E-3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>2.15410613273974E-3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1.7690312117045639E-3</v>
+      </c>
+      <c r="R7" s="11">
+        <v>2.1259107740845681E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="17">
-        <v>3.7346666985215382E-2</v>
-      </c>
-      <c r="D8" s="17">
-        <v>3.755386685359649E-2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3.7530981772347621E-2</v>
-      </c>
-      <c r="F8" s="17">
-        <v>3.8185025477350552E-2</v>
-      </c>
-      <c r="G8" s="17">
-        <v>3.7543092605624467E-2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>3.7720301559617302E-2</v>
-      </c>
-      <c r="I8" s="17">
-        <v>3.594795180821813E-2</v>
-      </c>
-      <c r="J8" s="17">
-        <v>3.7568860135231058E-2</v>
-      </c>
-      <c r="K8" s="17">
-        <v>4.107847760301056E-2</v>
-      </c>
-      <c r="L8" s="17">
-        <v>3.6394598816321129E-2</v>
-      </c>
-      <c r="M8" s="17">
-        <v>3.7680251353078148E-2</v>
-      </c>
-      <c r="N8" s="17">
-        <v>3.7663974786253822E-2</v>
-      </c>
-      <c r="O8" s="17">
-        <v>2.6611356529576639E-2</v>
-      </c>
-      <c r="P8" s="17">
-        <v>3.4509993978689583E-2</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>3.7550697864503053E-2</v>
-      </c>
-      <c r="R8" s="17">
-        <v>3.495100688829305E-2</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4.8542407635215118E-3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4.0734899981027493E-3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4.9187649057888198E-3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4.1957960200921969E-3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5.4404132765166211E-3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4.9304233929472266E-3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>4.543323951160653E-3</v>
+      </c>
+      <c r="J8" s="11">
+        <v>4.9318750639757254E-3</v>
+      </c>
+      <c r="K8" s="11">
+        <v>4.2527000840123629E-3</v>
+      </c>
+      <c r="L8" s="11">
+        <v>4.2244719558098068E-3</v>
+      </c>
+      <c r="M8" s="11">
+        <v>4.938905464883357E-3</v>
+      </c>
+      <c r="N8" s="11">
+        <v>4.9382004091189369E-3</v>
+      </c>
+      <c r="O8" s="11">
+        <v>4.3153630230716696E-3</v>
+      </c>
+      <c r="P8" s="11">
+        <v>4.2405041997269936E-3</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>4.8570271640128648E-3</v>
+      </c>
+      <c r="R8" s="11">
+        <v>4.410726009131994E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1.0266522177345579E-2</v>
-      </c>
-      <c r="D9" s="17">
-        <v>3.0690529586194938E-5</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1.3706605354129171E-2</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1.7889883949362959E-4</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1.436516187840131E-2</v>
-      </c>
-      <c r="H9" s="17">
-        <v>1.46889987031697E-2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>3.6919532775905048E-3</v>
-      </c>
-      <c r="J9" s="17">
-        <v>1.4197930976631549E-2</v>
-      </c>
-      <c r="K9" s="17">
-        <v>6.4718257811458447E-5</v>
-      </c>
-      <c r="L9" s="17">
-        <v>4.423197982691333E-4</v>
-      </c>
-      <c r="M9" s="17">
-        <v>1.5355825771013651E-2</v>
-      </c>
-      <c r="N9" s="17">
-        <v>1.542336317177352E-2</v>
-      </c>
-      <c r="O9" s="17">
-        <v>3.3294901615123821E-3</v>
-      </c>
-      <c r="P9" s="17">
-        <v>7.6417196571073795E-4</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>1.006264717722628E-2</v>
-      </c>
-      <c r="R9" s="17">
-        <v>1.4443455377794029E-3</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11">
+        <v>9.6193502330131228E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2.3831354803903969E-5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.1318898592963694</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6.5223021297964429E-4</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.14340984943770341</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.1477073376106082</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.8079766772348469E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.13932582337974991</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3.3716038615675168E-4</v>
+      </c>
+      <c r="L9" s="11">
+        <v>5.840280376439278E-4</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.15467278112732041</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.15529648758016271</v>
+      </c>
+      <c r="O9" s="11">
+        <v>8.7258017582100107E-4</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1.80021936591181E-3</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>9.423017212937114E-2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>7.3940827681082417E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="17">
-        <v>6.5742178605985449E-3</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1.8857126023309809E-5</v>
-      </c>
-      <c r="E10" s="17">
-        <v>8.7756158936671703E-3</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1.115182788013385E-4</v>
-      </c>
-      <c r="G10" s="17">
-        <v>9.2172734549188732E-3</v>
-      </c>
-      <c r="H10" s="17">
-        <v>9.4292877483904344E-3</v>
-      </c>
-      <c r="I10" s="17">
-        <v>2.350272731761771E-3</v>
-      </c>
-      <c r="J10" s="17">
-        <v>9.1102048639091077E-3</v>
-      </c>
-      <c r="K10" s="17">
-        <v>4.0670672536568159E-5</v>
-      </c>
-      <c r="L10" s="17">
-        <v>2.7183038361129711E-4</v>
-      </c>
-      <c r="M10" s="17">
-        <v>9.857497690732242E-3</v>
-      </c>
-      <c r="N10" s="17">
-        <v>9.9007238316530296E-3</v>
-      </c>
-      <c r="O10" s="17">
-        <v>2.1020092421754578E-3</v>
-      </c>
-      <c r="P10" s="17">
-        <v>4.6910084834249322E-4</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>6.4421038627973382E-3</v>
-      </c>
-      <c r="R10" s="17">
-        <v>9.0782539234159575E-4</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.9798149829736299E-3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.9202276882413331E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5.6399966058408833E-4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.3247793789392811E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2.1652143375128951E-4</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2.1432685655249569E-4</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.461036635198262E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3.7397581725772788E-4</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3.2878101595310888E-3</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1.590137918748738E-2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>9.0432789782059932E-5</v>
+      </c>
+      <c r="N10" s="11">
+        <v>8.6150553389528978E-5</v>
+      </c>
+      <c r="O10" s="11">
+        <v>4.6989650798666838E-3</v>
+      </c>
+      <c r="P10" s="11">
+        <v>2.639928439944824E-2</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>2.150027946768929E-3</v>
+      </c>
+      <c r="R10" s="11">
+        <v>1.518483394941612E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>13</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="17">
-        <v>5.0741926336675203E-3</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1.0065060552882589E-5</v>
-      </c>
-      <c r="E11" s="17">
-        <v>6.7171947889652049E-3</v>
-      </c>
-      <c r="F11" s="17">
-        <v>7.0174944226316922E-5</v>
-      </c>
-      <c r="G11" s="17">
-        <v>7.2176951807988547E-3</v>
-      </c>
-      <c r="H11" s="17">
-        <v>7.4090024821894052E-3</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1.7503762162742701E-3</v>
-      </c>
-      <c r="J11" s="17">
-        <v>7.124050315279639E-3</v>
-      </c>
-      <c r="K11" s="17">
-        <v>2.8205175026295759E-5</v>
-      </c>
-      <c r="L11" s="17">
-        <v>1.4087482913538649E-4</v>
-      </c>
-      <c r="M11" s="17">
-        <v>7.7466669236297839E-3</v>
-      </c>
-      <c r="N11" s="17">
-        <v>7.779774582752353E-3</v>
-      </c>
-      <c r="O11" s="17">
-        <v>1.454518865655607E-3</v>
-      </c>
-      <c r="P11" s="17">
-        <v>2.3706815193768279E-4</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>4.9480954347325568E-3</v>
-      </c>
-      <c r="R11" s="17">
-        <v>6.0697011816192379E-4</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4.7184468948781381E-4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>7.3482184950973076E-7</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4.0093391109414397E-5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1.7575925908995739E-5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.9527461708865759E-5</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1.137938723827546E-5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2.096722032179934E-4</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2.6471833088745492E-5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1.920384401457501E-6</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1.6694173458202841E-4</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1.156955237290416E-5</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1.2942670466677439E-5</v>
+      </c>
+      <c r="O11" s="11">
+        <v>4.5435933368759278E-2</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1.3243226647327821E-4</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>6.5750971034293134E-5</v>
+      </c>
+      <c r="R11" s="11">
+        <v>1.6865105025409351E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="17">
-        <v>4.8542407635215118E-3</v>
-      </c>
-      <c r="D12" s="17">
-        <v>4.0734899981027493E-3</v>
-      </c>
-      <c r="E12" s="17">
-        <v>4.9187649057888198E-3</v>
-      </c>
-      <c r="F12" s="17">
-        <v>4.1957960200921969E-3</v>
-      </c>
-      <c r="G12" s="17">
-        <v>5.4404132765166211E-3</v>
-      </c>
-      <c r="H12" s="17">
-        <v>4.9304233929472266E-3</v>
-      </c>
-      <c r="I12" s="17">
-        <v>4.543323951160653E-3</v>
-      </c>
-      <c r="J12" s="17">
-        <v>4.9318750639757254E-3</v>
-      </c>
-      <c r="K12" s="17">
-        <v>4.2527000840123629E-3</v>
-      </c>
-      <c r="L12" s="17">
-        <v>4.2244719558098068E-3</v>
-      </c>
-      <c r="M12" s="17">
-        <v>4.938905464883357E-3</v>
-      </c>
-      <c r="N12" s="17">
-        <v>4.9382004091189369E-3</v>
-      </c>
-      <c r="O12" s="17">
-        <v>4.3153630230716696E-3</v>
-      </c>
-      <c r="P12" s="17">
-        <v>4.2405041997269936E-3</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>4.8570271640128648E-3</v>
-      </c>
-      <c r="R12" s="17">
-        <v>4.410726009131994E-3</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="11">
+        <v>9.9815326138857785E-6</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.586506250602819E-7</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1.8145874153222331E-6</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2.2176344230492179E-6</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3.210832003686391E-6</v>
+      </c>
+      <c r="H12" s="11">
+        <v>9.7777871421387524E-7</v>
+      </c>
+      <c r="I12" s="11">
+        <v>2.069197074968963E-5</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1.6423712113916879E-6</v>
+      </c>
+      <c r="K12" s="11">
+        <v>5.8833727133451378E-7</v>
+      </c>
+      <c r="L12" s="11">
+        <v>5.9153081400865318E-5</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6.5273145383228364E-7</v>
+      </c>
+      <c r="N12" s="11">
+        <v>3.3416765329225839E-7</v>
+      </c>
+      <c r="O12" s="11">
+        <v>1.349122961943285E-5</v>
+      </c>
+      <c r="P12" s="11">
+        <v>3.3577305445255438E-4</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>4.8644899948751517E-5</v>
+      </c>
+      <c r="R12" s="11">
+        <v>2.9011471340270739E-5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>5</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1.7797983478949279E-3</v>
-      </c>
-      <c r="D13" s="17">
-        <v>2.1244541220047791E-3</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1.683999392666656E-3</v>
-      </c>
-      <c r="F13" s="17">
-        <v>2.0923262550105841E-3</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1.813620080370898E-3</v>
-      </c>
-      <c r="H13" s="17">
-        <v>1.646144242557818E-3</v>
-      </c>
-      <c r="I13" s="17">
-        <v>2.009201512200708E-3</v>
-      </c>
-      <c r="J13" s="17">
-        <v>1.6680574603965569E-3</v>
-      </c>
-      <c r="K13" s="17">
-        <v>2.0106922972124041E-3</v>
-      </c>
-      <c r="L13" s="17">
-        <v>2.12379028665538E-3</v>
-      </c>
-      <c r="M13" s="17">
-        <v>1.6309452148246511E-3</v>
-      </c>
-      <c r="N13" s="17">
-        <v>1.629902696048842E-3</v>
-      </c>
-      <c r="O13" s="17">
-        <v>2.239556185535826E-3</v>
-      </c>
-      <c r="P13" s="17">
-        <v>2.15410613273974E-3</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>1.7690312117045639E-3</v>
-      </c>
-      <c r="R13" s="17">
-        <v>2.1259107740845681E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.0266522177345579E-2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.0690529586194938E-5</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1.3706605354129171E-2</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.7889883949362959E-4</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1.436516187840131E-2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1.46889987031697E-2</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3.6919532775905048E-3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1.4197930976631549E-2</v>
+      </c>
+      <c r="K13" s="11">
+        <v>6.4718257811458447E-5</v>
+      </c>
+      <c r="L13" s="11">
+        <v>4.423197982691333E-4</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1.5355825771013651E-2</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.542336317177352E-2</v>
+      </c>
+      <c r="O13" s="11">
+        <v>3.3294901615123821E-3</v>
+      </c>
+      <c r="P13" s="11">
+        <v>7.6417196571073795E-4</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>1.006264717722628E-2</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1.4443455377794029E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="17">
-        <v>1.9798149829736299E-3</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1.9202276882413331E-2</v>
-      </c>
-      <c r="E14" s="17">
-        <v>5.6399966058408833E-4</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1.3247793789392811E-2</v>
-      </c>
-      <c r="G14" s="17">
-        <v>2.1652143375128951E-4</v>
-      </c>
-      <c r="H14" s="17">
-        <v>2.1432685655249569E-4</v>
-      </c>
-      <c r="I14" s="17">
-        <v>1.461036635198262E-2</v>
-      </c>
-      <c r="J14" s="17">
-        <v>3.7397581725772788E-4</v>
-      </c>
-      <c r="K14" s="17">
-        <v>3.2878101595310888E-3</v>
-      </c>
-      <c r="L14" s="17">
-        <v>1.590137918748738E-2</v>
-      </c>
-      <c r="M14" s="17">
-        <v>9.0432789782059932E-5</v>
-      </c>
-      <c r="N14" s="17">
-        <v>8.6150553389528978E-5</v>
-      </c>
-      <c r="O14" s="17">
-        <v>4.6989650798666838E-3</v>
-      </c>
-      <c r="P14" s="17">
-        <v>2.639928439944824E-2</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>2.150027946768929E-3</v>
-      </c>
-      <c r="R14" s="17">
-        <v>1.518483394941612E-2</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11">
+        <v>6.5742178605985449E-3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.8857126023309809E-5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>8.7756158936671703E-3</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1.115182788013385E-4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>9.2172734549188732E-3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>9.4292877483904344E-3</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2.350272731761771E-3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>9.1102048639091077E-3</v>
+      </c>
+      <c r="K14" s="11">
+        <v>4.0670672536568159E-5</v>
+      </c>
+      <c r="L14" s="11">
+        <v>2.7183038361129711E-4</v>
+      </c>
+      <c r="M14" s="11">
+        <v>9.857497690732242E-3</v>
+      </c>
+      <c r="N14" s="11">
+        <v>9.9007238316530296E-3</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2.1020092421754578E-3</v>
+      </c>
+      <c r="P14" s="11">
+        <v>4.6910084834249322E-4</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>6.4421038627973382E-3</v>
+      </c>
+      <c r="R14" s="11">
+        <v>9.0782539234159575E-4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="17">
-        <v>4.7184468948781381E-4</v>
-      </c>
-      <c r="D15" s="17">
-        <v>7.3482184950973076E-7</v>
-      </c>
-      <c r="E15" s="17">
-        <v>4.0093391109414397E-5</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1.7575925908995739E-5</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1.9527461708865759E-5</v>
-      </c>
-      <c r="H15" s="17">
-        <v>1.137938723827546E-5</v>
-      </c>
-      <c r="I15" s="17">
-        <v>2.096722032179934E-4</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2.6471833088745492E-5</v>
-      </c>
-      <c r="K15" s="17">
-        <v>1.920384401457501E-6</v>
-      </c>
-      <c r="L15" s="17">
-        <v>1.6694173458202841E-4</v>
-      </c>
-      <c r="M15" s="17">
-        <v>1.156955237290416E-5</v>
-      </c>
-      <c r="N15" s="17">
-        <v>1.2942670466677439E-5</v>
-      </c>
-      <c r="O15" s="17">
-        <v>4.5435933368759278E-2</v>
-      </c>
-      <c r="P15" s="17">
-        <v>1.3243226647327821E-4</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>6.5750971034293134E-5</v>
-      </c>
-      <c r="R15" s="17">
-        <v>1.6865105025409351E-3</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5.0741926336675203E-3</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.0065060552882589E-5</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6.7171947889652049E-3</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7.0174944226316922E-5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>7.2176951807988547E-3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>7.4090024821894052E-3</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.7503762162742701E-3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>7.124050315279639E-3</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2.8205175026295759E-5</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1.4087482913538649E-4</v>
+      </c>
+      <c r="M15" s="11">
+        <v>7.7466669236297839E-3</v>
+      </c>
+      <c r="N15" s="11">
+        <v>7.779774582752353E-3</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1.454518865655607E-3</v>
+      </c>
+      <c r="P15" s="11">
+        <v>2.3706815193768279E-4</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>4.9480954347325568E-3</v>
+      </c>
+      <c r="R15" s="11">
+        <v>6.0697011816192379E-4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="17">
-        <v>9.9815326138857785E-6</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1.586506250602819E-7</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1.8145874153222331E-6</v>
-      </c>
-      <c r="F16" s="17">
-        <v>2.2176344230492179E-6</v>
-      </c>
-      <c r="G16" s="17">
-        <v>3.210832003686391E-6</v>
-      </c>
-      <c r="H16" s="17">
-        <v>9.7777871421387524E-7</v>
-      </c>
-      <c r="I16" s="17">
-        <v>2.069197074968963E-5</v>
-      </c>
-      <c r="J16" s="17">
-        <v>1.6423712113916879E-6</v>
-      </c>
-      <c r="K16" s="17">
-        <v>5.8833727133451378E-7</v>
-      </c>
-      <c r="L16" s="17">
-        <v>5.9153081400865318E-5</v>
-      </c>
-      <c r="M16" s="17">
-        <v>6.5273145383228364E-7</v>
-      </c>
-      <c r="N16" s="17">
-        <v>3.3416765329225839E-7</v>
-      </c>
-      <c r="O16" s="17">
-        <v>1.349122961943285E-5</v>
-      </c>
-      <c r="P16" s="17">
-        <v>3.3577305445255438E-4</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>4.8644899948751517E-5</v>
-      </c>
-      <c r="R16" s="17">
-        <v>2.9011471340270739E-5</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3.7346666985215382E-2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3.755386685359649E-2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3.7530981772347621E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3.8185025477350552E-2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>3.7543092605624467E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3.7720301559617302E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>3.594795180821813E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3.7568860135231058E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4.107847760301056E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>3.6394598816321129E-2</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3.7680251353078148E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>3.7663974786253822E-2</v>
+      </c>
+      <c r="O16" s="11">
+        <v>2.6611356529576639E-2</v>
+      </c>
+      <c r="P16" s="11">
+        <v>3.4509993978689583E-2</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3.7550697864503053E-2</v>
+      </c>
+      <c r="R16" s="11">
+        <v>3.495100688829305E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="17">
-        <v>6.9086594840507784E-6</v>
-      </c>
-      <c r="D17" s="17">
-        <v>2.7454283099128109E-5</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1.768839065983273E-6</v>
-      </c>
-      <c r="F17" s="17">
-        <v>2.0784445351653829E-5</v>
-      </c>
-      <c r="G17" s="17">
-        <v>8.6044962102396294E-7</v>
-      </c>
-      <c r="H17" s="17">
-        <v>6.770083290982108E-7</v>
-      </c>
-      <c r="I17" s="17">
-        <v>4.0804713706881779E-5</v>
-      </c>
-      <c r="J17" s="17">
-        <v>1.5744215356339131E-6</v>
-      </c>
-      <c r="K17" s="17">
-        <v>5.300789932157812E-6</v>
-      </c>
-      <c r="L17" s="17">
-        <v>3.3873009859285262E-5</v>
-      </c>
-      <c r="M17" s="17">
-        <v>3.4967216020306999E-7</v>
-      </c>
-      <c r="N17" s="17">
-        <v>3.7721575768890068E-7</v>
-      </c>
-      <c r="O17" s="17">
-        <v>3.4044997680572862E-5</v>
-      </c>
-      <c r="P17" s="17">
-        <v>5.4866615305301332E-5</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>6.393635738090779E-6</v>
-      </c>
-      <c r="R17" s="17">
-        <v>7.2330706664627402E-5</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="11">
+        <v>6.1750621027116682E-2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7.5103351131476273E-2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5.8986215571292078E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7.5101156400731756E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5.8232871128667978E-2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>5.8250501985196372E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <v>6.6560792928709561E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>5.8557547902184141E-2</v>
+      </c>
+      <c r="K17" s="11">
+        <v>7.8721029717660207E-2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>7.326613985298229E-2</v>
+      </c>
+      <c r="M17" s="11">
+        <v>5.7748824405597018E-2</v>
+      </c>
+      <c r="N17" s="11">
+        <v>5.7673925424594659E-2</v>
+      </c>
+      <c r="O17" s="11">
+        <v>6.2603409084923164E-2</v>
+      </c>
+      <c r="P17" s="11">
+        <v>7.1084455875693842E-2</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>6.2171006851862907E-2</v>
+      </c>
+      <c r="R17" s="11">
+        <v>6.9292440284150839E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -9008,73 +9004,73 @@
         <v>38</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:R18" si="0">SUM(C2:C17)</f>
+        <f>SUM(C2:C17)</f>
         <v>1.3165728612468901</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D17)</f>
         <v>1.2469703659306202</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E17)</f>
         <v>1.3413861742910291</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F17)</f>
         <v>1.2438801878986649</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(G2:G17)</f>
         <v>1.3485831952734235</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3528097081446244</v>
+        <f>SUM(H2:H17)</f>
+        <v>1.3528097081446242</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(I2:I17)</f>
         <v>1.2703109617580444</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3466527246804612</v>
+        <f>SUM(J2:J17)</f>
+        <v>1.3466527246804609</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(K2:K17)</f>
         <v>1.2362290635893667</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2437847865157281</v>
+        <f>SUM(L2:L17)</f>
+        <v>1.2437847865157283</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(M2:M17)</f>
         <v>1.3577889854832224</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(N2:N17)</f>
         <v>1.3582665707322328</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(O2:O17)</f>
         <v>1.2516790838795264</v>
       </c>
       <c r="P18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2525716724875235</v>
+        <f>SUM(P2:P17)</f>
+        <v>1.2525716724875238</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(Q2:Q17)</f>
         <v>1.31392103725783</v>
       </c>
       <c r="R18" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(R2:R17)</f>
         <v>1.2522024998142758</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R17">
-    <sortCondition descending="1" ref="E2:E17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R19">
+    <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="C2:R17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -9161,67 +9157,67 @@
       </c>
       <c r="C2" s="3">
         <f>'EGE TOTAL'!C2/'EGE TOTAL'!$C$18</f>
-        <v>0.71666064957560083</v>
+        <v>3.0313134194935594E-2</v>
       </c>
       <c r="D2" s="3">
         <f>'EGE TOTAL'!D2/'EGE TOTAL'!$C$18</f>
-        <v>0.72242487108283604</v>
+        <v>2.9868028275719515E-2</v>
       </c>
       <c r="E2" s="3">
         <f>'EGE TOTAL'!E2/'EGE TOTAL'!$C$18</f>
-        <v>0.70872385876189303</v>
+        <v>3.0034323314100875E-2</v>
       </c>
       <c r="F2" s="3">
         <f>'EGE TOTAL'!F2/'EGE TOTAL'!$C$18</f>
-        <v>0.72343125203150327</v>
+        <v>2.9789624230031852E-2</v>
       </c>
       <c r="G2" s="3">
         <f>'EGE TOTAL'!G2/'EGE TOTAL'!$C$18</f>
-        <v>0.70282364690955745</v>
+        <v>2.98109006605825E-2</v>
       </c>
       <c r="H2" s="3">
         <f>'EGE TOTAL'!H2/'EGE TOTAL'!$C$18</f>
-        <v>0.7050535842633473</v>
+        <v>2.9937063471485597E-2</v>
       </c>
       <c r="I2" s="3">
         <f>'EGE TOTAL'!I2/'EGE TOTAL'!$C$18</f>
-        <v>0.72837908365768866</v>
+        <v>3.0597936192138835E-2</v>
       </c>
       <c r="J2" s="3">
         <f>'EGE TOTAL'!J2/'EGE TOTAL'!$C$18</f>
-        <v>0.70695014528201894</v>
+        <v>2.9997500274985434E-2</v>
       </c>
       <c r="K2" s="3">
         <f>'EGE TOTAL'!K2/'EGE TOTAL'!$C$18</f>
-        <v>0.71945063693497235</v>
+        <v>2.9193576881150141E-2</v>
       </c>
       <c r="L2" s="3">
         <f>'EGE TOTAL'!L2/'EGE TOTAL'!$C$18</f>
-        <v>0.72482561209642238</v>
+        <v>2.9920871489987361E-2</v>
       </c>
       <c r="M2" s="3">
         <f>'EGE TOTAL'!M2/'EGE TOTAL'!$C$18</f>
-        <v>0.70338955816205651</v>
+        <v>2.9886210424621241E-2</v>
       </c>
       <c r="N2" s="3">
         <f>'EGE TOTAL'!N2/'EGE TOTAL'!$C$18</f>
-        <v>0.7032903675410962</v>
+        <v>2.9887023281432005E-2</v>
       </c>
       <c r="O2" s="3">
         <f>'EGE TOTAL'!O2/'EGE TOTAL'!$C$18</f>
-        <v>0.72102555727611417</v>
+        <v>3.0898054826744799E-2</v>
       </c>
       <c r="P2" s="3">
         <f>'EGE TOTAL'!P2/'EGE TOTAL'!$C$18</f>
-        <v>0.72639027278717649</v>
+        <v>3.0251956829194605E-2</v>
       </c>
       <c r="Q2" s="3">
         <f>'EGE TOTAL'!Q2/'EGE TOTAL'!$C$18</f>
-        <v>0.71633557221118371</v>
+        <v>3.0208512898124529E-2</v>
       </c>
       <c r="R2" s="3">
         <f>'EGE TOTAL'!R2/'EGE TOTAL'!$C$18</f>
-        <v>0.72895857927252405</v>
+        <v>3.0595142240700087E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -9233,67 +9229,67 @@
       </c>
       <c r="C3" s="3">
         <f>'EGE TOTAL'!C3/'EGE TOTAL'!$C$18</f>
-        <v>7.306356158597177E-2</v>
+        <v>5.2702654191583043E-2</v>
       </c>
       <c r="D3" s="3">
         <f>'EGE TOTAL'!D3/'EGE TOTAL'!$C$18</f>
-        <v>1.8101052744877291E-5</v>
+        <v>6.643598841345133E-2</v>
       </c>
       <c r="E3" s="3">
         <f>'EGE TOTAL'!E3/'EGE TOTAL'!$C$18</f>
-        <v>0.10017665043730289</v>
+        <v>4.9915902182262363E-2</v>
       </c>
       <c r="F3" s="3">
         <f>'EGE TOTAL'!F3/'EGE TOTAL'!$C$18</f>
-        <v>4.9540001330570865E-4</v>
+        <v>6.554571706582471E-2</v>
       </c>
       <c r="G3" s="3">
         <f>'EGE TOTAL'!G3/'EGE TOTAL'!$C$18</f>
-        <v>0.1089266334275521</v>
+        <v>4.9103758358565133E-2</v>
       </c>
       <c r="H3" s="3">
         <f>'EGE TOTAL'!H3/'EGE TOTAL'!$C$18</f>
-        <v>0.11219078104854646</v>
+        <v>4.9169285416580603E-2</v>
       </c>
       <c r="I3" s="3">
         <f>'EGE TOTAL'!I3/'EGE TOTAL'!$C$18</f>
-        <v>2.132792464349819E-2</v>
+        <v>5.8449794208602579E-2</v>
       </c>
       <c r="J3" s="3">
         <f>'EGE TOTAL'!J3/'EGE TOTAL'!$C$18</f>
-        <v>0.10582462048306103</v>
+        <v>4.9489446734661456E-2</v>
       </c>
       <c r="K3" s="3">
         <f>'EGE TOTAL'!K3/'EGE TOTAL'!$C$18</f>
-        <v>2.5608942435395208E-4</v>
+        <v>6.6480679122772376E-2</v>
       </c>
       <c r="L3" s="3">
         <f>'EGE TOTAL'!L3/'EGE TOTAL'!$C$18</f>
-        <v>4.4359720212583663E-4</v>
+        <v>6.4060612313675144E-2</v>
       </c>
       <c r="M3" s="3">
         <f>'EGE TOTAL'!M3/'EGE TOTAL'!$C$18</f>
-        <v>0.11748136824029173</v>
+        <v>4.8697604673660841E-2</v>
       </c>
       <c r="N3" s="3">
         <f>'EGE TOTAL'!N3/'EGE TOTAL'!$C$18</f>
-        <v>0.11795510309477719</v>
+        <v>4.8650404733910503E-2</v>
       </c>
       <c r="O3" s="3">
         <f>'EGE TOTAL'!O3/'EGE TOTAL'!$C$18</f>
-        <v>6.6276633941444324E-4</v>
+        <v>5.6927939110510653E-2</v>
       </c>
       <c r="P3" s="3">
         <f>'EGE TOTAL'!P3/'EGE TOTAL'!$C$18</f>
-        <v>1.3673526311387518E-3</v>
+        <v>6.2628196130618735E-2</v>
       </c>
       <c r="Q3" s="3">
         <f>'EGE TOTAL'!Q3/'EGE TOTAL'!$C$18</f>
-        <v>7.1572318481582797E-2</v>
+        <v>5.2602153800675067E-2</v>
       </c>
       <c r="R3" s="3">
         <f>'EGE TOTAL'!R3/'EGE TOTAL'!$C$18</f>
-        <v>5.6161591855277259E-3</v>
+        <v>6.1342472376224338E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -9305,67 +9301,67 @@
       </c>
       <c r="C4" s="3">
         <f>'EGE TOTAL'!C4/'EGE TOTAL'!$C$18</f>
-        <v>5.2702654191583043E-2</v>
+        <v>5.2474570055376778E-6</v>
       </c>
       <c r="D4" s="3">
         <f>'EGE TOTAL'!D4/'EGE TOTAL'!$C$18</f>
-        <v>6.643598841345133E-2</v>
+        <v>2.0852839905211861E-5</v>
       </c>
       <c r="E4" s="3">
         <f>'EGE TOTAL'!E4/'EGE TOTAL'!$C$18</f>
-        <v>4.9915902182262363E-2</v>
+        <v>1.3435177938485332E-6</v>
       </c>
       <c r="F4" s="3">
         <f>'EGE TOTAL'!F4/'EGE TOTAL'!$C$18</f>
-        <v>6.554571706582471E-2</v>
+        <v>1.5786779420600734E-5</v>
       </c>
       <c r="G4" s="3">
         <f>'EGE TOTAL'!G4/'EGE TOTAL'!$C$18</f>
-        <v>4.9103758358565133E-2</v>
+        <v>6.5355260339261035E-7</v>
       </c>
       <c r="H4" s="3">
         <f>'EGE TOTAL'!H4/'EGE TOTAL'!$C$18</f>
-        <v>4.9169285416580603E-2</v>
+        <v>5.1422017650966524E-7</v>
       </c>
       <c r="I4" s="3">
         <f>'EGE TOTAL'!I4/'EGE TOTAL'!$C$18</f>
-        <v>5.8449794208602579E-2</v>
+        <v>3.099312989653816E-5</v>
       </c>
       <c r="J4" s="3">
         <f>'EGE TOTAL'!J4/'EGE TOTAL'!$C$18</f>
-        <v>4.9489446734661456E-2</v>
+        <v>1.1958483893879004E-6</v>
       </c>
       <c r="K4" s="3">
         <f>'EGE TOTAL'!K4/'EGE TOTAL'!$C$18</f>
-        <v>6.6480679122772376E-2</v>
+        <v>4.026203249501573E-6</v>
       </c>
       <c r="L4" s="3">
         <f>'EGE TOTAL'!L4/'EGE TOTAL'!$C$18</f>
-        <v>6.4060612313675144E-2</v>
+        <v>2.5728169595722233E-5</v>
       </c>
       <c r="M4" s="3">
         <f>'EGE TOTAL'!M4/'EGE TOTAL'!$C$18</f>
-        <v>4.8697604673660841E-2</v>
+        <v>2.6559271461201554E-7</v>
       </c>
       <c r="N4" s="3">
         <f>'EGE TOTAL'!N4/'EGE TOTAL'!$C$18</f>
-        <v>4.8650404733910503E-2</v>
+        <v>2.8651339306177858E-7</v>
       </c>
       <c r="O4" s="3">
         <f>'EGE TOTAL'!O4/'EGE TOTAL'!$C$18</f>
-        <v>5.6927939110510653E-2</v>
+        <v>2.5858802564356202E-5</v>
       </c>
       <c r="P4" s="3">
         <f>'EGE TOTAL'!P4/'EGE TOTAL'!$C$18</f>
-        <v>6.2628196130618735E-2</v>
+        <v>4.1673816102618629E-5</v>
       </c>
       <c r="Q4" s="3">
         <f>'EGE TOTAL'!Q4/'EGE TOTAL'!$C$18</f>
-        <v>5.2602153800675067E-2</v>
+        <v>4.8562718602869743E-6</v>
       </c>
       <c r="R4" s="3">
         <f>'EGE TOTAL'!R4/'EGE TOTAL'!$C$18</f>
-        <v>6.1342472376224338E-2</v>
+        <v>5.4938628004320986E-5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -9377,67 +9373,67 @@
       </c>
       <c r="C5" s="3">
         <f>'EGE TOTAL'!C5/'EGE TOTAL'!$C$18</f>
-        <v>4.6902547397668796E-2</v>
+        <v>0.71666064957560083</v>
       </c>
       <c r="D5" s="3">
         <f>'EGE TOTAL'!D5/'EGE TOTAL'!$C$18</f>
-        <v>5.7044583966547775E-2</v>
+        <v>0.72242487108283604</v>
       </c>
       <c r="E5" s="3">
         <f>'EGE TOTAL'!E5/'EGE TOTAL'!$C$18</f>
-        <v>4.4802849358012625E-2</v>
+        <v>0.70872385876189303</v>
       </c>
       <c r="F5" s="3">
         <f>'EGE TOTAL'!F5/'EGE TOTAL'!$C$18</f>
-        <v>5.7042916963673022E-2</v>
+        <v>0.72343125203150327</v>
       </c>
       <c r="G5" s="3">
         <f>'EGE TOTAL'!G5/'EGE TOTAL'!$C$18</f>
-        <v>4.4230648255590824E-2</v>
+        <v>0.70282364690955745</v>
       </c>
       <c r="H5" s="3">
         <f>'EGE TOTAL'!H5/'EGE TOTAL'!$C$18</f>
-        <v>4.4244039733607236E-2</v>
+        <v>0.7050535842633473</v>
       </c>
       <c r="I5" s="8">
         <f>'EGE TOTAL'!I5/'EGE TOTAL'!$C$18</f>
-        <v>5.0556102808979105E-2</v>
+        <v>0.72837908365768866</v>
       </c>
       <c r="J5" s="3">
         <f>'EGE TOTAL'!J5/'EGE TOTAL'!$C$18</f>
-        <v>4.4477255779620042E-2</v>
+        <v>0.70695014528201894</v>
       </c>
       <c r="K5" s="3">
         <f>'EGE TOTAL'!K5/'EGE TOTAL'!$C$18</f>
-        <v>5.9792383722011157E-2</v>
+        <v>0.71945063693497235</v>
       </c>
       <c r="L5" s="3">
         <f>'EGE TOTAL'!L5/'EGE TOTAL'!$C$18</f>
-        <v>5.5649134210159802E-2</v>
+        <v>0.72482561209642238</v>
       </c>
       <c r="M5" s="3">
         <f>'EGE TOTAL'!M5/'EGE TOTAL'!$C$18</f>
-        <v>4.3862991639448415E-2</v>
+        <v>0.70338955816205651</v>
       </c>
       <c r="N5" s="3">
         <f>'EGE TOTAL'!N5/'EGE TOTAL'!$C$18</f>
-        <v>4.3806102284360673E-2</v>
+        <v>0.7032903675410962</v>
       </c>
       <c r="O5" s="3">
         <f>'EGE TOTAL'!O5/'EGE TOTAL'!$C$18</f>
-        <v>4.7550280677693138E-2</v>
+        <v>0.72102555727611417</v>
       </c>
       <c r="P5" s="3">
         <f>'EGE TOTAL'!P5/'EGE TOTAL'!$C$18</f>
-        <v>5.3992040978553743E-2</v>
+        <v>0.72639027278717649</v>
       </c>
       <c r="Q5" s="3">
         <f>'EGE TOTAL'!Q5/'EGE TOTAL'!$C$18</f>
-        <v>4.722185051952419E-2</v>
+        <v>0.71633557221118371</v>
       </c>
       <c r="R5" s="3">
         <f>'EGE TOTAL'!R5/'EGE TOTAL'!$C$18</f>
-        <v>5.2630919506062024E-2</v>
+        <v>0.72895857927252405</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -9449,67 +9445,67 @@
       </c>
       <c r="C6" s="3">
         <f>'EGE TOTAL'!C6/'EGE TOTAL'!$C$18</f>
-        <v>3.0313134194935594E-2</v>
+        <v>2.8431585033493457E-2</v>
       </c>
       <c r="D6" s="3">
         <f>'EGE TOTAL'!D6/'EGE TOTAL'!$C$18</f>
-        <v>2.9868028275719515E-2</v>
+        <v>2.345855794700287E-2</v>
       </c>
       <c r="E6" s="3">
         <f>'EGE TOTAL'!E6/'EGE TOTAL'!$C$18</f>
-        <v>3.0034323314100875E-2</v>
+        <v>2.9031712759341907E-2</v>
       </c>
       <c r="F6" s="3">
         <f>'EGE TOTAL'!F6/'EGE TOTAL'!$C$18</f>
-        <v>2.9789624230031852E-2</v>
+        <v>2.4335009590117397E-2</v>
       </c>
       <c r="G6" s="3">
         <f>'EGE TOTAL'!G6/'EGE TOTAL'!$C$18</f>
-        <v>2.98109006605825E-2</v>
+        <v>3.181567925592331E-2</v>
       </c>
       <c r="H6" s="3">
         <f>'EGE TOTAL'!H6/'EGE TOTAL'!$C$18</f>
-        <v>2.9937063471485597E-2</v>
+        <v>2.9164099956019814E-2</v>
       </c>
       <c r="I6" s="3">
         <f>'EGE TOTAL'!I6/'EGE TOTAL'!$C$18</f>
-        <v>3.0597936192138835E-2</v>
+        <v>2.6047800987487706E-2</v>
       </c>
       <c r="J6" s="3">
         <f>'EGE TOTAL'!J6/'EGE TOTAL'!$C$18</f>
-        <v>2.9997500274985434E-2</v>
+        <v>2.9138514456810281E-2</v>
       </c>
       <c r="K6" s="3">
         <f>'EGE TOTAL'!K6/'EGE TOTAL'!$C$18</f>
-        <v>2.9193576881150141E-2</v>
+        <v>2.5238616207847436E-2</v>
       </c>
       <c r="L6" s="3">
         <f>'EGE TOTAL'!L6/'EGE TOTAL'!$C$18</f>
-        <v>2.9920871489987361E-2</v>
+        <v>2.4424158685061131E-2</v>
       </c>
       <c r="M6" s="3">
         <f>'EGE TOTAL'!M6/'EGE TOTAL'!$C$18</f>
-        <v>2.9886210424621241E-2</v>
+        <v>2.9264891042671111E-2</v>
       </c>
       <c r="N6" s="3">
         <f>'EGE TOTAL'!N6/'EGE TOTAL'!$C$18</f>
-        <v>2.9887023281432005E-2</v>
+        <v>2.9263215867924245E-2</v>
       </c>
       <c r="O6" s="3">
         <f>'EGE TOTAL'!O6/'EGE TOTAL'!$C$18</f>
-        <v>3.0898054826744799E-2</v>
+        <v>2.5107888673210375E-2</v>
       </c>
       <c r="P6" s="3">
         <f>'EGE TOTAL'!P6/'EGE TOTAL'!$C$18</f>
-        <v>3.0251956829194605E-2</v>
+        <v>2.4123607593080468E-2</v>
       </c>
       <c r="Q6" s="3">
         <f>'EGE TOTAL'!Q6/'EGE TOTAL'!$C$18</f>
-        <v>3.0208512898124529E-2</v>
+        <v>2.8471791341817914E-2</v>
       </c>
       <c r="R6" s="3">
         <f>'EGE TOTAL'!R6/'EGE TOTAL'!$C$18</f>
-        <v>3.0595142240700087E-2</v>
+        <v>2.5313338606255419E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -9521,67 +9517,67 @@
       </c>
       <c r="C7" s="3">
         <f>'EGE TOTAL'!C7/'EGE TOTAL'!$C$18</f>
-        <v>2.8431585033493457E-2</v>
+        <v>1.3518418921451333E-3</v>
       </c>
       <c r="D7" s="3">
         <f>'EGE TOTAL'!D7/'EGE TOTAL'!$C$18</f>
-        <v>2.345855794700287E-2</v>
+        <v>1.6136244218134398E-3</v>
       </c>
       <c r="E7" s="3">
         <f>'EGE TOTAL'!E7/'EGE TOTAL'!$C$18</f>
-        <v>2.9031712759341907E-2</v>
+        <v>1.2790780079362917E-3</v>
       </c>
       <c r="F7" s="3">
         <f>'EGE TOTAL'!F7/'EGE TOTAL'!$C$18</f>
-        <v>2.4335009590117397E-2</v>
+        <v>1.5892217716146748E-3</v>
       </c>
       <c r="G7" s="3">
         <f>'EGE TOTAL'!G7/'EGE TOTAL'!$C$18</f>
-        <v>3.181567925592331E-2</v>
+        <v>1.3775311141179594E-3</v>
       </c>
       <c r="H7" s="3">
         <f>'EGE TOTAL'!H7/'EGE TOTAL'!$C$18</f>
-        <v>2.9164099956019814E-2</v>
+        <v>1.2503252125361296E-3</v>
       </c>
       <c r="I7" s="3">
         <f>'EGE TOTAL'!I7/'EGE TOTAL'!$C$18</f>
-        <v>2.6047800987487706E-2</v>
+        <v>1.5260845573695392E-3</v>
       </c>
       <c r="J7" s="3">
         <f>'EGE TOTAL'!J7/'EGE TOTAL'!$C$18</f>
-        <v>2.9138514456810281E-2</v>
+        <v>1.2669693485985922E-3</v>
       </c>
       <c r="K7" s="3">
         <f>'EGE TOTAL'!K7/'EGE TOTAL'!$C$18</f>
-        <v>2.5238616207847436E-2</v>
+        <v>1.52721687982246E-3</v>
       </c>
       <c r="L7" s="3">
         <f>'EGE TOTAL'!L7/'EGE TOTAL'!$C$18</f>
-        <v>2.4424158685061131E-2</v>
+        <v>1.6131202071444769E-3</v>
       </c>
       <c r="M7" s="3">
         <f>'EGE TOTAL'!M7/'EGE TOTAL'!$C$18</f>
-        <v>2.9264891042671111E-2</v>
+        <v>1.2387808246936121E-3</v>
       </c>
       <c r="N7" s="3">
         <f>'EGE TOTAL'!N7/'EGE TOTAL'!$C$18</f>
-        <v>2.9263215867924245E-2</v>
+        <v>1.2379889818670618E-3</v>
       </c>
       <c r="O7" s="3">
         <f>'EGE TOTAL'!O7/'EGE TOTAL'!$C$18</f>
-        <v>2.5107888673210375E-2</v>
+        <v>1.7010499391691878E-3</v>
       </c>
       <c r="P7" s="3">
         <f>'EGE TOTAL'!P7/'EGE TOTAL'!$C$18</f>
-        <v>2.4123607593080468E-2</v>
+        <v>1.6361465408755616E-3</v>
       </c>
       <c r="Q7" s="3">
         <f>'EGE TOTAL'!Q7/'EGE TOTAL'!$C$18</f>
-        <v>2.8471791341817914E-2</v>
+        <v>1.3436637377054568E-3</v>
       </c>
       <c r="R7" s="3">
         <f>'EGE TOTAL'!R7/'EGE TOTAL'!$C$18</f>
-        <v>2.5313338606255419E-2</v>
+        <v>1.6147308186735493E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -9593,67 +9589,67 @@
       </c>
       <c r="C8" s="3">
         <f>'EGE TOTAL'!C8/'EGE TOTAL'!$C$18</f>
-        <v>2.8366578170117663E-2</v>
+        <v>3.6870278177572285E-3</v>
       </c>
       <c r="D8" s="3">
         <f>'EGE TOTAL'!D8/'EGE TOTAL'!$C$18</f>
-        <v>2.8523956371112078E-2</v>
+        <v>3.0940103035732168E-3</v>
       </c>
       <c r="E8" s="3">
         <f>'EGE TOTAL'!E8/'EGE TOTAL'!$C$18</f>
-        <v>2.8506574058349537E-2</v>
+        <v>3.736036987068374E-3</v>
       </c>
       <c r="F8" s="3">
         <f>'EGE TOTAL'!F8/'EGE TOTAL'!$C$18</f>
-        <v>2.9003351505503889E-2</v>
+        <v>3.1869075716162592E-3</v>
       </c>
       <c r="G8" s="3">
         <f>'EGE TOTAL'!G8/'EGE TOTAL'!$C$18</f>
-        <v>2.8515772814934399E-2</v>
+        <v>4.1322538513851445E-3</v>
       </c>
       <c r="H8" s="3">
         <f>'EGE TOTAL'!H8/'EGE TOTAL'!$C$18</f>
-        <v>2.8650371483347634E-2</v>
+        <v>3.7448921651611119E-3</v>
       </c>
       <c r="I8" s="3">
         <f>'EGE TOTAL'!I8/'EGE TOTAL'!$C$18</f>
-        <v>2.7304187156169092E-2</v>
+        <v>3.450871641739444E-3</v>
       </c>
       <c r="J8" s="3">
         <f>'EGE TOTAL'!J8/'EGE TOTAL'!$C$18</f>
-        <v>2.8535344484961218E-2</v>
+        <v>3.7459947786747491E-3</v>
       </c>
       <c r="K8" s="3">
         <f>'EGE TOTAL'!K8/'EGE TOTAL'!$C$18</f>
-        <v>3.1201066657341136E-2</v>
+        <v>3.2301289273004969E-3</v>
       </c>
       <c r="L8" s="3">
         <f>'EGE TOTAL'!L8/'EGE TOTAL'!$C$18</f>
-        <v>2.7643436901663612E-2</v>
+        <v>3.2086883150613671E-3</v>
       </c>
       <c r="M8" s="3">
         <f>'EGE TOTAL'!M8/'EGE TOTAL'!$C$18</f>
-        <v>2.8619951437698795E-2</v>
+        <v>3.7513347041088596E-3</v>
       </c>
       <c r="N8" s="3">
         <f>'EGE TOTAL'!N8/'EGE TOTAL'!$C$18</f>
-        <v>2.8607588607426786E-2</v>
+        <v>3.7507991805649878E-3</v>
       </c>
       <c r="O8" s="3">
         <f>'EGE TOTAL'!O8/'EGE TOTAL'!$C$18</f>
-        <v>2.0212596896744289E-2</v>
+        <v>3.2777244238383491E-3</v>
       </c>
       <c r="P8" s="3">
         <f>'EGE TOTAL'!P8/'EGE TOTAL'!$C$18</f>
-        <v>2.6211989472429285E-2</v>
+        <v>3.2208655704105342E-3</v>
       </c>
       <c r="Q8" s="3">
         <f>'EGE TOTAL'!Q8/'EGE TOTAL'!$C$18</f>
-        <v>2.8521549372466797E-2</v>
+        <v>3.6891442220773922E-3</v>
       </c>
       <c r="R8" s="3">
         <f>'EGE TOTAL'!R8/'EGE TOTAL'!$C$18</f>
-        <v>2.654695985089037E-2</v>
+        <v>3.3501571686315305E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -9665,67 +9661,67 @@
       </c>
       <c r="C9" s="3">
         <f>'EGE TOTAL'!C9/'EGE TOTAL'!$C$18</f>
-        <v>7.7979141751580976E-3</v>
+        <v>7.306356158597177E-2</v>
       </c>
       <c r="D9" s="3">
         <f>'EGE TOTAL'!D9/'EGE TOTAL'!$C$18</f>
-        <v>2.3310923754822637E-5</v>
+        <v>1.8101052744877291E-5</v>
       </c>
       <c r="E9" s="3">
         <f>'EGE TOTAL'!E9/'EGE TOTAL'!$C$18</f>
-        <v>1.0410821730859636E-2</v>
+        <v>0.10017665043730289</v>
       </c>
       <c r="F9" s="3">
         <f>'EGE TOTAL'!F9/'EGE TOTAL'!$C$18</f>
-        <v>1.3588221720156027E-4</v>
+        <v>4.9540001330570865E-4</v>
       </c>
       <c r="G9" s="3">
         <f>'EGE TOTAL'!G9/'EGE TOTAL'!$C$18</f>
-        <v>1.091102687989213E-2</v>
+        <v>0.1089266334275521</v>
       </c>
       <c r="H9" s="3">
         <f>'EGE TOTAL'!H9/'EGE TOTAL'!$C$18</f>
-        <v>1.1156996422710818E-2</v>
+        <v>0.11219078104854646</v>
       </c>
       <c r="I9" s="3">
         <f>'EGE TOTAL'!I9/'EGE TOTAL'!$C$18</f>
-        <v>2.8042149327717095E-3</v>
+        <v>2.132792464349819E-2</v>
       </c>
       <c r="J9" s="3">
         <f>'EGE TOTAL'!J9/'EGE TOTAL'!$C$18</f>
-        <v>1.0784007018939367E-2</v>
+        <v>0.10582462048306103</v>
       </c>
       <c r="K9" s="3">
         <f>'EGE TOTAL'!K9/'EGE TOTAL'!$C$18</f>
-        <v>4.9156609342657693E-5</v>
+        <v>2.5608942435395208E-4</v>
       </c>
       <c r="L9" s="3">
         <f>'EGE TOTAL'!L9/'EGE TOTAL'!$C$18</f>
-        <v>3.3596302285178833E-4</v>
+        <v>4.4359720212583663E-4</v>
       </c>
       <c r="M9" s="3">
         <f>'EGE TOTAL'!M9/'EGE TOTAL'!$C$18</f>
-        <v>1.1663483444790566E-2</v>
+        <v>0.11748136824029173</v>
       </c>
       <c r="N9" s="3">
         <f>'EGE TOTAL'!N9/'EGE TOTAL'!$C$18</f>
-        <v>1.1714781327914108E-2</v>
+        <v>0.11795510309477719</v>
       </c>
       <c r="O9" s="3">
         <f>'EGE TOTAL'!O9/'EGE TOTAL'!$C$18</f>
-        <v>2.5289068759621197E-3</v>
+        <v>6.6276633941444324E-4</v>
       </c>
       <c r="P9" s="3">
         <f>'EGE TOTAL'!P9/'EGE TOTAL'!$C$18</f>
-        <v>5.8042512359476374E-4</v>
+        <v>1.3673526311387518E-3</v>
       </c>
       <c r="Q9" s="3">
         <f>'EGE TOTAL'!Q9/'EGE TOTAL'!$C$18</f>
-        <v>7.6430613704859618E-3</v>
+        <v>7.1572318481582797E-2</v>
       </c>
       <c r="R9" s="3">
         <f>'EGE TOTAL'!R9/'EGE TOTAL'!$C$18</f>
-        <v>1.0970494533902992E-3</v>
+        <v>5.6161591855277259E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -9737,67 +9733,67 @@
       </c>
       <c r="C10" s="3">
         <f>'EGE TOTAL'!C10/'EGE TOTAL'!$C$18</f>
-        <v>4.9934326113727449E-3</v>
+        <v>1.503764084198577E-3</v>
       </c>
       <c r="D10" s="3">
         <f>'EGE TOTAL'!D10/'EGE TOTAL'!$C$18</f>
-        <v>1.4322888294576223E-5</v>
+        <v>1.4585046864954652E-2</v>
       </c>
       <c r="E10" s="3">
         <f>'EGE TOTAL'!E10/'EGE TOTAL'!$C$18</f>
-        <v>6.6654996103717532E-3</v>
+        <v>4.283846927012757E-4</v>
       </c>
       <c r="F10" s="3">
         <f>'EGE TOTAL'!F10/'EGE TOTAL'!$C$18</f>
-        <v>8.4703461603881602E-5</v>
+        <v>1.0062332423323831E-2</v>
       </c>
       <c r="G10" s="3">
         <f>'EGE TOTAL'!G10/'EGE TOTAL'!$C$18</f>
-        <v>7.0009596325640846E-3</v>
+        <v>1.6445837532016875E-4</v>
       </c>
       <c r="H10" s="3">
         <f>'EGE TOTAL'!H10/'EGE TOTAL'!$C$18</f>
-        <v>7.161994619469988E-3</v>
+        <v>1.6279148907073218E-4</v>
       </c>
       <c r="I10" s="3">
         <f>'EGE TOTAL'!I10/'EGE TOTAL'!$C$18</f>
-        <v>1.7851444465716026E-3</v>
+        <v>1.109727139457025E-2</v>
       </c>
       <c r="J10" s="3">
         <f>'EGE TOTAL'!J10/'EGE TOTAL'!$C$18</f>
-        <v>6.9196359214643705E-3</v>
+        <v>2.8405250348510574E-4</v>
       </c>
       <c r="K10" s="3">
         <f>'EGE TOTAL'!K10/'EGE TOTAL'!$C$18</f>
-        <v>3.0891319222583764E-5</v>
+        <v>2.4972489227958823E-3</v>
       </c>
       <c r="L10" s="3">
         <f>'EGE TOTAL'!L10/'EGE TOTAL'!$C$18</f>
-        <v>2.064681656538583E-4</v>
+        <v>1.2077857333643973E-2</v>
       </c>
       <c r="M10" s="3">
         <f>'EGE TOTAL'!M10/'EGE TOTAL'!$C$18</f>
-        <v>7.4872405325114143E-3</v>
+        <v>6.8688025132474258E-5</v>
       </c>
       <c r="N10" s="3">
         <f>'EGE TOTAL'!N10/'EGE TOTAL'!$C$18</f>
-        <v>7.5200728520837994E-3</v>
+        <v>6.5435461967473755E-5</v>
       </c>
       <c r="O10" s="3">
         <f>'EGE TOTAL'!O10/'EGE TOTAL'!$C$18</f>
-        <v>1.5965764630638843E-3</v>
+        <v>3.56908851623785E-3</v>
       </c>
       <c r="P10" s="3">
         <f>'EGE TOTAL'!P10/'EGE TOTAL'!$C$18</f>
-        <v>3.5630451010377096E-4</v>
+        <v>2.0051517980133816E-2</v>
       </c>
       <c r="Q10" s="3">
         <f>'EGE TOTAL'!Q10/'EGE TOTAL'!$C$18</f>
-        <v>4.8930857170306537E-3</v>
+        <v>1.6330489637563213E-3</v>
       </c>
       <c r="R10" s="3">
         <f>'EGE TOTAL'!R10/'EGE TOTAL'!$C$18</f>
-        <v>6.8953676553975087E-4</v>
+        <v>1.1533606985514634E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -9809,67 +9805,67 @@
       </c>
       <c r="C11" s="3">
         <f>'EGE TOTAL'!C11/'EGE TOTAL'!$C$18</f>
-        <v>3.8540917734411536E-3</v>
+        <v>3.5838858856694237E-4</v>
       </c>
       <c r="D11" s="3">
         <f>'EGE TOTAL'!D11/'EGE TOTAL'!$C$18</f>
-        <v>7.6448944446190735E-6</v>
+        <v>5.5813230785708362E-7</v>
       </c>
       <c r="E11" s="3">
         <f>'EGE TOTAL'!E11/'EGE TOTAL'!$C$18</f>
-        <v>5.1020304205598877E-3</v>
+        <v>3.0452846393509163E-5</v>
       </c>
       <c r="F11" s="3">
         <f>'EGE TOTAL'!F11/'EGE TOTAL'!$C$18</f>
-        <v>5.3301223420218575E-5</v>
+        <v>1.3349755586143604E-5</v>
       </c>
       <c r="G11" s="3">
         <f>'EGE TOTAL'!G11/'EGE TOTAL'!$C$18</f>
-        <v>5.4821843843592321E-3</v>
+        <v>1.4832040279466064E-5</v>
       </c>
       <c r="H11" s="3">
         <f>'EGE TOTAL'!H11/'EGE TOTAL'!$C$18</f>
-        <v>5.6274914213046605E-3</v>
+        <v>8.6431883667253736E-6</v>
       </c>
       <c r="I11" s="3">
         <f>'EGE TOTAL'!I11/'EGE TOTAL'!$C$18</f>
-        <v>1.3294943772550018E-3</v>
+        <v>1.5925605744251679E-4</v>
       </c>
       <c r="J11" s="3">
         <f>'EGE TOTAL'!J11/'EGE TOTAL'!$C$18</f>
-        <v>5.4110566342166939E-3</v>
+        <v>2.0106622176363825E-5</v>
       </c>
       <c r="K11" s="3">
         <f>'EGE TOTAL'!K11/'EGE TOTAL'!$C$18</f>
-        <v>2.1423178204952068E-5</v>
+        <v>1.4586237176716203E-6</v>
       </c>
       <c r="L11" s="3">
         <f>'EGE TOTAL'!L11/'EGE TOTAL'!$C$18</f>
-        <v>1.0700116437305855E-4</v>
+        <v>1.2680022465594686E-4</v>
       </c>
       <c r="M11" s="3">
         <f>'EGE TOTAL'!M11/'EGE TOTAL'!$C$18</f>
-        <v>5.8839636997325981E-3</v>
+        <v>8.7876278734372165E-6</v>
       </c>
       <c r="N11" s="3">
         <f>'EGE TOTAL'!N11/'EGE TOTAL'!$C$18</f>
-        <v>5.9091105488718199E-3</v>
+        <v>9.8305766795312719E-6</v>
       </c>
       <c r="O11" s="3">
         <f>'EGE TOTAL'!O11/'EGE TOTAL'!$C$18</f>
-        <v>1.1047765820404896E-3</v>
+        <v>3.4510762530626786E-2</v>
       </c>
       <c r="P11" s="3">
         <f>'EGE TOTAL'!P11/'EGE TOTAL'!$C$18</f>
-        <v>1.8006458959906102E-4</v>
+        <v>1.00588634606865E-4</v>
       </c>
       <c r="Q11" s="3">
         <f>'EGE TOTAL'!Q11/'EGE TOTAL'!$C$18</f>
-        <v>3.7583149253481887E-3</v>
+        <v>4.9941004383169637E-5</v>
       </c>
       <c r="R11" s="3">
         <f>'EGE TOTAL'!R11/'EGE TOTAL'!$C$18</f>
-        <v>4.6102280855696737E-4</v>
+        <v>1.2809853158781408E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -9881,67 +9877,67 @@
       </c>
       <c r="C12" s="3">
         <f>'EGE TOTAL'!C12/'EGE TOTAL'!$C$18</f>
-        <v>3.6870278177572285E-3</v>
+        <v>7.5814509836034008E-6</v>
       </c>
       <c r="D12" s="3">
         <f>'EGE TOTAL'!D12/'EGE TOTAL'!$C$18</f>
-        <v>3.0940103035732168E-3</v>
+        <v>1.2050273078698297E-7</v>
       </c>
       <c r="E12" s="3">
         <f>'EGE TOTAL'!E12/'EGE TOTAL'!$C$18</f>
-        <v>3.736036987068374E-3</v>
+        <v>1.3782658512371939E-6</v>
       </c>
       <c r="F12" s="3">
         <f>'EGE TOTAL'!F12/'EGE TOTAL'!$C$18</f>
-        <v>3.1869075716162592E-3</v>
+        <v>1.6843993130383662E-6</v>
       </c>
       <c r="G12" s="3">
         <f>'EGE TOTAL'!G12/'EGE TOTAL'!$C$18</f>
-        <v>4.1322538513851445E-3</v>
+        <v>2.4387803350628843E-6</v>
       </c>
       <c r="H12" s="3">
         <f>'EGE TOTAL'!H12/'EGE TOTAL'!$C$18</f>
-        <v>3.7448921651611119E-3</v>
+        <v>7.426696561919466E-7</v>
       </c>
       <c r="I12" s="3">
         <f>'EGE TOTAL'!I12/'EGE TOTAL'!$C$18</f>
-        <v>3.450871641739444E-3</v>
+        <v>1.5716540541548784E-5</v>
       </c>
       <c r="J12" s="3">
         <f>'EGE TOTAL'!J12/'EGE TOTAL'!$C$18</f>
-        <v>3.7459947786747491E-3</v>
+        <v>1.2474594150727391E-6</v>
       </c>
       <c r="K12" s="3">
         <f>'EGE TOTAL'!K12/'EGE TOTAL'!$C$18</f>
-        <v>3.2301289273004969E-3</v>
+        <v>4.4687027102876456E-7</v>
       </c>
       <c r="L12" s="3">
         <f>'EGE TOTAL'!L12/'EGE TOTAL'!$C$18</f>
-        <v>3.2086883150613671E-3</v>
+        <v>4.4929591929187309E-5</v>
       </c>
       <c r="M12" s="3">
         <f>'EGE TOTAL'!M12/'EGE TOTAL'!$C$18</f>
-        <v>3.7513347041088596E-3</v>
+        <v>4.9578072968487257E-7</v>
       </c>
       <c r="N12" s="3">
         <f>'EGE TOTAL'!N12/'EGE TOTAL'!$C$18</f>
-        <v>3.7507991805649878E-3</v>
+        <v>2.538163007368824E-7</v>
       </c>
       <c r="O12" s="3">
         <f>'EGE TOTAL'!O12/'EGE TOTAL'!$C$18</f>
-        <v>3.2777244238383491E-3</v>
+        <v>1.0247233568718464E-5</v>
       </c>
       <c r="P12" s="3">
         <f>'EGE TOTAL'!P12/'EGE TOTAL'!$C$18</f>
-        <v>3.2208655704105342E-3</v>
+        <v>2.5503567963154952E-4</v>
       </c>
       <c r="Q12" s="3">
         <f>'EGE TOTAL'!Q12/'EGE TOTAL'!$C$18</f>
-        <v>3.6891442220773922E-3</v>
+        <v>3.6948125987255479E-5</v>
       </c>
       <c r="R12" s="3">
         <f>'EGE TOTAL'!R12/'EGE TOTAL'!$C$18</f>
-        <v>3.3501571686315305E-3</v>
+        <v>2.2035598783947869E-5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -9953,67 +9949,67 @@
       </c>
       <c r="C13" s="3">
         <f>'EGE TOTAL'!C13/'EGE TOTAL'!$C$18</f>
-        <v>1.3518418921451333E-3</v>
+        <v>7.7979141751580976E-3</v>
       </c>
       <c r="D13" s="3">
         <f>'EGE TOTAL'!D13/'EGE TOTAL'!$C$18</f>
-        <v>1.6136244218134398E-3</v>
+        <v>2.3310923754822637E-5</v>
       </c>
       <c r="E13" s="3">
         <f>'EGE TOTAL'!E13/'EGE TOTAL'!$C$18</f>
-        <v>1.2790780079362917E-3</v>
+        <v>1.0410821730859636E-2</v>
       </c>
       <c r="F13" s="3">
         <f>'EGE TOTAL'!F13/'EGE TOTAL'!$C$18</f>
-        <v>1.5892217716146748E-3</v>
+        <v>1.3588221720156027E-4</v>
       </c>
       <c r="G13" s="3">
         <f>'EGE TOTAL'!G13/'EGE TOTAL'!$C$18</f>
-        <v>1.3775311141179594E-3</v>
+        <v>1.091102687989213E-2</v>
       </c>
       <c r="H13" s="3">
         <f>'EGE TOTAL'!H13/'EGE TOTAL'!$C$18</f>
-        <v>1.2503252125361296E-3</v>
+        <v>1.1156996422710818E-2</v>
       </c>
       <c r="I13" s="3">
         <f>'EGE TOTAL'!I13/'EGE TOTAL'!$C$18</f>
-        <v>1.5260845573695392E-3</v>
+        <v>2.8042149327717095E-3</v>
       </c>
       <c r="J13" s="3">
         <f>'EGE TOTAL'!J13/'EGE TOTAL'!$C$18</f>
-        <v>1.2669693485985922E-3</v>
+        <v>1.0784007018939367E-2</v>
       </c>
       <c r="K13" s="3">
         <f>'EGE TOTAL'!K13/'EGE TOTAL'!$C$18</f>
-        <v>1.52721687982246E-3</v>
+        <v>4.9156609342657693E-5</v>
       </c>
       <c r="L13" s="3">
         <f>'EGE TOTAL'!L13/'EGE TOTAL'!$C$18</f>
-        <v>1.6131202071444769E-3</v>
+        <v>3.3596302285178833E-4</v>
       </c>
       <c r="M13" s="3">
         <f>'EGE TOTAL'!M13/'EGE TOTAL'!$C$18</f>
-        <v>1.2387808246936121E-3</v>
+        <v>1.1663483444790566E-2</v>
       </c>
       <c r="N13" s="3">
         <f>'EGE TOTAL'!N13/'EGE TOTAL'!$C$18</f>
-        <v>1.2379889818670618E-3</v>
+        <v>1.1714781327914108E-2</v>
       </c>
       <c r="O13" s="3">
         <f>'EGE TOTAL'!O13/'EGE TOTAL'!$C$18</f>
-        <v>1.7010499391691878E-3</v>
+        <v>2.5289068759621197E-3</v>
       </c>
       <c r="P13" s="3">
         <f>'EGE TOTAL'!P13/'EGE TOTAL'!$C$18</f>
-        <v>1.6361465408755616E-3</v>
+        <v>5.8042512359476374E-4</v>
       </c>
       <c r="Q13" s="3">
         <f>'EGE TOTAL'!Q13/'EGE TOTAL'!$C$18</f>
-        <v>1.3436637377054568E-3</v>
+        <v>7.6430613704859618E-3</v>
       </c>
       <c r="R13" s="3">
         <f>'EGE TOTAL'!R13/'EGE TOTAL'!$C$18</f>
-        <v>1.6147308186735493E-3</v>
+        <v>1.0970494533902992E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -10025,67 +10021,67 @@
       </c>
       <c r="C14" s="3">
         <f>'EGE TOTAL'!C14/'EGE TOTAL'!$C$18</f>
-        <v>1.503764084198577E-3</v>
+        <v>4.9934326113727449E-3</v>
       </c>
       <c r="D14" s="3">
         <f>'EGE TOTAL'!D14/'EGE TOTAL'!$C$18</f>
-        <v>1.4585046864954652E-2</v>
+        <v>1.4322888294576223E-5</v>
       </c>
       <c r="E14" s="3">
         <f>'EGE TOTAL'!E14/'EGE TOTAL'!$C$18</f>
-        <v>4.283846927012757E-4</v>
+        <v>6.6654996103717532E-3</v>
       </c>
       <c r="F14" s="3">
         <f>'EGE TOTAL'!F14/'EGE TOTAL'!$C$18</f>
-        <v>1.0062332423323831E-2</v>
+        <v>8.4703461603881602E-5</v>
       </c>
       <c r="G14" s="3">
         <f>'EGE TOTAL'!G14/'EGE TOTAL'!$C$18</f>
-        <v>1.6445837532016875E-4</v>
+        <v>7.0009596325640846E-3</v>
       </c>
       <c r="H14" s="3">
         <f>'EGE TOTAL'!H14/'EGE TOTAL'!$C$18</f>
-        <v>1.6279148907073218E-4</v>
+        <v>7.161994619469988E-3</v>
       </c>
       <c r="I14" s="3">
         <f>'EGE TOTAL'!I14/'EGE TOTAL'!$C$18</f>
-        <v>1.109727139457025E-2</v>
+        <v>1.7851444465716026E-3</v>
       </c>
       <c r="J14" s="3">
         <f>'EGE TOTAL'!J14/'EGE TOTAL'!$C$18</f>
-        <v>2.8405250348510574E-4</v>
+        <v>6.9196359214643705E-3</v>
       </c>
       <c r="K14" s="3">
         <f>'EGE TOTAL'!K14/'EGE TOTAL'!$C$18</f>
-        <v>2.4972489227958823E-3</v>
+        <v>3.0891319222583764E-5</v>
       </c>
       <c r="L14" s="3">
         <f>'EGE TOTAL'!L14/'EGE TOTAL'!$C$18</f>
-        <v>1.2077857333643973E-2</v>
+        <v>2.064681656538583E-4</v>
       </c>
       <c r="M14" s="3">
         <f>'EGE TOTAL'!M14/'EGE TOTAL'!$C$18</f>
-        <v>6.8688025132474258E-5</v>
+        <v>7.4872405325114143E-3</v>
       </c>
       <c r="N14" s="3">
         <f>'EGE TOTAL'!N14/'EGE TOTAL'!$C$18</f>
-        <v>6.5435461967473755E-5</v>
+        <v>7.5200728520837994E-3</v>
       </c>
       <c r="O14" s="3">
         <f>'EGE TOTAL'!O14/'EGE TOTAL'!$C$18</f>
-        <v>3.56908851623785E-3</v>
+        <v>1.5965764630638843E-3</v>
       </c>
       <c r="P14" s="3">
         <f>'EGE TOTAL'!P14/'EGE TOTAL'!$C$18</f>
-        <v>2.0051517980133816E-2</v>
+        <v>3.5630451010377096E-4</v>
       </c>
       <c r="Q14" s="3">
         <f>'EGE TOTAL'!Q14/'EGE TOTAL'!$C$18</f>
-        <v>1.6330489637563213E-3</v>
+        <v>4.8930857170306537E-3</v>
       </c>
       <c r="R14" s="3">
         <f>'EGE TOTAL'!R14/'EGE TOTAL'!$C$18</f>
-        <v>1.1533606985514634E-2</v>
+        <v>6.8953676553975087E-4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -10097,67 +10093,67 @@
       </c>
       <c r="C15" s="3">
         <f>'EGE TOTAL'!C15/'EGE TOTAL'!$C$18</f>
-        <v>3.5838858856694237E-4</v>
+        <v>3.8540917734411536E-3</v>
       </c>
       <c r="D15" s="3">
         <f>'EGE TOTAL'!D15/'EGE TOTAL'!$C$18</f>
-        <v>5.5813230785708362E-7</v>
+        <v>7.6448944446190735E-6</v>
       </c>
       <c r="E15" s="3">
         <f>'EGE TOTAL'!E15/'EGE TOTAL'!$C$18</f>
-        <v>3.0452846393509163E-5</v>
+        <v>5.1020304205598877E-3</v>
       </c>
       <c r="F15" s="3">
         <f>'EGE TOTAL'!F15/'EGE TOTAL'!$C$18</f>
-        <v>1.3349755586143604E-5</v>
+        <v>5.3301223420218575E-5</v>
       </c>
       <c r="G15" s="3">
         <f>'EGE TOTAL'!G15/'EGE TOTAL'!$C$18</f>
-        <v>1.4832040279466064E-5</v>
+        <v>5.4821843843592321E-3</v>
       </c>
       <c r="H15" s="3">
         <f>'EGE TOTAL'!H15/'EGE TOTAL'!$C$18</f>
-        <v>8.6431883667253736E-6</v>
+        <v>5.6274914213046605E-3</v>
       </c>
       <c r="I15" s="3">
         <f>'EGE TOTAL'!I15/'EGE TOTAL'!$C$18</f>
-        <v>1.5925605744251679E-4</v>
+        <v>1.3294943772550018E-3</v>
       </c>
       <c r="J15" s="3">
         <f>'EGE TOTAL'!J15/'EGE TOTAL'!$C$18</f>
-        <v>2.0106622176363825E-5</v>
+        <v>5.4110566342166939E-3</v>
       </c>
       <c r="K15" s="3">
         <f>'EGE TOTAL'!K15/'EGE TOTAL'!$C$18</f>
-        <v>1.4586237176716203E-6</v>
+        <v>2.1423178204952068E-5</v>
       </c>
       <c r="L15" s="3">
         <f>'EGE TOTAL'!L15/'EGE TOTAL'!$C$18</f>
-        <v>1.2680022465594686E-4</v>
+        <v>1.0700116437305855E-4</v>
       </c>
       <c r="M15" s="3">
         <f>'EGE TOTAL'!M15/'EGE TOTAL'!$C$18</f>
-        <v>8.7876278734372165E-6</v>
+        <v>5.8839636997325981E-3</v>
       </c>
       <c r="N15" s="3">
         <f>'EGE TOTAL'!N15/'EGE TOTAL'!$C$18</f>
-        <v>9.8305766795312719E-6</v>
+        <v>5.9091105488718199E-3</v>
       </c>
       <c r="O15" s="3">
         <f>'EGE TOTAL'!O15/'EGE TOTAL'!$C$18</f>
-        <v>3.4510762530626786E-2</v>
+        <v>1.1047765820404896E-3</v>
       </c>
       <c r="P15" s="3">
         <f>'EGE TOTAL'!P15/'EGE TOTAL'!$C$18</f>
-        <v>1.00588634606865E-4</v>
+        <v>1.8006458959906102E-4</v>
       </c>
       <c r="Q15" s="3">
         <f>'EGE TOTAL'!Q15/'EGE TOTAL'!$C$18</f>
-        <v>4.9941004383169637E-5</v>
+        <v>3.7583149253481887E-3</v>
       </c>
       <c r="R15" s="3">
         <f>'EGE TOTAL'!R15/'EGE TOTAL'!$C$18</f>
-        <v>1.2809853158781408E-3</v>
+        <v>4.6102280855696737E-4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -10169,67 +10165,67 @@
       </c>
       <c r="C16" s="3">
         <f>'EGE TOTAL'!C16/'EGE TOTAL'!$C$18</f>
-        <v>7.5814509836034008E-6</v>
+        <v>2.8366578170117663E-2</v>
       </c>
       <c r="D16" s="3">
         <f>'EGE TOTAL'!D16/'EGE TOTAL'!$C$18</f>
-        <v>1.2050273078698297E-7</v>
+        <v>2.8523956371112078E-2</v>
       </c>
       <c r="E16" s="3">
         <f>'EGE TOTAL'!E16/'EGE TOTAL'!$C$18</f>
-        <v>1.3782658512371939E-6</v>
+        <v>2.8506574058349537E-2</v>
       </c>
       <c r="F16" s="3">
         <f>'EGE TOTAL'!F16/'EGE TOTAL'!$C$18</f>
-        <v>1.6843993130383662E-6</v>
+        <v>2.9003351505503889E-2</v>
       </c>
       <c r="G16" s="3">
         <f>'EGE TOTAL'!G16/'EGE TOTAL'!$C$18</f>
-        <v>2.4387803350628843E-6</v>
+        <v>2.8515772814934399E-2</v>
       </c>
       <c r="H16" s="3">
         <f>'EGE TOTAL'!H16/'EGE TOTAL'!$C$18</f>
-        <v>7.426696561919466E-7</v>
+        <v>2.8650371483347634E-2</v>
       </c>
       <c r="I16" s="3">
         <f>'EGE TOTAL'!I16/'EGE TOTAL'!$C$18</f>
-        <v>1.5716540541548784E-5</v>
+        <v>2.7304187156169092E-2</v>
       </c>
       <c r="J16" s="3">
         <f>'EGE TOTAL'!J16/'EGE TOTAL'!$C$18</f>
-        <v>1.2474594150727391E-6</v>
+        <v>2.8535344484961218E-2</v>
       </c>
       <c r="K16" s="3">
         <f>'EGE TOTAL'!K16/'EGE TOTAL'!$C$18</f>
-        <v>4.4687027102876456E-7</v>
+        <v>3.1201066657341136E-2</v>
       </c>
       <c r="L16" s="3">
         <f>'EGE TOTAL'!L16/'EGE TOTAL'!$C$18</f>
-        <v>4.4929591929187309E-5</v>
+        <v>2.7643436901663612E-2</v>
       </c>
       <c r="M16" s="3">
         <f>'EGE TOTAL'!M16/'EGE TOTAL'!$C$18</f>
-        <v>4.9578072968487257E-7</v>
+        <v>2.8619951437698795E-2</v>
       </c>
       <c r="N16" s="3">
         <f>'EGE TOTAL'!N16/'EGE TOTAL'!$C$18</f>
-        <v>2.538163007368824E-7</v>
+        <v>2.8607588607426786E-2</v>
       </c>
       <c r="O16" s="3">
         <f>'EGE TOTAL'!O16/'EGE TOTAL'!$C$18</f>
-        <v>1.0247233568718464E-5</v>
+        <v>2.0212596896744289E-2</v>
       </c>
       <c r="P16" s="3">
         <f>'EGE TOTAL'!P16/'EGE TOTAL'!$C$18</f>
-        <v>2.5503567963154952E-4</v>
+        <v>2.6211989472429285E-2</v>
       </c>
       <c r="Q16" s="3">
         <f>'EGE TOTAL'!Q16/'EGE TOTAL'!$C$18</f>
-        <v>3.6948125987255479E-5</v>
+        <v>2.8521549372466797E-2</v>
       </c>
       <c r="R16" s="3">
         <f>'EGE TOTAL'!R16/'EGE TOTAL'!$C$18</f>
-        <v>2.2035598783947869E-5</v>
+        <v>2.654695985089037E-2</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
@@ -10241,67 +10237,67 @@
       </c>
       <c r="C17" s="3">
         <f>'EGE TOTAL'!C17/'EGE TOTAL'!$C$18</f>
-        <v>5.2474570055376778E-6</v>
+        <v>4.6902547397668796E-2</v>
       </c>
       <c r="D17" s="3">
         <f>'EGE TOTAL'!D17/'EGE TOTAL'!$C$18</f>
-        <v>2.0852839905211861E-5</v>
+        <v>5.7044583966547775E-2</v>
       </c>
       <c r="E17" s="3">
         <f>'EGE TOTAL'!E17/'EGE TOTAL'!$C$18</f>
-        <v>1.3435177938485332E-6</v>
+        <v>4.4802849358012625E-2</v>
       </c>
       <c r="F17" s="3">
         <f>'EGE TOTAL'!F17/'EGE TOTAL'!$C$18</f>
-        <v>1.5786779420600734E-5</v>
+        <v>5.7042916963673022E-2</v>
       </c>
       <c r="G17" s="3">
         <f>'EGE TOTAL'!G17/'EGE TOTAL'!$C$18</f>
-        <v>6.5355260339261035E-7</v>
+        <v>4.4230648255590824E-2</v>
       </c>
       <c r="H17" s="3">
         <f>'EGE TOTAL'!H17/'EGE TOTAL'!$C$18</f>
-        <v>5.1422017650966524E-7</v>
+        <v>4.4244039733607236E-2</v>
       </c>
       <c r="I17" s="3">
         <f>'EGE TOTAL'!I17/'EGE TOTAL'!$C$18</f>
-        <v>3.099312989653816E-5</v>
+        <v>5.0556102808979105E-2</v>
       </c>
       <c r="J17" s="3">
         <f>'EGE TOTAL'!J17/'EGE TOTAL'!$C$18</f>
-        <v>1.1958483893879004E-6</v>
+        <v>4.4477255779620042E-2</v>
       </c>
       <c r="K17" s="3">
         <f>'EGE TOTAL'!K17/'EGE TOTAL'!$C$18</f>
-        <v>4.026203249501573E-6</v>
+        <v>5.9792383722011157E-2</v>
       </c>
       <c r="L17" s="3">
         <f>'EGE TOTAL'!L17/'EGE TOTAL'!$C$18</f>
-        <v>2.5728169595722233E-5</v>
+        <v>5.5649134210159802E-2</v>
       </c>
       <c r="M17" s="3">
         <f>'EGE TOTAL'!M17/'EGE TOTAL'!$C$18</f>
-        <v>2.6559271461201554E-7</v>
+        <v>4.3862991639448415E-2</v>
       </c>
       <c r="N17" s="3">
         <f>'EGE TOTAL'!N17/'EGE TOTAL'!$C$18</f>
-        <v>2.8651339306177858E-7</v>
+        <v>4.3806102284360673E-2</v>
       </c>
       <c r="O17" s="3">
         <f>'EGE TOTAL'!O17/'EGE TOTAL'!$C$18</f>
-        <v>2.5858802564356202E-5</v>
+        <v>4.7550280677693138E-2</v>
       </c>
       <c r="P17" s="3">
         <f>'EGE TOTAL'!P17/'EGE TOTAL'!$C$18</f>
-        <v>4.1673816102618629E-5</v>
+        <v>5.3992040978553743E-2</v>
       </c>
       <c r="Q17" s="3">
         <f>'EGE TOTAL'!Q17/'EGE TOTAL'!$C$18</f>
-        <v>4.8562718602869743E-6</v>
+        <v>4.722185051952419E-2</v>
       </c>
       <c r="R17" s="3">
         <f>'EGE TOTAL'!R17/'EGE TOTAL'!$C$18</f>
-        <v>5.4938628004320986E-5</v>
+        <v>5.2630919506062024E-2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
@@ -10326,133 +10322,133 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <f>SUM(C5,C3)</f>
-        <v>0.11996610898364057</v>
+        <v>0.76936330376718387</v>
       </c>
       <c r="D19" s="6">
         <f>SUM(D5,D3)</f>
-        <v>5.7062685019292653E-2</v>
+        <v>0.78886085949628737</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ref="E19:R19" si="0">SUM(E5,E3)</f>
-        <v>0.14497949979531552</v>
+        <v>0.75863976094415542</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>5.7538316976978733E-2</v>
+        <v>0.78897696909732795</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>0.15315728168314291</v>
+        <v>0.75192740526812263</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>0.15643482078215371</v>
+        <v>0.75422286967992791</v>
       </c>
       <c r="I19" s="6">
         <f>SUM(I5,I3)</f>
-        <v>7.1884027452477295E-2</v>
+        <v>0.7868288778662913</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0.15030187626268107</v>
+        <v>0.75643959201668043</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="0"/>
-        <v>6.0048473146365106E-2</v>
+        <v>0.78593131605774469</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>5.6092731412285636E-2</v>
+        <v>0.78888622441009748</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>0.16134435987974016</v>
+        <v>0.7520871628357173</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.16176120537913785</v>
+        <v>0.75194077227500666</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="0"/>
-        <v>4.8213047017107581E-2</v>
+        <v>0.77795349638662481</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>5.5359393609692498E-2</v>
+        <v>0.78901846891779526</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="0"/>
-        <v>0.11879416900110698</v>
+        <v>0.76893772601185884</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="0"/>
-        <v>5.8247078691589751E-2</v>
+        <v>0.79030105164874842</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C20" s="6">
         <f>SUM(C5,C9)</f>
-        <v>5.4700461572826896E-2</v>
+        <v>0.78972421116157254</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:R20" si="1">SUM(D5,D9)</f>
-        <v>5.7067894890302596E-2</v>
+        <v>0.72244297213558095</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>5.5213671088872263E-2</v>
+        <v>0.80890050919919587</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>5.7178799180874582E-2</v>
+        <v>0.72392665204480899</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
-        <v>5.5141675135482952E-2</v>
+        <v>0.8117502803371095</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>5.5401036156318056E-2</v>
+        <v>0.81724436531189371</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="1"/>
-        <v>5.3360317741750811E-2</v>
+        <v>0.74970700830118686</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>5.5261262798559412E-2</v>
+        <v>0.81277476576508001</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>5.9841540331353811E-2</v>
+        <v>0.71970672635932631</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>5.5985097233011594E-2</v>
+        <v>0.72526920929854821</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="1"/>
-        <v>5.5526475084238983E-2</v>
+        <v>0.82087092640234827</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="1"/>
-        <v>5.552088361227478E-2</v>
+        <v>0.82124547063587339</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="1"/>
-        <v>5.0079187553655258E-2</v>
+        <v>0.72168832361552859</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>5.4572466102148505E-2</v>
+        <v>0.72775762541831523</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>5.4864911890010151E-2</v>
+        <v>0.78790789069276657</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="1"/>
-        <v>5.3727968959452324E-2</v>
+        <v>0.73457473845805177</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">

--- a/generated_files/gsa_results/Sobol_indices.xlsx
+++ b/generated_files/gsa_results/Sobol_indices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="113_{737F911A-3540-4595-AD0A-3E352AFCF132}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EBC4F22D-716F-40E6-83DE-0165FB32C058}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_40E82FB882310CFEA4F4CDC1297EDE10894C022A" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AD38528A-3666-4B6B-8DE6-F88B12704029}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="910" windowWidth="14400" windowHeight="7360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CGE FIRST" sheetId="1" r:id="rId1"/>
@@ -385,17 +385,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -743,17 +733,17 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:R10"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="18" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="18" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -3234,14 +3224,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="3" max="18" width="8.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="18" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -4320,7 +4310,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5709,13 +5699,13 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:R9"/>
+      <selection activeCell="C5" sqref="C5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="18" width="8.1796875" customWidth="1"/>
+    <col min="3" max="18" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -5779,52 +5769,52 @@
         <v>55</v>
       </c>
       <c r="C2" s="11">
-        <v>4.1958509943146929E-4</v>
+        <v>3.694006626092951E-4</v>
       </c>
       <c r="D2" s="11">
-        <v>4.3842774308447288E-4</v>
+        <v>4.8329817325241242E-4</v>
       </c>
       <c r="E2" s="11">
-        <v>8.0232422143132628E-4</v>
+        <v>7.5240543016668715E-4</v>
       </c>
       <c r="F2" s="11">
-        <v>6.0567369352243917E-4</v>
+        <v>6.5127976025842072E-4</v>
       </c>
       <c r="G2" s="11">
-        <v>1.880959432041593E-3</v>
+        <v>1.819429364446934E-3</v>
       </c>
       <c r="H2" s="11">
-        <v>9.3682395777968091E-4</v>
+        <v>8.8724936422309992E-4</v>
       </c>
       <c r="I2" s="11">
-        <v>2.9735676003730461E-4</v>
+        <v>2.4724274418266401E-4</v>
       </c>
       <c r="J2" s="11">
-        <v>8.9438898760901646E-4</v>
+        <v>8.4445059418794836E-4</v>
       </c>
       <c r="K2" s="11">
-        <v>1.326692511947374E-3</v>
+        <v>1.3708348720604909E-3</v>
       </c>
       <c r="L2" s="11">
-        <v>4.6154341756326188E-4</v>
+        <v>5.0683729957873779E-4</v>
       </c>
       <c r="M2" s="11">
-        <v>9.6511600044254338E-4</v>
+        <v>9.1571199438673879E-4</v>
       </c>
       <c r="N2" s="11">
-        <v>9.6319113673615773E-4</v>
+        <v>9.1379103456824828E-4</v>
       </c>
       <c r="O2" s="11">
-        <v>2.2057135419601519E-3</v>
+        <v>2.2419602229807939E-3</v>
       </c>
       <c r="P2" s="11">
-        <v>1.9846393693789379E-4</v>
+        <v>1.527841110087956E-4</v>
       </c>
       <c r="Q2" s="11">
-        <v>6.1604153072355365E-4</v>
+        <v>5.6617494375521614E-4</v>
       </c>
       <c r="R2" s="11">
-        <v>3.8358913417466779E-4</v>
+        <v>4.3229985315432272E-4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -5835,52 +5825,52 @@
         <v>40</v>
       </c>
       <c r="C3" s="11">
-        <v>2.9907707713518309E-2</v>
+        <v>2.99430988146334E-2</v>
       </c>
       <c r="D3" s="11">
-        <v>3.0089506756128231E-2</v>
+        <v>3.0118070241041579E-2</v>
       </c>
       <c r="E3" s="11">
-        <v>2.8875499770248829E-2</v>
+        <v>2.8911773380226179E-2</v>
       </c>
       <c r="F3" s="11">
-        <v>3.0400439518351089E-2</v>
+        <v>3.0429720770162771E-2</v>
       </c>
       <c r="G3" s="11">
-        <v>2.8836681769373991E-2</v>
+        <v>2.8883871779993509E-2</v>
       </c>
       <c r="H3" s="11">
-        <v>2.8611245195666799E-2</v>
+        <v>2.8647623698241E-2</v>
       </c>
       <c r="I3" s="11">
-        <v>3.015666264552376E-2</v>
+        <v>3.0189781398727449E-2</v>
       </c>
       <c r="J3" s="11">
-        <v>2.87358112058528E-2</v>
+        <v>2.8772266680053862E-2</v>
       </c>
       <c r="K3" s="11">
-        <v>3.0858345354871929E-2</v>
+        <v>3.0886937581828231E-2</v>
       </c>
       <c r="L3" s="11">
-        <v>2.976615654757957E-2</v>
+        <v>2.9794708204739739E-2</v>
       </c>
       <c r="M3" s="11">
-        <v>2.8445481458230511E-2</v>
+        <v>2.8481898336593019E-2</v>
       </c>
       <c r="N3" s="11">
-        <v>2.8431966680803989E-2</v>
+        <v>2.8468393804038601E-2</v>
       </c>
       <c r="O3" s="11">
-        <v>2.918765348306631E-2</v>
+        <v>2.92048182529899E-2</v>
       </c>
       <c r="P3" s="11">
-        <v>2.9133194488143929E-2</v>
+        <v>2.916154348066001E-2</v>
       </c>
       <c r="Q3" s="11">
-        <v>2.959677672241065E-2</v>
+        <v>2.9631851142485038E-2</v>
       </c>
       <c r="R3" s="11">
-        <v>3.0307539049906389E-2</v>
+        <v>3.0338417158307051E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -5891,108 +5881,108 @@
         <v>56</v>
       </c>
       <c r="C4" s="11">
-        <v>5.9037148085751958E-5</v>
+        <v>5.9671890341757763E-5</v>
       </c>
       <c r="D4" s="11">
-        <v>1.8506375031920259E-4</v>
+        <v>1.8643303270898939E-4</v>
       </c>
       <c r="E4" s="11">
-        <v>2.6827547356520859E-5</v>
+        <v>2.7134197602725549E-5</v>
       </c>
       <c r="F4" s="11">
-        <v>1.5041201065930639E-4</v>
+        <v>1.5161177376510519E-4</v>
       </c>
       <c r="G4" s="11">
-        <v>1.8693724426935809E-5</v>
+        <v>1.8955684785535209E-5</v>
       </c>
       <c r="H4" s="11">
-        <v>1.5727657809721381E-5</v>
+        <v>1.5913598949958669E-5</v>
       </c>
       <c r="I4" s="11">
-        <v>2.004136126966379E-4</v>
+        <v>2.0207030664482471E-4</v>
       </c>
       <c r="J4" s="11">
-        <v>2.4720553249651479E-5</v>
+        <v>2.5008131533054859E-5</v>
       </c>
       <c r="K4" s="11">
-        <v>6.4873630604775064E-5</v>
+        <v>6.54662500908929E-5</v>
       </c>
       <c r="L4" s="11">
-        <v>1.9681940666612931E-4</v>
+        <v>1.9838209778851211E-4</v>
       </c>
       <c r="M4" s="11">
-        <v>1.097040732285809E-5</v>
+        <v>1.110324392440859E-5</v>
       </c>
       <c r="N4" s="11">
-        <v>1.1379732672153041E-5</v>
+        <v>1.151764351648655E-5</v>
       </c>
       <c r="O4" s="11">
-        <v>1.3599529722015249E-4</v>
+        <v>1.3788171232835311E-4</v>
       </c>
       <c r="P4" s="11">
-        <v>2.7047604466297998E-4</v>
+        <v>2.7245825978487162E-4</v>
       </c>
       <c r="Q4" s="11">
-        <v>5.7751795716948593E-5</v>
+        <v>5.8352328724571408E-5</v>
       </c>
       <c r="R4" s="11">
-        <v>2.8045330017475182E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+        <v>2.8283615268866002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11">
-        <v>0.80871952273767789</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.70966886494637782</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.81222365921232664</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.72398593712731263</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.80778317317374027</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.8108368087646376</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.77993036101840096</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.81180468767756941</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.72247702211467502</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.72983990421336942</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0.81072290847507533</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.81074490279039013</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.73080753810282206</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0.73321680241346776</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0.80918238268691645</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.75249224719759644</v>
+      <c r="C5" s="10">
+        <v>0.80834821487285791</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.709308356954515</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.81186597489461032</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.723614963396917</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.80742756847410591</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.81048707186163371</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.77954401691136577</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.81145054727662858</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.72210362495925906</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.72946032218162848</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.81037609141151457</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.81039844247178194</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.7304263219321343</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.7328355133997444</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.80880775343557143</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0.75210788008666118</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -6003,52 +5993,52 @@
         <v>42</v>
       </c>
       <c r="C6" s="11">
-        <v>1.8092135093271001E-2</v>
+        <v>1.8067186759580332E-2</v>
       </c>
       <c r="D6" s="11">
-        <v>1.6992009990124249E-2</v>
+        <v>1.6969407518851259E-2</v>
       </c>
       <c r="E6" s="11">
-        <v>1.8194872697809349E-2</v>
+        <v>1.8170420415966299E-2</v>
       </c>
       <c r="F6" s="11">
-        <v>1.7579843220633561E-2</v>
+        <v>1.7556212329278151E-2</v>
       </c>
       <c r="G6" s="11">
-        <v>2.1101707820892299E-2</v>
+        <v>2.1065202677766789E-2</v>
       </c>
       <c r="H6" s="11">
-        <v>1.8139824564724769E-2</v>
+        <v>1.8115828569138018E-2</v>
       </c>
       <c r="I6" s="11">
-        <v>1.7671913495177039E-2</v>
+        <v>1.7646311542146159E-2</v>
       </c>
       <c r="J6" s="11">
-        <v>1.820338712074162E-2</v>
+        <v>1.8178994126683719E-2</v>
       </c>
       <c r="K6" s="11">
-        <v>1.841086059209622E-2</v>
+        <v>1.8387640253840241E-2</v>
       </c>
       <c r="L6" s="11">
-        <v>1.745896451705041E-2</v>
+        <v>1.7434565468998731E-2</v>
       </c>
       <c r="M6" s="11">
-        <v>1.8118521964692061E-2</v>
+        <v>1.809465352501537E-2</v>
       </c>
       <c r="N6" s="11">
-        <v>1.8108438527957418E-2</v>
+        <v>1.808459492352249E-2</v>
       </c>
       <c r="O6" s="11">
-        <v>1.551843903646672E-2</v>
+        <v>1.5494436834466619E-2</v>
       </c>
       <c r="P6" s="11">
-        <v>1.691709403868814E-2</v>
+        <v>1.6892360284405879E-2</v>
       </c>
       <c r="Q6" s="11">
-        <v>1.8251303415483061E-2</v>
+        <v>1.822634268935798E-2</v>
       </c>
       <c r="R6" s="11">
-        <v>1.7577000887289761E-2</v>
+        <v>1.75506576827342E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -6059,52 +6049,52 @@
         <v>43</v>
       </c>
       <c r="C7" s="11">
-        <v>1.994827207998521E-3</v>
+        <v>2.0007258963762168E-3</v>
       </c>
       <c r="D7" s="11">
-        <v>6.4822176299763994E-4</v>
+        <v>6.5385272976859984E-4</v>
       </c>
       <c r="E7" s="11">
-        <v>2.2018023072000879E-3</v>
+        <v>2.2075297809756771E-3</v>
       </c>
       <c r="F7" s="11">
-        <v>8.3598485417696127E-4</v>
+        <v>8.4176780246481399E-4</v>
       </c>
       <c r="G7" s="11">
-        <v>2.4567125200441642E-3</v>
+        <v>2.4666528498588111E-3</v>
       </c>
       <c r="H7" s="11">
-        <v>2.294041071258161E-3</v>
+        <v>2.299632177442047E-3</v>
       </c>
       <c r="I7" s="11">
-        <v>1.19644607518535E-3</v>
+        <v>1.2028640974630789E-3</v>
       </c>
       <c r="J7" s="11">
-        <v>2.247737783405476E-3</v>
+        <v>2.253454431322298E-3</v>
       </c>
       <c r="K7" s="11">
-        <v>1.085425518103988E-3</v>
+        <v>1.0906959954272699E-3</v>
       </c>
       <c r="L7" s="11">
-        <v>8.1146366439415233E-4</v>
+        <v>8.1752814033648612E-4</v>
       </c>
       <c r="M7" s="11">
-        <v>2.3431124424957719E-3</v>
+        <v>2.3486636417215192E-3</v>
       </c>
       <c r="N7" s="11">
-        <v>2.346396484905062E-3</v>
+        <v>2.351942005969848E-3</v>
       </c>
       <c r="O7" s="11">
-        <v>1.5785699558276401E-3</v>
+        <v>1.5844206376698659E-3</v>
       </c>
       <c r="P7" s="11">
-        <v>6.679403732199582E-4</v>
+        <v>6.7431552534397902E-4</v>
       </c>
       <c r="Q7" s="11">
-        <v>1.941190494192476E-3</v>
+        <v>1.9470524117752241E-3</v>
       </c>
       <c r="R7" s="11">
-        <v>1.075979713300328E-3</v>
+        <v>1.08271628243504E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -6115,52 +6105,52 @@
         <v>44</v>
       </c>
       <c r="C8" s="11">
-        <v>3.1967252177915349E-3</v>
+        <v>3.2295923997417682E-3</v>
       </c>
       <c r="D8" s="11">
-        <v>3.137116971156954E-3</v>
+        <v>3.165942083035991E-3</v>
       </c>
       <c r="E8" s="11">
-        <v>3.1540057442108172E-3</v>
+        <v>3.1862999646645549E-3</v>
       </c>
       <c r="F8" s="11">
-        <v>3.160257526633071E-3</v>
+        <v>3.1902845782377401E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>3.2965815814660492E-3</v>
+        <v>3.3505692347882369E-3</v>
       </c>
       <c r="H8" s="11">
-        <v>3.1190499679272692E-3</v>
+        <v>3.1507791218229018E-3</v>
       </c>
       <c r="I8" s="11">
-        <v>3.3270540590762589E-3</v>
+        <v>3.3609295842756972E-3</v>
       </c>
       <c r="J8" s="11">
-        <v>3.140705166365E-3</v>
+        <v>3.1730083388806828E-3</v>
       </c>
       <c r="K8" s="11">
-        <v>3.086969307485872E-3</v>
+        <v>3.1150483314796732E-3</v>
       </c>
       <c r="L8" s="11">
-        <v>3.1933181435920398E-3</v>
+        <v>3.224711774532674E-3</v>
       </c>
       <c r="M8" s="11">
-        <v>3.100758424120395E-3</v>
+        <v>3.1323609194070711E-3</v>
       </c>
       <c r="N8" s="11">
-        <v>3.0987858496340981E-3</v>
+        <v>3.130362877365503E-3</v>
       </c>
       <c r="O8" s="11">
-        <v>2.8056649305099029E-3</v>
+        <v>2.8381075507267531E-3</v>
       </c>
       <c r="P8" s="11">
-        <v>3.27005014359279E-3</v>
+        <v>3.3026160008389109E-3</v>
       </c>
       <c r="Q8" s="11">
-        <v>3.2315251291774659E-3</v>
+        <v>3.264095910554151E-3</v>
       </c>
       <c r="R8" s="11">
-        <v>3.2497975952992461E-3</v>
+        <v>3.285169934746506E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -6171,52 +6161,52 @@
         <v>45</v>
       </c>
       <c r="C9" s="11">
-        <v>2.4097777170494491E-2</v>
+        <v>2.4049779678698709E-2</v>
       </c>
       <c r="D9" s="11">
-        <v>5.052552845789565E-5</v>
+        <v>4.9854868975312247E-5</v>
       </c>
       <c r="E9" s="11">
-        <v>3.2236583033942869E-2</v>
+        <v>3.2181040311327153E-2</v>
       </c>
       <c r="F9" s="11">
-        <v>3.8109405522327952E-4</v>
+        <v>3.775181423179038E-4</v>
       </c>
       <c r="G9" s="11">
-        <v>3.5007635844564178E-2</v>
+        <v>3.4939833777097029E-2</v>
       </c>
       <c r="H9" s="11">
-        <v>3.5709759504443377E-2</v>
+        <v>3.565144983140027E-2</v>
       </c>
       <c r="I9" s="11">
-        <v>8.1496251167372351E-3</v>
+        <v>8.123961784979556E-3</v>
       </c>
       <c r="J9" s="11">
-        <v>3.3877063336786181E-2</v>
+        <v>3.3820036749279123E-2</v>
       </c>
       <c r="K9" s="11">
-        <v>2.1423342673117471E-4</v>
+        <v>2.117570563854215E-4</v>
       </c>
       <c r="L9" s="11">
-        <v>3.6289081805899071E-4</v>
+        <v>3.5943464365218548E-4</v>
       </c>
       <c r="M9" s="11">
-        <v>3.7222627176255581E-2</v>
+        <v>3.7163053065519022E-2</v>
       </c>
       <c r="N9" s="11">
-        <v>3.7359836988680013E-2</v>
+        <v>3.730015041953811E-2</v>
       </c>
       <c r="O9" s="11">
-        <v>4.1430912351842701E-4</v>
+        <v>4.0939682270168788E-4</v>
       </c>
       <c r="P9" s="11">
-        <v>8.5835317329440114E-4</v>
+        <v>8.5217471367722358E-4</v>
       </c>
       <c r="Q9" s="11">
-        <v>2.37412678859261E-2</v>
+        <v>2.369426366761708E-2</v>
       </c>
       <c r="R9" s="11">
-        <v>2.5374661965690578E-3</v>
+        <v>2.5241472993758349E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -6227,52 +6217,52 @@
         <v>46</v>
       </c>
       <c r="C10" s="11">
-        <v>2.368022296906636E-3</v>
+        <v>2.368309747582615E-3</v>
       </c>
       <c r="D10" s="11">
-        <v>1.211224579500212E-2</v>
+        <v>1.211112304397899E-2</v>
       </c>
       <c r="E10" s="11">
-        <v>1.097946271624636E-3</v>
+        <v>1.0981560452999969E-3</v>
       </c>
       <c r="F10" s="11">
-        <v>9.0489691381957001E-3</v>
+        <v>9.0484651615281419E-3</v>
       </c>
       <c r="G10" s="11">
-        <v>5.7735639351089369E-4</v>
+        <v>5.7762227004547043E-4</v>
       </c>
       <c r="H10" s="11">
-        <v>6.3340295499623837E-4</v>
+        <v>6.3354689851062682E-4</v>
       </c>
       <c r="I10" s="11">
-        <v>9.6258873084073566E-3</v>
+        <v>9.6253307291693044E-3</v>
       </c>
       <c r="J10" s="11">
-        <v>8.6597568657643292E-4</v>
+        <v>8.6615787893990935E-4</v>
       </c>
       <c r="K10" s="11">
-        <v>3.3152232733592909E-3</v>
+        <v>3.3154618472158552E-3</v>
       </c>
       <c r="L10" s="11">
-        <v>1.04008786309973E-2</v>
+        <v>1.0400109835377411E-2</v>
       </c>
       <c r="M10" s="11">
-        <v>3.9540732201436782E-4</v>
+        <v>3.9550688112202089E-4</v>
       </c>
       <c r="N10" s="11">
-        <v>3.8530343167274028E-4</v>
+        <v>3.8540090300612408E-4</v>
       </c>
       <c r="O10" s="11">
-        <v>4.1791254807887609E-3</v>
+        <v>4.1798127006504454E-3</v>
       </c>
       <c r="P10" s="11">
-        <v>1.545193968258504E-2</v>
+        <v>1.5449982189488429E-2</v>
       </c>
       <c r="Q10" s="11">
-        <v>2.4976231160026281E-3</v>
+        <v>2.4978792852263601E-3</v>
       </c>
       <c r="R10" s="11">
-        <v>9.9031658596369001E-3</v>
+        <v>9.9027749760569623E-3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -6283,52 +6273,52 @@
         <v>47</v>
       </c>
       <c r="C11" s="11">
-        <v>1.4465214024924719E-4</v>
+        <v>1.3770804745524579E-4</v>
       </c>
       <c r="D11" s="11">
-        <v>2.5747169864259641E-6</v>
+        <v>2.2732739438055389E-6</v>
       </c>
       <c r="E11" s="11">
-        <v>8.0029944801691583E-5</v>
+        <v>7.8087981903774434E-5</v>
       </c>
       <c r="F11" s="11">
-        <v>1.2747491180830811E-5</v>
+        <v>1.126794712851989E-5</v>
       </c>
       <c r="G11" s="11">
-        <v>5.9480670268915951E-5</v>
+        <v>5.7835694286208018E-5</v>
       </c>
       <c r="H11" s="11">
-        <v>4.751783472908115E-5</v>
+        <v>4.6503616436360587E-5</v>
       </c>
       <c r="I11" s="11">
-        <v>5.1256617375728128E-5</v>
+        <v>4.6233044381740527E-5</v>
       </c>
       <c r="J11" s="11">
-        <v>6.8320642124363294E-5</v>
+        <v>6.6752243313823964E-5</v>
       </c>
       <c r="K11" s="11">
-        <v>6.9776159716768644E-6</v>
+        <v>6.5008372139481211E-6</v>
       </c>
       <c r="L11" s="11">
-        <v>3.0682904128623692E-6</v>
+        <v>7.7049634733148081E-6</v>
       </c>
       <c r="M11" s="11">
-        <v>4.8893003920258372E-5</v>
+        <v>4.7877121851577083E-5</v>
       </c>
       <c r="N11" s="11">
-        <v>5.1642604782578297E-5</v>
+        <v>5.0568694326716979E-5</v>
       </c>
       <c r="O11" s="11">
-        <v>1.228747913334124E-2</v>
+        <v>1.2372119552967509E-2</v>
       </c>
       <c r="P11" s="11">
-        <v>9.8637221493129438E-6</v>
+        <v>1.3995293295356971E-5</v>
       </c>
       <c r="Q11" s="11">
-        <v>8.2240658879934145E-5</v>
+        <v>7.9673577998010274E-5</v>
       </c>
       <c r="R11" s="11">
-        <v>2.8345260685587611E-4</v>
+        <v>2.9863211957063688E-4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -6339,52 +6329,52 @@
         <v>48</v>
       </c>
       <c r="C12" s="11">
-        <v>7.5923139055532413E-5</v>
+        <v>7.5826533495594912E-5</v>
       </c>
       <c r="D12" s="11">
-        <v>1.4865521152646639E-5</v>
+        <v>1.4849724176064511E-5</v>
       </c>
       <c r="E12" s="11">
-        <v>2.7509460616220479E-5</v>
+        <v>2.7472190033715351E-5</v>
       </c>
       <c r="F12" s="11">
-        <v>5.4794030819997119E-5</v>
+        <v>5.4734846020458708E-5</v>
       </c>
       <c r="G12" s="11">
-        <v>3.1593802605916902E-5</v>
+        <v>3.1539076457004828E-5</v>
       </c>
       <c r="H12" s="11">
-        <v>1.8983086028570451E-5</v>
+        <v>1.8956811090465461E-5</v>
       </c>
       <c r="I12" s="11">
-        <v>1.4386633510285311E-4</v>
+        <v>1.436999002607324E-4</v>
       </c>
       <c r="J12" s="11">
-        <v>2.544454943522065E-5</v>
+        <v>2.5409667447241909E-5</v>
       </c>
       <c r="K12" s="11">
-        <v>2.8197563063576892E-5</v>
+        <v>2.8167343360319479E-5</v>
       </c>
       <c r="L12" s="11">
-        <v>3.0511315292731733E-4</v>
+        <v>3.0479100913298333E-4</v>
       </c>
       <c r="M12" s="11">
-        <v>1.506488321386154E-5</v>
+        <v>1.504375533804523E-5</v>
       </c>
       <c r="N12" s="11">
-        <v>1.070332310431231E-5</v>
+        <v>1.0688247098724E-5</v>
       </c>
       <c r="O12" s="11">
-        <v>1.3796555075484059E-4</v>
+        <v>1.3780048889128451E-4</v>
       </c>
       <c r="P12" s="11">
-        <v>8.0253280515042236E-4</v>
+        <v>8.0172841740344962E-4</v>
       </c>
       <c r="Q12" s="11">
-        <v>1.793874937906444E-4</v>
+        <v>1.7917035987927119E-4</v>
       </c>
       <c r="R12" s="11">
-        <v>1.9278689735772791E-4</v>
+        <v>1.9256809352242809E-4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -6395,52 +6385,52 @@
         <v>57</v>
       </c>
       <c r="C13" s="11">
-        <v>2.317792526741426E-3</v>
+        <v>2.3294532964799539E-3</v>
       </c>
       <c r="D13" s="11">
-        <v>7.8509480982219117E-5</v>
+        <v>7.9278234723740453E-5</v>
       </c>
       <c r="E13" s="11">
-        <v>2.8620834439108218E-3</v>
+        <v>2.8748265634201552E-3</v>
       </c>
       <c r="F13" s="11">
-        <v>1.889856145247116E-4</v>
+        <v>1.908088857072861E-4</v>
       </c>
       <c r="G13" s="11">
-        <v>3.286215805117025E-3</v>
+        <v>3.3021425389085021E-3</v>
       </c>
       <c r="H13" s="11">
-        <v>2.9618517002963922E-3</v>
+        <v>2.9746921781261008E-3</v>
       </c>
       <c r="I13" s="11">
-        <v>1.2987412861687299E-3</v>
+        <v>1.3064713459041909E-3</v>
       </c>
       <c r="J13" s="11">
-        <v>2.9140384706143108E-3</v>
+        <v>2.9268694614041049E-3</v>
       </c>
       <c r="K13" s="11">
-        <v>8.0144256562882766E-5</v>
+        <v>8.1209057456507977E-5</v>
       </c>
       <c r="L13" s="11">
-        <v>3.4051487878855992E-4</v>
+        <v>3.4349495145980641E-4</v>
       </c>
       <c r="M13" s="11">
-        <v>3.043267957927196E-3</v>
+        <v>3.0562986198590658E-3</v>
       </c>
       <c r="N13" s="11">
-        <v>3.0530900858770798E-3</v>
+        <v>3.0661426820283318E-3</v>
       </c>
       <c r="O13" s="11">
-        <v>8.527266020471728E-4</v>
+        <v>8.6208744237264599E-4</v>
       </c>
       <c r="P13" s="11">
-        <v>5.2394227714188117E-4</v>
+        <v>5.2783956884134686E-4</v>
       </c>
       <c r="Q13" s="11">
-        <v>2.309262443136667E-3</v>
+        <v>2.3206147987073749E-3</v>
       </c>
       <c r="R13" s="11">
-        <v>6.8973659419635785E-4</v>
+        <v>6.9512853047798016E-4</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -6451,52 +6441,52 @@
         <v>58</v>
       </c>
       <c r="C14" s="11">
-        <v>4.0975731878669626E-3</v>
+        <v>4.093967473536235E-3</v>
       </c>
       <c r="D14" s="11">
-        <v>1.1697892585288069E-4</v>
+        <v>1.168104146034567E-4</v>
       </c>
       <c r="E14" s="11">
-        <v>5.4144286828720486E-3</v>
+        <v>5.4101473498861146E-3</v>
       </c>
       <c r="F14" s="11">
-        <v>2.8382002228711411E-4</v>
+        <v>2.8341484236773189E-4</v>
       </c>
       <c r="G14" s="11">
-        <v>5.6938103262411961E-3</v>
+        <v>5.6889526940495407E-3</v>
       </c>
       <c r="H14" s="11">
-        <v>5.7523035918448789E-3</v>
+        <v>5.7479104953062831E-3</v>
       </c>
       <c r="I14" s="11">
-        <v>1.9811111126726579E-3</v>
+        <v>1.9790047890575488E-3</v>
       </c>
       <c r="J14" s="11">
-        <v>5.5756220026695032E-3</v>
+        <v>5.5712794024025732E-3</v>
       </c>
       <c r="K14" s="11">
-        <v>1.4348083281396241E-4</v>
+        <v>1.4325572299383999E-4</v>
       </c>
       <c r="L14" s="11">
-        <v>4.7316587367855068E-4</v>
+        <v>4.7249306591110518E-4</v>
       </c>
       <c r="M14" s="11">
-        <v>5.9485253056806029E-3</v>
+        <v>5.9440390581425029E-3</v>
       </c>
       <c r="N14" s="11">
-        <v>5.9684638623281232E-3</v>
+        <v>5.9639684015464498E-3</v>
       </c>
       <c r="O14" s="11">
-        <v>2.5224311966957859E-5</v>
+        <v>2.6590674244133169E-5</v>
       </c>
       <c r="P14" s="11">
-        <v>6.8377529605339921E-4</v>
+        <v>6.8285902586538336E-4</v>
       </c>
       <c r="Q14" s="11">
-        <v>4.1896030266620754E-3</v>
+        <v>4.1859824922522784E-3</v>
       </c>
       <c r="R14" s="11">
-        <v>8.5732634381734574E-4</v>
+        <v>8.5610940965491261E-4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -6507,52 +6497,52 @@
         <v>59</v>
       </c>
       <c r="C15" s="11">
-        <v>3.86753662060059E-3</v>
+        <v>3.8652517091812559E-3</v>
       </c>
       <c r="D15" s="11">
-        <v>8.8661434334793334E-5</v>
+        <v>8.8591140709849567E-5</v>
       </c>
       <c r="E15" s="11">
-        <v>4.7739440229864682E-3</v>
+        <v>4.7712849401079574E-3</v>
       </c>
       <c r="F15" s="11">
-        <v>2.5174887320672361E-4</v>
+        <v>2.5155295829961739E-4</v>
       </c>
       <c r="G15" s="11">
-        <v>5.1465315790140929E-3</v>
+        <v>5.1435642079668917E-3</v>
       </c>
       <c r="H15" s="11">
-        <v>5.1166552947436057E-3</v>
+        <v>5.1138771556860719E-3</v>
       </c>
       <c r="I15" s="11">
-        <v>1.875593158766873E-3</v>
+        <v>1.874343630715748E-3</v>
       </c>
       <c r="J15" s="11">
-        <v>4.9789167752729447E-3</v>
+        <v>4.9761757491851508E-3</v>
       </c>
       <c r="K15" s="11">
-        <v>1.4610384459029529E-4</v>
+        <v>1.459862757302131E-4</v>
       </c>
       <c r="L15" s="11">
-        <v>3.786366395133629E-4</v>
+        <v>3.7834358317830871E-4</v>
       </c>
       <c r="M15" s="11">
-        <v>5.2828781708763187E-3</v>
+        <v>5.2800383616532429E-3</v>
       </c>
       <c r="N15" s="11">
-        <v>5.29885521919044E-3</v>
+        <v>5.2960100151177728E-3</v>
       </c>
       <c r="O15" s="11">
-        <v>1.401580387076468E-3</v>
+        <v>1.400482641555717E-3</v>
       </c>
       <c r="P15" s="11">
-        <v>5.3039704902468031E-4</v>
+        <v>5.2999814035797996E-4</v>
       </c>
       <c r="Q15" s="11">
-        <v>3.831605209830777E-3</v>
+        <v>3.829336956390083E-3</v>
       </c>
       <c r="R15" s="11">
-        <v>9.1437713362560469E-4</v>
+        <v>9.1370412421647358E-4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -6563,52 +6553,52 @@
         <v>51</v>
       </c>
       <c r="C16" s="11">
-        <v>3.318576875750516E-2</v>
+        <v>3.3171145832478717E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>4.3544276557312273E-2</v>
+        <v>4.3523670694202217E-2</v>
       </c>
       <c r="E16" s="11">
-        <v>3.109463663468397E-2</v>
+        <v>3.1081459320032909E-2</v>
       </c>
       <c r="F16" s="11">
-        <v>4.2462750627366402E-2</v>
+        <v>4.2442387635509407E-2</v>
       </c>
       <c r="G16" s="11">
-        <v>3.0721956506079489E-2</v>
+        <v>3.070902637815405E-2</v>
       </c>
       <c r="H16" s="11">
-        <v>3.0321976451635039E-2</v>
+        <v>3.0309384699043439E-2</v>
       </c>
       <c r="I16" s="11">
-        <v>3.8783497921297427E-2</v>
+        <v>3.8765312016364177E-2</v>
       </c>
       <c r="J16" s="11">
-        <v>3.0703922829611811E-2</v>
+        <v>3.0691030179835221E-2</v>
       </c>
       <c r="K16" s="11">
-        <v>4.1276858902542762E-2</v>
+        <v>4.1256766242641692E-2</v>
       </c>
       <c r="L16" s="11">
-        <v>4.2026271375986309E-2</v>
+        <v>4.2005811604994003E-2</v>
       </c>
       <c r="M16" s="11">
-        <v>2.988148006274835E-2</v>
+        <v>2.9869168787828752E-2</v>
       </c>
       <c r="N16" s="11">
-        <v>2.9841657183198811E-2</v>
+        <v>2.9829374990663168E-2</v>
       </c>
       <c r="O16" s="11">
-        <v>3.2784102737433672E-2</v>
+        <v>3.2768030267902953E-2</v>
       </c>
       <c r="P16" s="11">
-        <v>4.2353086817118357E-2</v>
+        <v>4.2332497671831532E-2</v>
       </c>
       <c r="Q16" s="11">
-        <v>3.3442985872250829E-2</v>
+        <v>3.3428122846527873E-2</v>
       </c>
       <c r="R16" s="11">
-        <v>4.0013254469641643E-2</v>
+        <v>3.9994071882275703E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -6619,52 +6609,52 @@
         <v>52</v>
       </c>
       <c r="C17" s="11">
-        <v>3.7469734418224543E-2</v>
+        <v>3.750275789897594E-2</v>
       </c>
       <c r="D17" s="11">
-        <v>3.6924254764642277E-2</v>
+        <v>3.6949759118485942E-2</v>
       </c>
       <c r="E17" s="11">
-        <v>3.6559904707862773E-2</v>
+        <v>3.6594119690358418E-2</v>
       </c>
       <c r="F17" s="11">
-        <v>3.7656484706238967E-2</v>
+        <v>3.7682534239484151E-2</v>
       </c>
       <c r="G17" s="11">
-        <v>3.652255820300021E-2</v>
+        <v>3.6567945342352068E-2</v>
       </c>
       <c r="H17" s="11">
-        <v>3.647074157784401E-2</v>
+        <v>3.6505129072880983E-2</v>
       </c>
       <c r="I17" s="11">
-        <v>3.6446545183160782E-2</v>
+        <v>3.6477222579327798E-2</v>
       </c>
       <c r="J17" s="11">
-        <v>3.6487834436539968E-2</v>
+        <v>3.6522269599192338E-2</v>
       </c>
       <c r="K17" s="11">
-        <v>3.9900036363611682E-2</v>
+        <v>3.9924609997505897E-2</v>
       </c>
       <c r="L17" s="11">
-        <v>3.6686268792357278E-2</v>
+        <v>3.6711669431869598E-2</v>
       </c>
       <c r="M17" s="11">
-        <v>3.6383117908301878E-2</v>
+        <v>3.6417563327059442E-2</v>
       </c>
       <c r="N17" s="11">
-        <v>3.637225392219335E-2</v>
+        <v>3.6406713044505122E-2</v>
       </c>
       <c r="O17" s="11">
-        <v>3.7629619593498621E-2</v>
+        <v>3.7642632208545461E-2</v>
       </c>
       <c r="P17" s="11">
-        <v>3.5310244970691268E-2</v>
+        <v>3.5335823043751227E-2</v>
       </c>
       <c r="Q17" s="11">
-        <v>3.7015587792781079E-2</v>
+        <v>3.7048383703413373E-2</v>
       </c>
       <c r="R17" s="11">
-        <v>3.709210927223882E-2</v>
+        <v>3.7119934539092923E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -6673,67 +6663,67 @@
       </c>
       <c r="C18" s="12">
         <f>SUM(C2:C17)</f>
-        <v>0.97001432047541913</v>
+        <v>0.96961209151402483</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:R18" si="0">SUM(D2:D17)</f>
-        <v>0.85409210464491192</v>
+        <v>0.85382157124697322</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="0"/>
-        <v>0.979626057703885</v>
+        <v>0.97923813245658264</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="0"/>
-        <v>0.86705994251033269</v>
+        <v>0.8667785250694473</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
-        <v>0.98242164915238717</v>
+        <v>0.98205071204506267</v>
       </c>
       <c r="H18" s="12">
         <f t="shared" si="0"/>
-        <v>0.9809867131763651</v>
+        <v>0.98060554914993125</v>
       </c>
       <c r="I18" s="12">
         <f t="shared" si="0"/>
-        <v>0.93113633170578691</v>
+        <v>0.93073479640496637</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.98054857722442379</v>
+        <v>0.98016371051028972</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="0"/>
-        <v>0.86242144510903262</v>
+        <v>0.86213396262448949</v>
       </c>
       <c r="L18" s="12">
         <f t="shared" si="0"/>
-        <v>0.87270497836293548</v>
+        <v>0.87242090825665208</v>
       </c>
       <c r="M18" s="12">
         <f t="shared" si="0"/>
-        <v>0.98192813096331799</v>
+        <v>0.98154907205093633</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" si="0"/>
-        <v>0.98204686782412653</v>
+        <v>0.98166806215859381</v>
       </c>
       <c r="O18" s="12">
         <f t="shared" si="0"/>
-        <v>0.87195170726829929</v>
+        <v>0.87172689994312846</v>
       </c>
       <c r="P18" s="12">
         <f t="shared" si="0"/>
-        <v>0.88019815723192218</v>
+        <v>0.87981848912629912</v>
       </c>
       <c r="Q18" s="12">
         <f t="shared" si="0"/>
-        <v>0.9701665352738813</v>
+        <v>0.96976505055023521</v>
       </c>
       <c r="R18" s="12">
         <f t="shared" si="0"/>
-        <v>0.89785028225168084</v>
+        <v>0.89757704812497063</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -6868,67 +6858,67 @@
       </c>
       <c r="C2" s="3">
         <f>'EGE FIRST'!C2/'EGE FIRST'!$C$18</f>
-        <v>4.3255557219590746E-4</v>
+        <v>3.8097778053951996E-4</v>
       </c>
       <c r="D2" s="3">
         <f>'EGE FIRST'!D2/'EGE FIRST'!$C$18</f>
-        <v>4.519806912433959E-4</v>
+        <v>4.9844487035815991E-4</v>
       </c>
       <c r="E2" s="3">
         <f>'EGE FIRST'!E2/'EGE FIRST'!$C$18</f>
-        <v>8.271261614344979E-4</v>
+        <v>7.7598602240182984E-4</v>
       </c>
       <c r="F2" s="3">
         <f>'EGE FIRST'!F2/'EGE FIRST'!$C$18</f>
-        <v>6.2439665140777412E-4</v>
+        <v>6.7169104630436668E-4</v>
       </c>
       <c r="G2" s="3">
         <f>'EGE FIRST'!G2/'EGE FIRST'!$C$18</f>
-        <v>1.9391048073596536E-3</v>
+        <v>1.8764507789975483E-3</v>
       </c>
       <c r="H2" s="3">
         <f>'EGE FIRST'!H2/'EGE FIRST'!$C$18</f>
-        <v>9.6578363639057295E-4</v>
+        <v>9.1505600227992454E-4</v>
       </c>
       <c r="I2" s="3">
         <f>'EGE FIRST'!I2/'EGE FIRST'!$C$18</f>
-        <v>3.0654883516726376E-4</v>
+        <v>2.5499139949523598E-4</v>
       </c>
       <c r="J2" s="3">
         <f>'EGE FIRST'!J2/'EGE FIRST'!$C$18</f>
-        <v>9.2203689031174554E-4</v>
+        <v>8.7091590707100207E-4</v>
       </c>
       <c r="K2" s="3">
         <f>'EGE FIRST'!K2/'EGE FIRST'!$C$18</f>
-        <v>1.367704047190913E-3</v>
+        <v>1.4137972123676457E-3</v>
       </c>
       <c r="L2" s="3">
         <f>'EGE FIRST'!L2/'EGE FIRST'!$C$18</f>
-        <v>4.7581093167475326E-4</v>
+        <v>5.2272171934997648E-4</v>
       </c>
       <c r="M2" s="3">
         <f>'EGE FIRST'!M2/'EGE FIRST'!$C$18</f>
-        <v>9.9495026008433046E-4</v>
+        <v>9.4441065906766656E-4</v>
       </c>
       <c r="N2" s="3">
         <f>'EGE FIRST'!N2/'EGE FIRST'!$C$18</f>
-        <v>9.92965893806684E-4</v>
+        <v>9.4242949584239053E-4</v>
       </c>
       <c r="O2" s="3">
         <f>'EGE FIRST'!O2/'EGE FIRST'!$C$18</f>
-        <v>2.2738979161452972E-3</v>
+        <v>2.3122238703521419E-3</v>
       </c>
       <c r="P2" s="3">
         <f>'EGE FIRST'!P2/'EGE FIRST'!$C$18</f>
-        <v>2.045989762714261E-4</v>
+        <v>1.5757240688926133E-4</v>
       </c>
       <c r="Q2" s="3">
         <f>'EGE FIRST'!Q2/'EGE FIRST'!$C$18</f>
-        <v>6.3508498557178212E-4</v>
+        <v>5.8391902154515034E-4</v>
       </c>
       <c r="R2" s="3">
         <f>'EGE FIRST'!R2/'EGE FIRST'!$C$18</f>
-        <v>3.9544687751276165E-4</v>
+        <v>4.4584824894179837E-4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -6940,67 +6930,67 @@
       </c>
       <c r="C3" s="3">
         <f>'EGE FIRST'!C3/'EGE FIRST'!$C$18</f>
-        <v>3.0832233176578336E-2</v>
+        <v>3.0881523731699764E-2</v>
       </c>
       <c r="D3" s="3">
         <f>'EGE FIRST'!D3/'EGE FIRST'!$C$18</f>
-        <v>3.101965210305441E-2</v>
+        <v>3.1061978810529241E-2</v>
       </c>
       <c r="E3" s="3">
         <f>'EGE FIRST'!E3/'EGE FIRST'!$C$18</f>
-        <v>2.9768116986248715E-2</v>
+        <v>2.981787627573948E-2</v>
       </c>
       <c r="F3" s="3">
         <f>'EGE FIRST'!F3/'EGE FIRST'!$C$18</f>
-        <v>3.1340196610140106E-2</v>
+        <v>3.138339655258169E-2</v>
       </c>
       <c r="G3" s="3">
         <f>'EGE FIRST'!G3/'EGE FIRST'!$C$18</f>
-        <v>2.9728099019446109E-2</v>
+        <v>2.9789100231714386E-2</v>
       </c>
       <c r="H3" s="3">
         <f>'EGE FIRST'!H3/'EGE FIRST'!$C$18</f>
-        <v>2.9495693611661301E-2</v>
+        <v>2.9545448070380866E-2</v>
       </c>
       <c r="I3" s="3">
         <f>'EGE FIRST'!I3/'EGE FIRST'!$C$18</f>
-        <v>3.1088883956623969E-2</v>
+        <v>3.1135937415535803E-2</v>
       </c>
       <c r="J3" s="3">
         <f>'EGE FIRST'!J3/'EGE FIRST'!$C$18</f>
-        <v>2.9624110282999667E-2</v>
+        <v>2.9673997397378464E-2</v>
       </c>
       <c r="K3" s="3">
         <f>'EGE FIRST'!K3/'EGE FIRST'!$C$18</f>
-        <v>3.1812257513629053E-2</v>
+        <v>3.1854942664338123E-2</v>
       </c>
       <c r="L3" s="3">
         <f>'EGE FIRST'!L3/'EGE FIRST'!$C$18</f>
-        <v>3.0686306293901632E-2</v>
+        <v>3.0728482519453787E-2</v>
       </c>
       <c r="M3" s="3">
         <f>'EGE FIRST'!M3/'EGE FIRST'!$C$18</f>
-        <v>2.9324805683578915E-2</v>
+        <v>2.9374528830513297E-2</v>
       </c>
       <c r="N3" s="3">
         <f>'EGE FIRST'!N3/'EGE FIRST'!$C$18</f>
-        <v>2.9310873129036939E-2</v>
+        <v>2.9360601062210272E-2</v>
       </c>
       <c r="O3" s="3">
         <f>'EGE FIRST'!O3/'EGE FIRST'!$C$18</f>
-        <v>3.0089920186705064E-2</v>
+        <v>3.0120105255068873E-2</v>
       </c>
       <c r="P3" s="3">
         <f>'EGE FIRST'!P3/'EGE FIRST'!$C$18</f>
-        <v>3.0033777721823009E-2</v>
+        <v>3.0075474239522938E-2</v>
       </c>
       <c r="Q3" s="3">
         <f>'EGE FIRST'!Q3/'EGE FIRST'!$C$18</f>
-        <v>3.0511690495357645E-2</v>
+        <v>3.0560521472267996E-2</v>
       </c>
       <c r="R3" s="3">
         <f>'EGE FIRST'!R3/'EGE FIRST'!$C$18</f>
-        <v>3.1244424345253163E-2</v>
+        <v>3.1289231460526014E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -7012,67 +7002,67 @@
       </c>
       <c r="C4" s="3">
         <f>'EGE FIRST'!C4/'EGE FIRST'!$C$18</f>
-        <v>6.0862140732950143E-5</v>
+        <v>6.1542023726809771E-5</v>
       </c>
       <c r="D4" s="3">
         <f>'EGE FIRST'!D4/'EGE FIRST'!$C$18</f>
-        <v>1.9078455483883985E-4</v>
+        <v>1.9227589501063142E-4</v>
       </c>
       <c r="E4" s="3">
         <f>'EGE FIRST'!E4/'EGE FIRST'!$C$18</f>
-        <v>2.7656857007401972E-5</v>
+        <v>2.7984590786565155E-5</v>
       </c>
       <c r="F4" s="3">
         <f>'EGE FIRST'!F4/'EGE FIRST'!$C$18</f>
-        <v>1.5506163928135321E-4</v>
+        <v>1.5636332827529743E-4</v>
       </c>
       <c r="G4" s="3">
         <f>'EGE FIRST'!G4/'EGE FIRST'!$C$18</f>
-        <v>1.9271596338674387E-5</v>
+        <v>1.9549761137916903E-5</v>
       </c>
       <c r="H4" s="3">
         <f>'EGE FIRST'!H4/'EGE FIRST'!$C$18</f>
-        <v>1.621384084516712E-5</v>
+        <v>1.6412335499147898E-5</v>
       </c>
       <c r="I4" s="3">
         <f>'EGE FIRST'!I4/'EGE FIRST'!$C$18</f>
-        <v>2.0660892160686046E-4</v>
+        <v>2.0840324539403898E-4</v>
       </c>
       <c r="J4" s="3">
         <f>'EGE FIRST'!J4/'EGE FIRST'!$C$18</f>
-        <v>2.5484730202267065E-5</v>
+        <v>2.5791893224026622E-5</v>
       </c>
       <c r="K4" s="3">
         <f>'EGE FIRST'!K4/'EGE FIRST'!$C$18</f>
-        <v>6.6879044190790385E-5</v>
+        <v>6.751798029732591E-5</v>
       </c>
       <c r="L4" s="3">
         <f>'EGE FIRST'!L4/'EGE FIRST'!$C$18</f>
-        <v>2.0290360926802095E-4</v>
+        <v>2.0459944706211684E-4</v>
       </c>
       <c r="M4" s="3">
         <f>'EGE FIRST'!M4/'EGE FIRST'!$C$18</f>
-        <v>1.1309531304116543E-5</v>
+        <v>1.1451222629733458E-5</v>
       </c>
       <c r="N4" s="3">
         <f>'EGE FIRST'!N4/'EGE FIRST'!$C$18</f>
-        <v>1.1731509970466885E-5</v>
+        <v>1.1878609618514596E-5</v>
       </c>
       <c r="O4" s="3">
         <f>'EGE FIRST'!O4/'EGE FIRST'!$C$18</f>
-        <v>1.4019926752576093E-4</v>
+        <v>1.4220296295300349E-4</v>
       </c>
       <c r="P4" s="3">
         <f>'EGE FIRST'!P4/'EGE FIRST'!$C$18</f>
-        <v>2.7883716657957738E-4</v>
+        <v>2.809971762619368E-4</v>
       </c>
       <c r="Q4" s="3">
         <f>'EGE FIRST'!Q4/'EGE FIRST'!$C$18</f>
-        <v>5.9537054760844706E-5</v>
+        <v>6.0181106687165706E-5</v>
       </c>
       <c r="R4" s="3">
         <f>'EGE FIRST'!R4/'EGE FIRST'!$C$18</f>
-        <v>2.891228451527368E-4</v>
+        <v>2.9170031517141923E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -7084,67 +7074,67 @@
       </c>
       <c r="C5" s="3">
         <f>'EGE FIRST'!C5/'EGE FIRST'!$C$18</f>
-        <v>0.83371915822986187</v>
+        <v>0.83368206930118061</v>
       </c>
       <c r="D5" s="3">
         <f>'EGE FIRST'!D5/'EGE FIRST'!$C$18</f>
-        <v>0.73160658555902358</v>
+        <v>0.73153827511262559</v>
       </c>
       <c r="E5" s="3">
         <f>'EGE FIRST'!E5/'EGE FIRST'!$C$18</f>
-        <v>0.83733161672731093</v>
+        <v>0.83731007688538839</v>
       </c>
       <c r="F5" s="3">
         <f>'EGE FIRST'!F5/'EGE FIRST'!$C$18</f>
-        <v>0.74636623588451334</v>
+        <v>0.74629325451893913</v>
       </c>
       <c r="G5" s="3">
         <f>'EGE FIRST'!G5/'EGE FIRST'!$C$18</f>
-        <v>0.83275386365206772</v>
+        <v>0.83273256959216357</v>
       </c>
       <c r="H5" s="3">
         <f>'EGE FIRST'!H5/'EGE FIRST'!$C$18</f>
-        <v>0.83590189510525359</v>
+        <v>0.83588795865373189</v>
       </c>
       <c r="I5" s="3">
         <f>'EGE FIRST'!I5/'EGE FIRST'!$C$18</f>
-        <v>0.80404004822954056</v>
+        <v>0.80397513988725888</v>
       </c>
       <c r="J5" s="3">
         <f>'EGE FIRST'!J5/'EGE FIRST'!$C$18</f>
-        <v>0.83689969368667805</v>
+        <v>0.83688162965209001</v>
       </c>
       <c r="K5" s="3">
         <f>'EGE FIRST'!K5/'EGE FIRST'!$C$18</f>
-        <v>0.74481067636256937</v>
+        <v>0.74473455032074987</v>
       </c>
       <c r="L5" s="3">
         <f>'EGE FIRST'!L5/'EGE FIRST'!$C$18</f>
-        <v>0.75240116440308169</v>
+        <v>0.75232180844877317</v>
       </c>
       <c r="M5" s="3">
         <f>'EGE FIRST'!M5/'EGE FIRST'!$C$18</f>
-        <v>0.83578447385985744</v>
+        <v>0.83577350004591289</v>
       </c>
       <c r="N5" s="3">
         <f>'EGE FIRST'!N5/'EGE FIRST'!$C$18</f>
-        <v>0.83580714807698042</v>
+        <v>0.83579655159453015</v>
       </c>
       <c r="O5" s="3">
         <f>'EGE FIRST'!O5/'EGE FIRST'!$C$18</f>
-        <v>0.75339871038671047</v>
+        <v>0.75331808289600843</v>
       </c>
       <c r="P5" s="3">
         <f>'EGE FIRST'!P5/'EGE FIRST'!$C$18</f>
-        <v>0.7558824513581478</v>
+        <v>0.75580277908399451</v>
       </c>
       <c r="Q5" s="3">
         <f>'EGE FIRST'!Q5/'EGE FIRST'!$C$18</f>
-        <v>0.83419632639064911</v>
+        <v>0.83415600992829875</v>
       </c>
       <c r="R5" s="3">
         <f>'EGE FIRST'!R5/'EGE FIRST'!$C$18</f>
-        <v>0.77575375055162921</v>
+        <v>0.77567914702080876</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -7156,67 +7146,67 @@
       </c>
       <c r="C6" s="3">
         <f>'EGE FIRST'!C6/'EGE FIRST'!$C$18</f>
-        <v>1.8651410305369268E-2</v>
+        <v>1.8633417340504568E-2</v>
       </c>
       <c r="D6" s="3">
         <f>'EGE FIRST'!D6/'EGE FIRST'!$C$18</f>
-        <v>1.7517277458126805E-2</v>
+        <v>1.7501233397733271E-2</v>
       </c>
       <c r="E6" s="3">
         <f>'EGE FIRST'!E6/'EGE FIRST'!$C$18</f>
-        <v>1.8757323797953581E-2</v>
+        <v>1.8739886367953235E-2</v>
       </c>
       <c r="F6" s="3">
         <f>'EGE FIRST'!F6/'EGE FIRST'!$C$18</f>
-        <v>1.8123282151151547E-2</v>
+        <v>1.810642883162128E-2</v>
       </c>
       <c r="G6" s="3">
         <f>'EGE FIRST'!G6/'EGE FIRST'!$C$18</f>
-        <v>2.1754016796937621E-2</v>
+        <v>2.1725391898603497E-2</v>
       </c>
       <c r="H6" s="3">
         <f>'EGE FIRST'!H6/'EGE FIRST'!$C$18</f>
-        <v>1.8700573983107958E-2</v>
+        <v>1.8683583597694835E-2</v>
       </c>
       <c r="I6" s="3">
         <f>'EGE FIRST'!I6/'EGE FIRST'!$C$18</f>
-        <v>1.8218198558672575E-2</v>
+        <v>1.8199351778495139E-2</v>
       </c>
       <c r="J6" s="3">
         <f>'EGE FIRST'!J6/'EGE FIRST'!$C$18</f>
-        <v>1.8766101423966459E-2</v>
+        <v>1.8748728781112535E-2</v>
       </c>
       <c r="K6" s="3">
         <f>'EGE FIRST'!K6/'EGE FIRST'!$C$18</f>
-        <v>1.897998844292605E-2</v>
+        <v>1.8963913935033962E-2</v>
       </c>
       <c r="L6" s="3">
         <f>'EGE FIRST'!L6/'EGE FIRST'!$C$18</f>
-        <v>1.799866677070654E-2</v>
+        <v>1.79809695254265E-2</v>
       </c>
       <c r="M6" s="3">
         <f>'EGE FIRST'!M6/'EGE FIRST'!$C$18</f>
-        <v>1.8678612863995546E-2</v>
+        <v>1.8661744921890388E-2</v>
       </c>
       <c r="N6" s="3">
         <f>'EGE FIRST'!N6/'EGE FIRST'!$C$18</f>
-        <v>1.8668217721860222E-2</v>
+        <v>1.8651371081072073E-2</v>
       </c>
       <c r="O6" s="3">
         <f>'EGE FIRST'!O6/'EGE FIRST'!$C$18</f>
-        <v>1.5998154572461253E-2</v>
+        <v>1.5980036728164608E-2</v>
       </c>
       <c r="P6" s="3">
         <f>'EGE FIRST'!P6/'EGE FIRST'!$C$18</f>
-        <v>1.7440045658704099E-2</v>
+        <v>1.7421771481860221E-2</v>
       </c>
       <c r="Q6" s="3">
         <f>'EGE FIRST'!Q6/'EGE FIRST'!$C$18</f>
-        <v>1.8815498936693854E-2</v>
+        <v>1.8797561260707883E-2</v>
       </c>
       <c r="R6" s="3">
         <f>'EGE FIRST'!R6/'EGE FIRST'!$C$18</f>
-        <v>1.8120351953850537E-2</v>
+        <v>1.8100700100933446E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -7228,67 +7218,67 @@
       </c>
       <c r="C7" s="3">
         <f>'EGE FIRST'!C7/'EGE FIRST'!$C$18</f>
-        <v>2.0564925340698322E-3</v>
+        <v>2.0634291938873553E-3</v>
       </c>
       <c r="D7" s="3">
         <f>'EGE FIRST'!D7/'EGE FIRST'!$C$18</f>
-        <v>6.6825999298642967E-4</v>
+        <v>6.7434465338362813E-4</v>
       </c>
       <c r="E7" s="3">
         <f>'EGE FIRST'!E7/'EGE FIRST'!$C$18</f>
-        <v>2.2698657748897464E-3</v>
+        <v>2.2767143688654655E-3</v>
       </c>
       <c r="F7" s="3">
         <f>'EGE FIRST'!F7/'EGE FIRST'!$C$18</f>
-        <v>8.6182733237096139E-4</v>
+        <v>8.681490359205554E-4</v>
       </c>
       <c r="G7" s="3">
         <f>'EGE FIRST'!G7/'EGE FIRST'!$C$18</f>
-        <v>2.5326559290795741E-3</v>
+        <v>2.5439584256908296E-3</v>
       </c>
       <c r="H7" s="3">
         <f>'EGE FIRST'!H7/'EGE FIRST'!$C$18</f>
-        <v>2.3649558803769161E-3</v>
+        <v>2.37170327966025E-3</v>
       </c>
       <c r="I7" s="3">
         <f>'EGE FIRST'!I7/'EGE FIRST'!$C$18</f>
-        <v>1.2334313524350374E-3</v>
+        <v>1.2405621876938819E-3</v>
       </c>
       <c r="J7" s="3">
         <f>'EGE FIRST'!J7/'EGE FIRST'!$C$18</f>
-        <v>2.3172212367997048E-3</v>
+        <v>2.3240783103308724E-3</v>
       </c>
       <c r="K7" s="3">
         <f>'EGE FIRST'!K7/'EGE FIRST'!$C$18</f>
-        <v>1.1189788595822008E-3</v>
+        <v>1.1248787066219189E-3</v>
       </c>
       <c r="L7" s="3">
         <f>'EGE FIRST'!L7/'EGE FIRST'!$C$18</f>
-        <v>8.365481284816923E-4</v>
+        <v>8.4314969614285296E-4</v>
       </c>
       <c r="M7" s="3">
         <f>'EGE FIRST'!M7/'EGE FIRST'!$C$18</f>
-        <v>2.4155441760358508E-3</v>
+        <v>2.4222714034579955E-3</v>
       </c>
       <c r="N7" s="3">
         <f>'EGE FIRST'!N7/'EGE FIRST'!$C$18</f>
-        <v>2.4189297367847688E-3</v>
+        <v>2.4256525125396795E-3</v>
       </c>
       <c r="O7" s="3">
         <f>'EGE FIRST'!O7/'EGE FIRST'!$C$18</f>
-        <v>1.6273676815966576E-3</v>
+        <v>1.6340768143638072E-3</v>
       </c>
       <c r="P7" s="3">
         <f>'EGE FIRST'!P7/'EGE FIRST'!$C$18</f>
-        <v>6.8858815702080582E-4</v>
+        <v>6.9544875857628001E-4</v>
       </c>
       <c r="Q7" s="3">
         <f>'EGE FIRST'!Q7/'EGE FIRST'!$C$18</f>
-        <v>2.0011977691639319E-3</v>
+        <v>2.0080735675799492E-3</v>
       </c>
       <c r="R7" s="3">
         <f>'EGE FIRST'!R7/'EGE FIRST'!$C$18</f>
-        <v>1.1092410602484442E-3</v>
+        <v>1.1166489072391888E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -7300,67 +7290,67 @@
       </c>
       <c r="C8" s="3">
         <f>'EGE FIRST'!C8/'EGE FIRST'!$C$18</f>
-        <v>3.2955443546697021E-3</v>
+        <v>3.3308087100057107E-3</v>
       </c>
       <c r="D8" s="3">
         <f>'EGE FIRST'!D8/'EGE FIRST'!$C$18</f>
-        <v>3.2340934612381847E-3</v>
+        <v>3.2651635749431016E-3</v>
       </c>
       <c r="E8" s="3">
         <f>'EGE FIRST'!E8/'EGE FIRST'!$C$18</f>
-        <v>3.2515043104363551E-3</v>
+        <v>3.2861594781571132E-3</v>
       </c>
       <c r="F8" s="3">
         <f>'EGE FIRST'!F8/'EGE FIRST'!$C$18</f>
-        <v>3.2579493518035689E-3</v>
+        <v>3.2902689706109079E-3</v>
       </c>
       <c r="G8" s="3">
         <f>'EGE FIRST'!G8/'EGE FIRST'!$C$18</f>
-        <v>3.3984875396997679E-3</v>
+        <v>3.4555769921932465E-3</v>
       </c>
       <c r="H8" s="3">
         <f>'EGE FIRST'!H8/'EGE FIRST'!$C$18</f>
-        <v>3.2154679596880322E-3</v>
+        <v>3.2495254023730664E-3</v>
       </c>
       <c r="I8" s="3">
         <f>'EGE FIRST'!I8/'EGE FIRST'!$C$18</f>
-        <v>3.4299020012875871E-3</v>
+        <v>3.466262037870929E-3</v>
       </c>
       <c r="J8" s="3">
         <f>'EGE FIRST'!J8/'EGE FIRST'!$C$18</f>
-        <v>3.2377925769443193E-3</v>
+        <v>3.2724512891811304E-3</v>
       </c>
       <c r="K8" s="3">
         <f>'EGE FIRST'!K8/'EGE FIRST'!$C$18</f>
-        <v>3.1823956021318329E-3</v>
+        <v>3.212674799275248E-3</v>
       </c>
       <c r="L8" s="3">
         <f>'EGE FIRST'!L8/'EGE FIRST'!$C$18</f>
-        <v>3.292031958896179E-3</v>
+        <v>3.3257751246659555E-3</v>
       </c>
       <c r="M8" s="3">
         <f>'EGE FIRST'!M8/'EGE FIRST'!$C$18</f>
-        <v>3.1966109764242088E-3</v>
+        <v>3.2305299684495152E-3</v>
       </c>
       <c r="N8" s="3">
         <f>'EGE FIRST'!N8/'EGE FIRST'!$C$18</f>
-        <v>3.1945774245016661E-3</v>
+        <v>3.2284693072231808E-3</v>
       </c>
       <c r="O8" s="3">
         <f>'EGE FIRST'!O8/'EGE FIRST'!$C$18</f>
-        <v>2.8923953711681317E-3</v>
+        <v>2.9270546186105414E-3</v>
       </c>
       <c r="P8" s="3">
         <f>'EGE FIRST'!P8/'EGE FIRST'!$C$18</f>
-        <v>3.3711359456941705E-3</v>
+        <v>3.4061208907594782E-3</v>
       </c>
       <c r="Q8" s="3">
         <f>'EGE FIRST'!Q8/'EGE FIRST'!$C$18</f>
-        <v>3.3314200223287889E-3</v>
+        <v>3.3663935702960834E-3</v>
       </c>
       <c r="R8" s="3">
         <f>'EGE FIRST'!R8/'EGE FIRST'!$C$18</f>
-        <v>3.3502573381663783E-3</v>
+        <v>3.3881280601779583E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -7372,67 +7362,67 @@
       </c>
       <c r="C9" s="3">
         <f>'EGE FIRST'!C9/'EGE FIRST'!$C$18</f>
-        <v>2.4842702485756905E-2</v>
+        <v>2.4803506360100754E-2</v>
       </c>
       <c r="D9" s="3">
         <f>'EGE FIRST'!D9/'EGE FIRST'!$C$18</f>
-        <v>5.2087404681955932E-5</v>
+        <v>5.1417334222250806E-5</v>
       </c>
       <c r="E9" s="3">
         <f>'EGE FIRST'!E9/'EGE FIRST'!$C$18</f>
-        <v>3.3233100123865406E-2</v>
+        <v>3.3189602927782461E-2</v>
       </c>
       <c r="F9" s="3">
         <f>'EGE FIRST'!F9/'EGE FIRST'!$C$18</f>
-        <v>3.9287466914560539E-4</v>
+        <v>3.8934966428524908E-4</v>
       </c>
       <c r="G9" s="3">
         <f>'EGE FIRST'!G9/'EGE FIRST'!$C$18</f>
-        <v>3.6089813423998099E-2</v>
+        <v>3.6034857736292621E-2</v>
       </c>
       <c r="H9" s="3">
         <f>'EGE FIRST'!H9/'EGE FIRST'!$C$18</f>
-        <v>3.6813641562468344E-2</v>
+        <v>3.6768776032620867E-2</v>
       </c>
       <c r="I9" s="3">
         <f>'EGE FIRST'!I9/'EGE FIRST'!$C$18</f>
-        <v>8.4015513428121105E-3</v>
+        <v>8.3785689721486405E-3</v>
       </c>
       <c r="J9" s="3">
         <f>'EGE FIRST'!J9/'EGE FIRST'!$C$18</f>
-        <v>3.4924291963218133E-2</v>
+        <v>3.4879965962955339E-2</v>
       </c>
       <c r="K9" s="3">
         <f>'EGE FIRST'!K9/'EGE FIRST'!$C$18</f>
-        <v>2.2085594223616778E-4</v>
+        <v>2.1839358052431896E-4</v>
       </c>
       <c r="L9" s="3">
         <f>'EGE FIRST'!L9/'EGE FIRST'!$C$18</f>
-        <v>3.7410872231363789E-4</v>
+        <v>3.7069942381900099E-4</v>
       </c>
       <c r="M9" s="3">
         <f>'EGE FIRST'!M9/'EGE FIRST'!$C$18</f>
-        <v>3.8373275930619448E-2</v>
+        <v>3.8327753326064501E-2</v>
       </c>
       <c r="N9" s="3">
         <f>'EGE FIRST'!N9/'EGE FIRST'!$C$18</f>
-        <v>3.8514727257190774E-2</v>
+        <v>3.8469147348704019E-2</v>
       </c>
       <c r="O9" s="3">
         <f>'EGE FIRST'!O9/'EGE FIRST'!$C$18</f>
-        <v>4.2711650206913199E-4</v>
+        <v>4.2222743124255502E-4</v>
       </c>
       <c r="P9" s="3">
         <f>'EGE FIRST'!P9/'EGE FIRST'!$C$18</f>
-        <v>8.8488711473219163E-4</v>
+        <v>8.7888210258039816E-4</v>
       </c>
       <c r="Q9" s="3">
         <f>'EGE FIRST'!Q9/'EGE FIRST'!$C$18</f>
-        <v>2.4475172566823689E-2</v>
+        <v>2.4436848379870226E-2</v>
       </c>
       <c r="R9" s="3">
         <f>'EGE FIRST'!R9/'EGE FIRST'!$C$18</f>
-        <v>2.6159059129409615E-3</v>
+        <v>2.6032547670011442E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -7444,67 +7434,67 @@
       </c>
       <c r="C10" s="3">
         <f>'EGE FIRST'!C10/'EGE FIRST'!$C$18</f>
-        <v>2.4412240591933027E-3</v>
+        <v>2.4425332236570597E-3</v>
       </c>
       <c r="D10" s="3">
         <f>'EGE FIRST'!D10/'EGE FIRST'!$C$18</f>
-        <v>1.2486666989684977E-2</v>
+        <v>1.2490688956928927E-2</v>
       </c>
       <c r="E10" s="3">
         <f>'EGE FIRST'!E10/'EGE FIRST'!$C$18</f>
-        <v>1.1318866623397019E-3</v>
+        <v>1.1325725565006662E-3</v>
       </c>
       <c r="F10" s="3">
         <f>'EGE FIRST'!F10/'EGE FIRST'!$C$18</f>
-        <v>9.3286964400284937E-3</v>
+        <v>9.332046537702714E-3</v>
       </c>
       <c r="G10" s="3">
         <f>'EGE FIRST'!G10/'EGE FIRST'!$C$18</f>
-        <v>5.9520398959463019E-4</v>
+        <v>5.9572511017630544E-4</v>
       </c>
       <c r="H10" s="3">
         <f>'EGE FIRST'!H10/'EGE FIRST'!$C$18</f>
-        <v>6.5298309687407267E-4</v>
+        <v>6.5340243181307616E-4</v>
       </c>
       <c r="I10" s="3">
         <f>'EGE FIRST'!I10/'EGE FIRST'!$C$18</f>
-        <v>9.9234486596956207E-3</v>
+        <v>9.9269912302141286E-3</v>
       </c>
       <c r="J10" s="3">
         <f>'EGE FIRST'!J10/'EGE FIRST'!$C$18</f>
-        <v>8.9274525983493191E-4</v>
+        <v>8.9330350407184548E-4</v>
       </c>
       <c r="K10" s="3">
         <f>'EGE FIRST'!K10/'EGE FIRST'!$C$18</f>
-        <v>3.4177054950430509E-3</v>
+        <v>3.419369329479839E-3</v>
       </c>
       <c r="L10" s="3">
         <f>'EGE FIRST'!L10/'EGE FIRST'!$C$18</f>
-        <v>1.0722396990901812E-2</v>
+        <v>1.0726052125791771E-2</v>
       </c>
       <c r="M10" s="3">
         <f>'EGE FIRST'!M10/'EGE FIRST'!$C$18</f>
-        <v>4.076303964466963E-4</v>
+        <v>4.0790217508988245E-4</v>
       </c>
       <c r="N10" s="3">
         <f>'EGE FIRST'!N10/'EGE FIRST'!$C$18</f>
-        <v>3.972141684299022E-4</v>
+        <v>3.9747947285221068E-4</v>
       </c>
       <c r="O10" s="3">
         <f>'EGE FIRST'!O10/'EGE FIRST'!$C$18</f>
-        <v>4.3083131790678164E-3</v>
+        <v>4.3108091753721565E-3</v>
       </c>
       <c r="P10" s="3">
         <f>'EGE FIRST'!P10/'EGE FIRST'!$C$18</f>
-        <v>1.5929599549635312E-2</v>
+        <v>1.5934188862438452E-2</v>
       </c>
       <c r="Q10" s="3">
         <f>'EGE FIRST'!Q10/'EGE FIRST'!$C$18</f>
-        <v>2.5748311785526055E-3</v>
+        <v>2.5761635060944678E-3</v>
       </c>
       <c r="R10" s="3">
         <f>'EGE FIRST'!R10/'EGE FIRST'!$C$18</f>
-        <v>1.0209298616110331E-2</v>
+        <v>1.0213130655780117E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -7516,67 +7506,67 @@
       </c>
       <c r="C11" s="3">
         <f>'EGE FIRST'!C11/'EGE FIRST'!$C$18</f>
-        <v>1.491237162131286E-4</v>
+        <v>1.4202385537521314E-4</v>
       </c>
       <c r="D11" s="3">
         <f>'EGE FIRST'!D11/'EGE FIRST'!$C$18</f>
-        <v>2.6543082221343446E-6</v>
+        <v>2.344518971763109E-6</v>
       </c>
       <c r="E11" s="3">
         <f>'EGE FIRST'!E11/'EGE FIRST'!$C$18</f>
-        <v>8.2503879697845756E-5</v>
+        <v>8.0535280641810084E-5</v>
       </c>
       <c r="F11" s="3">
         <f>'EGE FIRST'!F11/'EGE FIRST'!$C$18</f>
-        <v>1.3141549471747043E-5</v>
+        <v>1.1621087677367219E-5</v>
       </c>
       <c r="G11" s="3">
         <f>'EGE FIRST'!G11/'EGE FIRST'!$C$18</f>
-        <v>6.1319373346739402E-5</v>
+        <v>5.9648280784018522E-5</v>
       </c>
       <c r="H11" s="3">
         <f>'EGE FIRST'!H11/'EGE FIRST'!$C$18</f>
-        <v>4.8986735273961645E-5</v>
+        <v>4.7961052510954525E-5</v>
       </c>
       <c r="I11" s="3">
         <f>'EGE FIRST'!I11/'EGE FIRST'!$C$18</f>
-        <v>5.2841093470255635E-5</v>
+        <v>4.7682000654043817E-5</v>
       </c>
       <c r="J11" s="3">
         <f>'EGE FIRST'!J11/'EGE FIRST'!$C$18</f>
-        <v>7.0432611851419145E-5</v>
+        <v>6.8844276900045692E-5</v>
       </c>
       <c r="K11" s="3">
         <f>'EGE FIRST'!K11/'EGE FIRST'!$C$18</f>
-        <v>7.1933123299221253E-6</v>
+        <v>6.7045752325522546E-6</v>
       </c>
       <c r="L11" s="3">
         <f>'EGE FIRST'!L11/'EGE FIRST'!$C$18</f>
-        <v>3.1631392940245998E-6</v>
+        <v>7.9464391386494584E-6</v>
       </c>
       <c r="M11" s="3">
         <f>'EGE FIRST'!M11/'EGE FIRST'!$C$18</f>
-        <v>5.0404414541318468E-5</v>
+        <v>4.9377603962032037E-5</v>
       </c>
       <c r="N11" s="3">
         <f>'EGE FIRST'!N11/'EGE FIRST'!$C$18</f>
-        <v>5.3239012757324504E-5</v>
+        <v>5.2153531055656739E-5</v>
       </c>
       <c r="O11" s="3">
         <f>'EGE FIRST'!O11/'EGE FIRST'!$C$18</f>
-        <v>1.266731724879995E-2</v>
+        <v>1.275986516798564E-2</v>
       </c>
       <c r="P11" s="3">
         <f>'EGE FIRST'!P11/'EGE FIRST'!$C$18</f>
-        <v>1.0168635597543116E-5</v>
+        <v>1.4433909619983877E-5</v>
       </c>
       <c r="Q11" s="3">
         <f>'EGE FIRST'!Q11/'EGE FIRST'!$C$18</f>
-        <v>8.4782932729927856E-5</v>
+        <v>8.2170569751870555E-5</v>
       </c>
       <c r="R11" s="3">
         <f>'EGE FIRST'!R11/'EGE FIRST'!$C$18</f>
-        <v>2.922148682474621E-4</v>
+        <v>3.0799133198136002E-4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -7588,67 +7578,67 @@
       </c>
       <c r="C12" s="3">
         <f>'EGE FIRST'!C12/'EGE FIRST'!$C$18</f>
-        <v>7.8270121845542751E-5</v>
+        <v>7.8202957821198055E-5</v>
       </c>
       <c r="D12" s="3">
         <f>'EGE FIRST'!D12/'EGE FIRST'!$C$18</f>
-        <v>1.5325053289275993E-5</v>
+        <v>1.5315118598487196E-5</v>
       </c>
       <c r="E12" s="3">
         <f>'EGE FIRST'!E12/'EGE FIRST'!$C$18</f>
-        <v>2.8359849989366822E-5</v>
+        <v>2.833317599290477E-5</v>
       </c>
       <c r="F12" s="3">
         <f>'EGE FIRST'!F12/'EGE FIRST'!$C$18</f>
-        <v>5.6487857615485216E-5</v>
+        <v>5.6450251084422456E-5</v>
       </c>
       <c r="G12" s="3">
         <f>'EGE FIRST'!G12/'EGE FIRST'!$C$18</f>
-        <v>3.257044967174535E-5</v>
+        <v>3.2527519750457478E-5</v>
       </c>
       <c r="H12" s="3">
         <f>'EGE FIRST'!H12/'EGE FIRST'!$C$18</f>
-        <v>1.9569902864183019E-5</v>
+        <v>1.9550922741552117E-5</v>
       </c>
       <c r="I12" s="3">
         <f>'EGE FIRST'!I12/'EGE FIRST'!$C$18</f>
-        <v>1.4831361977454309E-4</v>
+        <v>1.4820349448855225E-4</v>
       </c>
       <c r="J12" s="3">
         <f>'EGE FIRST'!J12/'EGE FIRST'!$C$18</f>
-        <v>2.623110700339958E-5</v>
+        <v>2.6206013383728902E-5</v>
       </c>
       <c r="K12" s="3">
         <f>'EGE FIRST'!K12/'EGE FIRST'!$C$18</f>
-        <v>2.9069223482965517E-5</v>
+        <v>2.905011561513933E-5</v>
       </c>
       <c r="L12" s="3">
         <f>'EGE FIRST'!L12/'EGE FIRST'!$C$18</f>
-        <v>3.1454499844680293E-4</v>
+        <v>3.1434324282926366E-4</v>
       </c>
       <c r="M12" s="3">
         <f>'EGE FIRST'!M12/'EGE FIRST'!$C$18</f>
-        <v>1.5530578153194694E-5</v>
+        <v>1.5515230750221756E-5</v>
       </c>
       <c r="N12" s="3">
         <f>'EGE FIRST'!N12/'EGE FIRST'!$C$18</f>
-        <v>1.1034190813870092E-5</v>
+        <v>1.10232196898809E-5</v>
       </c>
       <c r="O12" s="3">
         <f>'EGE FIRST'!O12/'EGE FIRST'!$C$18</f>
-        <v>1.4223042675001079E-4</v>
+        <v>1.4211919395117333E-4</v>
       </c>
       <c r="P12" s="3">
         <f>'EGE FIRST'!P12/'EGE FIRST'!$C$18</f>
-        <v>8.2734119302186031E-4</v>
+        <v>8.2685480556618355E-4</v>
       </c>
       <c r="Q12" s="3">
         <f>'EGE FIRST'!Q12/'EGE FIRST'!$C$18</f>
-        <v>1.8493283037586888E-4</v>
+        <v>1.8478560802547459E-4</v>
       </c>
       <c r="R12" s="3">
         <f>'EGE FIRST'!R12/'EGE FIRST'!$C$18</f>
-        <v>1.9874644455067432E-4</v>
+        <v>1.9860323031011079E-4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -7660,67 +7650,67 @@
       </c>
       <c r="C13" s="3">
         <f>'EGE FIRST'!C13/'EGE FIRST'!$C$18</f>
-        <v>2.389441555466356E-3</v>
+        <v>2.4024590007356151E-3</v>
       </c>
       <c r="D13" s="3">
         <f>'EGE FIRST'!D13/'EGE FIRST'!$C$18</f>
-        <v>8.0936414365244007E-5</v>
+        <v>8.1762836311116422E-5</v>
       </c>
       <c r="E13" s="3">
         <f>'EGE FIRST'!E13/'EGE FIRST'!$C$18</f>
-        <v>2.9505579283696246E-3</v>
+        <v>2.9649244152176219E-3</v>
       </c>
       <c r="F13" s="3">
         <f>'EGE FIRST'!F13/'EGE FIRST'!$C$18</f>
-        <v>1.9482765412379355E-4</v>
+        <v>1.9678888844026568E-4</v>
       </c>
       <c r="G13" s="3">
         <f>'EGE FIRST'!G13/'EGE FIRST'!$C$18</f>
-        <v>3.3878013300941779E-3</v>
+        <v>3.4056325904025081E-3</v>
       </c>
       <c r="H13" s="3">
         <f>'EGE FIRST'!H13/'EGE FIRST'!$C$18</f>
-        <v>3.0534102824840178E-3</v>
+        <v>3.0679198456376447E-3</v>
       </c>
       <c r="I13" s="3">
         <f>'EGE FIRST'!I13/'EGE FIRST'!$C$18</f>
-        <v>1.3388887759226034E-3</v>
+        <v>1.3474165156750148E-3</v>
       </c>
       <c r="J13" s="3">
         <f>'EGE FIRST'!J13/'EGE FIRST'!$C$18</f>
-        <v>3.0041190208265124E-3</v>
+        <v>3.0185983518768544E-3</v>
       </c>
       <c r="K13" s="3">
         <f>'EGE FIRST'!K13/'EGE FIRST'!$C$18</f>
-        <v>8.2621725134534945E-5</v>
+        <v>8.3754171557103916E-5</v>
       </c>
       <c r="L13" s="3">
         <f>'EGE FIRST'!L13/'EGE FIRST'!$C$18</f>
-        <v>3.5104108424055872E-4</v>
+        <v>3.5426017730806934E-4</v>
       </c>
       <c r="M13" s="3">
         <f>'EGE FIRST'!M13/'EGE FIRST'!$C$18</f>
-        <v>3.1373433295661481E-3</v>
+        <v>3.1520838556032575E-3</v>
       </c>
       <c r="N13" s="3">
         <f>'EGE FIRST'!N13/'EGE FIRST'!$C$18</f>
-        <v>3.1474690851787763E-3</v>
+        <v>3.1622364333768025E-3</v>
       </c>
       <c r="O13" s="3">
         <f>'EGE FIRST'!O13/'EGE FIRST'!$C$18</f>
-        <v>8.790866114525384E-4</v>
+        <v>8.8910549890783459E-4</v>
       </c>
       <c r="P13" s="3">
         <f>'EGE FIRST'!P13/'EGE FIRST'!$C$18</f>
-        <v>5.4013870319470018E-4</v>
+        <v>5.4438220548295622E-4</v>
       </c>
       <c r="Q13" s="3">
         <f>'EGE FIRST'!Q13/'EGE FIRST'!$C$18</f>
-        <v>2.3806477846686444E-3</v>
+        <v>2.393343502022333E-3</v>
       </c>
       <c r="R13" s="3">
         <f>'EGE FIRST'!R13/'EGE FIRST'!$C$18</f>
-        <v>7.1105815619124796E-4</v>
+        <v>7.1691404899102947E-4</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -7732,67 +7722,67 @@
       </c>
       <c r="C14" s="3">
         <f>'EGE FIRST'!C14/'EGE FIRST'!$C$18</f>
-        <v>4.2242398914880746E-3</v>
+        <v>4.222273535330617E-3</v>
       </c>
       <c r="D14" s="3">
         <f>'EGE FIRST'!D14/'EGE FIRST'!$C$18</f>
-        <v>1.2059505038600615E-4</v>
+        <v>1.2047128498682414E-4</v>
       </c>
       <c r="E14" s="3">
         <f>'EGE FIRST'!E14/'EGE FIRST'!$C$18</f>
-        <v>5.5818028338162603E-3</v>
+        <v>5.5797028494542654E-3</v>
       </c>
       <c r="F14" s="3">
         <f>'EGE FIRST'!F14/'EGE FIRST'!$C$18</f>
-        <v>2.9259364145058135E-4</v>
+        <v>2.9229714114351312E-4</v>
       </c>
       <c r="G14" s="3">
         <f>'EGE FIRST'!G14/'EGE FIRST'!$C$18</f>
-        <v>5.8698208944488271E-3</v>
+        <v>5.8672460294573927E-3</v>
       </c>
       <c r="H14" s="3">
         <f>'EGE FIRST'!H14/'EGE FIRST'!$C$18</f>
-        <v>5.9301223398697716E-3</v>
+        <v>5.9280515843517026E-3</v>
       </c>
       <c r="I14" s="3">
         <f>'EGE FIRST'!I14/'EGE FIRST'!$C$18</f>
-        <v>2.0423524383657394E-3</v>
+        <v>2.0410273411167789E-3</v>
       </c>
       <c r="J14" s="3">
         <f>'EGE FIRST'!J14/'EGE FIRST'!$C$18</f>
-        <v>5.7479790606975827E-3</v>
+        <v>5.7458848246242072E-3</v>
       </c>
       <c r="K14" s="3">
         <f>'EGE FIRST'!K14/'EGE FIRST'!$C$18</f>
-        <v>1.4791620060169855E-4</v>
+        <v>1.4774539658447307E-4</v>
       </c>
       <c r="L14" s="3">
         <f>'EGE FIRST'!L14/'EGE FIRST'!$C$18</f>
-        <v>4.8779266830477791E-4</v>
+        <v>4.8730112799368991E-4</v>
       </c>
       <c r="M14" s="3">
         <f>'EGE FIRST'!M14/'EGE FIRST'!$C$18</f>
-        <v>6.1324097800588527E-3</v>
+        <v>6.1303268700589695E-3</v>
       </c>
       <c r="N14" s="3">
         <f>'EGE FIRST'!N14/'EGE FIRST'!$C$18</f>
-        <v>6.1529646896376607E-3</v>
+        <v>6.1508808045430451E-3</v>
       </c>
       <c r="O14" s="3">
         <f>'EGE FIRST'!O14/'EGE FIRST'!$C$18</f>
-        <v>2.6004061419005682E-5</v>
+        <v>2.7424033257065206E-5</v>
       </c>
       <c r="P14" s="3">
         <f>'EGE FIRST'!P14/'EGE FIRST'!$C$18</f>
-        <v>7.04912578732106E-4</v>
+        <v>7.0426001474374784E-4</v>
       </c>
       <c r="Q14" s="3">
         <f>'EGE FIRST'!Q14/'EGE FIRST'!$C$18</f>
-        <v>4.3191146132860033E-3</v>
+        <v>4.3171723299324496E-3</v>
       </c>
       <c r="R14" s="3">
         <f>'EGE FIRST'!R14/'EGE FIRST'!$C$18</f>
-        <v>8.8382854327053307E-4</v>
+        <v>8.8294011300758368E-4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -7804,67 +7794,67 @@
       </c>
       <c r="C15" s="3">
         <f>'EGE FIRST'!C15/'EGE FIRST'!$C$18</f>
-        <v>3.9870922923128087E-3</v>
+        <v>3.9863897562846633E-3</v>
       </c>
       <c r="D15" s="3">
         <f>'EGE FIRST'!D15/'EGE FIRST'!$C$18</f>
-        <v>9.1402191146352344E-5</v>
+        <v>9.1367611321262229E-5</v>
       </c>
       <c r="E15" s="3">
         <f>'EGE FIRST'!E15/'EGE FIRST'!$C$18</f>
-        <v>4.9215191180339317E-3</v>
+        <v>4.9208183167948286E-3</v>
       </c>
       <c r="F15" s="3">
         <f>'EGE FIRST'!F15/'EGE FIRST'!$C$18</f>
-        <v>2.5953108927643208E-4</v>
+        <v>2.5943669690300973E-4</v>
       </c>
       <c r="G15" s="3">
         <f>'EGE FIRST'!G15/'EGE FIRST'!$C$18</f>
-        <v>5.3056243298466952E-3</v>
+        <v>5.3047649188608468E-3</v>
       </c>
       <c r="H15" s="3">
         <f>'EGE FIRST'!H15/'EGE FIRST'!$C$18</f>
-        <v>5.274824491493954E-3</v>
+        <v>5.2741474662314509E-3</v>
       </c>
       <c r="I15" s="3">
         <f>'EGE FIRST'!I15/'EGE FIRST'!$C$18</f>
-        <v>1.9335726485435964E-3</v>
+        <v>1.9330860734100455E-3</v>
       </c>
       <c r="J15" s="3">
         <f>'EGE FIRST'!J15/'EGE FIRST'!$C$18</f>
-        <v>5.1328281141588715E-3</v>
+        <v>5.1321304599398895E-3</v>
       </c>
       <c r="K15" s="3">
         <f>'EGE FIRST'!K15/'EGE FIRST'!$C$18</f>
-        <v>1.5062029653200123E-4</v>
+        <v>1.5056152559139317E-4</v>
       </c>
       <c r="L15" s="3">
         <f>'EGE FIRST'!L15/'EGE FIRST'!$C$18</f>
-        <v>3.9034128828921536E-4</v>
+        <v>3.9020097468827432E-4</v>
       </c>
       <c r="M15" s="3">
         <f>'EGE FIRST'!M15/'EGE FIRST'!$C$18</f>
-        <v>5.446185751450657E-3</v>
+        <v>5.4455162098985335E-3</v>
       </c>
       <c r="N15" s="3">
         <f>'EGE FIRST'!N15/'EGE FIRST'!$C$18</f>
-        <v>5.4626566921129457E-3</v>
+        <v>5.461988419356638E-3</v>
       </c>
       <c r="O15" s="3">
         <f>'EGE FIRST'!O15/'EGE FIRST'!$C$18</f>
-        <v>1.4449069023945251E-3</v>
+        <v>1.444374151078189E-3</v>
       </c>
       <c r="P15" s="3">
         <f>'EGE FIRST'!P15/'EGE FIRST'!$C$18</f>
-        <v>5.4679300895756305E-4</v>
+        <v>5.4660842722206694E-4</v>
       </c>
       <c r="Q15" s="3">
         <f>'EGE FIRST'!Q15/'EGE FIRST'!$C$18</f>
-        <v>3.9500501476646731E-3</v>
+        <v>3.9493494253054024E-3</v>
       </c>
       <c r="R15" s="3">
         <f>'EGE FIRST'!R15/'EGE FIRST'!$C$18</f>
-        <v>9.4264292219670967E-4</v>
+        <v>9.4233986169638996E-4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -7876,67 +7866,67 @@
       </c>
       <c r="C16" s="3">
         <f>'EGE FIRST'!C16/'EGE FIRST'!$C$18</f>
-        <v>3.4211627660548659E-2</v>
+        <v>3.4210738627117168E-2</v>
       </c>
       <c r="D16" s="3">
         <f>'EGE FIRST'!D16/'EGE FIRST'!$C$18</f>
-        <v>4.4890344027055752E-2</v>
+        <v>4.4887714453149097E-2</v>
       </c>
       <c r="E16" s="3">
         <f>'EGE FIRST'!E16/'EGE FIRST'!$C$18</f>
-        <v>3.2055853174872723E-2</v>
+        <v>3.2055560767089854E-2</v>
       </c>
       <c r="F16" s="3">
         <f>'EGE FIRST'!F16/'EGE FIRST'!$C$18</f>
-        <v>4.3775385302100227E-2</v>
+        <v>4.3772543687276719E-2</v>
       </c>
       <c r="G16" s="3">
         <f>'EGE FIRST'!G16/'EGE FIRST'!$C$18</f>
-        <v>3.1671652528822647E-2</v>
+        <v>3.1671455674818043E-2</v>
       </c>
       <c r="H16" s="3">
         <f>'EGE FIRST'!H16/'EGE FIRST'!$C$18</f>
-        <v>3.1259308044827384E-2</v>
+        <v>3.1259289116038251E-2</v>
       </c>
       <c r="I16" s="3">
         <f>'EGE FIRST'!I16/'EGE FIRST'!$C$18</f>
-        <v>3.998239727253617E-2</v>
+        <v>3.9980227511223709E-2</v>
       </c>
       <c r="J16" s="3">
         <f>'EGE FIRST'!J16/'EGE FIRST'!$C$18</f>
-        <v>3.1653061384251877E-2</v>
+        <v>3.165289547071546E-2</v>
       </c>
       <c r="K16" s="3">
         <f>'EGE FIRST'!K16/'EGE FIRST'!$C$18</f>
-        <v>4.2552834562599375E-2</v>
+        <v>4.2549764595262309E-2</v>
       </c>
       <c r="L16" s="3">
         <f>'EGE FIRST'!L16/'EGE FIRST'!$C$18</f>
-        <v>4.3325413335535683E-2</v>
+        <v>4.332228524440427E-2</v>
       </c>
       <c r="M16" s="3">
         <f>'EGE FIRST'!M16/'EGE FIRST'!$C$18</f>
-        <v>3.0805194760529897E-2</v>
+        <v>3.0805276717608583E-2</v>
       </c>
       <c r="N16" s="3">
         <f>'EGE FIRST'!N16/'EGE FIRST'!$C$18</f>
-        <v>3.0764140851624697E-2</v>
+        <v>3.0764235771941904E-2</v>
       </c>
       <c r="O16" s="3">
         <f>'EGE FIRST'!O16/'EGE FIRST'!$C$18</f>
-        <v>3.3797545093319524E-2</v>
+        <v>3.3794989310350389E-2</v>
       </c>
       <c r="P16" s="3">
         <f>'EGE FIRST'!P16/'EGE FIRST'!$C$18</f>
-        <v>4.3662331496673625E-2</v>
+        <v>4.3659209742042723E-2</v>
       </c>
       <c r="Q16" s="3">
         <f>'EGE FIRST'!Q16/'EGE FIRST'!$C$18</f>
-        <v>3.4476796029011096E-2</v>
+        <v>3.447576937116234E-2</v>
       </c>
       <c r="R16" s="3">
         <f>'EGE FIRST'!R16/'EGE FIRST'!$C$18</f>
-        <v>4.1250168811972306E-2</v>
+        <v>4.1247497047841024E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -7948,67 +7938,67 @@
       </c>
       <c r="C17" s="3">
         <f>'EGE FIRST'!C17/'EGE FIRST'!$C$18</f>
-        <v>3.8628021903697303E-2</v>
+        <v>3.8678104602033511E-2</v>
       </c>
       <c r="D17" s="3">
         <f>'EGE FIRST'!D17/'EGE FIRST'!$C$18</f>
-        <v>3.8065680047429738E-2</v>
+        <v>3.8107774688318732E-2</v>
       </c>
       <c r="E17" s="3">
         <f>'EGE FIRST'!E17/'EGE FIRST'!$C$18</f>
-        <v>3.7690066977510386E-2</v>
+        <v>3.7740989423118293E-2</v>
       </c>
       <c r="F17" s="3">
         <f>'EGE FIRST'!F17/'EGE FIRST'!$C$18</f>
-        <v>3.8820545131522326E-2</v>
+        <v>3.8863515182286791E-2</v>
       </c>
       <c r="G17" s="3">
         <f>'EGE FIRST'!G17/'EGE FIRST'!$C$18</f>
-        <v>3.7651565994510201E-2</v>
+        <v>3.7713994763877316E-2</v>
       </c>
       <c r="H17" s="3">
         <f>'EGE FIRST'!H17/'EGE FIRST'!$C$18</f>
-        <v>3.7598147581954386E-2</v>
+        <v>3.7649209815318149E-2</v>
       </c>
       <c r="I17" s="3">
         <f>'EGE FIRST'!I17/'EGE FIRST'!$C$18</f>
-        <v>3.7573203213430668E-2</v>
+        <v>3.7620428724614532E-2</v>
       </c>
       <c r="J17" s="3">
         <f>'EGE FIRST'!J17/'EGE FIRST'!$C$18</f>
-        <v>3.7615768825615598E-2</v>
+        <v>3.7666887530418205E-2</v>
       </c>
       <c r="K17" s="3">
         <f>'EGE FIRST'!K17/'EGE FIRST'!$C$18</f>
-        <v>4.113345083818562E-2</v>
+        <v>4.1175858208579705E-2</v>
       </c>
       <c r="L17" s="3">
         <f>'EGE FIRST'!L17/'EGE FIRST'!$C$18</f>
-        <v>3.7820337306336639E-2</v>
+        <v>3.7862223205720601E-2</v>
       </c>
       <c r="M17" s="3">
         <f>'EGE FIRST'!M17/'EGE FIRST'!$C$18</f>
-        <v>3.7507815235624506E-2</v>
+        <v>3.7558899735041812E-2</v>
       </c>
       <c r="N17" s="3">
         <f>'EGE FIRST'!N17/'EGE FIRST'!$C$18</f>
-        <v>3.7496615415292776E-2</v>
+        <v>3.754770940166078E-2</v>
       </c>
       <c r="O17" s="3">
         <f>'EGE FIRST'!O17/'EGE FIRST'!$C$18</f>
-        <v>3.8792849547886837E-2</v>
+        <v>3.8822362610770912E-2</v>
       </c>
       <c r="P17" s="3">
         <f>'EGE FIRST'!P17/'EGE FIRST'!$C$18</f>
-        <v>3.6401776989627502E-2</v>
+        <v>3.6443257415009367E-2</v>
       </c>
       <c r="Q17" s="3">
         <f>'EGE FIRST'!Q17/'EGE FIRST'!$C$18</f>
-        <v>3.8159836418331601E-2</v>
+        <v>3.8209490194747113E-2</v>
       </c>
       <c r="R17" s="3">
         <f>'EGE FIRST'!R17/'EGE FIRST'!$C$18</f>
-        <v>3.8238723376846022E-2</v>
+        <v>3.8283283453211768E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -8039,14 +8029,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="18" width="8.1796875" customWidth="1"/>
+    <col min="3" max="18" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -8110,52 +8100,52 @@
         <v>55</v>
       </c>
       <c r="C2" s="11">
-        <v>3.9909449820387299E-2</v>
+        <v>3.9891380454736662E-2</v>
       </c>
       <c r="D2" s="11">
-        <v>3.9323435446767058E-2</v>
+        <v>3.9303247690496527E-2</v>
       </c>
       <c r="E2" s="11">
-        <v>3.9542374981259967E-2</v>
+        <v>3.9526282268874363E-2</v>
       </c>
       <c r="F2" s="11">
-        <v>3.9220210808002719E-2</v>
+        <v>3.9199741384960421E-2</v>
       </c>
       <c r="G2" s="11">
-        <v>3.9248222779049907E-2</v>
+        <v>3.9232407007973688E-2</v>
       </c>
       <c r="H2" s="11">
-        <v>3.941432531198355E-2</v>
+        <v>3.939901407969558E-2</v>
       </c>
       <c r="I2" s="11">
-        <v>4.0284412400734E-2</v>
+        <v>4.0264087339728832E-2</v>
       </c>
       <c r="J2" s="11">
-        <v>3.9493894767291947E-2</v>
+        <v>3.947815154634135E-2</v>
       </c>
       <c r="K2" s="11">
-        <v>3.8435471044446903E-2</v>
+        <v>3.8415257687088623E-2</v>
       </c>
       <c r="L2" s="11">
-        <v>3.939300738857316E-2</v>
+        <v>3.9371684673925642E-2</v>
       </c>
       <c r="M2" s="11">
-        <v>3.9347373570570221E-2</v>
+        <v>3.9332329601565297E-2</v>
       </c>
       <c r="N2" s="11">
-        <v>3.9348443755787353E-2</v>
+        <v>3.933342228102224E-2</v>
       </c>
       <c r="O2" s="11">
-        <v>4.0679540450210681E-2</v>
+        <v>4.0650813021470042E-2</v>
       </c>
       <c r="P2" s="11">
-        <v>3.9828905360930138E-2</v>
+        <v>3.9807356693566012E-2</v>
       </c>
       <c r="Q2" s="11">
-        <v>3.9771708260297398E-2</v>
+        <v>3.9753954193258702E-2</v>
       </c>
       <c r="R2" s="11">
-        <v>4.0280733960094101E-2</v>
+        <v>4.0258619100893768E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -8166,52 +8156,52 @@
         <v>40</v>
       </c>
       <c r="C3" s="11">
-        <v>6.9386884224317893E-2</v>
+        <v>6.9351533071327465E-2</v>
       </c>
       <c r="D3" s="11">
-        <v>8.7467819355262849E-2</v>
+        <v>8.7418564258009257E-2</v>
       </c>
       <c r="E3" s="11">
-        <v>6.5717922157821046E-2</v>
+        <v>6.5687379367690132E-2</v>
       </c>
       <c r="F3" s="11">
-        <v>8.6295712259831958E-2</v>
+        <v>8.6246293243506952E-2</v>
       </c>
       <c r="G3" s="11">
-        <v>6.4648675640111994E-2</v>
+        <v>6.4618890410430077E-2</v>
       </c>
       <c r="H3" s="11">
-        <v>6.473494678637251E-2</v>
+        <v>6.4706033229970109E-2</v>
       </c>
       <c r="I3" s="11">
-        <v>7.6953412800511808E-2</v>
+        <v>7.6910275387866142E-2</v>
       </c>
       <c r="J3" s="11">
-        <v>6.51564624889788E-2</v>
+        <v>6.512671288449344E-2</v>
       </c>
       <c r="K3" s="11">
-        <v>8.7526657930304813E-2</v>
+        <v>8.7476057584977021E-2</v>
       </c>
       <c r="L3" s="11">
-        <v>8.4340463647043049E-2</v>
+        <v>8.4290808213821927E-2</v>
       </c>
       <c r="M3" s="11">
-        <v>6.4113944721071583E-2</v>
+        <v>6.4085727334179027E-2</v>
       </c>
       <c r="N3" s="11">
-        <v>6.4051802561343796E-2</v>
+        <v>6.4023650710348448E-2</v>
       </c>
       <c r="O3" s="11">
-        <v>7.4949779679613748E-2</v>
+        <v>7.4894766258971956E-2</v>
       </c>
       <c r="P3" s="11">
-        <v>8.2454583374420118E-2</v>
+        <v>8.2406156940541334E-2</v>
       </c>
       <c r="Q3" s="11">
-        <v>6.9254568137103747E-2</v>
+        <v>6.9219643680551807E-2</v>
       </c>
       <c r="R3" s="11">
-        <v>8.0761834372323996E-2</v>
+        <v>8.0713460594278613E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -8222,52 +8212,52 @@
         <v>56</v>
       </c>
       <c r="C4" s="11">
-        <v>6.9086594840507784E-6</v>
+        <v>6.9050169676342669E-6</v>
       </c>
       <c r="D4" s="11">
-        <v>2.7454283099128109E-5</v>
+        <v>2.7439819685130598E-5</v>
       </c>
       <c r="E4" s="11">
-        <v>1.768839065983273E-6</v>
+        <v>1.7679597021760211E-6</v>
       </c>
       <c r="F4" s="11">
-        <v>2.0784445351653829E-5</v>
+        <v>2.077320766111126E-5</v>
       </c>
       <c r="G4" s="11">
-        <v>8.6044962102396294E-7</v>
+        <v>8.6002170783749556E-7</v>
       </c>
       <c r="H4" s="11">
-        <v>6.770083290982108E-7</v>
+        <v>6.7668078209427876E-7</v>
       </c>
       <c r="I4" s="11">
-        <v>4.0804713706881779E-5</v>
+        <v>4.0782330695867781E-5</v>
       </c>
       <c r="J4" s="11">
-        <v>1.5744215356339131E-6</v>
+        <v>1.573648264872827E-6</v>
       </c>
       <c r="K4" s="11">
-        <v>5.300789932157812E-6</v>
+        <v>5.2978728163587449E-6</v>
       </c>
       <c r="L4" s="11">
-        <v>3.3873009859285262E-5</v>
+        <v>3.3854305602854781E-5</v>
       </c>
       <c r="M4" s="11">
-        <v>3.4967216020306999E-7</v>
+        <v>3.495046528676845E-7</v>
       </c>
       <c r="N4" s="11">
-        <v>3.7721575768890068E-7</v>
+        <v>3.770352346852988E-7</v>
       </c>
       <c r="O4" s="11">
-        <v>3.4044997680572862E-5</v>
+        <v>3.4023144115205002E-5</v>
       </c>
       <c r="P4" s="11">
-        <v>5.4866615305301332E-5</v>
+        <v>5.48364435225112E-5</v>
       </c>
       <c r="Q4" s="11">
-        <v>6.393635738090779E-6</v>
+        <v>6.3902839762422878E-6</v>
       </c>
       <c r="R4" s="11">
-        <v>7.2330706664627402E-5</v>
+        <v>7.2289899643792404E-5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -8278,52 +8268,52 @@
         <v>41</v>
       </c>
       <c r="C5" s="11">
-        <v>0.9435359619548036</v>
+        <v>0.94291059305687941</v>
       </c>
       <c r="D5" s="11">
-        <v>0.95112497955744513</v>
+        <v>0.95045074694363041</v>
       </c>
       <c r="E5" s="11">
-        <v>0.93308659856408227</v>
+        <v>0.93250259251122136</v>
       </c>
       <c r="F5" s="11">
-        <v>0.95244995340253635</v>
+        <v>0.9517668315814013</v>
       </c>
       <c r="G5" s="11">
-        <v>0.92531853976369005</v>
+        <v>0.92474043288223584</v>
       </c>
       <c r="H5" s="11">
-        <v>0.92825441476597048</v>
+        <v>0.92768745369136163</v>
       </c>
       <c r="I5" s="11">
-        <v>0.95896413424359106</v>
+        <v>0.95828408089051764</v>
       </c>
       <c r="J5" s="11">
-        <v>0.93075137553285237</v>
+        <v>0.93017524278682628</v>
       </c>
       <c r="K5" s="11">
-        <v>0.94720918359537409</v>
+        <v>0.94652945701582902</v>
       </c>
       <c r="L5" s="11">
-        <v>0.95428573002281525</v>
+        <v>0.95358755937745709</v>
       </c>
       <c r="M5" s="11">
-        <v>0.92606360316060454</v>
+        <v>0.92550318222101124</v>
       </c>
       <c r="N5" s="11">
-        <v>0.92593301148095797</v>
+        <v>0.9253731628957772</v>
       </c>
       <c r="O5" s="11">
-        <v>0.94928268097514701</v>
+        <v>0.94849026777861678</v>
       </c>
       <c r="P5" s="11">
-        <v>0.95634571982532202</v>
+        <v>0.9556450648845265</v>
       </c>
       <c r="Q5" s="11">
-        <v>0.94310797391900647</v>
+        <v>0.94248585470317781</v>
       </c>
       <c r="R5" s="11">
-        <v>0.95972708244329497</v>
+        <v>0.9590163289578878</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -8334,52 +8324,52 @@
         <v>42</v>
       </c>
       <c r="C6" s="11">
-        <v>3.7432253257330739E-2</v>
+        <v>3.7408068961109181E-2</v>
       </c>
       <c r="D6" s="11">
-        <v>3.088490075701154E-2</v>
+        <v>3.08653028521205E-2</v>
       </c>
       <c r="E6" s="11">
-        <v>3.8222365134464621E-2</v>
+        <v>3.8198731469479108E-2</v>
       </c>
       <c r="F6" s="11">
-        <v>3.203881320453137E-2</v>
+        <v>3.201802512802334E-2</v>
       </c>
       <c r="G6" s="11">
-        <v>4.1887659870484283E-2</v>
+        <v>4.1861760095561897E-2</v>
       </c>
       <c r="H6" s="11">
-        <v>3.8396662524787309E-2</v>
+        <v>3.837340950243974E-2</v>
       </c>
       <c r="I6" s="11">
-        <v>3.4293827875286259E-2</v>
+        <v>3.4271129452203897E-2</v>
       </c>
       <c r="J6" s="11">
-        <v>3.8362977350886583E-2</v>
+        <v>3.8339471888116032E-2</v>
       </c>
       <c r="K6" s="11">
-        <v>3.3228477154677832E-2</v>
+        <v>3.3206614437704243E-2</v>
       </c>
       <c r="L6" s="11">
-        <v>3.2156184483539012E-2</v>
+        <v>3.2134921471123887E-2</v>
       </c>
       <c r="M6" s="11">
-        <v>3.8529361334127987E-2</v>
+        <v>3.8506197122946548E-2</v>
       </c>
       <c r="N6" s="11">
-        <v>3.8527155844518421E-2</v>
+        <v>3.8504009678461293E-2</v>
       </c>
       <c r="O6" s="11">
-        <v>3.3056364830356968E-2</v>
+        <v>3.3031515186776543E-2</v>
       </c>
       <c r="P6" s="11">
-        <v>3.1760487072419158E-2</v>
+        <v>3.1739527010861218E-2</v>
       </c>
       <c r="Q6" s="11">
-        <v>3.7485187791721643E-2</v>
+        <v>3.7461077549330132E-2</v>
       </c>
       <c r="R6" s="11">
-        <v>3.3326854636549059E-2</v>
+        <v>3.3304345012413028E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -8390,52 +8380,52 @@
         <v>43</v>
       </c>
       <c r="C7" s="11">
-        <v>1.7797983478949279E-3</v>
+        <v>1.7787440848381661E-3</v>
       </c>
       <c r="D7" s="11">
-        <v>2.1244541220047791E-3</v>
+        <v>2.1231465665565441E-3</v>
       </c>
       <c r="E7" s="11">
-        <v>1.683999392666656E-3</v>
+        <v>1.6830633247899389E-3</v>
       </c>
       <c r="F7" s="11">
-        <v>2.0923262550105841E-3</v>
+        <v>2.0910157569266718E-3</v>
       </c>
       <c r="G7" s="11">
-        <v>1.813620080370898E-3</v>
+        <v>1.8126923928490769E-3</v>
       </c>
       <c r="H7" s="11">
-        <v>1.646144242557818E-3</v>
+        <v>1.6452539910109081E-3</v>
       </c>
       <c r="I7" s="11">
-        <v>2.009201512200708E-3</v>
+        <v>2.0079470122957928E-3</v>
       </c>
       <c r="J7" s="11">
-        <v>1.6680574603965569E-3</v>
+        <v>1.66714240819428E-3</v>
       </c>
       <c r="K7" s="11">
-        <v>2.0106922972124041E-3</v>
+        <v>2.0094130804611358E-3</v>
       </c>
       <c r="L7" s="11">
-        <v>2.12379028665538E-3</v>
+        <v>2.1224370658972321E-3</v>
       </c>
       <c r="M7" s="11">
-        <v>1.6309452148246511E-3</v>
+        <v>1.6300724038535699E-3</v>
       </c>
       <c r="N7" s="11">
-        <v>1.629902696048842E-3</v>
+        <v>1.629031172820448E-3</v>
       </c>
       <c r="O7" s="11">
-        <v>2.239556185535826E-3</v>
+        <v>2.2379117729297341E-3</v>
       </c>
       <c r="P7" s="11">
-        <v>2.15410613273974E-3</v>
+        <v>2.1527409419144312E-3</v>
       </c>
       <c r="Q7" s="11">
-        <v>1.7690312117045639E-3</v>
+        <v>1.7679905064996041E-3</v>
       </c>
       <c r="R7" s="11">
-        <v>2.1259107740845681E-3</v>
+        <v>2.12453997306775E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -8446,52 +8436,52 @@
         <v>44</v>
       </c>
       <c r="C8" s="11">
-        <v>4.8542407635215118E-3</v>
+        <v>4.8536301924277676E-3</v>
       </c>
       <c r="D8" s="11">
-        <v>4.0734899981027493E-3</v>
+        <v>4.0724474216754106E-3</v>
       </c>
       <c r="E8" s="11">
-        <v>4.9187649057888198E-3</v>
+        <v>4.9184217942229739E-3</v>
       </c>
       <c r="F8" s="11">
-        <v>4.1957960200921969E-3</v>
+        <v>4.1947415526950669E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>5.4404132765166211E-3</v>
+        <v>5.4419355131860312E-3</v>
       </c>
       <c r="H8" s="11">
-        <v>4.9304233929472266E-3</v>
+        <v>4.9301585909911592E-3</v>
       </c>
       <c r="I8" s="11">
-        <v>4.543323951160653E-3</v>
+        <v>4.5425450541669516E-3</v>
       </c>
       <c r="J8" s="11">
-        <v>4.9318750639757254E-3</v>
+        <v>4.931588625958756E-3</v>
       </c>
       <c r="K8" s="11">
-        <v>4.2527000840123629E-3</v>
+        <v>4.2514549337535389E-3</v>
       </c>
       <c r="L8" s="11">
-        <v>4.2244719558098068E-3</v>
+        <v>4.2234271205968347E-3</v>
       </c>
       <c r="M8" s="11">
-        <v>4.938905464883357E-3</v>
+        <v>4.9386734305081692E-3</v>
       </c>
       <c r="N8" s="11">
-        <v>4.9382004091189369E-3</v>
+        <v>4.9379691710307958E-3</v>
       </c>
       <c r="O8" s="11">
-        <v>4.3153630230716696E-3</v>
+        <v>4.3134509661515276E-3</v>
       </c>
       <c r="P8" s="11">
-        <v>4.2405041997269936E-3</v>
+        <v>4.2395846350455259E-3</v>
       </c>
       <c r="Q8" s="11">
-        <v>4.8570271640128648E-3</v>
+        <v>4.8564641634040989E-3</v>
       </c>
       <c r="R8" s="11">
-        <v>4.410726009131994E-3</v>
+        <v>4.4098002886031442E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -8502,52 +8492,52 @@
         <v>45</v>
       </c>
       <c r="C9" s="11">
-        <v>9.6193502330131228E-2</v>
+        <v>9.6132614191991816E-2</v>
       </c>
       <c r="D9" s="11">
-        <v>2.3831354803903969E-5</v>
+        <v>2.3816429960000231E-5</v>
       </c>
       <c r="E9" s="11">
-        <v>0.1318898592963694</v>
+        <v>0.1318093480147513</v>
       </c>
       <c r="F9" s="11">
-        <v>6.5223021297964429E-4</v>
+        <v>6.5181300231311194E-4</v>
       </c>
       <c r="G9" s="11">
-        <v>0.14340984943770341</v>
+        <v>0.14332196540735581</v>
       </c>
       <c r="H9" s="11">
-        <v>0.1477073376106082</v>
+        <v>0.14761866930395409</v>
       </c>
       <c r="I9" s="11">
-        <v>2.8079766772348469E-2</v>
+        <v>2.8061603687718959E-2</v>
       </c>
       <c r="J9" s="11">
-        <v>0.13932582337974991</v>
+        <v>0.1392413915196031</v>
       </c>
       <c r="K9" s="11">
-        <v>3.3716038615675168E-4</v>
+        <v>3.3694163633864481E-4</v>
       </c>
       <c r="L9" s="11">
-        <v>5.840280376439278E-4</v>
+        <v>5.8364749372294454E-4</v>
       </c>
       <c r="M9" s="11">
-        <v>0.15467278112732041</v>
+        <v>0.15458044280364169</v>
       </c>
       <c r="N9" s="11">
-        <v>0.15529648758016271</v>
+        <v>0.1552038352293649</v>
       </c>
       <c r="O9" s="11">
-        <v>8.7258017582100107E-4</v>
+        <v>8.719344559580763E-4</v>
       </c>
       <c r="P9" s="11">
-        <v>1.80021936591181E-3</v>
+        <v>1.7990505397950129E-3</v>
       </c>
       <c r="Q9" s="11">
-        <v>9.423017212937114E-2</v>
+        <v>9.4170705699069227E-2</v>
       </c>
       <c r="R9" s="11">
-        <v>7.3940827681082417E-3</v>
+        <v>7.389180715643825E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -8558,52 +8548,52 @@
         <v>46</v>
       </c>
       <c r="C10" s="11">
-        <v>1.9798149829736299E-3</v>
+        <v>1.978524277412796E-3</v>
       </c>
       <c r="D10" s="11">
-        <v>1.9202276882413331E-2</v>
+        <v>1.91896283152511E-2</v>
       </c>
       <c r="E10" s="11">
-        <v>5.6399966058408833E-4</v>
+        <v>5.6364925141854521E-4</v>
       </c>
       <c r="F10" s="11">
-        <v>1.3247793789392811E-2</v>
+        <v>1.32389008175283E-2</v>
       </c>
       <c r="G10" s="11">
-        <v>2.1652143375128951E-4</v>
+        <v>2.1638685596131211E-4</v>
       </c>
       <c r="H10" s="11">
-        <v>2.1432685655249569E-4</v>
+        <v>2.141965507754212E-4</v>
       </c>
       <c r="I10" s="11">
-        <v>1.461036635198262E-2</v>
+        <v>1.4600476743653411E-2</v>
       </c>
       <c r="J10" s="11">
-        <v>3.7397581725772788E-4</v>
+        <v>3.7374568619528379E-4</v>
       </c>
       <c r="K10" s="11">
-        <v>3.2878101595310888E-3</v>
+        <v>3.2855807080122718E-3</v>
       </c>
       <c r="L10" s="11">
-        <v>1.590137918748738E-2</v>
+        <v>1.589050771318145E-2</v>
       </c>
       <c r="M10" s="11">
-        <v>9.0432789782059932E-5</v>
+        <v>9.037823381379727E-5</v>
       </c>
       <c r="N10" s="11">
-        <v>8.6150553389528978E-5</v>
+        <v>8.609862015203266E-5</v>
       </c>
       <c r="O10" s="11">
-        <v>4.6989650798666838E-3</v>
+        <v>4.6953290776510781E-3</v>
       </c>
       <c r="P10" s="11">
-        <v>2.639928439944824E-2</v>
+        <v>2.6381275824678821E-2</v>
       </c>
       <c r="Q10" s="11">
-        <v>2.150027946768929E-3</v>
+        <v>2.1486331255443189E-3</v>
       </c>
       <c r="R10" s="11">
-        <v>1.518483394941612E-2</v>
+        <v>1.517426313258536E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -8614,52 +8604,52 @@
         <v>47</v>
       </c>
       <c r="C11" s="11">
-        <v>4.7184468948781381E-4</v>
+        <v>4.7163602545153139E-4</v>
       </c>
       <c r="D11" s="11">
-        <v>7.3482184950973076E-7</v>
+        <v>7.3448802234935491E-7</v>
       </c>
       <c r="E11" s="11">
-        <v>4.0093391109414397E-5</v>
+        <v>4.0076549611144011E-5</v>
       </c>
       <c r="F11" s="11">
-        <v>1.7575925908995739E-5</v>
+        <v>1.7567731798737859E-5</v>
       </c>
       <c r="G11" s="11">
-        <v>1.9527461708865759E-5</v>
+        <v>1.951923874226115E-5</v>
       </c>
       <c r="H11" s="11">
-        <v>1.137938723827546E-5</v>
+        <v>1.1374742762757439E-5</v>
       </c>
       <c r="I11" s="11">
-        <v>2.096722032179934E-4</v>
+        <v>2.0957380526799761E-4</v>
       </c>
       <c r="J11" s="11">
-        <v>2.6471833088745492E-5</v>
+        <v>2.6460855627557871E-5</v>
       </c>
       <c r="K11" s="11">
-        <v>1.920384401457501E-6</v>
+        <v>1.9194695727165468E-6</v>
       </c>
       <c r="L11" s="11">
-        <v>1.6694173458202841E-4</v>
+        <v>1.6686264851114861E-4</v>
       </c>
       <c r="M11" s="11">
-        <v>1.156955237290416E-5</v>
+        <v>1.1564886792148201E-5</v>
       </c>
       <c r="N11" s="11">
-        <v>1.2942670466677439E-5</v>
+        <v>1.29374585492261E-5</v>
       </c>
       <c r="O11" s="11">
-        <v>4.5435933368759278E-2</v>
+        <v>4.5415117418467023E-2</v>
       </c>
       <c r="P11" s="11">
-        <v>1.3243226647327821E-4</v>
+        <v>1.3236964991232249E-4</v>
       </c>
       <c r="Q11" s="11">
-        <v>6.5750971034293134E-5</v>
+        <v>6.5721602501122903E-5</v>
       </c>
       <c r="R11" s="11">
-        <v>1.6865105025409351E-3</v>
+        <v>1.685714417950343E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -8670,52 +8660,52 @@
         <v>48</v>
       </c>
       <c r="C12" s="11">
-        <v>9.9815326138857785E-6</v>
+        <v>9.975004616949823E-6</v>
       </c>
       <c r="D12" s="11">
-        <v>1.586506250602819E-7</v>
+        <v>1.585468257877125E-7</v>
       </c>
       <c r="E12" s="11">
-        <v>1.8145874153222331E-6</v>
+        <v>1.813456614803137E-6</v>
       </c>
       <c r="F12" s="11">
-        <v>2.2176344230492179E-6</v>
+        <v>2.216153094946677E-6</v>
       </c>
       <c r="G12" s="11">
-        <v>3.210832003686391E-6</v>
+        <v>3.2088309581077472E-6</v>
       </c>
       <c r="H12" s="11">
-        <v>9.7777871421387524E-7</v>
+        <v>9.7718266322018901E-7</v>
       </c>
       <c r="I12" s="11">
-        <v>2.069197074968963E-5</v>
+        <v>2.067796329108954E-5</v>
       </c>
       <c r="J12" s="11">
-        <v>1.6423712113916879E-6</v>
+        <v>1.6413576435724311E-6</v>
       </c>
       <c r="K12" s="11">
-        <v>5.8833727133451378E-7</v>
+        <v>5.8793916490135983E-7</v>
       </c>
       <c r="L12" s="11">
-        <v>5.9153081400865318E-5</v>
+        <v>5.9112826312802639E-5</v>
       </c>
       <c r="M12" s="11">
-        <v>6.5273145383228364E-7</v>
+        <v>6.523367408178073E-7</v>
       </c>
       <c r="N12" s="11">
-        <v>3.3416765329225839E-7</v>
+        <v>3.3396574103218829E-7</v>
       </c>
       <c r="O12" s="11">
-        <v>1.349122961943285E-5</v>
+        <v>1.348083679896223E-5</v>
       </c>
       <c r="P12" s="11">
-        <v>3.3577305445255438E-4</v>
+        <v>3.3554482442358372E-4</v>
       </c>
       <c r="Q12" s="11">
-        <v>4.8644899948751517E-5</v>
+        <v>4.8613217307210302E-5</v>
       </c>
       <c r="R12" s="11">
-        <v>2.9011471340270739E-5</v>
+        <v>2.8991350521049592E-5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -8726,52 +8716,52 @@
         <v>57</v>
       </c>
       <c r="C13" s="11">
-        <v>1.0266522177345579E-2</v>
+        <v>1.0260337932589099E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>3.0690529586194938E-5</v>
+        <v>3.0671534908236349E-5</v>
       </c>
       <c r="E13" s="11">
-        <v>1.3706605354129171E-2</v>
+        <v>1.369878827590933E-2</v>
       </c>
       <c r="F13" s="11">
-        <v>1.7889883949362959E-4</v>
+        <v>1.7878581799415379E-4</v>
       </c>
       <c r="G13" s="11">
-        <v>1.436516187840131E-2</v>
+        <v>1.435696361698463E-2</v>
       </c>
       <c r="H13" s="11">
-        <v>1.46889987031697E-2</v>
+        <v>1.468081328996684E-2</v>
       </c>
       <c r="I13" s="11">
-        <v>3.6919532775905048E-3</v>
+        <v>3.689624540758905E-3</v>
       </c>
       <c r="J13" s="11">
-        <v>1.4197930976631549E-2</v>
+        <v>1.418991451740385E-2</v>
       </c>
       <c r="K13" s="11">
-        <v>6.4718257811458447E-5</v>
+        <v>6.4676650718231539E-5</v>
       </c>
       <c r="L13" s="11">
-        <v>4.423197982691333E-4</v>
+        <v>4.4203675759236068E-4</v>
       </c>
       <c r="M13" s="11">
-        <v>1.5355825771013651E-2</v>
+        <v>1.534734539631976E-2</v>
       </c>
       <c r="N13" s="11">
-        <v>1.542336317177352E-2</v>
+        <v>1.5414852972334209E-2</v>
       </c>
       <c r="O13" s="11">
-        <v>3.3294901615123821E-3</v>
+        <v>3.327084556062467E-3</v>
       </c>
       <c r="P13" s="11">
-        <v>7.6417196571073795E-4</v>
+        <v>7.6368580095128214E-4</v>
       </c>
       <c r="Q13" s="11">
-        <v>1.006264717722628E-2</v>
+        <v>1.005661572326441E-2</v>
       </c>
       <c r="R13" s="11">
-        <v>1.4443455377794029E-3</v>
+        <v>1.4434052096498539E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -8782,52 +8772,52 @@
         <v>58</v>
       </c>
       <c r="C14" s="11">
-        <v>6.5742178605985449E-3</v>
+        <v>6.5698978367078192E-3</v>
       </c>
       <c r="D14" s="11">
-        <v>1.8857126023309809E-5</v>
+        <v>1.8844792940501011E-5</v>
       </c>
       <c r="E14" s="11">
-        <v>8.7756158936671703E-3</v>
+        <v>8.77010913797268E-3</v>
       </c>
       <c r="F14" s="11">
-        <v>1.115182788013385E-4</v>
+        <v>1.114437925699653E-4</v>
       </c>
       <c r="G14" s="11">
-        <v>9.2172734549188732E-3</v>
+        <v>9.2114863720588538E-3</v>
       </c>
       <c r="H14" s="11">
-        <v>9.4292877483904344E-3</v>
+        <v>9.4234957409941519E-3</v>
       </c>
       <c r="I14" s="11">
-        <v>2.350272731761771E-3</v>
+        <v>2.348679750515842E-3</v>
       </c>
       <c r="J14" s="11">
-        <v>9.1102048639091077E-3</v>
+        <v>9.104541666976166E-3</v>
       </c>
       <c r="K14" s="11">
-        <v>4.0670672536568159E-5</v>
+        <v>4.0643152184689171E-5</v>
       </c>
       <c r="L14" s="11">
-        <v>2.7183038361129711E-4</v>
+        <v>2.7164552714853602E-4</v>
       </c>
       <c r="M14" s="11">
-        <v>9.857497690732242E-3</v>
+        <v>9.8514888549862244E-3</v>
       </c>
       <c r="N14" s="11">
-        <v>9.9007238316530296E-3</v>
+        <v>9.8946931187278118E-3</v>
       </c>
       <c r="O14" s="11">
-        <v>2.1020092421754578E-3</v>
+        <v>2.1003895718536229E-3</v>
       </c>
       <c r="P14" s="11">
-        <v>4.6910084834249322E-4</v>
+        <v>4.6878263718117571E-4</v>
       </c>
       <c r="Q14" s="11">
-        <v>6.4421038627973382E-3</v>
+        <v>6.4378899857078118E-3</v>
       </c>
       <c r="R14" s="11">
-        <v>9.0782539234159575E-4</v>
+        <v>9.0719572812045766E-4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -8838,52 +8828,52 @@
         <v>59</v>
       </c>
       <c r="C15" s="11">
-        <v>5.0741926336675203E-3</v>
+        <v>5.0708853570876873E-3</v>
       </c>
       <c r="D15" s="11">
-        <v>1.0065060552882589E-5</v>
+        <v>1.0058469055424959E-5</v>
       </c>
       <c r="E15" s="11">
-        <v>6.7171947889652049E-3</v>
+        <v>6.7130272821571057E-3</v>
       </c>
       <c r="F15" s="11">
-        <v>7.0174944226316922E-5</v>
+        <v>7.0128034742477521E-5</v>
       </c>
       <c r="G15" s="11">
-        <v>7.2176951807988547E-3</v>
+        <v>7.2132186314276736E-3</v>
       </c>
       <c r="H15" s="11">
-        <v>7.4090024821894052E-3</v>
+        <v>7.4045076690798612E-3</v>
       </c>
       <c r="I15" s="11">
-        <v>1.7503762162742701E-3</v>
+        <v>1.749192350351419E-3</v>
       </c>
       <c r="J15" s="11">
-        <v>7.124050315279639E-3</v>
+        <v>7.1196742152717096E-3</v>
       </c>
       <c r="K15" s="11">
-        <v>2.8205175026295759E-5</v>
+        <v>2.8186074253651819E-5</v>
       </c>
       <c r="L15" s="11">
-        <v>1.4087482913538649E-4</v>
+        <v>1.407789661131517E-4</v>
       </c>
       <c r="M15" s="11">
-        <v>7.7466669236297839E-3</v>
+        <v>7.7420059235440578E-3</v>
       </c>
       <c r="N15" s="11">
-        <v>7.779774582752353E-3</v>
+        <v>7.7750973562611394E-3</v>
       </c>
       <c r="O15" s="11">
-        <v>1.454518865655607E-3</v>
+        <v>1.453398439104209E-3</v>
       </c>
       <c r="P15" s="11">
-        <v>2.3706815193768279E-4</v>
+        <v>2.3690721928182489E-4</v>
       </c>
       <c r="Q15" s="11">
-        <v>4.9480954347325568E-3</v>
+        <v>4.9448853055931432E-3</v>
       </c>
       <c r="R15" s="11">
-        <v>6.0697011816192379E-4</v>
+        <v>6.0654921136280384E-4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -8894,52 +8884,52 @@
         <v>51</v>
       </c>
       <c r="C16" s="11">
-        <v>3.7346666985215382E-2</v>
+        <v>3.7322422853578813E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>3.755386685359649E-2</v>
+        <v>3.7529141298445798E-2</v>
       </c>
       <c r="E16" s="11">
-        <v>3.7530981772347621E-2</v>
+        <v>3.7507801000506658E-2</v>
       </c>
       <c r="F16" s="11">
-        <v>3.8185025477350552E-2</v>
+        <v>3.8159411472969793E-2</v>
       </c>
       <c r="G16" s="11">
-        <v>3.7543092605624467E-2</v>
+        <v>3.7519911278542838E-2</v>
       </c>
       <c r="H16" s="11">
-        <v>3.7720301559617302E-2</v>
+        <v>3.769752036967941E-2</v>
       </c>
       <c r="I16" s="11">
-        <v>3.594795180821813E-2</v>
+        <v>3.5923650623334517E-2</v>
       </c>
       <c r="J16" s="11">
-        <v>3.7568860135231058E-2</v>
+        <v>3.7545885244816023E-2</v>
       </c>
       <c r="K16" s="11">
-        <v>4.107847760301056E-2</v>
+        <v>4.1050631669467902E-2</v>
       </c>
       <c r="L16" s="11">
-        <v>3.6394598816321129E-2</v>
+        <v>3.6369731242814403E-2</v>
       </c>
       <c r="M16" s="11">
-        <v>3.7680251353078148E-2</v>
+        <v>3.7657678891487772E-2</v>
       </c>
       <c r="N16" s="11">
-        <v>3.7663974786253822E-2</v>
+        <v>3.7641429393289301E-2</v>
       </c>
       <c r="O16" s="11">
-        <v>2.6611356529576639E-2</v>
+        <v>2.6590758812526039E-2</v>
       </c>
       <c r="P16" s="11">
-        <v>3.4509993978689583E-2</v>
+        <v>3.4486456138969251E-2</v>
       </c>
       <c r="Q16" s="11">
-        <v>3.7550697864503053E-2</v>
+        <v>3.7526443403963543E-2</v>
       </c>
       <c r="R16" s="11">
-        <v>3.495100688829305E-2</v>
+        <v>3.4926706394266947E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -8950,52 +8940,52 @@
         <v>52</v>
       </c>
       <c r="C17" s="11">
-        <v>6.1750621027116682E-2</v>
+        <v>6.1720803177987657E-2</v>
       </c>
       <c r="D17" s="11">
-        <v>7.5103351131476273E-2</v>
+        <v>7.5064264872547165E-2</v>
       </c>
       <c r="E17" s="11">
-        <v>5.8986215571292078E-2</v>
+        <v>5.8960100003000067E-2</v>
       </c>
       <c r="F17" s="11">
-        <v>7.5101156400731756E-2</v>
+        <v>7.5061288809847845E-2</v>
       </c>
       <c r="G17" s="11">
-        <v>5.8232871128667978E-2</v>
+        <v>5.8207264916055032E-2</v>
       </c>
       <c r="H17" s="11">
-        <v>5.8250501985196372E-2</v>
+        <v>5.8225693841365778E-2</v>
       </c>
       <c r="I17" s="11">
-        <v>6.6560792928709561E-2</v>
+        <v>6.6525879473044489E-2</v>
       </c>
       <c r="J17" s="11">
-        <v>5.8557547902184141E-2</v>
+        <v>5.8532063941827528E-2</v>
       </c>
       <c r="K17" s="11">
-        <v>7.8721029717660207E-2</v>
+        <v>7.8678693706305994E-2</v>
       </c>
       <c r="L17" s="11">
-        <v>7.326613985298229E-2</v>
+        <v>7.3226137604018693E-2</v>
       </c>
       <c r="M17" s="11">
-        <v>5.7748824405597018E-2</v>
+        <v>5.772458172995068E-2</v>
       </c>
       <c r="N17" s="11">
-        <v>5.7673925424594659E-2</v>
+        <v>5.7649749556433171E-2</v>
       </c>
       <c r="O17" s="11">
-        <v>6.2603409084923164E-2</v>
+        <v>6.2561635483429689E-2</v>
       </c>
       <c r="P17" s="11">
-        <v>7.1084455875693842E-2</v>
+        <v>7.1045661594723225E-2</v>
       </c>
       <c r="Q17" s="11">
-        <v>6.2171006851862907E-2</v>
+        <v>6.2141196447871833E-2</v>
       </c>
       <c r="R17" s="11">
-        <v>6.9292440284150839E-2</v>
+        <v>6.9253984973376939E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -9004,79 +8994,74 @@
         <v>38</v>
       </c>
       <c r="C18" s="12">
-        <f>SUM(C2:C17)</f>
-        <v>1.3165728612468901</v>
+        <f t="shared" ref="C18:R18" si="0">SUM(C2:C17)</f>
+        <v>1.315737951495711</v>
       </c>
       <c r="D18" s="12">
-        <f>SUM(D2:D17)</f>
-        <v>1.2469703659306202</v>
+        <f t="shared" si="0"/>
+        <v>1.2461282143001302</v>
       </c>
       <c r="E18" s="12">
-        <f>SUM(E2:E17)</f>
-        <v>1.3413861742910291</v>
+        <f t="shared" si="0"/>
+        <v>1.3405829516679217</v>
       </c>
       <c r="F18" s="12">
-        <f>SUM(F2:F17)</f>
-        <v>1.2438801878986649</v>
+        <f t="shared" si="0"/>
+        <v>1.2430289774880343</v>
       </c>
       <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>1.3485831952734235</v>
+        <f t="shared" si="0"/>
+        <v>1.3477789034720311</v>
       </c>
       <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>1.3528097081446242</v>
+        <f t="shared" si="0"/>
+        <v>1.3520192484574927</v>
       </c>
       <c r="I18" s="12">
-        <f>SUM(I2:I17)</f>
-        <v>1.2703109617580444</v>
+        <f t="shared" si="0"/>
+        <v>1.2694502064054121</v>
       </c>
       <c r="J18" s="12">
-        <f>SUM(J2:J17)</f>
-        <v>1.3466527246804609</v>
+        <f t="shared" si="0"/>
+        <v>1.3458552027935595</v>
       </c>
       <c r="K18" s="12">
-        <f>SUM(K2:K17)</f>
-        <v>1.2362290635893667</v>
+        <f t="shared" si="0"/>
+        <v>1.2353814136186489</v>
       </c>
       <c r="L18" s="12">
-        <f>SUM(L2:L17)</f>
-        <v>1.2437847865157283</v>
+        <f t="shared" si="0"/>
+        <v>1.2429151530078408</v>
       </c>
       <c r="M18" s="12">
-        <f>SUM(M2:M17)</f>
-        <v>1.3577889854832224</v>
+        <f t="shared" si="0"/>
+        <v>1.3570026706759939</v>
       </c>
       <c r="N18" s="12">
-        <f>SUM(N2:N17)</f>
-        <v>1.3582665707322328</v>
+        <f t="shared" si="0"/>
+        <v>1.3574806506155479</v>
       </c>
       <c r="O18" s="12">
-        <f>SUM(O2:O17)</f>
-        <v>1.2516790838795264</v>
+        <f t="shared" si="0"/>
+        <v>1.2506818767808827</v>
       </c>
       <c r="P18" s="12">
-        <f>SUM(P2:P17)</f>
-        <v>1.2525716724875238</v>
+        <f t="shared" si="0"/>
+        <v>1.251695001779894</v>
       </c>
       <c r="Q18" s="12">
-        <f>SUM(Q2:Q17)</f>
-        <v>1.31392103725783</v>
+        <f t="shared" si="0"/>
+        <v>1.3130920795910206</v>
       </c>
       <c r="R18" s="12">
-        <f>SUM(R2:R17)</f>
-        <v>1.2522024998142758</v>
+        <f t="shared" si="0"/>
+        <v>1.2513153749602652</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R19">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:R17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9092,7 +9077,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -9157,67 +9142,67 @@
       </c>
       <c r="C2" s="3">
         <f>'EGE TOTAL'!C2/'EGE TOTAL'!$C$18</f>
-        <v>3.0313134194935594E-2</v>
+        <v>3.0318636328296789E-2</v>
       </c>
       <c r="D2" s="3">
         <f>'EGE TOTAL'!D2/'EGE TOTAL'!$C$18</f>
-        <v>2.9868028275719515E-2</v>
+        <v>2.9871637924418909E-2</v>
       </c>
       <c r="E2" s="3">
         <f>'EGE TOTAL'!E2/'EGE TOTAL'!$C$18</f>
-        <v>3.0034323314100875E-2</v>
+        <v>3.004115084158018E-2</v>
       </c>
       <c r="F2" s="3">
         <f>'EGE TOTAL'!F2/'EGE TOTAL'!$C$18</f>
-        <v>2.9789624230031852E-2</v>
+        <v>2.9792970051824338E-2</v>
       </c>
       <c r="G2" s="3">
         <f>'EGE TOTAL'!G2/'EGE TOTAL'!$C$18</f>
-        <v>2.98109006605825E-2</v>
+        <v>2.9817796897455819E-2</v>
       </c>
       <c r="H2" s="3">
         <f>'EGE TOTAL'!H2/'EGE TOTAL'!$C$18</f>
-        <v>2.9937063471485597E-2</v>
+        <v>2.9944423230254456E-2</v>
       </c>
       <c r="I2" s="3">
         <f>'EGE TOTAL'!I2/'EGE TOTAL'!$C$18</f>
-        <v>3.0597936192138835E-2</v>
+        <v>3.0601904652789884E-2</v>
       </c>
       <c r="J2" s="3">
         <f>'EGE TOTAL'!J2/'EGE TOTAL'!$C$18</f>
-        <v>2.9997500274985434E-2</v>
+        <v>3.0004570060066432E-2</v>
       </c>
       <c r="K2" s="3">
         <f>'EGE TOTAL'!K2/'EGE TOTAL'!$C$18</f>
-        <v>2.9193576881150141E-2</v>
+        <v>2.919673909490772E-2</v>
       </c>
       <c r="L2" s="3">
         <f>'EGE TOTAL'!L2/'EGE TOTAL'!$C$18</f>
-        <v>2.9920871489987361E-2</v>
+        <v>2.9923652068535762E-2</v>
       </c>
       <c r="M2" s="3">
         <f>'EGE TOTAL'!M2/'EGE TOTAL'!$C$18</f>
-        <v>2.9886210424621241E-2</v>
+        <v>2.9893741042319937E-2</v>
       </c>
       <c r="N2" s="3">
         <f>'EGE TOTAL'!N2/'EGE TOTAL'!$C$18</f>
-        <v>2.9887023281432005E-2</v>
+        <v>2.9894571511225772E-2</v>
       </c>
       <c r="O2" s="3">
         <f>'EGE TOTAL'!O2/'EGE TOTAL'!$C$18</f>
-        <v>3.0898054826744799E-2</v>
+        <v>3.0895827680016991E-2</v>
       </c>
       <c r="P2" s="3">
         <f>'EGE TOTAL'!P2/'EGE TOTAL'!$C$18</f>
-        <v>3.0251956829194605E-2</v>
+        <v>3.0254775769227915E-2</v>
       </c>
       <c r="Q2" s="3">
         <f>'EGE TOTAL'!Q2/'EGE TOTAL'!$C$18</f>
-        <v>3.0208512898124529E-2</v>
+        <v>3.0214188279715583E-2</v>
       </c>
       <c r="R2" s="3">
         <f>'EGE TOTAL'!R2/'EGE TOTAL'!$C$18</f>
-        <v>3.0595142240700087E-2</v>
+        <v>3.0597748628538365E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -9229,67 +9214,67 @@
       </c>
       <c r="C3" s="3">
         <f>'EGE TOTAL'!C3/'EGE TOTAL'!$C$18</f>
-        <v>5.2702654191583043E-2</v>
+        <v>5.2709229062283786E-2</v>
       </c>
       <c r="D3" s="3">
         <f>'EGE TOTAL'!D3/'EGE TOTAL'!$C$18</f>
-        <v>6.643598841345133E-2</v>
+        <v>6.644071044590083E-2</v>
       </c>
       <c r="E3" s="3">
         <f>'EGE TOTAL'!E3/'EGE TOTAL'!$C$18</f>
-        <v>4.9915902182262363E-2</v>
+        <v>4.9924363200907679E-2</v>
       </c>
       <c r="F3" s="3">
         <f>'EGE TOTAL'!F3/'EGE TOTAL'!$C$18</f>
-        <v>6.554571706582471E-2</v>
+        <v>6.5549749587646589E-2</v>
       </c>
       <c r="G3" s="3">
         <f>'EGE TOTAL'!G3/'EGE TOTAL'!$C$18</f>
-        <v>4.9103758358565133E-2</v>
+        <v>4.9112279794751149E-2</v>
       </c>
       <c r="H3" s="3">
         <f>'EGE TOTAL'!H3/'EGE TOTAL'!$C$18</f>
-        <v>4.9169285416580603E-2</v>
+        <v>4.9178510931005122E-2</v>
       </c>
       <c r="I3" s="3">
         <f>'EGE TOTAL'!I3/'EGE TOTAL'!$C$18</f>
-        <v>5.8449794208602579E-2</v>
+        <v>5.8454098173907426E-2</v>
       </c>
       <c r="J3" s="3">
         <f>'EGE TOTAL'!J3/'EGE TOTAL'!$C$18</f>
-        <v>4.9489446734661456E-2</v>
+        <v>4.9498239988029817E-2</v>
       </c>
       <c r="K3" s="3">
         <f>'EGE TOTAL'!K3/'EGE TOTAL'!$C$18</f>
-        <v>6.6480679122772376E-2</v>
+        <v>6.6484407085419681E-2</v>
       </c>
       <c r="L3" s="3">
         <f>'EGE TOTAL'!L3/'EGE TOTAL'!$C$18</f>
-        <v>6.4060612313675144E-2</v>
+        <v>6.4063522769105666E-2</v>
       </c>
       <c r="M3" s="3">
         <f>'EGE TOTAL'!M3/'EGE TOTAL'!$C$18</f>
-        <v>4.8697604673660841E-2</v>
+        <v>4.8707059989663855E-2</v>
       </c>
       <c r="N3" s="3">
         <f>'EGE TOTAL'!N3/'EGE TOTAL'!$C$18</f>
-        <v>4.8650404733910503E-2</v>
+        <v>4.865987990812861E-2</v>
       </c>
       <c r="O3" s="3">
         <f>'EGE TOTAL'!O3/'EGE TOTAL'!$C$18</f>
-        <v>5.6927939110510653E-2</v>
+        <v>5.6922251253627452E-2</v>
       </c>
       <c r="P3" s="3">
         <f>'EGE TOTAL'!P3/'EGE TOTAL'!$C$18</f>
-        <v>6.2628196130618735E-2</v>
+        <v>6.2631131713471719E-2</v>
       </c>
       <c r="Q3" s="3">
         <f>'EGE TOTAL'!Q3/'EGE TOTAL'!$C$18</f>
-        <v>5.2602153800675067E-2</v>
+        <v>5.2608989200215714E-2</v>
       </c>
       <c r="R3" s="3">
         <f>'EGE TOTAL'!R3/'EGE TOTAL'!$C$18</f>
-        <v>6.1342472376224338E-2</v>
+        <v>6.1344632115023182E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -9301,67 +9286,67 @@
       </c>
       <c r="C4" s="3">
         <f>'EGE TOTAL'!C4/'EGE TOTAL'!$C$18</f>
-        <v>5.2474570055376778E-6</v>
+        <v>5.2480183913405766E-6</v>
       </c>
       <c r="D4" s="3">
         <f>'EGE TOTAL'!D4/'EGE TOTAL'!$C$18</f>
-        <v>2.0852839905211861E-5</v>
+        <v>2.0855079580198645E-5</v>
       </c>
       <c r="E4" s="3">
         <f>'EGE TOTAL'!E4/'EGE TOTAL'!$C$18</f>
-        <v>1.3435177938485332E-6</v>
+        <v>1.3437019888088135E-6</v>
       </c>
       <c r="F4" s="3">
         <f>'EGE TOTAL'!F4/'EGE TOTAL'!$C$18</f>
-        <v>1.5786779420600734E-5</v>
+        <v>1.5788256041027463E-5</v>
       </c>
       <c r="G4" s="3">
         <f>'EGE TOTAL'!G4/'EGE TOTAL'!$C$18</f>
-        <v>6.5355260339261035E-7</v>
+        <v>6.5364209253053452E-7</v>
       </c>
       <c r="H4" s="3">
         <f>'EGE TOTAL'!H4/'EGE TOTAL'!$C$18</f>
-        <v>5.1422017650966524E-7</v>
+        <v>5.1429753266981337E-7</v>
       </c>
       <c r="I4" s="3">
         <f>'EGE TOTAL'!I4/'EGE TOTAL'!$C$18</f>
-        <v>3.099312989653816E-5</v>
+        <v>3.0995785026575426E-5</v>
       </c>
       <c r="J4" s="3">
         <f>'EGE TOTAL'!J4/'EGE TOTAL'!$C$18</f>
-        <v>1.1958483893879004E-6</v>
+        <v>1.1960195136759014E-6</v>
       </c>
       <c r="K4" s="3">
         <f>'EGE TOTAL'!K4/'EGE TOTAL'!$C$18</f>
-        <v>4.026203249501573E-6</v>
+        <v>4.026541007148272E-6</v>
       </c>
       <c r="L4" s="3">
         <f>'EGE TOTAL'!L4/'EGE TOTAL'!$C$18</f>
-        <v>2.5728169595722233E-5</v>
+        <v>2.5730279775216424E-5</v>
       </c>
       <c r="M4" s="3">
         <f>'EGE TOTAL'!M4/'EGE TOTAL'!$C$18</f>
-        <v>2.6559271461201554E-7</v>
+        <v>2.6563393757121082E-7</v>
       </c>
       <c r="N4" s="3">
         <f>'EGE TOTAL'!N4/'EGE TOTAL'!$C$18</f>
-        <v>2.8651339306177858E-7</v>
+        <v>2.8655799907321275E-7</v>
       </c>
       <c r="O4" s="3">
         <f>'EGE TOTAL'!O4/'EGE TOTAL'!$C$18</f>
-        <v>2.5858802564356202E-5</v>
+        <v>2.5858602069301114E-5</v>
       </c>
       <c r="P4" s="3">
         <f>'EGE TOTAL'!P4/'EGE TOTAL'!$C$18</f>
-        <v>4.1673816102618629E-5</v>
+        <v>4.167732903058239E-5</v>
       </c>
       <c r="Q4" s="3">
         <f>'EGE TOTAL'!Q4/'EGE TOTAL'!$C$18</f>
-        <v>4.8562718602869743E-6</v>
+        <v>4.8568059992325293E-6</v>
       </c>
       <c r="R4" s="3">
         <f>'EGE TOTAL'!R4/'EGE TOTAL'!$C$18</f>
-        <v>5.4938628004320986E-5</v>
+        <v>5.4942475104267028E-5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -9373,67 +9358,67 @@
       </c>
       <c r="C5" s="3">
         <f>'EGE TOTAL'!C5/'EGE TOTAL'!$C$18</f>
-        <v>0.71666064957560083</v>
+        <v>0.71664011210210432</v>
       </c>
       <c r="D5" s="3">
         <f>'EGE TOTAL'!D5/'EGE TOTAL'!$C$18</f>
-        <v>0.72242487108283604</v>
+        <v>0.72237085345389052</v>
       </c>
       <c r="E5" s="3">
         <f>'EGE TOTAL'!E5/'EGE TOTAL'!$C$18</f>
-        <v>0.70872385876189303</v>
+        <v>0.70872972194133832</v>
       </c>
       <c r="F5" s="3">
         <f>'EGE TOTAL'!F5/'EGE TOTAL'!$C$18</f>
-        <v>0.72343125203150327</v>
+        <v>0.72337111694577716</v>
       </c>
       <c r="G5" s="3">
         <f>'EGE TOTAL'!G5/'EGE TOTAL'!$C$18</f>
-        <v>0.70282364690955745</v>
+        <v>0.70283024961847829</v>
       </c>
       <c r="H5" s="3">
         <f>'EGE TOTAL'!H5/'EGE TOTAL'!$C$18</f>
-        <v>0.7050535842633473</v>
+        <v>0.70507007313787717</v>
       </c>
       <c r="I5" s="8">
         <f>'EGE TOTAL'!I5/'EGE TOTAL'!$C$18</f>
-        <v>0.72837908365768866</v>
+        <v>0.72832442037653078</v>
       </c>
       <c r="J5" s="3">
         <f>'EGE TOTAL'!J5/'EGE TOTAL'!$C$18</f>
-        <v>0.70695014528201894</v>
+        <v>0.70696086688798265</v>
       </c>
       <c r="K5" s="3">
         <f>'EGE TOTAL'!K5/'EGE TOTAL'!$C$18</f>
-        <v>0.71945063693497235</v>
+        <v>0.71939055640967764</v>
       </c>
       <c r="L5" s="3">
         <f>'EGE TOTAL'!L5/'EGE TOTAL'!$C$18</f>
-        <v>0.72482561209642238</v>
+        <v>0.72475492425633325</v>
       </c>
       <c r="M5" s="3">
         <f>'EGE TOTAL'!M5/'EGE TOTAL'!$C$18</f>
-        <v>0.70338955816205651</v>
+        <v>0.70340996181565885</v>
       </c>
       <c r="N5" s="3">
         <f>'EGE TOTAL'!N5/'EGE TOTAL'!$C$18</f>
-        <v>0.7032903675410962</v>
+        <v>0.70331114325905619</v>
       </c>
       <c r="O5" s="3">
         <f>'EGE TOTAL'!O5/'EGE TOTAL'!$C$18</f>
-        <v>0.72102555727611417</v>
+        <v>0.72088083094387245</v>
       </c>
       <c r="P5" s="3">
         <f>'EGE TOTAL'!P5/'EGE TOTAL'!$C$18</f>
-        <v>0.72639027278717649</v>
+        <v>0.7263186896738546</v>
       </c>
       <c r="Q5" s="3">
         <f>'EGE TOTAL'!Q5/'EGE TOTAL'!$C$18</f>
-        <v>0.71633557221118371</v>
+        <v>0.71631729831291568</v>
       </c>
       <c r="R5" s="3">
         <f>'EGE TOTAL'!R5/'EGE TOTAL'!$C$18</f>
-        <v>0.72895857927252405</v>
+        <v>0.72888095069971381</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -9445,67 +9430,67 @@
       </c>
       <c r="C6" s="3">
         <f>'EGE TOTAL'!C6/'EGE TOTAL'!$C$18</f>
-        <v>2.8431585033493457E-2</v>
+        <v>2.8431245688842716E-2</v>
       </c>
       <c r="D6" s="3">
         <f>'EGE TOTAL'!D6/'EGE TOTAL'!$C$18</f>
-        <v>2.345855794700287E-2</v>
+        <v>2.3458548730796499E-2</v>
       </c>
       <c r="E6" s="3">
         <f>'EGE TOTAL'!E6/'EGE TOTAL'!$C$18</f>
-        <v>2.9031712759341907E-2</v>
+        <v>2.9032172725621669E-2</v>
       </c>
       <c r="F6" s="3">
         <f>'EGE TOTAL'!F6/'EGE TOTAL'!$C$18</f>
-        <v>2.4335009590117397E-2</v>
+        <v>2.4334651965937239E-2</v>
       </c>
       <c r="G6" s="3">
         <f>'EGE TOTAL'!G6/'EGE TOTAL'!$C$18</f>
-        <v>3.181567925592331E-2</v>
+        <v>3.1816183494573581E-2</v>
       </c>
       <c r="H6" s="3">
         <f>'EGE TOTAL'!H6/'EGE TOTAL'!$C$18</f>
-        <v>2.9164099956019814E-2</v>
+        <v>2.9164933229156632E-2</v>
       </c>
       <c r="I6" s="3">
         <f>'EGE TOTAL'!I6/'EGE TOTAL'!$C$18</f>
-        <v>2.6047800987487706E-2</v>
+        <v>2.6047078305558486E-2</v>
       </c>
       <c r="J6" s="3">
         <f>'EGE TOTAL'!J6/'EGE TOTAL'!$C$18</f>
-        <v>2.9138514456810281E-2</v>
+        <v>2.9139139632274269E-2</v>
       </c>
       <c r="K6" s="3">
         <f>'EGE TOTAL'!K6/'EGE TOTAL'!$C$18</f>
-        <v>2.5238616207847436E-2</v>
+        <v>2.523801521416591E-2</v>
       </c>
       <c r="L6" s="3">
         <f>'EGE TOTAL'!L6/'EGE TOTAL'!$C$18</f>
-        <v>2.4424158685061131E-2</v>
+        <v>2.4423496665573408E-2</v>
       </c>
       <c r="M6" s="3">
         <f>'EGE TOTAL'!M6/'EGE TOTAL'!$C$18</f>
-        <v>2.9264891042671111E-2</v>
+        <v>2.9265855772552037E-2</v>
       </c>
       <c r="N6" s="3">
         <f>'EGE TOTAL'!N6/'EGE TOTAL'!$C$18</f>
-        <v>2.9263215867924245E-2</v>
+        <v>2.9264193249644063E-2</v>
       </c>
       <c r="O6" s="3">
         <f>'EGE TOTAL'!O6/'EGE TOTAL'!$C$18</f>
-        <v>2.5107888673210375E-2</v>
+        <v>2.5104934572440368E-2</v>
       </c>
       <c r="P6" s="3">
         <f>'EGE TOTAL'!P6/'EGE TOTAL'!$C$18</f>
-        <v>2.4123607593080468E-2</v>
+        <v>2.4122985108683839E-2</v>
       </c>
       <c r="Q6" s="3">
         <f>'EGE TOTAL'!Q6/'EGE TOTAL'!$C$18</f>
-        <v>2.8471791341817914E-2</v>
+        <v>2.8471533793446441E-2</v>
       </c>
       <c r="R6" s="3">
         <f>'EGE TOTAL'!R6/'EGE TOTAL'!$C$18</f>
-        <v>2.5313338606255419E-2</v>
+        <v>2.5312293359443763E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -9517,67 +9502,67 @@
       </c>
       <c r="C7" s="3">
         <f>'EGE TOTAL'!C7/'EGE TOTAL'!$C$18</f>
-        <v>1.3518418921451333E-3</v>
+        <v>1.3518984405793849E-3</v>
       </c>
       <c r="D7" s="3">
         <f>'EGE TOTAL'!D7/'EGE TOTAL'!$C$18</f>
-        <v>1.6136244218134398E-3</v>
+        <v>1.6136545762345633E-3</v>
       </c>
       <c r="E7" s="3">
         <f>'EGE TOTAL'!E7/'EGE TOTAL'!$C$18</f>
-        <v>1.2790780079362917E-3</v>
+        <v>1.2791782154468205E-3</v>
       </c>
       <c r="F7" s="3">
         <f>'EGE TOTAL'!F7/'EGE TOTAL'!$C$18</f>
-        <v>1.5892217716146748E-3</v>
+        <v>1.5892342046907111E-3</v>
       </c>
       <c r="G7" s="3">
         <f>'EGE TOTAL'!G7/'EGE TOTAL'!$C$18</f>
-        <v>1.3775311141179594E-3</v>
+        <v>1.3777001649822715E-3</v>
       </c>
       <c r="H7" s="3">
         <f>'EGE TOTAL'!H7/'EGE TOTAL'!$C$18</f>
-        <v>1.2503252125361296E-3</v>
+        <v>1.2504419965545632E-3</v>
       </c>
       <c r="I7" s="3">
         <f>'EGE TOTAL'!I7/'EGE TOTAL'!$C$18</f>
-        <v>1.5260845573695392E-3</v>
+        <v>1.5260994866137204E-3</v>
       </c>
       <c r="J7" s="3">
         <f>'EGE TOTAL'!J7/'EGE TOTAL'!$C$18</f>
-        <v>1.2669693485985922E-3</v>
+        <v>1.2670778450215696E-3</v>
       </c>
       <c r="K7" s="3">
         <f>'EGE TOTAL'!K7/'EGE TOTAL'!$C$18</f>
-        <v>1.52721687982246E-3</v>
+        <v>1.5272137420501289E-3</v>
       </c>
       <c r="L7" s="3">
         <f>'EGE TOTAL'!L7/'EGE TOTAL'!$C$18</f>
-        <v>1.6131202071444769E-3</v>
+        <v>1.613115334618476E-3</v>
       </c>
       <c r="M7" s="3">
         <f>'EGE TOTAL'!M7/'EGE TOTAL'!$C$18</f>
-        <v>1.2387808246936121E-3</v>
+        <v>1.2389035385051623E-3</v>
       </c>
       <c r="N7" s="3">
         <f>'EGE TOTAL'!N7/'EGE TOTAL'!$C$18</f>
-        <v>1.2379889818670618E-3</v>
+        <v>1.2381121719325569E-3</v>
       </c>
       <c r="O7" s="3">
         <f>'EGE TOTAL'!O7/'EGE TOTAL'!$C$18</f>
-        <v>1.7010499391691878E-3</v>
+        <v>1.700879548534501E-3</v>
       </c>
       <c r="P7" s="3">
         <f>'EGE TOTAL'!P7/'EGE TOTAL'!$C$18</f>
-        <v>1.6361465408755616E-3</v>
+        <v>1.6361471822464555E-3</v>
       </c>
       <c r="Q7" s="3">
         <f>'EGE TOTAL'!Q7/'EGE TOTAL'!$C$18</f>
-        <v>1.3436637377054568E-3</v>
+        <v>1.3437254010114849E-3</v>
       </c>
       <c r="R7" s="3">
         <f>'EGE TOTAL'!R7/'EGE TOTAL'!$C$18</f>
-        <v>1.6147308186735493E-3</v>
+        <v>1.6147136066513891E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -9589,67 +9574,67 @@
       </c>
       <c r="C8" s="3">
         <f>'EGE TOTAL'!C8/'EGE TOTAL'!$C$18</f>
-        <v>3.6870278177572285E-3</v>
+        <v>3.6889033921308069E-3</v>
       </c>
       <c r="D8" s="3">
         <f>'EGE TOTAL'!D8/'EGE TOTAL'!$C$18</f>
-        <v>3.0940103035732168E-3</v>
+        <v>3.0951812380618144E-3</v>
       </c>
       <c r="E8" s="3">
         <f>'EGE TOTAL'!E8/'EGE TOTAL'!$C$18</f>
-        <v>3.736036987068374E-3</v>
+        <v>3.7381469377179449E-3</v>
       </c>
       <c r="F8" s="3">
         <f>'EGE TOTAL'!F8/'EGE TOTAL'!$C$18</f>
-        <v>3.1869075716162592E-3</v>
+        <v>3.1881284171567355E-3</v>
       </c>
       <c r="G8" s="3">
         <f>'EGE TOTAL'!G8/'EGE TOTAL'!$C$18</f>
-        <v>4.1322538513851445E-3</v>
+        <v>4.1360329440978134E-3</v>
       </c>
       <c r="H8" s="3">
         <f>'EGE TOTAL'!H8/'EGE TOTAL'!$C$18</f>
-        <v>3.7448921651611119E-3</v>
+        <v>3.747067252553314E-3</v>
       </c>
       <c r="I8" s="3">
         <f>'EGE TOTAL'!I8/'EGE TOTAL'!$C$18</f>
-        <v>3.450871641739444E-3</v>
+        <v>3.452469429040224E-3</v>
       </c>
       <c r="J8" s="3">
         <f>'EGE TOTAL'!J8/'EGE TOTAL'!$C$18</f>
-        <v>3.7459947786747491E-3</v>
+        <v>3.7481541216870732E-3</v>
       </c>
       <c r="K8" s="3">
         <f>'EGE TOTAL'!K8/'EGE TOTAL'!$C$18</f>
-        <v>3.2301289273004969E-3</v>
+        <v>3.231232274573025E-3</v>
       </c>
       <c r="L8" s="3">
         <f>'EGE TOTAL'!L8/'EGE TOTAL'!$C$18</f>
-        <v>3.2086883150613671E-3</v>
+        <v>3.2099303024555204E-3</v>
       </c>
       <c r="M8" s="3">
         <f>'EGE TOTAL'!M8/'EGE TOTAL'!$C$18</f>
-        <v>3.7513347041088596E-3</v>
+        <v>3.7535387839911132E-3</v>
       </c>
       <c r="N8" s="3">
         <f>'EGE TOTAL'!N8/'EGE TOTAL'!$C$18</f>
-        <v>3.7507991805649878E-3</v>
+        <v>3.7530035258292785E-3</v>
       </c>
       <c r="O8" s="3">
         <f>'EGE TOTAL'!O8/'EGE TOTAL'!$C$18</f>
-        <v>3.2777244238383491E-3</v>
+        <v>3.2783511042210659E-3</v>
       </c>
       <c r="P8" s="3">
         <f>'EGE TOTAL'!P8/'EGE TOTAL'!$C$18</f>
-        <v>3.2208655704105342E-3</v>
+        <v>3.2222104942903184E-3</v>
       </c>
       <c r="Q8" s="3">
         <f>'EGE TOTAL'!Q8/'EGE TOTAL'!$C$18</f>
-        <v>3.6891442220773922E-3</v>
+        <v>3.6910572944128758E-3</v>
       </c>
       <c r="R8" s="3">
         <f>'EGE TOTAL'!R8/'EGE TOTAL'!$C$18</f>
-        <v>3.3501571686315305E-3</v>
+        <v>3.3515794566768785E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -9661,67 +9646,67 @@
       </c>
       <c r="C9" s="3">
         <f>'EGE TOTAL'!C9/'EGE TOTAL'!$C$18</f>
-        <v>7.306356158597177E-2</v>
+        <v>7.3063647729177159E-2</v>
       </c>
       <c r="D9" s="3">
         <f>'EGE TOTAL'!D9/'EGE TOTAL'!$C$18</f>
-        <v>1.8101052744877291E-5</v>
+        <v>1.8101195555639382E-5</v>
       </c>
       <c r="E9" s="3">
         <f>'EGE TOTAL'!E9/'EGE TOTAL'!$C$18</f>
-        <v>0.10017665043730289</v>
+        <v>0.10017902718768006</v>
       </c>
       <c r="F9" s="3">
         <f>'EGE TOTAL'!F9/'EGE TOTAL'!$C$18</f>
-        <v>4.9540001330570865E-4</v>
+        <v>4.9539727996151574E-4</v>
       </c>
       <c r="G9" s="3">
         <f>'EGE TOTAL'!G9/'EGE TOTAL'!$C$18</f>
-        <v>0.1089266334275521</v>
+        <v>0.108928959025944</v>
       </c>
       <c r="H9" s="3">
         <f>'EGE TOTAL'!H9/'EGE TOTAL'!$C$18</f>
-        <v>0.11219078104854646</v>
+        <v>0.11219458185890543</v>
       </c>
       <c r="I9" s="3">
         <f>'EGE TOTAL'!I9/'EGE TOTAL'!$C$18</f>
-        <v>2.132792464349819E-2</v>
+        <v>2.1327653926694865E-2</v>
       </c>
       <c r="J9" s="3">
         <f>'EGE TOTAL'!J9/'EGE TOTAL'!$C$18</f>
-        <v>0.10582462048306103</v>
+        <v>0.10582760143181671</v>
       </c>
       <c r="K9" s="3">
         <f>'EGE TOTAL'!K9/'EGE TOTAL'!$C$18</f>
-        <v>2.5608942435395208E-4</v>
+        <v>2.5608567112897718E-4</v>
       </c>
       <c r="L9" s="3">
         <f>'EGE TOTAL'!L9/'EGE TOTAL'!$C$18</f>
-        <v>4.4359720212583663E-4</v>
+        <v>4.4358946480145447E-4</v>
       </c>
       <c r="M9" s="3">
         <f>'EGE TOTAL'!M9/'EGE TOTAL'!$C$18</f>
-        <v>0.11748136824029173</v>
+        <v>0.11748573690370258</v>
       </c>
       <c r="N9" s="3">
         <f>'EGE TOTAL'!N9/'EGE TOTAL'!$C$18</f>
-        <v>0.11795510309477719</v>
+        <v>0.11795953369964857</v>
       </c>
       <c r="O9" s="3">
         <f>'EGE TOTAL'!O9/'EGE TOTAL'!$C$18</f>
-        <v>6.6276633941444324E-4</v>
+        <v>6.6269613563010356E-4</v>
       </c>
       <c r="P9" s="3">
         <f>'EGE TOTAL'!P9/'EGE TOTAL'!$C$18</f>
-        <v>1.3673526311387518E-3</v>
+        <v>1.3673319506744329E-3</v>
       </c>
       <c r="Q9" s="3">
         <f>'EGE TOTAL'!Q9/'EGE TOTAL'!$C$18</f>
-        <v>7.1572318481582797E-2</v>
+        <v>7.1572538887410969E-2</v>
       </c>
       <c r="R9" s="3">
         <f>'EGE TOTAL'!R9/'EGE TOTAL'!$C$18</f>
-        <v>5.6161591855277259E-3</v>
+        <v>5.6159972487256418E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -9733,67 +9718,67 @@
       </c>
       <c r="C10" s="3">
         <f>'EGE TOTAL'!C10/'EGE TOTAL'!$C$18</f>
-        <v>1.503764084198577E-3</v>
+        <v>1.5037373324708308E-3</v>
       </c>
       <c r="D10" s="3">
         <f>'EGE TOTAL'!D10/'EGE TOTAL'!$C$18</f>
-        <v>1.4585046864954652E-2</v>
+        <v>1.4584688610248432E-2</v>
       </c>
       <c r="E10" s="3">
         <f>'EGE TOTAL'!E10/'EGE TOTAL'!$C$18</f>
-        <v>4.283846927012757E-4</v>
+        <v>4.2839020549479269E-4</v>
       </c>
       <c r="F10" s="3">
         <f>'EGE TOTAL'!F10/'EGE TOTAL'!$C$18</f>
-        <v>1.0062332423323831E-2</v>
+        <v>1.0061958616059161E-2</v>
       </c>
       <c r="G10" s="3">
         <f>'EGE TOTAL'!G10/'EGE TOTAL'!$C$18</f>
-        <v>1.6445837532016875E-4</v>
+        <v>1.6446045028596065E-4</v>
       </c>
       <c r="H10" s="3">
         <f>'EGE TOTAL'!H10/'EGE TOTAL'!$C$18</f>
-        <v>1.6279148907073218E-4</v>
+        <v>1.6279575316036586E-4</v>
       </c>
       <c r="I10" s="3">
         <f>'EGE TOTAL'!I10/'EGE TOTAL'!$C$18</f>
-        <v>1.109727139457025E-2</v>
+        <v>1.1096796840933112E-2</v>
       </c>
       <c r="J10" s="3">
         <f>'EGE TOTAL'!J10/'EGE TOTAL'!$C$18</f>
-        <v>2.8405250348510574E-4</v>
+        <v>2.8405784432258363E-4</v>
       </c>
       <c r="K10" s="3">
         <f>'EGE TOTAL'!K10/'EGE TOTAL'!$C$18</f>
-        <v>2.4972489227958823E-3</v>
+        <v>2.497139118224319E-3</v>
       </c>
       <c r="L10" s="3">
         <f>'EGE TOTAL'!L10/'EGE TOTAL'!$C$18</f>
-        <v>1.2077857333643973E-2</v>
+        <v>1.2077258769588093E-2</v>
       </c>
       <c r="M10" s="3">
         <f>'EGE TOTAL'!M10/'EGE TOTAL'!$C$18</f>
-        <v>6.8688025132474258E-5</v>
+        <v>6.8690147389194526E-5</v>
       </c>
       <c r="N10" s="3">
         <f>'EGE TOTAL'!N10/'EGE TOTAL'!$C$18</f>
-        <v>6.5435461967473755E-5</v>
+        <v>6.5437513643318597E-5</v>
       </c>
       <c r="O10" s="3">
         <f>'EGE TOTAL'!O10/'EGE TOTAL'!$C$18</f>
-        <v>3.56908851623785E-3</v>
+        <v>3.5685898337989709E-3</v>
       </c>
       <c r="P10" s="3">
         <f>'EGE TOTAL'!P10/'EGE TOTAL'!$C$18</f>
-        <v>2.0051517980133816E-2</v>
+        <v>2.0050554743586278E-2</v>
       </c>
       <c r="Q10" s="3">
         <f>'EGE TOTAL'!Q10/'EGE TOTAL'!$C$18</f>
-        <v>1.6330489637563213E-3</v>
+        <v>1.6330251195549883E-3</v>
       </c>
       <c r="R10" s="3">
         <f>'EGE TOTAL'!R10/'EGE TOTAL'!$C$18</f>
-        <v>1.1533606985514634E-2</v>
+        <v>1.1532891572623171E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -9805,67 +9790,67 @@
       </c>
       <c r="C11" s="3">
         <f>'EGE TOTAL'!C11/'EGE TOTAL'!$C$18</f>
-        <v>3.5838858856694237E-4</v>
+        <v>3.5845741541116349E-4</v>
       </c>
       <c r="D11" s="3">
         <f>'EGE TOTAL'!D11/'EGE TOTAL'!$C$18</f>
-        <v>5.5813230785708362E-7</v>
+        <v>5.5823275562918892E-7</v>
       </c>
       <c r="E11" s="3">
         <f>'EGE TOTAL'!E11/'EGE TOTAL'!$C$18</f>
-        <v>3.0452846393509163E-5</v>
+        <v>3.0459370397871091E-5</v>
       </c>
       <c r="F11" s="3">
         <f>'EGE TOTAL'!F11/'EGE TOTAL'!$C$18</f>
-        <v>1.3349755586143604E-5</v>
+        <v>1.3351998989439445E-5</v>
       </c>
       <c r="G11" s="3">
         <f>'EGE TOTAL'!G11/'EGE TOTAL'!$C$18</f>
-        <v>1.4832040279466064E-5</v>
+        <v>1.4835202344108091E-5</v>
       </c>
       <c r="H11" s="3">
         <f>'EGE TOTAL'!H11/'EGE TOTAL'!$C$18</f>
-        <v>8.6431883667253736E-6</v>
+        <v>8.6451430163786057E-6</v>
       </c>
       <c r="I11" s="3">
         <f>'EGE TOTAL'!I11/'EGE TOTAL'!$C$18</f>
-        <v>1.5925605744251679E-4</v>
+        <v>1.5928232900005451E-4</v>
       </c>
       <c r="J11" s="3">
         <f>'EGE TOTAL'!J11/'EGE TOTAL'!$C$18</f>
-        <v>2.0106622176363825E-5</v>
+        <v>2.0111037762099641E-5</v>
       </c>
       <c r="K11" s="3">
         <f>'EGE TOTAL'!K11/'EGE TOTAL'!$C$18</f>
-        <v>1.4586237176716203E-6</v>
+        <v>1.4588539994111462E-6</v>
       </c>
       <c r="L11" s="3">
         <f>'EGE TOTAL'!L11/'EGE TOTAL'!$C$18</f>
-        <v>1.2680022465594686E-4</v>
+        <v>1.2682057876453414E-4</v>
       </c>
       <c r="M11" s="3">
         <f>'EGE TOTAL'!M11/'EGE TOTAL'!$C$18</f>
-        <v>8.7876278734372165E-6</v>
+        <v>8.7896581374744197E-6</v>
       </c>
       <c r="N11" s="3">
         <f>'EGE TOTAL'!N11/'EGE TOTAL'!$C$18</f>
-        <v>9.8305766795312719E-6</v>
+        <v>9.8328535211126145E-6</v>
       </c>
       <c r="O11" s="3">
         <f>'EGE TOTAL'!O11/'EGE TOTAL'!$C$18</f>
-        <v>3.4510762530626786E-2</v>
+        <v>3.451684080925066E-2</v>
       </c>
       <c r="P11" s="3">
         <f>'EGE TOTAL'!P11/'EGE TOTAL'!$C$18</f>
-        <v>1.00588634606865E-4</v>
+        <v>1.0060487330463233E-4</v>
       </c>
       <c r="Q11" s="3">
         <f>'EGE TOTAL'!Q11/'EGE TOTAL'!$C$18</f>
-        <v>4.9941004383169637E-5</v>
+        <v>4.995037380081009E-5</v>
       </c>
       <c r="R11" s="3">
         <f>'EGE TOTAL'!R11/'EGE TOTAL'!$C$18</f>
-        <v>1.2809853158781408E-3</v>
+        <v>1.2811931251462711E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -9877,67 +9862,67 @@
       </c>
       <c r="C12" s="3">
         <f>'EGE TOTAL'!C12/'EGE TOTAL'!$C$18</f>
-        <v>7.5814509836034008E-6</v>
+        <v>7.5813003688237372E-6</v>
       </c>
       <c r="D12" s="3">
         <f>'EGE TOTAL'!D12/'EGE TOTAL'!$C$18</f>
-        <v>1.2050273078698297E-7</v>
+        <v>1.2050030601266677E-7</v>
       </c>
       <c r="E12" s="3">
         <f>'EGE TOTAL'!E12/'EGE TOTAL'!$C$18</f>
-        <v>1.3782658512371939E-6</v>
+        <v>1.3782809964108939E-6</v>
       </c>
       <c r="F12" s="3">
         <f>'EGE TOTAL'!F12/'EGE TOTAL'!$C$18</f>
-        <v>1.6843993130383662E-6</v>
+        <v>1.684342305720822E-6</v>
       </c>
       <c r="G12" s="3">
         <f>'EGE TOTAL'!G12/'EGE TOTAL'!$C$18</f>
-        <v>2.4387803350628843E-6</v>
+        <v>2.4388070241950508E-6</v>
       </c>
       <c r="H12" s="3">
         <f>'EGE TOTAL'!H12/'EGE TOTAL'!$C$18</f>
-        <v>7.426696561919466E-7</v>
+        <v>7.42687905376099E-7</v>
       </c>
       <c r="I12" s="3">
         <f>'EGE TOTAL'!I12/'EGE TOTAL'!$C$18</f>
-        <v>1.5716540541548784E-5</v>
+        <v>1.5715867485302177E-5</v>
       </c>
       <c r="J12" s="3">
         <f>'EGE TOTAL'!J12/'EGE TOTAL'!$C$18</f>
-        <v>1.2474594150727391E-6</v>
+        <v>1.2474806565445349E-6</v>
       </c>
       <c r="K12" s="3">
         <f>'EGE TOTAL'!K12/'EGE TOTAL'!$C$18</f>
-        <v>4.4687027102876456E-7</v>
+        <v>4.4685126261882123E-7</v>
       </c>
       <c r="L12" s="3">
         <f>'EGE TOTAL'!L12/'EGE TOTAL'!$C$18</f>
-        <v>4.4929591929187309E-5</v>
+        <v>4.4927507217986733E-5</v>
       </c>
       <c r="M12" s="3">
         <f>'EGE TOTAL'!M12/'EGE TOTAL'!$C$18</f>
-        <v>4.9578072968487257E-7</v>
+        <v>4.9579533681174185E-7</v>
       </c>
       <c r="N12" s="3">
         <f>'EGE TOTAL'!N12/'EGE TOTAL'!$C$18</f>
-        <v>2.538163007368824E-7</v>
+        <v>2.5382390213229093E-7</v>
       </c>
       <c r="O12" s="3">
         <f>'EGE TOTAL'!O12/'EGE TOTAL'!$C$18</f>
-        <v>1.0247233568718464E-5</v>
+        <v>1.024583716205603E-5</v>
       </c>
       <c r="P12" s="3">
         <f>'EGE TOTAL'!P12/'EGE TOTAL'!$C$18</f>
-        <v>2.5503567963154952E-4</v>
+        <v>2.5502405250387545E-4</v>
       </c>
       <c r="Q12" s="3">
         <f>'EGE TOTAL'!Q12/'EGE TOTAL'!$C$18</f>
-        <v>3.6948125987255479E-5</v>
+        <v>3.6947491901367997E-5</v>
       </c>
       <c r="R12" s="3">
         <f>'EGE TOTAL'!R12/'EGE TOTAL'!$C$18</f>
-        <v>2.2035598783947869E-5</v>
+        <v>2.2034289189646513E-5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -9949,67 +9934,67 @@
       </c>
       <c r="C13" s="3">
         <f>'EGE TOTAL'!C13/'EGE TOTAL'!$C$18</f>
-        <v>7.7979141751580976E-3</v>
+        <v>7.798162180337887E-3</v>
       </c>
       <c r="D13" s="3">
         <f>'EGE TOTAL'!D13/'EGE TOTAL'!$C$18</f>
-        <v>2.3310923754822637E-5</v>
+        <v>2.3311279326836632E-5</v>
       </c>
       <c r="E13" s="3">
         <f>'EGE TOTAL'!E13/'EGE TOTAL'!$C$18</f>
-        <v>1.0410821730859636E-2</v>
+        <v>1.0411486770854907E-2</v>
       </c>
       <c r="F13" s="3">
         <f>'EGE TOTAL'!F13/'EGE TOTAL'!$C$18</f>
-        <v>1.3588221720156027E-4</v>
+        <v>1.3588254240968939E-4</v>
       </c>
       <c r="G13" s="3">
         <f>'EGE TOTAL'!G13/'EGE TOTAL'!$C$18</f>
-        <v>1.091102687989213E-2</v>
+        <v>1.0911719617621314E-2</v>
       </c>
       <c r="H13" s="3">
         <f>'EGE TOTAL'!H13/'EGE TOTAL'!$C$18</f>
-        <v>1.1156996422710818E-2</v>
+        <v>1.1157855006977576E-2</v>
       </c>
       <c r="I13" s="3">
         <f>'EGE TOTAL'!I13/'EGE TOTAL'!$C$18</f>
-        <v>2.8042149327717095E-3</v>
+        <v>2.8042244556103252E-3</v>
       </c>
       <c r="J13" s="3">
         <f>'EGE TOTAL'!J13/'EGE TOTAL'!$C$18</f>
-        <v>1.0784007018939367E-2</v>
+        <v>1.0784757330495004E-2</v>
       </c>
       <c r="K13" s="3">
         <f>'EGE TOTAL'!K13/'EGE TOTAL'!$C$18</f>
-        <v>4.9156609342657693E-5</v>
+        <v>4.9156179347649052E-5</v>
       </c>
       <c r="L13" s="3">
         <f>'EGE TOTAL'!L13/'EGE TOTAL'!$C$18</f>
-        <v>3.3596302285178833E-4</v>
+        <v>3.3596109095269309E-4</v>
       </c>
       <c r="M13" s="3">
         <f>'EGE TOTAL'!M13/'EGE TOTAL'!$C$18</f>
-        <v>1.1663483444790566E-2</v>
+        <v>1.1664439244055497E-2</v>
       </c>
       <c r="N13" s="3">
         <f>'EGE TOTAL'!N13/'EGE TOTAL'!$C$18</f>
-        <v>1.1714781327914108E-2</v>
+        <v>1.1715747010877688E-2</v>
       </c>
       <c r="O13" s="3">
         <f>'EGE TOTAL'!O13/'EGE TOTAL'!$C$18</f>
-        <v>2.5289068759621197E-3</v>
+        <v>2.528683277912815E-3</v>
       </c>
       <c r="P13" s="3">
         <f>'EGE TOTAL'!P13/'EGE TOTAL'!$C$18</f>
-        <v>5.8042512359476374E-4</v>
+        <v>5.804239363036809E-4</v>
       </c>
       <c r="Q13" s="3">
         <f>'EGE TOTAL'!Q13/'EGE TOTAL'!$C$18</f>
-        <v>7.6430613704859618E-3</v>
+        <v>7.6433272384004739E-3</v>
       </c>
       <c r="R13" s="3">
         <f>'EGE TOTAL'!R13/'EGE TOTAL'!$C$18</f>
-        <v>1.0970494533902992E-3</v>
+        <v>1.0970309156234435E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -10021,67 +10006,67 @@
       </c>
       <c r="C14" s="3">
         <f>'EGE TOTAL'!C14/'EGE TOTAL'!$C$18</f>
-        <v>4.9934326113727449E-3</v>
+        <v>4.9933178785633251E-3</v>
       </c>
       <c r="D14" s="3">
         <f>'EGE TOTAL'!D14/'EGE TOTAL'!$C$18</f>
-        <v>1.4322888294576223E-5</v>
+        <v>1.432260346300609E-5</v>
       </c>
       <c r="E14" s="3">
         <f>'EGE TOTAL'!E14/'EGE TOTAL'!$C$18</f>
-        <v>6.6654996103717532E-3</v>
+        <v>6.6655439466521069E-3</v>
       </c>
       <c r="F14" s="3">
         <f>'EGE TOTAL'!F14/'EGE TOTAL'!$C$18</f>
-        <v>8.4703461603881602E-5</v>
+        <v>8.4700598962945226E-5</v>
       </c>
       <c r="G14" s="3">
         <f>'EGE TOTAL'!G14/'EGE TOTAL'!$C$18</f>
-        <v>7.0009596325640846E-3</v>
+        <v>7.0010037801124265E-3</v>
       </c>
       <c r="H14" s="3">
         <f>'EGE TOTAL'!H14/'EGE TOTAL'!$C$18</f>
-        <v>7.161994619469988E-3</v>
+        <v>7.1621372099829337E-3</v>
       </c>
       <c r="I14" s="3">
         <f>'EGE TOTAL'!I14/'EGE TOTAL'!$C$18</f>
-        <v>1.7851444465716026E-3</v>
+        <v>1.7850665079972028E-3</v>
       </c>
       <c r="J14" s="3">
         <f>'EGE TOTAL'!J14/'EGE TOTAL'!$C$18</f>
-        <v>6.9196359214643705E-3</v>
+        <v>6.9197226215343723E-3</v>
       </c>
       <c r="K14" s="3">
         <f>'EGE TOTAL'!K14/'EGE TOTAL'!$C$18</f>
-        <v>3.0891319222583764E-5</v>
+        <v>3.0890005216074105E-5</v>
       </c>
       <c r="L14" s="3">
         <f>'EGE TOTAL'!L14/'EGE TOTAL'!$C$18</f>
-        <v>2.064681656538583E-4</v>
+        <v>2.0645868490738105E-4</v>
       </c>
       <c r="M14" s="3">
         <f>'EGE TOTAL'!M14/'EGE TOTAL'!$C$18</f>
-        <v>7.4872405325114143E-3</v>
+        <v>7.4874247138552175E-3</v>
       </c>
       <c r="N14" s="3">
         <f>'EGE TOTAL'!N14/'EGE TOTAL'!$C$18</f>
-        <v>7.5200728520837994E-3</v>
+        <v>7.5202612400741909E-3</v>
       </c>
       <c r="O14" s="3">
         <f>'EGE TOTAL'!O14/'EGE TOTAL'!$C$18</f>
-        <v>1.5965764630638843E-3</v>
+        <v>1.5963585830035014E-3</v>
       </c>
       <c r="P14" s="3">
         <f>'EGE TOTAL'!P14/'EGE TOTAL'!$C$18</f>
-        <v>3.5630451010377096E-4</v>
+        <v>3.5628875540776999E-4</v>
       </c>
       <c r="Q14" s="3">
         <f>'EGE TOTAL'!Q14/'EGE TOTAL'!$C$18</f>
-        <v>4.8930857170306537E-3</v>
+        <v>4.8929879831993263E-3</v>
       </c>
       <c r="R14" s="3">
         <f>'EGE TOTAL'!R14/'EGE TOTAL'!$C$18</f>
-        <v>6.8953676553975087E-4</v>
+        <v>6.8949575186242154E-4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -10093,67 +10078,67 @@
       </c>
       <c r="C15" s="3">
         <f>'EGE TOTAL'!C15/'EGE TOTAL'!$C$18</f>
-        <v>3.8540917734411536E-3</v>
+        <v>3.8540237828689075E-3</v>
       </c>
       <c r="D15" s="3">
         <f>'EGE TOTAL'!D15/'EGE TOTAL'!$C$18</f>
-        <v>7.6448944446190735E-6</v>
+        <v>7.6447358259983635E-6</v>
       </c>
       <c r="E15" s="3">
         <f>'EGE TOTAL'!E15/'EGE TOTAL'!$C$18</f>
-        <v>5.1020304205598877E-3</v>
+        <v>5.1021005166916695E-3</v>
       </c>
       <c r="F15" s="3">
         <f>'EGE TOTAL'!F15/'EGE TOTAL'!$C$18</f>
-        <v>5.3301223420218575E-5</v>
+        <v>5.3299393441343719E-5</v>
       </c>
       <c r="G15" s="3">
         <f>'EGE TOTAL'!G15/'EGE TOTAL'!$C$18</f>
-        <v>5.4821843843592321E-3</v>
+        <v>5.482260828022628E-3</v>
       </c>
       <c r="H15" s="3">
         <f>'EGE TOTAL'!H15/'EGE TOTAL'!$C$18</f>
-        <v>5.6274914213046605E-3</v>
+        <v>5.6276461894730094E-3</v>
       </c>
       <c r="I15" s="3">
         <f>'EGE TOTAL'!I15/'EGE TOTAL'!$C$18</f>
-        <v>1.3294943772550018E-3</v>
+        <v>1.3294382428985676E-3</v>
       </c>
       <c r="J15" s="3">
         <f>'EGE TOTAL'!J15/'EGE TOTAL'!$C$18</f>
-        <v>5.4110566342166939E-3</v>
+        <v>5.4111642878265928E-3</v>
       </c>
       <c r="K15" s="3">
         <f>'EGE TOTAL'!K15/'EGE TOTAL'!$C$18</f>
-        <v>2.1423178204952068E-5</v>
+        <v>2.1422255261095355E-5</v>
       </c>
       <c r="L15" s="3">
         <f>'EGE TOTAL'!L15/'EGE TOTAL'!$C$18</f>
-        <v>1.0700116437305855E-4</v>
+        <v>1.0699620388172E-4</v>
       </c>
       <c r="M15" s="3">
         <f>'EGE TOTAL'!M15/'EGE TOTAL'!$C$18</f>
-        <v>5.8839636997325981E-3</v>
+        <v>5.8841549069425731E-3</v>
       </c>
       <c r="N15" s="3">
         <f>'EGE TOTAL'!N15/'EGE TOTAL'!$C$18</f>
-        <v>5.9091105488718199E-3</v>
+        <v>5.9093053806212143E-3</v>
       </c>
       <c r="O15" s="3">
         <f>'EGE TOTAL'!O15/'EGE TOTAL'!$C$18</f>
-        <v>1.1047765820404896E-3</v>
+        <v>1.1046260674110735E-3</v>
       </c>
       <c r="P15" s="3">
         <f>'EGE TOTAL'!P15/'EGE TOTAL'!$C$18</f>
-        <v>1.8006458959906102E-4</v>
+        <v>1.8005653710338927E-4</v>
       </c>
       <c r="Q15" s="3">
         <f>'EGE TOTAL'!Q15/'EGE TOTAL'!$C$18</f>
-        <v>3.7583149253481887E-3</v>
+        <v>3.7582599939234651E-3</v>
       </c>
       <c r="R15" s="3">
         <f>'EGE TOTAL'!R15/'EGE TOTAL'!$C$18</f>
-        <v>4.6102280855696737E-4</v>
+        <v>4.6099545177159926E-4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -10165,67 +10150,67 @@
       </c>
       <c r="C16" s="3">
         <f>'EGE TOTAL'!C16/'EGE TOTAL'!$C$18</f>
-        <v>2.8366578170117663E-2</v>
+        <v>2.8366152098258809E-2</v>
       </c>
       <c r="D16" s="3">
         <f>'EGE TOTAL'!D16/'EGE TOTAL'!$C$18</f>
-        <v>2.8523956371112078E-2</v>
+        <v>2.852326426837748E-2</v>
       </c>
       <c r="E16" s="3">
         <f>'EGE TOTAL'!E16/'EGE TOTAL'!$C$18</f>
-        <v>2.8506574058349537E-2</v>
+        <v>2.8507045006848329E-2</v>
       </c>
       <c r="F16" s="3">
         <f>'EGE TOTAL'!F16/'EGE TOTAL'!$C$18</f>
-        <v>2.9003351505503889E-2</v>
+        <v>2.9002288358096494E-2</v>
       </c>
       <c r="G16" s="3">
         <f>'EGE TOTAL'!G16/'EGE TOTAL'!$C$18</f>
-        <v>2.8515772814934399E-2</v>
+        <v>2.8516249178562318E-2</v>
       </c>
       <c r="H16" s="3">
         <f>'EGE TOTAL'!H16/'EGE TOTAL'!$C$18</f>
-        <v>2.8650371483347634E-2</v>
+        <v>2.8651237373540406E-2</v>
       </c>
       <c r="I16" s="3">
         <f>'EGE TOTAL'!I16/'EGE TOTAL'!$C$18</f>
-        <v>2.7304187156169092E-2</v>
+        <v>2.7303043575278081E-2</v>
       </c>
       <c r="J16" s="3">
         <f>'EGE TOTAL'!J16/'EGE TOTAL'!$C$18</f>
-        <v>2.8535344484961218E-2</v>
+        <v>2.8535990165925083E-2</v>
       </c>
       <c r="K16" s="3">
         <f>'EGE TOTAL'!K16/'EGE TOTAL'!$C$18</f>
-        <v>3.1201066657341136E-2</v>
+        <v>3.1199701751250818E-2</v>
       </c>
       <c r="L16" s="3">
         <f>'EGE TOTAL'!L16/'EGE TOTAL'!$C$18</f>
-        <v>2.7643436901663612E-2</v>
+        <v>2.7642078121612165E-2</v>
       </c>
       <c r="M16" s="3">
         <f>'EGE TOTAL'!M16/'EGE TOTAL'!$C$18</f>
-        <v>2.8619951437698795E-2</v>
+        <v>2.8620956664417174E-2</v>
       </c>
       <c r="N16" s="3">
         <f>'EGE TOTAL'!N16/'EGE TOTAL'!$C$18</f>
-        <v>2.8607588607426786E-2</v>
+        <v>2.8608606562195073E-2</v>
       </c>
       <c r="O16" s="3">
         <f>'EGE TOTAL'!O16/'EGE TOTAL'!$C$18</f>
-        <v>2.0212596896744289E-2</v>
+        <v>2.0209768048643779E-2</v>
       </c>
       <c r="P16" s="3">
         <f>'EGE TOTAL'!P16/'EGE TOTAL'!$C$18</f>
-        <v>2.6211989472429285E-2</v>
+        <v>2.6210732995704478E-2</v>
       </c>
       <c r="Q16" s="3">
         <f>'EGE TOTAL'!Q16/'EGE TOTAL'!$C$18</f>
-        <v>2.8521549372466797E-2</v>
+        <v>2.8521213788280597E-2</v>
       </c>
       <c r="R16" s="3">
         <f>'EGE TOTAL'!R16/'EGE TOTAL'!$C$18</f>
-        <v>2.654695985089037E-2</v>
+        <v>2.6545336291746238E-2</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
@@ -10237,67 +10222,67 @@
       </c>
       <c r="C17" s="3">
         <f>'EGE TOTAL'!C17/'EGE TOTAL'!$C$18</f>
-        <v>4.6902547397668796E-2</v>
+        <v>4.690964724991354E-2</v>
       </c>
       <c r="D17" s="3">
         <f>'EGE TOTAL'!D17/'EGE TOTAL'!$C$18</f>
-        <v>5.7044583966547775E-2</v>
+        <v>5.7051075244287999E-2</v>
       </c>
       <c r="E17" s="3">
         <f>'EGE TOTAL'!E17/'EGE TOTAL'!$C$18</f>
-        <v>4.4802849358012625E-2</v>
+        <v>4.4811430677343549E-2</v>
       </c>
       <c r="F17" s="3">
         <f>'EGE TOTAL'!F17/'EGE TOTAL'!$C$18</f>
-        <v>5.7042916963673022E-2</v>
+        <v>5.7048813348067759E-2</v>
       </c>
       <c r="G17" s="3">
         <f>'EGE TOTAL'!G17/'EGE TOTAL'!$C$18</f>
-        <v>4.4230648255590824E-2</v>
+        <v>4.4239253606606008E-2</v>
       </c>
       <c r="H17" s="3">
         <f>'EGE TOTAL'!H17/'EGE TOTAL'!$C$18</f>
-        <v>4.4244039733607236E-2</v>
+        <v>4.4253260138294018E-2</v>
       </c>
       <c r="I17" s="3">
         <f>'EGE TOTAL'!I17/'EGE TOTAL'!$C$18</f>
-        <v>5.0556102808979105E-2</v>
+        <v>5.0561648235059931E-2</v>
       </c>
       <c r="J17" s="3">
         <f>'EGE TOTAL'!J17/'EGE TOTAL'!$C$18</f>
-        <v>4.4477255779620042E-2</v>
+        <v>4.448611053233599E-2</v>
       </c>
       <c r="K17" s="3">
         <f>'EGE TOTAL'!K17/'EGE TOTAL'!$C$18</f>
-        <v>5.9792383722011157E-2</v>
+        <v>5.9798148724725345E-2</v>
       </c>
       <c r="L17" s="3">
         <f>'EGE TOTAL'!L17/'EGE TOTAL'!$C$18</f>
-        <v>5.5649134210159802E-2</v>
+        <v>5.5654043816837785E-2</v>
       </c>
       <c r="M17" s="3">
         <f>'EGE TOTAL'!M17/'EGE TOTAL'!$C$18</f>
-        <v>4.3862991639448415E-2</v>
+        <v>4.3872400020330986E-2</v>
       </c>
       <c r="N17" s="3">
         <f>'EGE TOTAL'!N17/'EGE TOTAL'!$C$18</f>
-        <v>4.3806102284360673E-2</v>
+        <v>4.3815525341423654E-2</v>
       </c>
       <c r="O17" s="3">
         <f>'EGE TOTAL'!O17/'EGE TOTAL'!$C$18</f>
-        <v>4.7550280677693138E-2</v>
+        <v>4.7548704825539592E-2</v>
       </c>
       <c r="P17" s="3">
         <f>'EGE TOTAL'!P17/'EGE TOTAL'!$C$18</f>
-        <v>5.3992040978553743E-2</v>
+        <v>5.3996817157975559E-2</v>
       </c>
       <c r="Q17" s="3">
         <f>'EGE TOTAL'!Q17/'EGE TOTAL'!$C$18</f>
-        <v>4.722185051952419E-2</v>
+        <v>4.7229158646089564E-2</v>
       </c>
       <c r="R17" s="3">
         <f>'EGE TOTAL'!R17/'EGE TOTAL'!$C$18</f>
-        <v>5.2630919506062024E-2</v>
+        <v>5.2635089604772783E-2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
@@ -10322,133 +10307,133 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C19" s="4">
         <f>SUM(C5,C3)</f>
-        <v>0.76936330376718387</v>
+        <v>0.76934934116438813</v>
       </c>
       <c r="D19" s="6">
         <f>SUM(D5,D3)</f>
-        <v>0.78886085949628737</v>
+        <v>0.78881156389979135</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ref="E19:R19" si="0">SUM(E5,E3)</f>
-        <v>0.75863976094415542</v>
+        <v>0.75865408514224597</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78897696909732795</v>
+        <v>0.78892086653342375</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75192740526812263</v>
+        <v>0.75194252941322948</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75422286967992791</v>
+        <v>0.75424858406888229</v>
       </c>
       <c r="I19" s="6">
         <f>SUM(I5,I3)</f>
-        <v>0.7868288778662913</v>
+        <v>0.78677851855043823</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75643959201668043</v>
+        <v>0.75645910687601248</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78593131605774469</v>
+        <v>0.78587496349509733</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78888622441009748</v>
+        <v>0.78881844702543891</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>0.7520871628357173</v>
+        <v>0.75211702180532269</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75194077227500666</v>
+        <v>0.75197102316718478</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="0"/>
-        <v>0.77795349638662481</v>
+        <v>0.77780308219749994</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>0.78901846891779526</v>
+        <v>0.78894982138732628</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="0"/>
-        <v>0.76893772601185884</v>
+        <v>0.76892628751313141</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="0"/>
-        <v>0.79030105164874842</v>
+        <v>0.79022558281473698</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C20" s="6">
         <f>SUM(C5,C9)</f>
-        <v>0.78972421116157254</v>
+        <v>0.78970375983128149</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:R20" si="1">SUM(D5,D9)</f>
-        <v>0.72244297213558095</v>
+        <v>0.72238895464944619</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>0.80890050919919587</v>
+        <v>0.80890874912901833</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72392665204480899</v>
+        <v>0.72386651422573867</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
-        <v>0.8117502803371095</v>
+        <v>0.8117592086444223</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>0.81724436531189371</v>
+        <v>0.81726465499678258</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="1"/>
-        <v>0.74970700830118686</v>
+        <v>0.74965207430322567</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>0.81277476576508001</v>
+        <v>0.81278846831979934</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>0.71970672635932631</v>
+        <v>0.71964664208080664</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72526920929854821</v>
+        <v>0.72519851372113475</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="1"/>
-        <v>0.82087092640234827</v>
+        <v>0.82089569871936141</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="1"/>
-        <v>0.82124547063587339</v>
+        <v>0.82127067695870482</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72168832361552859</v>
+        <v>0.72154352707950253</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>0.72775762541831523</v>
+        <v>0.727686021624529</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>0.78790789069276657</v>
+        <v>0.78788983720032668</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="1"/>
-        <v>0.73457473845805177</v>
+        <v>0.73449694794843945</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
